--- a/resources/test_data/Lead_Creation.xlsx
+++ b/resources/test_data/Lead_Creation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\New_automation_\web-automation-framework\resources\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D072F4E-C068-4700-ABF6-CBC5F7EE9EAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{605963C4-83E9-4084-B683-52CD47D1C10A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="64">
   <si>
     <t>username</t>
   </si>
@@ -152,9 +152,6 @@
     <t>DateOfBirth</t>
   </si>
   <si>
-    <t>14-12-1999</t>
-  </si>
-  <si>
     <t>MaritalStatus</t>
   </si>
   <si>
@@ -171,13 +168,76 @@
   </si>
   <si>
     <t>akhil@1234.kiya</t>
+  </si>
+  <si>
+    <t>25-12-2001</t>
+  </si>
+  <si>
+    <t>PropertyOwnership</t>
+  </si>
+  <si>
+    <t>addressLine1</t>
+  </si>
+  <si>
+    <t>Phoolpur</t>
+  </si>
+  <si>
+    <t>flat</t>
+  </si>
+  <si>
+    <t>C204</t>
+  </si>
+  <si>
+    <t>avenue</t>
+  </si>
+  <si>
+    <t>Shanicha Bazar</t>
+  </si>
+  <si>
+    <t>1252</t>
+  </si>
+  <si>
+    <t>Block</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>City_Area</t>
+  </si>
+  <si>
+    <t>NAG</t>
+  </si>
+  <si>
+    <t>building</t>
+  </si>
+  <si>
+    <t>Ami Jharn</t>
+  </si>
+  <si>
+    <t>issueDate</t>
+  </si>
+  <si>
+    <t>expiryDate</t>
+  </si>
+  <si>
+    <t>25-11-2024</t>
+  </si>
+  <si>
+    <t>25-12-2026</t>
+  </si>
+  <si>
+    <t>renewalUnderProcess</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-14009]dd/mm/yyyy;@"/>
+  </numFmts>
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -226,6 +286,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF1D1A20"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="4">
@@ -285,7 +351,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -312,12 +378,228 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="27">
+  <dxfs count="38">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -782,34 +1064,45 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DC87E5BE-26EC-4DBC-8565-103061C7F3D4}" name="Table2" displayName="Table2" ref="D1:AB5" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
-  <autoFilter ref="D1:AB5" xr:uid="{DC87E5BE-26EC-4DBC-8565-103061C7F3D4}"/>
-  <tableColumns count="25">
-    <tableColumn id="1" xr3:uid="{F63B5B5B-75EF-415D-9D47-65053D6DF43A}" name="IDNumber" dataDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{00DFF19F-9E5D-44BD-B746-C5D10556D9C8}" name="CustomerType" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{16007208-EDF9-4E5D-AAA6-7F837DDD8C78}" name="FirstName" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{EBB0D839-0B51-4805-BD0B-AAB83E639E7A}" name="SecondName" dataDxfId="21"/>
-    <tableColumn id="6" xr3:uid="{07BF2CBA-E818-4808-9F87-9C6E9B8E27EB}" name="FamilyName" dataDxfId="20"/>
-    <tableColumn id="7" xr3:uid="{2E161694-E056-49B2-B02C-18609B166288}" name="MobileNumber" dataDxfId="19"/>
-    <tableColumn id="8" xr3:uid="{833F8941-B4C0-4E9B-89CA-6ACBE1BBC919}" name="Product" dataDxfId="18"/>
-    <tableColumn id="9" xr3:uid="{6AB217CA-8575-47C6-8323-49DBB8179C87}" name="SubProduct" dataDxfId="17"/>
-    <tableColumn id="10" xr3:uid="{B427C861-36D2-4A49-8916-781C22F94FF4}" name="SchemeType" dataDxfId="16"/>
-    <tableColumn id="11" xr3:uid="{BC30846C-2EA9-4DD7-B7FD-8EFA2281FD70}" name="Branch" dataDxfId="15"/>
-    <tableColumn id="12" xr3:uid="{7521EBC7-8105-4B20-B089-0355970E2900}" name="addressType" dataDxfId="14"/>
-    <tableColumn id="13" xr3:uid="{A68B51A1-92D8-490D-8098-B759DD9581A1}" name="addressTypeValue" dataDxfId="13"/>
-    <tableColumn id="14" xr3:uid="{F19CF168-BC8D-46DE-ACA0-71EDB250DFFF}" name="activeInActive" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{CA80F8FF-FC63-4AD4-9D64-0F817F3CD198}" name="ApplicantType" dataDxfId="11"/>
-    <tableColumn id="15" xr3:uid="{A95550BC-D33C-4168-9C34-660D7631DE85}" name="email" dataDxfId="10"/>
-    <tableColumn id="16" xr3:uid="{3183446F-0B43-4115-A526-CA96A24A5A0C}" name="SourceOfIncome" dataDxfId="9"/>
-    <tableColumn id="17" xr3:uid="{1673EE05-9F0D-4EB3-B6D6-DC08105325A2}" name="Title" dataDxfId="8"/>
-    <tableColumn id="18" xr3:uid="{683CA39D-EC12-4489-A45A-69A9DEBD4155}" name="Nationality" dataDxfId="7"/>
-    <tableColumn id="20" xr3:uid="{BBFDDC0F-FDD1-46F8-B248-DF40C724613D}" name="countryOfJurisdiction" dataDxfId="6"/>
-    <tableColumn id="21" xr3:uid="{2983BFC1-1906-4319-9DF0-B77011DD7DEA}" name="EducationLevel" dataDxfId="5"/>
-    <tableColumn id="22" xr3:uid="{986D7F90-6FF6-41A5-A619-2D271BE00764}" name="DateOfBirth" dataDxfId="4"/>
-    <tableColumn id="23" xr3:uid="{8EF037E0-977A-443D-A870-A027ABFB319E}" name="MaritalStatus" dataDxfId="3"/>
-    <tableColumn id="24" xr3:uid="{A2FF1F1E-5655-44BF-886D-A1CDF65B5A95}" name="NoOfDependents" dataDxfId="2"/>
-    <tableColumn id="25" xr3:uid="{56E2E3BE-8A9C-4AE9-94D4-966966AE8106}" name="ReturnedCheques" dataDxfId="1"/>
-    <tableColumn id="26" xr3:uid="{E193FD7F-57D4-4112-85E2-6D86AEEE2D77}" name="ChequeAbuserList" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DC87E5BE-26EC-4DBC-8565-103061C7F3D4}" name="Table2" displayName="Table2" ref="D1:AM5" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36">
+  <autoFilter ref="D1:AM5" xr:uid="{DC87E5BE-26EC-4DBC-8565-103061C7F3D4}"/>
+  <tableColumns count="36">
+    <tableColumn id="1" xr3:uid="{F63B5B5B-75EF-415D-9D47-65053D6DF43A}" name="IDNumber" dataDxfId="35"/>
+    <tableColumn id="2" xr3:uid="{00DFF19F-9E5D-44BD-B746-C5D10556D9C8}" name="CustomerType" dataDxfId="34"/>
+    <tableColumn id="4" xr3:uid="{16007208-EDF9-4E5D-AAA6-7F837DDD8C78}" name="FirstName" dataDxfId="33"/>
+    <tableColumn id="5" xr3:uid="{EBB0D839-0B51-4805-BD0B-AAB83E639E7A}" name="SecondName" dataDxfId="32"/>
+    <tableColumn id="6" xr3:uid="{07BF2CBA-E818-4808-9F87-9C6E9B8E27EB}" name="FamilyName" dataDxfId="31"/>
+    <tableColumn id="7" xr3:uid="{2E161694-E056-49B2-B02C-18609B166288}" name="MobileNumber" dataDxfId="30"/>
+    <tableColumn id="8" xr3:uid="{833F8941-B4C0-4E9B-89CA-6ACBE1BBC919}" name="Product" dataDxfId="29"/>
+    <tableColumn id="9" xr3:uid="{6AB217CA-8575-47C6-8323-49DBB8179C87}" name="SubProduct" dataDxfId="28"/>
+    <tableColumn id="10" xr3:uid="{B427C861-36D2-4A49-8916-781C22F94FF4}" name="SchemeType" dataDxfId="27"/>
+    <tableColumn id="11" xr3:uid="{BC30846C-2EA9-4DD7-B7FD-8EFA2281FD70}" name="Branch" dataDxfId="26"/>
+    <tableColumn id="12" xr3:uid="{7521EBC7-8105-4B20-B089-0355970E2900}" name="addressType" dataDxfId="25"/>
+    <tableColumn id="13" xr3:uid="{A68B51A1-92D8-490D-8098-B759DD9581A1}" name="addressTypeValue" dataDxfId="24"/>
+    <tableColumn id="14" xr3:uid="{F19CF168-BC8D-46DE-ACA0-71EDB250DFFF}" name="activeInActive" dataDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{CA80F8FF-FC63-4AD4-9D64-0F817F3CD198}" name="ApplicantType" dataDxfId="22"/>
+    <tableColumn id="15" xr3:uid="{A95550BC-D33C-4168-9C34-660D7631DE85}" name="email" dataDxfId="21"/>
+    <tableColumn id="16" xr3:uid="{3183446F-0B43-4115-A526-CA96A24A5A0C}" name="SourceOfIncome" dataDxfId="20"/>
+    <tableColumn id="17" xr3:uid="{1673EE05-9F0D-4EB3-B6D6-DC08105325A2}" name="Title" dataDxfId="19"/>
+    <tableColumn id="18" xr3:uid="{683CA39D-EC12-4489-A45A-69A9DEBD4155}" name="Nationality" dataDxfId="18"/>
+    <tableColumn id="20" xr3:uid="{BBFDDC0F-FDD1-46F8-B248-DF40C724613D}" name="countryOfJurisdiction" dataDxfId="17"/>
+    <tableColumn id="21" xr3:uid="{2983BFC1-1906-4319-9DF0-B77011DD7DEA}" name="EducationLevel" dataDxfId="16"/>
+    <tableColumn id="22" xr3:uid="{986D7F90-6FF6-41A5-A619-2D271BE00764}" name="DateOfBirth" dataDxfId="15"/>
+    <tableColumn id="23" xr3:uid="{8EF037E0-977A-443D-A870-A027ABFB319E}" name="MaritalStatus" dataDxfId="14"/>
+    <tableColumn id="24" xr3:uid="{A2FF1F1E-5655-44BF-886D-A1CDF65B5A95}" name="NoOfDependents" dataDxfId="13"/>
+    <tableColumn id="25" xr3:uid="{56E2E3BE-8A9C-4AE9-94D4-966966AE8106}" name="ReturnedCheques" dataDxfId="12"/>
+    <tableColumn id="26" xr3:uid="{E193FD7F-57D4-4112-85E2-6D86AEEE2D77}" name="ChequeAbuserList" dataDxfId="11"/>
+    <tableColumn id="27" xr3:uid="{15E73E8B-3789-4FC5-959A-FEB1D9247868}" name="PropertyOwnership" dataDxfId="10"/>
+    <tableColumn id="28" xr3:uid="{6B956D5B-906C-4326-8C82-4DA36E1F5615}" name="addressLine1" dataDxfId="9"/>
+    <tableColumn id="34" xr3:uid="{007FE1DB-033B-4516-B370-A1624B351561}" name="building" dataDxfId="8"/>
+    <tableColumn id="29" xr3:uid="{2E8258A9-21F2-49E6-A32C-A2461F6F0D34}" name="flat" dataDxfId="7"/>
+    <tableColumn id="30" xr3:uid="{4B02ADB7-BF07-4814-B8AA-5139B871F77F}" name="avenue" dataDxfId="6"/>
+    <tableColumn id="31" xr3:uid="{3FDD9253-AB6B-4FD1-876D-578DA73C5B56}" name="Block" dataDxfId="5"/>
+    <tableColumn id="32" xr3:uid="{BA71D7A1-AD3D-40A5-ADFB-7F9EBCE6C2C6}" name="Country" dataDxfId="4"/>
+    <tableColumn id="33" xr3:uid="{6515130A-EC40-4F7C-AA54-1ADD52D50D5E}" name="City_Area" dataDxfId="3"/>
+    <tableColumn id="19" xr3:uid="{4D649DD4-69B1-40FF-8591-BC8ABD1B6012}" name="issueDate" dataDxfId="2"/>
+    <tableColumn id="35" xr3:uid="{A40DD074-5F3C-4816-B828-7A321AE246E1}" name="expiryDate" dataDxfId="1"/>
+    <tableColumn id="36" xr3:uid="{34620B96-0561-451C-9DBE-C0899F72320A}" name="renewalUnderProcess" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1080,8 +1373,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AP8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="AM1" sqref="AM1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1099,6 +1392,7 @@
     <col min="15" max="15" width="21.85546875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="16" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:42" ht="30">
@@ -1175,16 +1469,49 @@
         <v>37</v>
       </c>
       <c r="Y1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AB1" s="2" t="s">
-        <v>42</v>
+      <c r="AC1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM1" s="2" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:42" ht="45">
@@ -1225,14 +1552,16 @@
       <c r="M2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="N2" s="5"/>
+      <c r="N2" s="7" t="s">
+        <v>7</v>
+      </c>
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
       <c r="Q2" s="5" t="s">
         <v>7</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S2" s="5" t="s">
         <v>29</v>
@@ -1249,8 +1578,8 @@
       <c r="W2" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="X2" s="5" t="s">
-        <v>38</v>
+      <c r="X2" s="10" t="s">
+        <v>44</v>
       </c>
       <c r="Y2" s="5" t="s">
         <v>7</v>
@@ -1262,19 +1591,41 @@
         <v>7</v>
       </c>
       <c r="AB2" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC2" s="5"/>
-      <c r="AD2" s="5"/>
-      <c r="AE2" s="5"/>
-      <c r="AF2" s="5"/>
-      <c r="AG2" s="5"/>
-      <c r="AH2" s="5"/>
-      <c r="AI2" s="5"/>
-      <c r="AJ2" s="5"/>
-      <c r="AK2" s="5"/>
-      <c r="AL2" s="5"/>
-      <c r="AM2" s="5"/>
+        <v>42</v>
+      </c>
+      <c r="AC2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD2" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE2" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF2" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG2" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="AH2" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI2" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ2" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK2" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL2" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM2" s="8" t="s">
+        <v>42</v>
+      </c>
       <c r="AN2" s="5"/>
       <c r="AO2" s="5"/>
       <c r="AP2" s="5"/>
@@ -1310,6 +1661,17 @@
       <c r="Z3" s="2"/>
       <c r="AA3" s="2"/>
       <c r="AB3" s="2"/>
+      <c r="AC3" s="2"/>
+      <c r="AD3" s="2"/>
+      <c r="AE3" s="2"/>
+      <c r="AF3" s="2"/>
+      <c r="AG3" s="2"/>
+      <c r="AH3" s="2"/>
+      <c r="AI3" s="2"/>
+      <c r="AJ3" s="2"/>
+      <c r="AK3" s="2"/>
+      <c r="AL3" s="2"/>
+      <c r="AM3" s="2"/>
     </row>
     <row r="4" spans="1:42">
       <c r="A4" s="5"/>
@@ -1342,6 +1704,17 @@
       <c r="Z4" s="2"/>
       <c r="AA4" s="2"/>
       <c r="AB4" s="2"/>
+      <c r="AC4" s="2"/>
+      <c r="AD4" s="2"/>
+      <c r="AE4" s="2"/>
+      <c r="AF4" s="2"/>
+      <c r="AG4" s="2"/>
+      <c r="AH4" s="2"/>
+      <c r="AI4" s="2"/>
+      <c r="AJ4" s="2"/>
+      <c r="AK4" s="2"/>
+      <c r="AL4" s="2"/>
+      <c r="AM4" s="2"/>
     </row>
     <row r="5" spans="1:42">
       <c r="A5" s="5"/>
@@ -1374,6 +1747,17 @@
       <c r="Z5" s="2"/>
       <c r="AA5" s="2"/>
       <c r="AB5" s="2"/>
+      <c r="AC5" s="2"/>
+      <c r="AD5" s="2"/>
+      <c r="AE5" s="2"/>
+      <c r="AF5" s="2"/>
+      <c r="AG5" s="2"/>
+      <c r="AH5" s="2"/>
+      <c r="AI5" s="2"/>
+      <c r="AJ5" s="2"/>
+      <c r="AK5" s="2"/>
+      <c r="AL5" s="2"/>
+      <c r="AM5" s="2"/>
     </row>
     <row r="8" spans="1:42">
       <c r="G8" s="3"/>

--- a/resources/test_data/Lead_Creation.xlsx
+++ b/resources/test_data/Lead_Creation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\New_automation_\web-automation-framework\resources\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{605963C4-83E9-4084-B683-52CD47D1C10A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA2E2F33-9AB7-4CDC-9AFF-FBC470B11586}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginData" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="69">
   <si>
     <t>username</t>
   </si>
@@ -113,9 +113,6 @@
     <t>101</t>
   </si>
   <si>
-    <t>CPR305027</t>
-  </si>
-  <si>
     <t>ApplicantType</t>
   </si>
   <si>
@@ -228,6 +225,24 @@
   </si>
   <si>
     <t>renewalUnderProcess</t>
+  </si>
+  <si>
+    <t>CPR305028</t>
+  </si>
+  <si>
+    <t>natureOfEmplmt</t>
+  </si>
+  <si>
+    <t>incomeType</t>
+  </si>
+  <si>
+    <t>incomeAmt_txt</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>500000</t>
   </si>
 </sst>
 </file>
@@ -390,7 +405,64 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="38">
+  <dxfs count="41">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1064,45 +1136,48 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DC87E5BE-26EC-4DBC-8565-103061C7F3D4}" name="Table2" displayName="Table2" ref="D1:AM5" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36">
-  <autoFilter ref="D1:AM5" xr:uid="{DC87E5BE-26EC-4DBC-8565-103061C7F3D4}"/>
-  <tableColumns count="36">
-    <tableColumn id="1" xr3:uid="{F63B5B5B-75EF-415D-9D47-65053D6DF43A}" name="IDNumber" dataDxfId="35"/>
-    <tableColumn id="2" xr3:uid="{00DFF19F-9E5D-44BD-B746-C5D10556D9C8}" name="CustomerType" dataDxfId="34"/>
-    <tableColumn id="4" xr3:uid="{16007208-EDF9-4E5D-AAA6-7F837DDD8C78}" name="FirstName" dataDxfId="33"/>
-    <tableColumn id="5" xr3:uid="{EBB0D839-0B51-4805-BD0B-AAB83E639E7A}" name="SecondName" dataDxfId="32"/>
-    <tableColumn id="6" xr3:uid="{07BF2CBA-E818-4808-9F87-9C6E9B8E27EB}" name="FamilyName" dataDxfId="31"/>
-    <tableColumn id="7" xr3:uid="{2E161694-E056-49B2-B02C-18609B166288}" name="MobileNumber" dataDxfId="30"/>
-    <tableColumn id="8" xr3:uid="{833F8941-B4C0-4E9B-89CA-6ACBE1BBC919}" name="Product" dataDxfId="29"/>
-    <tableColumn id="9" xr3:uid="{6AB217CA-8575-47C6-8323-49DBB8179C87}" name="SubProduct" dataDxfId="28"/>
-    <tableColumn id="10" xr3:uid="{B427C861-36D2-4A49-8916-781C22F94FF4}" name="SchemeType" dataDxfId="27"/>
-    <tableColumn id="11" xr3:uid="{BC30846C-2EA9-4DD7-B7FD-8EFA2281FD70}" name="Branch" dataDxfId="26"/>
-    <tableColumn id="12" xr3:uid="{7521EBC7-8105-4B20-B089-0355970E2900}" name="addressType" dataDxfId="25"/>
-    <tableColumn id="13" xr3:uid="{A68B51A1-92D8-490D-8098-B759DD9581A1}" name="addressTypeValue" dataDxfId="24"/>
-    <tableColumn id="14" xr3:uid="{F19CF168-BC8D-46DE-ACA0-71EDB250DFFF}" name="activeInActive" dataDxfId="23"/>
-    <tableColumn id="3" xr3:uid="{CA80F8FF-FC63-4AD4-9D64-0F817F3CD198}" name="ApplicantType" dataDxfId="22"/>
-    <tableColumn id="15" xr3:uid="{A95550BC-D33C-4168-9C34-660D7631DE85}" name="email" dataDxfId="21"/>
-    <tableColumn id="16" xr3:uid="{3183446F-0B43-4115-A526-CA96A24A5A0C}" name="SourceOfIncome" dataDxfId="20"/>
-    <tableColumn id="17" xr3:uid="{1673EE05-9F0D-4EB3-B6D6-DC08105325A2}" name="Title" dataDxfId="19"/>
-    <tableColumn id="18" xr3:uid="{683CA39D-EC12-4489-A45A-69A9DEBD4155}" name="Nationality" dataDxfId="18"/>
-    <tableColumn id="20" xr3:uid="{BBFDDC0F-FDD1-46F8-B248-DF40C724613D}" name="countryOfJurisdiction" dataDxfId="17"/>
-    <tableColumn id="21" xr3:uid="{2983BFC1-1906-4319-9DF0-B77011DD7DEA}" name="EducationLevel" dataDxfId="16"/>
-    <tableColumn id="22" xr3:uid="{986D7F90-6FF6-41A5-A619-2D271BE00764}" name="DateOfBirth" dataDxfId="15"/>
-    <tableColumn id="23" xr3:uid="{8EF037E0-977A-443D-A870-A027ABFB319E}" name="MaritalStatus" dataDxfId="14"/>
-    <tableColumn id="24" xr3:uid="{A2FF1F1E-5655-44BF-886D-A1CDF65B5A95}" name="NoOfDependents" dataDxfId="13"/>
-    <tableColumn id="25" xr3:uid="{56E2E3BE-8A9C-4AE9-94D4-966966AE8106}" name="ReturnedCheques" dataDxfId="12"/>
-    <tableColumn id="26" xr3:uid="{E193FD7F-57D4-4112-85E2-6D86AEEE2D77}" name="ChequeAbuserList" dataDxfId="11"/>
-    <tableColumn id="27" xr3:uid="{15E73E8B-3789-4FC5-959A-FEB1D9247868}" name="PropertyOwnership" dataDxfId="10"/>
-    <tableColumn id="28" xr3:uid="{6B956D5B-906C-4326-8C82-4DA36E1F5615}" name="addressLine1" dataDxfId="9"/>
-    <tableColumn id="34" xr3:uid="{007FE1DB-033B-4516-B370-A1624B351561}" name="building" dataDxfId="8"/>
-    <tableColumn id="29" xr3:uid="{2E8258A9-21F2-49E6-A32C-A2461F6F0D34}" name="flat" dataDxfId="7"/>
-    <tableColumn id="30" xr3:uid="{4B02ADB7-BF07-4814-B8AA-5139B871F77F}" name="avenue" dataDxfId="6"/>
-    <tableColumn id="31" xr3:uid="{3FDD9253-AB6B-4FD1-876D-578DA73C5B56}" name="Block" dataDxfId="5"/>
-    <tableColumn id="32" xr3:uid="{BA71D7A1-AD3D-40A5-ADFB-7F9EBCE6C2C6}" name="Country" dataDxfId="4"/>
-    <tableColumn id="33" xr3:uid="{6515130A-EC40-4F7C-AA54-1ADD52D50D5E}" name="City_Area" dataDxfId="3"/>
-    <tableColumn id="19" xr3:uid="{4D649DD4-69B1-40FF-8591-BC8ABD1B6012}" name="issueDate" dataDxfId="2"/>
-    <tableColumn id="35" xr3:uid="{A40DD074-5F3C-4816-B828-7A321AE246E1}" name="expiryDate" dataDxfId="1"/>
-    <tableColumn id="36" xr3:uid="{34620B96-0561-451C-9DBE-C0899F72320A}" name="renewalUnderProcess" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DC87E5BE-26EC-4DBC-8565-103061C7F3D4}" name="Table2" displayName="Table2" ref="D1:AP5" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39">
+  <autoFilter ref="D1:AP5" xr:uid="{DC87E5BE-26EC-4DBC-8565-103061C7F3D4}"/>
+  <tableColumns count="39">
+    <tableColumn id="1" xr3:uid="{F63B5B5B-75EF-415D-9D47-65053D6DF43A}" name="IDNumber" dataDxfId="38"/>
+    <tableColumn id="2" xr3:uid="{00DFF19F-9E5D-44BD-B746-C5D10556D9C8}" name="CustomerType" dataDxfId="37"/>
+    <tableColumn id="4" xr3:uid="{16007208-EDF9-4E5D-AAA6-7F837DDD8C78}" name="FirstName" dataDxfId="36"/>
+    <tableColumn id="5" xr3:uid="{EBB0D839-0B51-4805-BD0B-AAB83E639E7A}" name="SecondName" dataDxfId="35"/>
+    <tableColumn id="6" xr3:uid="{07BF2CBA-E818-4808-9F87-9C6E9B8E27EB}" name="FamilyName" dataDxfId="34"/>
+    <tableColumn id="7" xr3:uid="{2E161694-E056-49B2-B02C-18609B166288}" name="MobileNumber" dataDxfId="33"/>
+    <tableColumn id="8" xr3:uid="{833F8941-B4C0-4E9B-89CA-6ACBE1BBC919}" name="Product" dataDxfId="32"/>
+    <tableColumn id="9" xr3:uid="{6AB217CA-8575-47C6-8323-49DBB8179C87}" name="SubProduct" dataDxfId="31"/>
+    <tableColumn id="10" xr3:uid="{B427C861-36D2-4A49-8916-781C22F94FF4}" name="SchemeType" dataDxfId="30"/>
+    <tableColumn id="11" xr3:uid="{BC30846C-2EA9-4DD7-B7FD-8EFA2281FD70}" name="Branch" dataDxfId="29"/>
+    <tableColumn id="12" xr3:uid="{7521EBC7-8105-4B20-B089-0355970E2900}" name="addressType" dataDxfId="28"/>
+    <tableColumn id="13" xr3:uid="{A68B51A1-92D8-490D-8098-B759DD9581A1}" name="addressTypeValue" dataDxfId="27"/>
+    <tableColumn id="14" xr3:uid="{F19CF168-BC8D-46DE-ACA0-71EDB250DFFF}" name="activeInActive" dataDxfId="26"/>
+    <tableColumn id="3" xr3:uid="{CA80F8FF-FC63-4AD4-9D64-0F817F3CD198}" name="ApplicantType" dataDxfId="25"/>
+    <tableColumn id="15" xr3:uid="{A95550BC-D33C-4168-9C34-660D7631DE85}" name="email" dataDxfId="24"/>
+    <tableColumn id="16" xr3:uid="{3183446F-0B43-4115-A526-CA96A24A5A0C}" name="SourceOfIncome" dataDxfId="23"/>
+    <tableColumn id="17" xr3:uid="{1673EE05-9F0D-4EB3-B6D6-DC08105325A2}" name="Title" dataDxfId="22"/>
+    <tableColumn id="18" xr3:uid="{683CA39D-EC12-4489-A45A-69A9DEBD4155}" name="Nationality" dataDxfId="21"/>
+    <tableColumn id="20" xr3:uid="{BBFDDC0F-FDD1-46F8-B248-DF40C724613D}" name="countryOfJurisdiction" dataDxfId="20"/>
+    <tableColumn id="21" xr3:uid="{2983BFC1-1906-4319-9DF0-B77011DD7DEA}" name="EducationLevel" dataDxfId="19"/>
+    <tableColumn id="22" xr3:uid="{986D7F90-6FF6-41A5-A619-2D271BE00764}" name="DateOfBirth" dataDxfId="18"/>
+    <tableColumn id="23" xr3:uid="{8EF037E0-977A-443D-A870-A027ABFB319E}" name="MaritalStatus" dataDxfId="17"/>
+    <tableColumn id="24" xr3:uid="{A2FF1F1E-5655-44BF-886D-A1CDF65B5A95}" name="NoOfDependents" dataDxfId="16"/>
+    <tableColumn id="25" xr3:uid="{56E2E3BE-8A9C-4AE9-94D4-966966AE8106}" name="ReturnedCheques" dataDxfId="15"/>
+    <tableColumn id="26" xr3:uid="{E193FD7F-57D4-4112-85E2-6D86AEEE2D77}" name="ChequeAbuserList" dataDxfId="14"/>
+    <tableColumn id="27" xr3:uid="{15E73E8B-3789-4FC5-959A-FEB1D9247868}" name="PropertyOwnership" dataDxfId="13"/>
+    <tableColumn id="28" xr3:uid="{6B956D5B-906C-4326-8C82-4DA36E1F5615}" name="addressLine1" dataDxfId="12"/>
+    <tableColumn id="34" xr3:uid="{007FE1DB-033B-4516-B370-A1624B351561}" name="building" dataDxfId="11"/>
+    <tableColumn id="29" xr3:uid="{2E8258A9-21F2-49E6-A32C-A2461F6F0D34}" name="flat" dataDxfId="10"/>
+    <tableColumn id="30" xr3:uid="{4B02ADB7-BF07-4814-B8AA-5139B871F77F}" name="avenue" dataDxfId="9"/>
+    <tableColumn id="31" xr3:uid="{3FDD9253-AB6B-4FD1-876D-578DA73C5B56}" name="Block" dataDxfId="8"/>
+    <tableColumn id="32" xr3:uid="{BA71D7A1-AD3D-40A5-ADFB-7F9EBCE6C2C6}" name="Country" dataDxfId="7"/>
+    <tableColumn id="33" xr3:uid="{6515130A-EC40-4F7C-AA54-1ADD52D50D5E}" name="City_Area" dataDxfId="6"/>
+    <tableColumn id="19" xr3:uid="{4D649DD4-69B1-40FF-8591-BC8ABD1B6012}" name="issueDate" dataDxfId="5"/>
+    <tableColumn id="35" xr3:uid="{A40DD074-5F3C-4816-B828-7A321AE246E1}" name="expiryDate" dataDxfId="4"/>
+    <tableColumn id="36" xr3:uid="{34620B96-0561-451C-9DBE-C0899F72320A}" name="renewalUnderProcess" dataDxfId="3"/>
+    <tableColumn id="37" xr3:uid="{0004759E-F0AA-489E-B041-D0E052AC9809}" name="natureOfEmplmt" dataDxfId="2"/>
+    <tableColumn id="38" xr3:uid="{E4D18649-8838-4E63-9E4B-3E22C3502670}" name="incomeType" dataDxfId="1"/>
+    <tableColumn id="39" xr3:uid="{B0BEE11D-04F9-4615-B858-E88D7F4B2BFF}" name="incomeAmt_txt" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1373,29 +1448,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AP8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="AM1" sqref="AM1"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="AP1" sqref="AP1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" customWidth="1"/>
-    <col min="9" max="9" width="22.5703125" customWidth="1"/>
+    <col min="5" max="5" width="11.54296875" customWidth="1"/>
+    <col min="6" max="6" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.26953125" customWidth="1"/>
+    <col min="8" max="8" width="15.7265625" customWidth="1"/>
+    <col min="9" max="9" width="22.54296875" customWidth="1"/>
     <col min="10" max="10" width="18" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.54296875" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="16" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="13.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" ht="30">
+    <row r="1" spans="1:42" ht="29">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -1445,76 +1520,85 @@
         <v>6</v>
       </c>
       <c r="Q1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="S1" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="T1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="U1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="U1" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="V1" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="X1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AB1" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="AC1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AD1" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="AE1" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AF1" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AG1" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AH1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="AJ1" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="AK1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="AL1" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="AM1" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
+      </c>
+      <c r="AN1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP1" s="2" t="s">
+        <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:42" ht="45">
+    <row r="2" spans="1:42" ht="43.5">
       <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
@@ -1525,7 +1609,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>7</v>
@@ -1561,25 +1645,25 @@
         <v>7</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T2" s="5" t="s">
         <v>7</v>
       </c>
       <c r="U2" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="V2" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="W2" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="X2" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Y2" s="5" t="s">
         <v>7</v>
@@ -1591,44 +1675,50 @@
         <v>7</v>
       </c>
       <c r="AB2" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AC2" s="8" t="s">
         <v>7</v>
       </c>
       <c r="AD2" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AE2" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AF2" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AG2" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH2" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="AH2" s="8" t="s">
-        <v>52</v>
-      </c>
       <c r="AI2" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AJ2" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AK2" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL2" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="AL2" s="10" t="s">
-        <v>62</v>
-      </c>
       <c r="AM2" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="AN2" s="5"/>
-      <c r="AO2" s="5"/>
-      <c r="AP2" s="5"/>
+        <v>41</v>
+      </c>
+      <c r="AN2" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO2" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="AP2" s="8" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="3" spans="1:42">
       <c r="A3" s="5"/>
@@ -1672,6 +1762,9 @@
       <c r="AK3" s="2"/>
       <c r="AL3" s="2"/>
       <c r="AM3" s="2"/>
+      <c r="AN3" s="2"/>
+      <c r="AO3" s="2"/>
+      <c r="AP3" s="2"/>
     </row>
     <row r="4" spans="1:42">
       <c r="A4" s="5"/>
@@ -1715,6 +1808,9 @@
       <c r="AK4" s="2"/>
       <c r="AL4" s="2"/>
       <c r="AM4" s="2"/>
+      <c r="AN4" s="2"/>
+      <c r="AO4" s="2"/>
+      <c r="AP4" s="2"/>
     </row>
     <row r="5" spans="1:42">
       <c r="A5" s="5"/>
@@ -1758,6 +1854,9 @@
       <c r="AK5" s="2"/>
       <c r="AL5" s="2"/>
       <c r="AM5" s="2"/>
+      <c r="AN5" s="2"/>
+      <c r="AO5" s="2"/>
+      <c r="AP5" s="2"/>
     </row>
     <row r="8" spans="1:42">
       <c r="G8" s="3"/>

--- a/resources/test_data/Lead_Creation.xlsx
+++ b/resources/test_data/Lead_Creation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\New_automation_\web-automation-framework\resources\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA2E2F33-9AB7-4CDC-9AFF-FBC470B11586}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D6E5555-578B-47EA-906D-78B420305AE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="75">
   <si>
     <t>username</t>
   </si>
@@ -243,6 +243,24 @@
   </si>
   <si>
     <t>500000</t>
+  </si>
+  <si>
+    <t>bankName</t>
+  </si>
+  <si>
+    <t>accountNumber</t>
+  </si>
+  <si>
+    <t>ibanNumber</t>
+  </si>
+  <si>
+    <t>AUB</t>
+  </si>
+  <si>
+    <t>38748237487</t>
+  </si>
+  <si>
+    <t>BH67BMAG00001299123456</t>
   </si>
 </sst>
 </file>
@@ -366,7 +384,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -400,12 +418,72 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="41">
+  <dxfs count="44">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1136,48 +1214,51 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DC87E5BE-26EC-4DBC-8565-103061C7F3D4}" name="Table2" displayName="Table2" ref="D1:AP5" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39">
-  <autoFilter ref="D1:AP5" xr:uid="{DC87E5BE-26EC-4DBC-8565-103061C7F3D4}"/>
-  <tableColumns count="39">
-    <tableColumn id="1" xr3:uid="{F63B5B5B-75EF-415D-9D47-65053D6DF43A}" name="IDNumber" dataDxfId="38"/>
-    <tableColumn id="2" xr3:uid="{00DFF19F-9E5D-44BD-B746-C5D10556D9C8}" name="CustomerType" dataDxfId="37"/>
-    <tableColumn id="4" xr3:uid="{16007208-EDF9-4E5D-AAA6-7F837DDD8C78}" name="FirstName" dataDxfId="36"/>
-    <tableColumn id="5" xr3:uid="{EBB0D839-0B51-4805-BD0B-AAB83E639E7A}" name="SecondName" dataDxfId="35"/>
-    <tableColumn id="6" xr3:uid="{07BF2CBA-E818-4808-9F87-9C6E9B8E27EB}" name="FamilyName" dataDxfId="34"/>
-    <tableColumn id="7" xr3:uid="{2E161694-E056-49B2-B02C-18609B166288}" name="MobileNumber" dataDxfId="33"/>
-    <tableColumn id="8" xr3:uid="{833F8941-B4C0-4E9B-89CA-6ACBE1BBC919}" name="Product" dataDxfId="32"/>
-    <tableColumn id="9" xr3:uid="{6AB217CA-8575-47C6-8323-49DBB8179C87}" name="SubProduct" dataDxfId="31"/>
-    <tableColumn id="10" xr3:uid="{B427C861-36D2-4A49-8916-781C22F94FF4}" name="SchemeType" dataDxfId="30"/>
-    <tableColumn id="11" xr3:uid="{BC30846C-2EA9-4DD7-B7FD-8EFA2281FD70}" name="Branch" dataDxfId="29"/>
-    <tableColumn id="12" xr3:uid="{7521EBC7-8105-4B20-B089-0355970E2900}" name="addressType" dataDxfId="28"/>
-    <tableColumn id="13" xr3:uid="{A68B51A1-92D8-490D-8098-B759DD9581A1}" name="addressTypeValue" dataDxfId="27"/>
-    <tableColumn id="14" xr3:uid="{F19CF168-BC8D-46DE-ACA0-71EDB250DFFF}" name="activeInActive" dataDxfId="26"/>
-    <tableColumn id="3" xr3:uid="{CA80F8FF-FC63-4AD4-9D64-0F817F3CD198}" name="ApplicantType" dataDxfId="25"/>
-    <tableColumn id="15" xr3:uid="{A95550BC-D33C-4168-9C34-660D7631DE85}" name="email" dataDxfId="24"/>
-    <tableColumn id="16" xr3:uid="{3183446F-0B43-4115-A526-CA96A24A5A0C}" name="SourceOfIncome" dataDxfId="23"/>
-    <tableColumn id="17" xr3:uid="{1673EE05-9F0D-4EB3-B6D6-DC08105325A2}" name="Title" dataDxfId="22"/>
-    <tableColumn id="18" xr3:uid="{683CA39D-EC12-4489-A45A-69A9DEBD4155}" name="Nationality" dataDxfId="21"/>
-    <tableColumn id="20" xr3:uid="{BBFDDC0F-FDD1-46F8-B248-DF40C724613D}" name="countryOfJurisdiction" dataDxfId="20"/>
-    <tableColumn id="21" xr3:uid="{2983BFC1-1906-4319-9DF0-B77011DD7DEA}" name="EducationLevel" dataDxfId="19"/>
-    <tableColumn id="22" xr3:uid="{986D7F90-6FF6-41A5-A619-2D271BE00764}" name="DateOfBirth" dataDxfId="18"/>
-    <tableColumn id="23" xr3:uid="{8EF037E0-977A-443D-A870-A027ABFB319E}" name="MaritalStatus" dataDxfId="17"/>
-    <tableColumn id="24" xr3:uid="{A2FF1F1E-5655-44BF-886D-A1CDF65B5A95}" name="NoOfDependents" dataDxfId="16"/>
-    <tableColumn id="25" xr3:uid="{56E2E3BE-8A9C-4AE9-94D4-966966AE8106}" name="ReturnedCheques" dataDxfId="15"/>
-    <tableColumn id="26" xr3:uid="{E193FD7F-57D4-4112-85E2-6D86AEEE2D77}" name="ChequeAbuserList" dataDxfId="14"/>
-    <tableColumn id="27" xr3:uid="{15E73E8B-3789-4FC5-959A-FEB1D9247868}" name="PropertyOwnership" dataDxfId="13"/>
-    <tableColumn id="28" xr3:uid="{6B956D5B-906C-4326-8C82-4DA36E1F5615}" name="addressLine1" dataDxfId="12"/>
-    <tableColumn id="34" xr3:uid="{007FE1DB-033B-4516-B370-A1624B351561}" name="building" dataDxfId="11"/>
-    <tableColumn id="29" xr3:uid="{2E8258A9-21F2-49E6-A32C-A2461F6F0D34}" name="flat" dataDxfId="10"/>
-    <tableColumn id="30" xr3:uid="{4B02ADB7-BF07-4814-B8AA-5139B871F77F}" name="avenue" dataDxfId="9"/>
-    <tableColumn id="31" xr3:uid="{3FDD9253-AB6B-4FD1-876D-578DA73C5B56}" name="Block" dataDxfId="8"/>
-    <tableColumn id="32" xr3:uid="{BA71D7A1-AD3D-40A5-ADFB-7F9EBCE6C2C6}" name="Country" dataDxfId="7"/>
-    <tableColumn id="33" xr3:uid="{6515130A-EC40-4F7C-AA54-1ADD52D50D5E}" name="City_Area" dataDxfId="6"/>
-    <tableColumn id="19" xr3:uid="{4D649DD4-69B1-40FF-8591-BC8ABD1B6012}" name="issueDate" dataDxfId="5"/>
-    <tableColumn id="35" xr3:uid="{A40DD074-5F3C-4816-B828-7A321AE246E1}" name="expiryDate" dataDxfId="4"/>
-    <tableColumn id="36" xr3:uid="{34620B96-0561-451C-9DBE-C0899F72320A}" name="renewalUnderProcess" dataDxfId="3"/>
-    <tableColumn id="37" xr3:uid="{0004759E-F0AA-489E-B041-D0E052AC9809}" name="natureOfEmplmt" dataDxfId="2"/>
-    <tableColumn id="38" xr3:uid="{E4D18649-8838-4E63-9E4B-3E22C3502670}" name="incomeType" dataDxfId="1"/>
-    <tableColumn id="39" xr3:uid="{B0BEE11D-04F9-4615-B858-E88D7F4B2BFF}" name="incomeAmt_txt" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DC87E5BE-26EC-4DBC-8565-103061C7F3D4}" name="Table2" displayName="Table2" ref="D1:AS5" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42">
+  <autoFilter ref="D1:AS5" xr:uid="{DC87E5BE-26EC-4DBC-8565-103061C7F3D4}"/>
+  <tableColumns count="42">
+    <tableColumn id="1" xr3:uid="{F63B5B5B-75EF-415D-9D47-65053D6DF43A}" name="IDNumber" dataDxfId="41"/>
+    <tableColumn id="2" xr3:uid="{00DFF19F-9E5D-44BD-B746-C5D10556D9C8}" name="CustomerType" dataDxfId="40"/>
+    <tableColumn id="4" xr3:uid="{16007208-EDF9-4E5D-AAA6-7F837DDD8C78}" name="FirstName" dataDxfId="39"/>
+    <tableColumn id="5" xr3:uid="{EBB0D839-0B51-4805-BD0B-AAB83E639E7A}" name="SecondName" dataDxfId="38"/>
+    <tableColumn id="6" xr3:uid="{07BF2CBA-E818-4808-9F87-9C6E9B8E27EB}" name="FamilyName" dataDxfId="37"/>
+    <tableColumn id="7" xr3:uid="{2E161694-E056-49B2-B02C-18609B166288}" name="MobileNumber" dataDxfId="36"/>
+    <tableColumn id="8" xr3:uid="{833F8941-B4C0-4E9B-89CA-6ACBE1BBC919}" name="Product" dataDxfId="35"/>
+    <tableColumn id="9" xr3:uid="{6AB217CA-8575-47C6-8323-49DBB8179C87}" name="SubProduct" dataDxfId="34"/>
+    <tableColumn id="10" xr3:uid="{B427C861-36D2-4A49-8916-781C22F94FF4}" name="SchemeType" dataDxfId="33"/>
+    <tableColumn id="11" xr3:uid="{BC30846C-2EA9-4DD7-B7FD-8EFA2281FD70}" name="Branch" dataDxfId="32"/>
+    <tableColumn id="12" xr3:uid="{7521EBC7-8105-4B20-B089-0355970E2900}" name="addressType" dataDxfId="31"/>
+    <tableColumn id="13" xr3:uid="{A68B51A1-92D8-490D-8098-B759DD9581A1}" name="addressTypeValue" dataDxfId="30"/>
+    <tableColumn id="14" xr3:uid="{F19CF168-BC8D-46DE-ACA0-71EDB250DFFF}" name="activeInActive" dataDxfId="29"/>
+    <tableColumn id="3" xr3:uid="{CA80F8FF-FC63-4AD4-9D64-0F817F3CD198}" name="ApplicantType" dataDxfId="28"/>
+    <tableColumn id="15" xr3:uid="{A95550BC-D33C-4168-9C34-660D7631DE85}" name="email" dataDxfId="27"/>
+    <tableColumn id="16" xr3:uid="{3183446F-0B43-4115-A526-CA96A24A5A0C}" name="SourceOfIncome" dataDxfId="26"/>
+    <tableColumn id="17" xr3:uid="{1673EE05-9F0D-4EB3-B6D6-DC08105325A2}" name="Title" dataDxfId="25"/>
+    <tableColumn id="18" xr3:uid="{683CA39D-EC12-4489-A45A-69A9DEBD4155}" name="Nationality" dataDxfId="24"/>
+    <tableColumn id="20" xr3:uid="{BBFDDC0F-FDD1-46F8-B248-DF40C724613D}" name="countryOfJurisdiction" dataDxfId="23"/>
+    <tableColumn id="21" xr3:uid="{2983BFC1-1906-4319-9DF0-B77011DD7DEA}" name="EducationLevel" dataDxfId="22"/>
+    <tableColumn id="22" xr3:uid="{986D7F90-6FF6-41A5-A619-2D271BE00764}" name="DateOfBirth" dataDxfId="21"/>
+    <tableColumn id="23" xr3:uid="{8EF037E0-977A-443D-A870-A027ABFB319E}" name="MaritalStatus" dataDxfId="20"/>
+    <tableColumn id="24" xr3:uid="{A2FF1F1E-5655-44BF-886D-A1CDF65B5A95}" name="NoOfDependents" dataDxfId="19"/>
+    <tableColumn id="25" xr3:uid="{56E2E3BE-8A9C-4AE9-94D4-966966AE8106}" name="ReturnedCheques" dataDxfId="18"/>
+    <tableColumn id="26" xr3:uid="{E193FD7F-57D4-4112-85E2-6D86AEEE2D77}" name="ChequeAbuserList" dataDxfId="17"/>
+    <tableColumn id="27" xr3:uid="{15E73E8B-3789-4FC5-959A-FEB1D9247868}" name="PropertyOwnership" dataDxfId="16"/>
+    <tableColumn id="28" xr3:uid="{6B956D5B-906C-4326-8C82-4DA36E1F5615}" name="addressLine1" dataDxfId="15"/>
+    <tableColumn id="34" xr3:uid="{007FE1DB-033B-4516-B370-A1624B351561}" name="building" dataDxfId="14"/>
+    <tableColumn id="29" xr3:uid="{2E8258A9-21F2-49E6-A32C-A2461F6F0D34}" name="flat" dataDxfId="13"/>
+    <tableColumn id="30" xr3:uid="{4B02ADB7-BF07-4814-B8AA-5139B871F77F}" name="avenue" dataDxfId="12"/>
+    <tableColumn id="31" xr3:uid="{3FDD9253-AB6B-4FD1-876D-578DA73C5B56}" name="Block" dataDxfId="11"/>
+    <tableColumn id="32" xr3:uid="{BA71D7A1-AD3D-40A5-ADFB-7F9EBCE6C2C6}" name="Country" dataDxfId="10"/>
+    <tableColumn id="33" xr3:uid="{6515130A-EC40-4F7C-AA54-1ADD52D50D5E}" name="City_Area" dataDxfId="9"/>
+    <tableColumn id="19" xr3:uid="{4D649DD4-69B1-40FF-8591-BC8ABD1B6012}" name="issueDate" dataDxfId="8"/>
+    <tableColumn id="35" xr3:uid="{A40DD074-5F3C-4816-B828-7A321AE246E1}" name="expiryDate" dataDxfId="7"/>
+    <tableColumn id="36" xr3:uid="{34620B96-0561-451C-9DBE-C0899F72320A}" name="renewalUnderProcess" dataDxfId="6"/>
+    <tableColumn id="37" xr3:uid="{0004759E-F0AA-489E-B041-D0E052AC9809}" name="natureOfEmplmt" dataDxfId="5"/>
+    <tableColumn id="38" xr3:uid="{E4D18649-8838-4E63-9E4B-3E22C3502670}" name="incomeType" dataDxfId="4"/>
+    <tableColumn id="39" xr3:uid="{B0BEE11D-04F9-4615-B858-E88D7F4B2BFF}" name="incomeAmt_txt" dataDxfId="3"/>
+    <tableColumn id="40" xr3:uid="{5F7661EC-8CA9-43FD-A1F8-605F258C9D1E}" name="bankName" dataDxfId="2"/>
+    <tableColumn id="41" xr3:uid="{03FF8983-E488-4619-B7EF-DAB89F5EAC3B}" name="accountNumber" dataDxfId="1"/>
+    <tableColumn id="42" xr3:uid="{D7557DBA-7BF9-4B6B-A993-A719B1AC1F05}" name="ibanNumber" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1446,10 +1527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AP8"/>
+  <dimension ref="A1:AS8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="AP1" sqref="AP1"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1468,9 +1549,10 @@
     <col min="16" max="16" width="19.54296875" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="16" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="17.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" ht="29">
+    <row r="1" spans="1:45" ht="29">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -1597,8 +1679,17 @@
       <c r="AP1" s="2" t="s">
         <v>66</v>
       </c>
+      <c r="AQ1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AR1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AS1" s="2" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="2" spans="1:42" ht="43.5">
+    <row r="2" spans="1:45" ht="43.5">
       <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
@@ -1719,8 +1810,17 @@
       <c r="AP2" s="8" t="s">
         <v>68</v>
       </c>
+      <c r="AQ2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR2" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS2" s="2" t="s">
+        <v>74</v>
+      </c>
     </row>
-    <row r="3" spans="1:42">
+    <row r="3" spans="1:45">
       <c r="A3" s="5"/>
       <c r="B3" s="7" t="s">
         <v>2</v>
@@ -1765,8 +1865,11 @@
       <c r="AN3" s="2"/>
       <c r="AO3" s="2"/>
       <c r="AP3" s="2"/>
+      <c r="AQ3" s="2"/>
+      <c r="AR3" s="2"/>
+      <c r="AS3" s="2"/>
     </row>
-    <row r="4" spans="1:42">
+    <row r="4" spans="1:45">
       <c r="A4" s="5"/>
       <c r="B4" s="7" t="s">
         <v>2</v>
@@ -1811,8 +1914,11 @@
       <c r="AN4" s="2"/>
       <c r="AO4" s="2"/>
       <c r="AP4" s="2"/>
+      <c r="AQ4" s="2"/>
+      <c r="AR4" s="2"/>
+      <c r="AS4" s="2"/>
     </row>
-    <row r="5" spans="1:42">
+    <row r="5" spans="1:45">
       <c r="A5" s="5"/>
       <c r="B5" s="7" t="s">
         <v>2</v>
@@ -1857,8 +1963,11 @@
       <c r="AN5" s="2"/>
       <c r="AO5" s="2"/>
       <c r="AP5" s="2"/>
+      <c r="AQ5" s="2"/>
+      <c r="AR5" s="2"/>
+      <c r="AS5" s="2"/>
     </row>
-    <row r="8" spans="1:42">
+    <row r="8" spans="1:45">
       <c r="G8" s="3"/>
     </row>
   </sheetData>

--- a/resources/test_data/Lead_Creation.xlsx
+++ b/resources/test_data/Lead_Creation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\New_automation_\web-automation-framework\resources\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D6E5555-578B-47EA-906D-78B420305AE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A89FCF5E-B410-4207-9A8C-18C7376DB801}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="79">
   <si>
     <t>username</t>
   </si>
@@ -227,9 +227,6 @@
     <t>renewalUnderProcess</t>
   </si>
   <si>
-    <t>CPR305028</t>
-  </si>
-  <si>
     <t>natureOfEmplmt</t>
   </si>
   <si>
@@ -261,6 +258,21 @@
   </si>
   <si>
     <t>BH67BMAG00001299123456</t>
+  </si>
+  <si>
+    <t>CPR305030</t>
+  </si>
+  <si>
+    <t>Akhil</t>
+  </si>
+  <si>
+    <t>CustomerTypeContactDetails</t>
+  </si>
+  <si>
+    <t>ContactType</t>
+  </si>
+  <si>
+    <t>Contact_status</t>
   </si>
 </sst>
 </file>
@@ -426,7 +438,64 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="44">
+  <dxfs count="47">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1214,51 +1283,54 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DC87E5BE-26EC-4DBC-8565-103061C7F3D4}" name="Table2" displayName="Table2" ref="D1:AS5" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42">
-  <autoFilter ref="D1:AS5" xr:uid="{DC87E5BE-26EC-4DBC-8565-103061C7F3D4}"/>
-  <tableColumns count="42">
-    <tableColumn id="1" xr3:uid="{F63B5B5B-75EF-415D-9D47-65053D6DF43A}" name="IDNumber" dataDxfId="41"/>
-    <tableColumn id="2" xr3:uid="{00DFF19F-9E5D-44BD-B746-C5D10556D9C8}" name="CustomerType" dataDxfId="40"/>
-    <tableColumn id="4" xr3:uid="{16007208-EDF9-4E5D-AAA6-7F837DDD8C78}" name="FirstName" dataDxfId="39"/>
-    <tableColumn id="5" xr3:uid="{EBB0D839-0B51-4805-BD0B-AAB83E639E7A}" name="SecondName" dataDxfId="38"/>
-    <tableColumn id="6" xr3:uid="{07BF2CBA-E818-4808-9F87-9C6E9B8E27EB}" name="FamilyName" dataDxfId="37"/>
-    <tableColumn id="7" xr3:uid="{2E161694-E056-49B2-B02C-18609B166288}" name="MobileNumber" dataDxfId="36"/>
-    <tableColumn id="8" xr3:uid="{833F8941-B4C0-4E9B-89CA-6ACBE1BBC919}" name="Product" dataDxfId="35"/>
-    <tableColumn id="9" xr3:uid="{6AB217CA-8575-47C6-8323-49DBB8179C87}" name="SubProduct" dataDxfId="34"/>
-    <tableColumn id="10" xr3:uid="{B427C861-36D2-4A49-8916-781C22F94FF4}" name="SchemeType" dataDxfId="33"/>
-    <tableColumn id="11" xr3:uid="{BC30846C-2EA9-4DD7-B7FD-8EFA2281FD70}" name="Branch" dataDxfId="32"/>
-    <tableColumn id="12" xr3:uid="{7521EBC7-8105-4B20-B089-0355970E2900}" name="addressType" dataDxfId="31"/>
-    <tableColumn id="13" xr3:uid="{A68B51A1-92D8-490D-8098-B759DD9581A1}" name="addressTypeValue" dataDxfId="30"/>
-    <tableColumn id="14" xr3:uid="{F19CF168-BC8D-46DE-ACA0-71EDB250DFFF}" name="activeInActive" dataDxfId="29"/>
-    <tableColumn id="3" xr3:uid="{CA80F8FF-FC63-4AD4-9D64-0F817F3CD198}" name="ApplicantType" dataDxfId="28"/>
-    <tableColumn id="15" xr3:uid="{A95550BC-D33C-4168-9C34-660D7631DE85}" name="email" dataDxfId="27"/>
-    <tableColumn id="16" xr3:uid="{3183446F-0B43-4115-A526-CA96A24A5A0C}" name="SourceOfIncome" dataDxfId="26"/>
-    <tableColumn id="17" xr3:uid="{1673EE05-9F0D-4EB3-B6D6-DC08105325A2}" name="Title" dataDxfId="25"/>
-    <tableColumn id="18" xr3:uid="{683CA39D-EC12-4489-A45A-69A9DEBD4155}" name="Nationality" dataDxfId="24"/>
-    <tableColumn id="20" xr3:uid="{BBFDDC0F-FDD1-46F8-B248-DF40C724613D}" name="countryOfJurisdiction" dataDxfId="23"/>
-    <tableColumn id="21" xr3:uid="{2983BFC1-1906-4319-9DF0-B77011DD7DEA}" name="EducationLevel" dataDxfId="22"/>
-    <tableColumn id="22" xr3:uid="{986D7F90-6FF6-41A5-A619-2D271BE00764}" name="DateOfBirth" dataDxfId="21"/>
-    <tableColumn id="23" xr3:uid="{8EF037E0-977A-443D-A870-A027ABFB319E}" name="MaritalStatus" dataDxfId="20"/>
-    <tableColumn id="24" xr3:uid="{A2FF1F1E-5655-44BF-886D-A1CDF65B5A95}" name="NoOfDependents" dataDxfId="19"/>
-    <tableColumn id="25" xr3:uid="{56E2E3BE-8A9C-4AE9-94D4-966966AE8106}" name="ReturnedCheques" dataDxfId="18"/>
-    <tableColumn id="26" xr3:uid="{E193FD7F-57D4-4112-85E2-6D86AEEE2D77}" name="ChequeAbuserList" dataDxfId="17"/>
-    <tableColumn id="27" xr3:uid="{15E73E8B-3789-4FC5-959A-FEB1D9247868}" name="PropertyOwnership" dataDxfId="16"/>
-    <tableColumn id="28" xr3:uid="{6B956D5B-906C-4326-8C82-4DA36E1F5615}" name="addressLine1" dataDxfId="15"/>
-    <tableColumn id="34" xr3:uid="{007FE1DB-033B-4516-B370-A1624B351561}" name="building" dataDxfId="14"/>
-    <tableColumn id="29" xr3:uid="{2E8258A9-21F2-49E6-A32C-A2461F6F0D34}" name="flat" dataDxfId="13"/>
-    <tableColumn id="30" xr3:uid="{4B02ADB7-BF07-4814-B8AA-5139B871F77F}" name="avenue" dataDxfId="12"/>
-    <tableColumn id="31" xr3:uid="{3FDD9253-AB6B-4FD1-876D-578DA73C5B56}" name="Block" dataDxfId="11"/>
-    <tableColumn id="32" xr3:uid="{BA71D7A1-AD3D-40A5-ADFB-7F9EBCE6C2C6}" name="Country" dataDxfId="10"/>
-    <tableColumn id="33" xr3:uid="{6515130A-EC40-4F7C-AA54-1ADD52D50D5E}" name="City_Area" dataDxfId="9"/>
-    <tableColumn id="19" xr3:uid="{4D649DD4-69B1-40FF-8591-BC8ABD1B6012}" name="issueDate" dataDxfId="8"/>
-    <tableColumn id="35" xr3:uid="{A40DD074-5F3C-4816-B828-7A321AE246E1}" name="expiryDate" dataDxfId="7"/>
-    <tableColumn id="36" xr3:uid="{34620B96-0561-451C-9DBE-C0899F72320A}" name="renewalUnderProcess" dataDxfId="6"/>
-    <tableColumn id="37" xr3:uid="{0004759E-F0AA-489E-B041-D0E052AC9809}" name="natureOfEmplmt" dataDxfId="5"/>
-    <tableColumn id="38" xr3:uid="{E4D18649-8838-4E63-9E4B-3E22C3502670}" name="incomeType" dataDxfId="4"/>
-    <tableColumn id="39" xr3:uid="{B0BEE11D-04F9-4615-B858-E88D7F4B2BFF}" name="incomeAmt_txt" dataDxfId="3"/>
-    <tableColumn id="40" xr3:uid="{5F7661EC-8CA9-43FD-A1F8-605F258C9D1E}" name="bankName" dataDxfId="2"/>
-    <tableColumn id="41" xr3:uid="{03FF8983-E488-4619-B7EF-DAB89F5EAC3B}" name="accountNumber" dataDxfId="1"/>
-    <tableColumn id="42" xr3:uid="{D7557DBA-7BF9-4B6B-A993-A719B1AC1F05}" name="ibanNumber" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DC87E5BE-26EC-4DBC-8565-103061C7F3D4}" name="Table2" displayName="Table2" ref="D1:AV5" totalsRowShown="0" headerRowDxfId="46" dataDxfId="45">
+  <autoFilter ref="D1:AV5" xr:uid="{DC87E5BE-26EC-4DBC-8565-103061C7F3D4}"/>
+  <tableColumns count="45">
+    <tableColumn id="1" xr3:uid="{F63B5B5B-75EF-415D-9D47-65053D6DF43A}" name="IDNumber" dataDxfId="44"/>
+    <tableColumn id="2" xr3:uid="{00DFF19F-9E5D-44BD-B746-C5D10556D9C8}" name="CustomerType" dataDxfId="43"/>
+    <tableColumn id="4" xr3:uid="{16007208-EDF9-4E5D-AAA6-7F837DDD8C78}" name="FirstName" dataDxfId="42"/>
+    <tableColumn id="5" xr3:uid="{EBB0D839-0B51-4805-BD0B-AAB83E639E7A}" name="SecondName" dataDxfId="41"/>
+    <tableColumn id="6" xr3:uid="{07BF2CBA-E818-4808-9F87-9C6E9B8E27EB}" name="FamilyName" dataDxfId="40"/>
+    <tableColumn id="7" xr3:uid="{2E161694-E056-49B2-B02C-18609B166288}" name="MobileNumber" dataDxfId="39"/>
+    <tableColumn id="8" xr3:uid="{833F8941-B4C0-4E9B-89CA-6ACBE1BBC919}" name="Product" dataDxfId="38"/>
+    <tableColumn id="9" xr3:uid="{6AB217CA-8575-47C6-8323-49DBB8179C87}" name="SubProduct" dataDxfId="37"/>
+    <tableColumn id="10" xr3:uid="{B427C861-36D2-4A49-8916-781C22F94FF4}" name="SchemeType" dataDxfId="36"/>
+    <tableColumn id="11" xr3:uid="{BC30846C-2EA9-4DD7-B7FD-8EFA2281FD70}" name="Branch" dataDxfId="35"/>
+    <tableColumn id="12" xr3:uid="{7521EBC7-8105-4B20-B089-0355970E2900}" name="addressType" dataDxfId="34"/>
+    <tableColumn id="13" xr3:uid="{A68B51A1-92D8-490D-8098-B759DD9581A1}" name="addressTypeValue" dataDxfId="33"/>
+    <tableColumn id="14" xr3:uid="{F19CF168-BC8D-46DE-ACA0-71EDB250DFFF}" name="activeInActive" dataDxfId="32"/>
+    <tableColumn id="3" xr3:uid="{CA80F8FF-FC63-4AD4-9D64-0F817F3CD198}" name="ApplicantType" dataDxfId="31"/>
+    <tableColumn id="15" xr3:uid="{A95550BC-D33C-4168-9C34-660D7631DE85}" name="email" dataDxfId="30"/>
+    <tableColumn id="16" xr3:uid="{3183446F-0B43-4115-A526-CA96A24A5A0C}" name="SourceOfIncome" dataDxfId="29"/>
+    <tableColumn id="17" xr3:uid="{1673EE05-9F0D-4EB3-B6D6-DC08105325A2}" name="Title" dataDxfId="28"/>
+    <tableColumn id="18" xr3:uid="{683CA39D-EC12-4489-A45A-69A9DEBD4155}" name="Nationality" dataDxfId="27"/>
+    <tableColumn id="20" xr3:uid="{BBFDDC0F-FDD1-46F8-B248-DF40C724613D}" name="countryOfJurisdiction" dataDxfId="26"/>
+    <tableColumn id="21" xr3:uid="{2983BFC1-1906-4319-9DF0-B77011DD7DEA}" name="EducationLevel" dataDxfId="25"/>
+    <tableColumn id="22" xr3:uid="{986D7F90-6FF6-41A5-A619-2D271BE00764}" name="DateOfBirth" dataDxfId="24"/>
+    <tableColumn id="23" xr3:uid="{8EF037E0-977A-443D-A870-A027ABFB319E}" name="MaritalStatus" dataDxfId="23"/>
+    <tableColumn id="24" xr3:uid="{A2FF1F1E-5655-44BF-886D-A1CDF65B5A95}" name="NoOfDependents" dataDxfId="22"/>
+    <tableColumn id="25" xr3:uid="{56E2E3BE-8A9C-4AE9-94D4-966966AE8106}" name="ReturnedCheques" dataDxfId="21"/>
+    <tableColumn id="26" xr3:uid="{E193FD7F-57D4-4112-85E2-6D86AEEE2D77}" name="ChequeAbuserList" dataDxfId="20"/>
+    <tableColumn id="27" xr3:uid="{15E73E8B-3789-4FC5-959A-FEB1D9247868}" name="PropertyOwnership" dataDxfId="19"/>
+    <tableColumn id="28" xr3:uid="{6B956D5B-906C-4326-8C82-4DA36E1F5615}" name="addressLine1" dataDxfId="18"/>
+    <tableColumn id="34" xr3:uid="{007FE1DB-033B-4516-B370-A1624B351561}" name="building" dataDxfId="17"/>
+    <tableColumn id="29" xr3:uid="{2E8258A9-21F2-49E6-A32C-A2461F6F0D34}" name="flat" dataDxfId="16"/>
+    <tableColumn id="30" xr3:uid="{4B02ADB7-BF07-4814-B8AA-5139B871F77F}" name="avenue" dataDxfId="15"/>
+    <tableColumn id="31" xr3:uid="{3FDD9253-AB6B-4FD1-876D-578DA73C5B56}" name="Block" dataDxfId="14"/>
+    <tableColumn id="32" xr3:uid="{BA71D7A1-AD3D-40A5-ADFB-7F9EBCE6C2C6}" name="Country" dataDxfId="13"/>
+    <tableColumn id="33" xr3:uid="{6515130A-EC40-4F7C-AA54-1ADD52D50D5E}" name="City_Area" dataDxfId="12"/>
+    <tableColumn id="19" xr3:uid="{4D649DD4-69B1-40FF-8591-BC8ABD1B6012}" name="issueDate" dataDxfId="11"/>
+    <tableColumn id="35" xr3:uid="{A40DD074-5F3C-4816-B828-7A321AE246E1}" name="expiryDate" dataDxfId="10"/>
+    <tableColumn id="36" xr3:uid="{34620B96-0561-451C-9DBE-C0899F72320A}" name="renewalUnderProcess" dataDxfId="9"/>
+    <tableColumn id="37" xr3:uid="{0004759E-F0AA-489E-B041-D0E052AC9809}" name="natureOfEmplmt" dataDxfId="8"/>
+    <tableColumn id="38" xr3:uid="{E4D18649-8838-4E63-9E4B-3E22C3502670}" name="incomeType" dataDxfId="7"/>
+    <tableColumn id="39" xr3:uid="{B0BEE11D-04F9-4615-B858-E88D7F4B2BFF}" name="incomeAmt_txt" dataDxfId="6"/>
+    <tableColumn id="40" xr3:uid="{5F7661EC-8CA9-43FD-A1F8-605F258C9D1E}" name="bankName" dataDxfId="5"/>
+    <tableColumn id="41" xr3:uid="{03FF8983-E488-4619-B7EF-DAB89F5EAC3B}" name="accountNumber" dataDxfId="4"/>
+    <tableColumn id="42" xr3:uid="{D7557DBA-7BF9-4B6B-A993-A719B1AC1F05}" name="ibanNumber" dataDxfId="3"/>
+    <tableColumn id="43" xr3:uid="{B3FE0B56-7A31-4A0C-999F-A057737C3647}" name="CustomerTypeContactDetails" dataDxfId="2"/>
+    <tableColumn id="44" xr3:uid="{B03A64D4-2EB9-4ACE-B800-7091881934FE}" name="ContactType" dataDxfId="1"/>
+    <tableColumn id="45" xr3:uid="{E46BDB05-540A-4D5A-BE38-BB45035A1FBB}" name="Contact_status" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1527,10 +1599,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AS8"/>
+  <dimension ref="A1:AV8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1549,10 +1621,13 @@
     <col min="16" max="16" width="19.54296875" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="16" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="14" bestFit="1" customWidth="1"/>
     <col min="44" max="44" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="25.1796875" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="18.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" ht="29">
+    <row r="1" spans="1:48" ht="29">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -1671,25 +1746,34 @@
         <v>62</v>
       </c>
       <c r="AN1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AO1" s="2" t="s">
+      <c r="AP1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="AP1" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="AQ1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AR1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="AR1" s="2" t="s">
+      <c r="AS1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="AS1" s="2" t="s">
-        <v>71</v>
+      <c r="AT1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AV1" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:45" ht="43.5">
+    <row r="2" spans="1:48" ht="43.5">
       <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
@@ -1700,7 +1784,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>7</v>
@@ -1708,12 +1792,14 @@
       <c r="F2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="5"/>
+      <c r="G2" s="7" t="s">
+        <v>75</v>
+      </c>
       <c r="H2" s="5" t="s">
         <v>21</v>
       </c>
       <c r="I2" s="5">
-        <v>9889582</v>
+        <v>9889583</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>22</v>
@@ -1805,22 +1891,31 @@
         <v>41</v>
       </c>
       <c r="AO2" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="AP2" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="AP2" s="8" t="s">
-        <v>68</v>
-      </c>
       <c r="AQ2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AR2" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="AR2" s="13" t="s">
+      <c r="AS2" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="AS2" s="2" t="s">
-        <v>74</v>
+      <c r="AT2" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="AU2" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="AV2" s="13" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:45">
+    <row r="3" spans="1:48">
       <c r="A3" s="5"/>
       <c r="B3" s="7" t="s">
         <v>2</v>
@@ -1868,8 +1963,11 @@
       <c r="AQ3" s="2"/>
       <c r="AR3" s="2"/>
       <c r="AS3" s="2"/>
+      <c r="AT3" s="2"/>
+      <c r="AU3" s="2"/>
+      <c r="AV3" s="2"/>
     </row>
-    <row r="4" spans="1:45">
+    <row r="4" spans="1:48">
       <c r="A4" s="5"/>
       <c r="B4" s="7" t="s">
         <v>2</v>
@@ -1917,8 +2015,11 @@
       <c r="AQ4" s="2"/>
       <c r="AR4" s="2"/>
       <c r="AS4" s="2"/>
+      <c r="AT4" s="2"/>
+      <c r="AU4" s="2"/>
+      <c r="AV4" s="2"/>
     </row>
-    <row r="5" spans="1:45">
+    <row r="5" spans="1:48">
       <c r="A5" s="5"/>
       <c r="B5" s="7" t="s">
         <v>2</v>
@@ -1966,8 +2067,11 @@
       <c r="AQ5" s="2"/>
       <c r="AR5" s="2"/>
       <c r="AS5" s="2"/>
+      <c r="AT5" s="2"/>
+      <c r="AU5" s="2"/>
+      <c r="AV5" s="2"/>
     </row>
-    <row r="8" spans="1:45">
+    <row r="8" spans="1:48">
       <c r="G8" s="3"/>
     </row>
   </sheetData>

--- a/resources/test_data/Lead_Creation.xlsx
+++ b/resources/test_data/Lead_Creation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\New_automation_\web-automation-framework\resources\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A89FCF5E-B410-4207-9A8C-18C7376DB801}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{410A3656-978E-40AF-BC1B-B5B2C1E75B77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -260,9 +260,6 @@
     <t>BH67BMAG00001299123456</t>
   </si>
   <si>
-    <t>CPR305030</t>
-  </si>
-  <si>
     <t>Akhil</t>
   </si>
   <si>
@@ -273,6 +270,9 @@
   </si>
   <si>
     <t>Contact_status</t>
+  </si>
+  <si>
+    <t>CPR305032</t>
   </si>
 </sst>
 </file>
@@ -1601,8 +1601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AV8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1764,13 +1764,13 @@
         <v>70</v>
       </c>
       <c r="AT1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="AU1" s="2" t="s">
+      <c r="AV1" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="AV1" s="2" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:48" ht="43.5">
@@ -1784,7 +1784,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>7</v>
@@ -1793,7 +1793,7 @@
         <v>20</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>21</v>

--- a/resources/test_data/Lead_Creation.xlsx
+++ b/resources/test_data/Lead_Creation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\New_automation_\web-automation-framework\resources\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{410A3656-978E-40AF-BC1B-B5B2C1E75B77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82C829D9-4BCD-414E-B412-27CD3C57782E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="185">
   <si>
     <t>username</t>
   </si>
@@ -62,9 +62,6 @@
     <t>1</t>
   </si>
   <si>
-    <t>Lead_Creation_CPR</t>
-  </si>
-  <si>
     <t>IDType</t>
   </si>
   <si>
@@ -272,17 +269,335 @@
     <t>Contact_status</t>
   </si>
   <si>
-    <t>CPR305032</t>
+    <t>regWithNfh</t>
+  </si>
+  <si>
+    <t>vehPurchaseType</t>
+  </si>
+  <si>
+    <t>hirePurchase</t>
+  </si>
+  <si>
+    <t>isApplicantOwner</t>
+  </si>
+  <si>
+    <t>isPrimrySecurity</t>
+  </si>
+  <si>
+    <t>vehDealer</t>
+  </si>
+  <si>
+    <t>dealerSaleman</t>
+  </si>
+  <si>
+    <t>vehCat</t>
+  </si>
+  <si>
+    <t>vehMaker</t>
+  </si>
+  <si>
+    <t>vehModel</t>
+  </si>
+  <si>
+    <t>vehModelCat</t>
+  </si>
+  <si>
+    <t>manufactureCountry</t>
+  </si>
+  <si>
+    <t>colour</t>
+  </si>
+  <si>
+    <t>manufactureYear</t>
+  </si>
+  <si>
+    <t>vehiclePrice_txt</t>
+  </si>
+  <si>
+    <t>downPaymentPer_txt</t>
+  </si>
+  <si>
+    <t>initialPaymt_txt</t>
+  </si>
+  <si>
+    <t>actVehiclePrice_txt</t>
+  </si>
+  <si>
+    <t>adminCharge_txt</t>
+  </si>
+  <si>
+    <t>adminVat</t>
+  </si>
+  <si>
+    <t>adminChagreWithVat_txt</t>
+  </si>
+  <si>
+    <t>modeOfPayment</t>
+  </si>
+  <si>
+    <t>isInsuredWithNFH</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>71646</t>
+  </si>
+  <si>
+    <t>325</t>
+  </si>
+  <si>
+    <t>587</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>FRA</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>3000000.000</t>
+  </si>
+  <si>
+    <t>300000.000</t>
+  </si>
+  <si>
+    <t>collateralType</t>
+  </si>
+  <si>
+    <t>collateralSubType</t>
+  </si>
+  <si>
+    <t>valuatorName</t>
+  </si>
+  <si>
+    <t>otherValuatorName</t>
+  </si>
+  <si>
+    <t>estimatedValuationAmt_txt</t>
+  </si>
+  <si>
+    <t>finalValuationAmt_txt</t>
+  </si>
+  <si>
+    <t>valuationDate</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>4970</t>
+  </si>
+  <si>
+    <t>prompt</t>
+  </si>
+  <si>
+    <t>300000</t>
+  </si>
+  <si>
+    <t>'300000</t>
+  </si>
+  <si>
+    <t>11-12-2024</t>
+  </si>
+  <si>
+    <t>chassisNo</t>
+  </si>
+  <si>
+    <t>43435</t>
+  </si>
+  <si>
+    <t>registrationNo</t>
+  </si>
+  <si>
+    <t>434356</t>
+  </si>
+  <si>
+    <t>engineCapacity</t>
+  </si>
+  <si>
+    <t>mileage</t>
+  </si>
+  <si>
+    <t>cylinder</t>
+  </si>
+  <si>
+    <t>color</t>
+  </si>
+  <si>
+    <t>insuranceType</t>
+  </si>
+  <si>
+    <t>vehicleCondition</t>
+  </si>
+  <si>
+    <t>exteriorCondition</t>
+  </si>
+  <si>
+    <t>interiorCondition</t>
+  </si>
+  <si>
+    <t>tyreCondition</t>
+  </si>
+  <si>
+    <t>engineCondition</t>
+  </si>
+  <si>
+    <t>gearBox</t>
+  </si>
+  <si>
+    <t>suspension</t>
+  </si>
+  <si>
+    <t>interiorType</t>
+  </si>
+  <si>
+    <t>manufactureWarranty</t>
+  </si>
+  <si>
+    <t>warrntyYearRemaining</t>
+  </si>
+  <si>
+    <t>alloyWheels</t>
+  </si>
+  <si>
+    <t>spareTyre</t>
+  </si>
+  <si>
+    <t>jack</t>
+  </si>
+  <si>
+    <t>tool</t>
+  </si>
+  <si>
+    <t>wheelCaps</t>
+  </si>
+  <si>
+    <t>floorrMats</t>
+  </si>
+  <si>
+    <t>fireExtinguisher</t>
+  </si>
+  <si>
+    <t>firstAidKit</t>
+  </si>
+  <si>
+    <t>spareKey</t>
+  </si>
+  <si>
+    <t>radio</t>
+  </si>
+  <si>
+    <t>sunRoof</t>
+  </si>
+  <si>
+    <t>electricWindow</t>
+  </si>
+  <si>
+    <t>satelliteNavigation</t>
+  </si>
+  <si>
+    <t>dvd</t>
+  </si>
+  <si>
+    <t>screen</t>
+  </si>
+  <si>
+    <t>airConditioner</t>
+  </si>
+  <si>
+    <t>battery</t>
+  </si>
+  <si>
+    <t>remarks</t>
+  </si>
+  <si>
+    <t>5000</t>
+  </si>
+  <si>
+    <t>red</t>
+  </si>
+  <si>
+    <t>Full</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vehicle is in good condtion </t>
+  </si>
+  <si>
+    <t>vatPaymentMode</t>
+  </si>
+  <si>
+    <t>firstEmiDate</t>
+  </si>
+  <si>
+    <t>31-12-2024</t>
+  </si>
+  <si>
+    <t>requiredTenure</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>repaymentMode</t>
+  </si>
+  <si>
+    <t>isDefault</t>
+  </si>
+  <si>
+    <t>docGrp</t>
+  </si>
+  <si>
+    <t>docType</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>relationWithCust</t>
+  </si>
+  <si>
+    <t>BROTHER</t>
+  </si>
+  <si>
+    <t>relationName</t>
+  </si>
+  <si>
+    <t>Harshit</t>
+  </si>
+  <si>
+    <t>CPR305034</t>
+  </si>
+  <si>
+    <t>CPR305035</t>
+  </si>
+  <si>
+    <t>Lead_Creation_CPR_1</t>
+  </si>
+  <si>
+    <t>Lead_Creation_CPR_2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="[$-14009]dd/mm/yyyy;@"/>
-  </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -325,16 +640,8 @@
       <family val="2"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF1D1A20"/>
+      <sz val="6"/>
+      <color rgb="FF1F1F1F"/>
       <name val="Courier New"/>
       <family val="3"/>
     </font>
@@ -392,11 +699,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -417,28 +723,1427 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="47">
+  <dxfs count="121">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1283,54 +2988,128 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DC87E5BE-26EC-4DBC-8565-103061C7F3D4}" name="Table2" displayName="Table2" ref="D1:AV5" totalsRowShown="0" headerRowDxfId="46" dataDxfId="45">
-  <autoFilter ref="D1:AV5" xr:uid="{DC87E5BE-26EC-4DBC-8565-103061C7F3D4}"/>
-  <tableColumns count="45">
-    <tableColumn id="1" xr3:uid="{F63B5B5B-75EF-415D-9D47-65053D6DF43A}" name="IDNumber" dataDxfId="44"/>
-    <tableColumn id="2" xr3:uid="{00DFF19F-9E5D-44BD-B746-C5D10556D9C8}" name="CustomerType" dataDxfId="43"/>
-    <tableColumn id="4" xr3:uid="{16007208-EDF9-4E5D-AAA6-7F837DDD8C78}" name="FirstName" dataDxfId="42"/>
-    <tableColumn id="5" xr3:uid="{EBB0D839-0B51-4805-BD0B-AAB83E639E7A}" name="SecondName" dataDxfId="41"/>
-    <tableColumn id="6" xr3:uid="{07BF2CBA-E818-4808-9F87-9C6E9B8E27EB}" name="FamilyName" dataDxfId="40"/>
-    <tableColumn id="7" xr3:uid="{2E161694-E056-49B2-B02C-18609B166288}" name="MobileNumber" dataDxfId="39"/>
-    <tableColumn id="8" xr3:uid="{833F8941-B4C0-4E9B-89CA-6ACBE1BBC919}" name="Product" dataDxfId="38"/>
-    <tableColumn id="9" xr3:uid="{6AB217CA-8575-47C6-8323-49DBB8179C87}" name="SubProduct" dataDxfId="37"/>
-    <tableColumn id="10" xr3:uid="{B427C861-36D2-4A49-8916-781C22F94FF4}" name="SchemeType" dataDxfId="36"/>
-    <tableColumn id="11" xr3:uid="{BC30846C-2EA9-4DD7-B7FD-8EFA2281FD70}" name="Branch" dataDxfId="35"/>
-    <tableColumn id="12" xr3:uid="{7521EBC7-8105-4B20-B089-0355970E2900}" name="addressType" dataDxfId="34"/>
-    <tableColumn id="13" xr3:uid="{A68B51A1-92D8-490D-8098-B759DD9581A1}" name="addressTypeValue" dataDxfId="33"/>
-    <tableColumn id="14" xr3:uid="{F19CF168-BC8D-46DE-ACA0-71EDB250DFFF}" name="activeInActive" dataDxfId="32"/>
-    <tableColumn id="3" xr3:uid="{CA80F8FF-FC63-4AD4-9D64-0F817F3CD198}" name="ApplicantType" dataDxfId="31"/>
-    <tableColumn id="15" xr3:uid="{A95550BC-D33C-4168-9C34-660D7631DE85}" name="email" dataDxfId="30"/>
-    <tableColumn id="16" xr3:uid="{3183446F-0B43-4115-A526-CA96A24A5A0C}" name="SourceOfIncome" dataDxfId="29"/>
-    <tableColumn id="17" xr3:uid="{1673EE05-9F0D-4EB3-B6D6-DC08105325A2}" name="Title" dataDxfId="28"/>
-    <tableColumn id="18" xr3:uid="{683CA39D-EC12-4489-A45A-69A9DEBD4155}" name="Nationality" dataDxfId="27"/>
-    <tableColumn id="20" xr3:uid="{BBFDDC0F-FDD1-46F8-B248-DF40C724613D}" name="countryOfJurisdiction" dataDxfId="26"/>
-    <tableColumn id="21" xr3:uid="{2983BFC1-1906-4319-9DF0-B77011DD7DEA}" name="EducationLevel" dataDxfId="25"/>
-    <tableColumn id="22" xr3:uid="{986D7F90-6FF6-41A5-A619-2D271BE00764}" name="DateOfBirth" dataDxfId="24"/>
-    <tableColumn id="23" xr3:uid="{8EF037E0-977A-443D-A870-A027ABFB319E}" name="MaritalStatus" dataDxfId="23"/>
-    <tableColumn id="24" xr3:uid="{A2FF1F1E-5655-44BF-886D-A1CDF65B5A95}" name="NoOfDependents" dataDxfId="22"/>
-    <tableColumn id="25" xr3:uid="{56E2E3BE-8A9C-4AE9-94D4-966966AE8106}" name="ReturnedCheques" dataDxfId="21"/>
-    <tableColumn id="26" xr3:uid="{E193FD7F-57D4-4112-85E2-6D86AEEE2D77}" name="ChequeAbuserList" dataDxfId="20"/>
-    <tableColumn id="27" xr3:uid="{15E73E8B-3789-4FC5-959A-FEB1D9247868}" name="PropertyOwnership" dataDxfId="19"/>
-    <tableColumn id="28" xr3:uid="{6B956D5B-906C-4326-8C82-4DA36E1F5615}" name="addressLine1" dataDxfId="18"/>
-    <tableColumn id="34" xr3:uid="{007FE1DB-033B-4516-B370-A1624B351561}" name="building" dataDxfId="17"/>
-    <tableColumn id="29" xr3:uid="{2E8258A9-21F2-49E6-A32C-A2461F6F0D34}" name="flat" dataDxfId="16"/>
-    <tableColumn id="30" xr3:uid="{4B02ADB7-BF07-4814-B8AA-5139B871F77F}" name="avenue" dataDxfId="15"/>
-    <tableColumn id="31" xr3:uid="{3FDD9253-AB6B-4FD1-876D-578DA73C5B56}" name="Block" dataDxfId="14"/>
-    <tableColumn id="32" xr3:uid="{BA71D7A1-AD3D-40A5-ADFB-7F9EBCE6C2C6}" name="Country" dataDxfId="13"/>
-    <tableColumn id="33" xr3:uid="{6515130A-EC40-4F7C-AA54-1ADD52D50D5E}" name="City_Area" dataDxfId="12"/>
-    <tableColumn id="19" xr3:uid="{4D649DD4-69B1-40FF-8591-BC8ABD1B6012}" name="issueDate" dataDxfId="11"/>
-    <tableColumn id="35" xr3:uid="{A40DD074-5F3C-4816-B828-7A321AE246E1}" name="expiryDate" dataDxfId="10"/>
-    <tableColumn id="36" xr3:uid="{34620B96-0561-451C-9DBE-C0899F72320A}" name="renewalUnderProcess" dataDxfId="9"/>
-    <tableColumn id="37" xr3:uid="{0004759E-F0AA-489E-B041-D0E052AC9809}" name="natureOfEmplmt" dataDxfId="8"/>
-    <tableColumn id="38" xr3:uid="{E4D18649-8838-4E63-9E4B-3E22C3502670}" name="incomeType" dataDxfId="7"/>
-    <tableColumn id="39" xr3:uid="{B0BEE11D-04F9-4615-B858-E88D7F4B2BFF}" name="incomeAmt_txt" dataDxfId="6"/>
-    <tableColumn id="40" xr3:uid="{5F7661EC-8CA9-43FD-A1F8-605F258C9D1E}" name="bankName" dataDxfId="5"/>
-    <tableColumn id="41" xr3:uid="{03FF8983-E488-4619-B7EF-DAB89F5EAC3B}" name="accountNumber" dataDxfId="4"/>
-    <tableColumn id="42" xr3:uid="{D7557DBA-7BF9-4B6B-A993-A719B1AC1F05}" name="ibanNumber" dataDxfId="3"/>
-    <tableColumn id="43" xr3:uid="{B3FE0B56-7A31-4A0C-999F-A057737C3647}" name="CustomerTypeContactDetails" dataDxfId="2"/>
-    <tableColumn id="44" xr3:uid="{B03A64D4-2EB9-4ACE-B800-7091881934FE}" name="ContactType" dataDxfId="1"/>
-    <tableColumn id="45" xr3:uid="{E46BDB05-540A-4D5A-BE38-BB45035A1FBB}" name="Contact_status" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DC87E5BE-26EC-4DBC-8565-103061C7F3D4}" name="Table2" displayName="Table2" ref="D1:DR5" totalsRowShown="0" headerRowDxfId="120" dataDxfId="119">
+  <autoFilter ref="D1:DR5" xr:uid="{DC87E5BE-26EC-4DBC-8565-103061C7F3D4}"/>
+  <tableColumns count="119">
+    <tableColumn id="1" xr3:uid="{F63B5B5B-75EF-415D-9D47-65053D6DF43A}" name="IDNumber" dataDxfId="118"/>
+    <tableColumn id="2" xr3:uid="{00DFF19F-9E5D-44BD-B746-C5D10556D9C8}" name="CustomerType" dataDxfId="117"/>
+    <tableColumn id="4" xr3:uid="{16007208-EDF9-4E5D-AAA6-7F837DDD8C78}" name="FirstName" dataDxfId="116"/>
+    <tableColumn id="5" xr3:uid="{EBB0D839-0B51-4805-BD0B-AAB83E639E7A}" name="SecondName" dataDxfId="115"/>
+    <tableColumn id="6" xr3:uid="{07BF2CBA-E818-4808-9F87-9C6E9B8E27EB}" name="FamilyName" dataDxfId="114"/>
+    <tableColumn id="7" xr3:uid="{2E161694-E056-49B2-B02C-18609B166288}" name="MobileNumber" dataDxfId="113"/>
+    <tableColumn id="8" xr3:uid="{833F8941-B4C0-4E9B-89CA-6ACBE1BBC919}" name="Product" dataDxfId="112"/>
+    <tableColumn id="9" xr3:uid="{6AB217CA-8575-47C6-8323-49DBB8179C87}" name="SubProduct" dataDxfId="111"/>
+    <tableColumn id="10" xr3:uid="{B427C861-36D2-4A49-8916-781C22F94FF4}" name="SchemeType" dataDxfId="110"/>
+    <tableColumn id="11" xr3:uid="{BC30846C-2EA9-4DD7-B7FD-8EFA2281FD70}" name="Branch" dataDxfId="109"/>
+    <tableColumn id="12" xr3:uid="{7521EBC7-8105-4B20-B089-0355970E2900}" name="addressType" dataDxfId="108"/>
+    <tableColumn id="13" xr3:uid="{A68B51A1-92D8-490D-8098-B759DD9581A1}" name="addressTypeValue" dataDxfId="107"/>
+    <tableColumn id="14" xr3:uid="{F19CF168-BC8D-46DE-ACA0-71EDB250DFFF}" name="activeInActive" dataDxfId="106"/>
+    <tableColumn id="3" xr3:uid="{CA80F8FF-FC63-4AD4-9D64-0F817F3CD198}" name="ApplicantType" dataDxfId="105"/>
+    <tableColumn id="15" xr3:uid="{A95550BC-D33C-4168-9C34-660D7631DE85}" name="email" dataDxfId="104"/>
+    <tableColumn id="16" xr3:uid="{3183446F-0B43-4115-A526-CA96A24A5A0C}" name="SourceOfIncome" dataDxfId="103"/>
+    <tableColumn id="17" xr3:uid="{1673EE05-9F0D-4EB3-B6D6-DC08105325A2}" name="Title" dataDxfId="102"/>
+    <tableColumn id="18" xr3:uid="{683CA39D-EC12-4489-A45A-69A9DEBD4155}" name="Nationality" dataDxfId="101"/>
+    <tableColumn id="20" xr3:uid="{BBFDDC0F-FDD1-46F8-B248-DF40C724613D}" name="countryOfJurisdiction" dataDxfId="100"/>
+    <tableColumn id="21" xr3:uid="{2983BFC1-1906-4319-9DF0-B77011DD7DEA}" name="EducationLevel" dataDxfId="99"/>
+    <tableColumn id="22" xr3:uid="{986D7F90-6FF6-41A5-A619-2D271BE00764}" name="DateOfBirth" dataDxfId="98"/>
+    <tableColumn id="23" xr3:uid="{8EF037E0-977A-443D-A870-A027ABFB319E}" name="MaritalStatus" dataDxfId="97"/>
+    <tableColumn id="24" xr3:uid="{A2FF1F1E-5655-44BF-886D-A1CDF65B5A95}" name="NoOfDependents" dataDxfId="96"/>
+    <tableColumn id="25" xr3:uid="{56E2E3BE-8A9C-4AE9-94D4-966966AE8106}" name="ReturnedCheques" dataDxfId="95"/>
+    <tableColumn id="26" xr3:uid="{E193FD7F-57D4-4112-85E2-6D86AEEE2D77}" name="ChequeAbuserList" dataDxfId="94"/>
+    <tableColumn id="27" xr3:uid="{15E73E8B-3789-4FC5-959A-FEB1D9247868}" name="PropertyOwnership" dataDxfId="93"/>
+    <tableColumn id="28" xr3:uid="{6B956D5B-906C-4326-8C82-4DA36E1F5615}" name="addressLine1" dataDxfId="92"/>
+    <tableColumn id="34" xr3:uid="{007FE1DB-033B-4516-B370-A1624B351561}" name="building" dataDxfId="91"/>
+    <tableColumn id="29" xr3:uid="{2E8258A9-21F2-49E6-A32C-A2461F6F0D34}" name="flat" dataDxfId="90"/>
+    <tableColumn id="30" xr3:uid="{4B02ADB7-BF07-4814-B8AA-5139B871F77F}" name="avenue" dataDxfId="89"/>
+    <tableColumn id="31" xr3:uid="{3FDD9253-AB6B-4FD1-876D-578DA73C5B56}" name="Block" dataDxfId="88"/>
+    <tableColumn id="32" xr3:uid="{BA71D7A1-AD3D-40A5-ADFB-7F9EBCE6C2C6}" name="Country" dataDxfId="87"/>
+    <tableColumn id="33" xr3:uid="{6515130A-EC40-4F7C-AA54-1ADD52D50D5E}" name="City_Area" dataDxfId="86"/>
+    <tableColumn id="19" xr3:uid="{4D649DD4-69B1-40FF-8591-BC8ABD1B6012}" name="issueDate" dataDxfId="85"/>
+    <tableColumn id="35" xr3:uid="{A40DD074-5F3C-4816-B828-7A321AE246E1}" name="expiryDate" dataDxfId="84"/>
+    <tableColumn id="36" xr3:uid="{34620B96-0561-451C-9DBE-C0899F72320A}" name="renewalUnderProcess" dataDxfId="83"/>
+    <tableColumn id="37" xr3:uid="{0004759E-F0AA-489E-B041-D0E052AC9809}" name="natureOfEmplmt" dataDxfId="82"/>
+    <tableColumn id="38" xr3:uid="{E4D18649-8838-4E63-9E4B-3E22C3502670}" name="incomeType" dataDxfId="81"/>
+    <tableColumn id="39" xr3:uid="{B0BEE11D-04F9-4615-B858-E88D7F4B2BFF}" name="incomeAmt_txt" dataDxfId="80"/>
+    <tableColumn id="40" xr3:uid="{5F7661EC-8CA9-43FD-A1F8-605F258C9D1E}" name="bankName" dataDxfId="79"/>
+    <tableColumn id="41" xr3:uid="{03FF8983-E488-4619-B7EF-DAB89F5EAC3B}" name="accountNumber" dataDxfId="78"/>
+    <tableColumn id="42" xr3:uid="{D7557DBA-7BF9-4B6B-A993-A719B1AC1F05}" name="ibanNumber" dataDxfId="77"/>
+    <tableColumn id="43" xr3:uid="{B3FE0B56-7A31-4A0C-999F-A057737C3647}" name="CustomerTypeContactDetails" dataDxfId="76"/>
+    <tableColumn id="119" xr3:uid="{2BD3DD66-4663-429F-9EC2-7138114471C6}" name="relationName" dataDxfId="75"/>
+    <tableColumn id="118" xr3:uid="{85144347-A603-4B4C-9421-95BF2817AAD7}" name="relationWithCust" dataDxfId="74"/>
+    <tableColumn id="44" xr3:uid="{B03A64D4-2EB9-4ACE-B800-7091881934FE}" name="ContactType" dataDxfId="73"/>
+    <tableColumn id="45" xr3:uid="{E46BDB05-540A-4D5A-BE38-BB45035A1FBB}" name="Contact_status" dataDxfId="72"/>
+    <tableColumn id="46" xr3:uid="{071B7EAD-4786-4BF6-BD57-7F551BF1BFF0}" name="regWithNfh" dataDxfId="71"/>
+    <tableColumn id="47" xr3:uid="{0644A39D-5B5B-4DA9-B33F-8CBB659FE512}" name="vehPurchaseType" dataDxfId="70"/>
+    <tableColumn id="48" xr3:uid="{9C326EAF-77E1-4045-9042-56296390DA47}" name="hirePurchase" dataDxfId="69"/>
+    <tableColumn id="49" xr3:uid="{75DAB3C7-BB41-48FA-8B60-DFEFC5164F57}" name="isApplicantOwner" dataDxfId="68"/>
+    <tableColumn id="50" xr3:uid="{64AC5C43-9B94-4815-A277-3DA2D5E3A538}" name="isPrimrySecurity" dataDxfId="67"/>
+    <tableColumn id="51" xr3:uid="{7AB4CB89-CBF0-402F-91AD-AA45FC029539}" name="vehDealer" dataDxfId="66"/>
+    <tableColumn id="52" xr3:uid="{928B80BD-B376-4005-B7A0-34DA4C9FD1E3}" name="dealerSaleman" dataDxfId="65"/>
+    <tableColumn id="53" xr3:uid="{2FEEB584-A7ED-4E3A-9B89-1F6B6A099671}" name="vehCat" dataDxfId="64"/>
+    <tableColumn id="54" xr3:uid="{1DA9CDDC-77D9-44B6-8642-62F09DC56422}" name="vehMaker" dataDxfId="63"/>
+    <tableColumn id="55" xr3:uid="{C33B6678-1BA4-42C5-A240-E86E78B157C3}" name="vehModel" dataDxfId="62"/>
+    <tableColumn id="56" xr3:uid="{172E096F-A9A2-4CF3-9AFB-3424C30B1FA3}" name="vehModelCat" dataDxfId="61"/>
+    <tableColumn id="57" xr3:uid="{04B0522D-440A-4682-B572-81E681286D08}" name="manufactureCountry" dataDxfId="60"/>
+    <tableColumn id="58" xr3:uid="{63DF28F3-0DCF-4466-95D9-A7B8679C5338}" name="colour" dataDxfId="59"/>
+    <tableColumn id="59" xr3:uid="{BF43045B-8357-47B4-A489-C10F4CCDD4F1}" name="manufactureYear" dataDxfId="58"/>
+    <tableColumn id="60" xr3:uid="{30FD714C-FBFB-4619-A366-3FF395E7E139}" name="vehiclePrice_txt" dataDxfId="57"/>
+    <tableColumn id="61" xr3:uid="{94D38C5A-700A-4528-A837-90C836489E4E}" name="downPaymentPer_txt" dataDxfId="56"/>
+    <tableColumn id="62" xr3:uid="{3A681706-B2D4-49F3-88FA-97277F708246}" name="initialPaymt_txt" dataDxfId="55"/>
+    <tableColumn id="63" xr3:uid="{ACDE4A0C-A6B2-4D87-83BE-9DBEAF3B7EA8}" name="actVehiclePrice_txt" dataDxfId="54"/>
+    <tableColumn id="64" xr3:uid="{BC736CC7-6CAD-44C2-9288-91971876FC45}" name="adminCharge_txt" dataDxfId="53"/>
+    <tableColumn id="65" xr3:uid="{B7631C2C-9A9D-4C40-B97F-7A2548260750}" name="adminVat" dataDxfId="52"/>
+    <tableColumn id="66" xr3:uid="{59A7C662-7F28-4D63-9CB6-7FD71F70741D}" name="adminChagreWithVat_txt" dataDxfId="51"/>
+    <tableColumn id="67" xr3:uid="{0ACE22C9-BFA2-4413-BBC2-1C9F29D7F032}" name="modeOfPayment" dataDxfId="50"/>
+    <tableColumn id="68" xr3:uid="{956718A3-3DA9-432A-BE21-F4EE365D521C}" name="isInsuredWithNFH" dataDxfId="49"/>
+    <tableColumn id="69" xr3:uid="{D092F385-0749-4926-B32F-E4A40D97672E}" name="collateralType" dataDxfId="48"/>
+    <tableColumn id="70" xr3:uid="{D5D19B86-E695-4C1D-913A-FB6343AB534D}" name="collateralSubType" dataDxfId="47"/>
+    <tableColumn id="71" xr3:uid="{B312C1AB-E7B8-4367-B805-A99B729A14A3}" name="valuatorName" dataDxfId="46"/>
+    <tableColumn id="72" xr3:uid="{B7AB646A-EBBB-4EB0-9FB0-DBE43DFFE330}" name="otherValuatorName" dataDxfId="45"/>
+    <tableColumn id="73" xr3:uid="{B1FD4261-2181-4B55-AAE3-6162C625B56D}" name="estimatedValuationAmt_txt" dataDxfId="44"/>
+    <tableColumn id="74" xr3:uid="{A4741736-F379-42DF-88F8-841355249EDB}" name="finalValuationAmt_txt" dataDxfId="43"/>
+    <tableColumn id="75" xr3:uid="{6E8AD8AE-62CE-461D-8748-9D387CCD70C5}" name="valuationDate" dataDxfId="42"/>
+    <tableColumn id="76" xr3:uid="{02F21512-03F4-4059-9E30-C15516314CFE}" name="chassisNo" dataDxfId="41"/>
+    <tableColumn id="77" xr3:uid="{F95CBF5D-6BD7-4C3E-BA44-86E0AA0CA475}" name="registrationNo" dataDxfId="40"/>
+    <tableColumn id="78" xr3:uid="{FE95FBFA-6AF8-4E65-A8BA-C8E4667D1A10}" name="engineCapacity" dataDxfId="39"/>
+    <tableColumn id="79" xr3:uid="{F1EAECC0-75AD-4DC4-8BEB-50764716FB73}" name="mileage" dataDxfId="38"/>
+    <tableColumn id="80" xr3:uid="{E9D66C2D-3BA7-47AC-8384-C167FF40306D}" name="cylinder" dataDxfId="37"/>
+    <tableColumn id="81" xr3:uid="{AD1FB051-1EEC-4374-AAA5-6B620D830FC4}" name="color" dataDxfId="36"/>
+    <tableColumn id="82" xr3:uid="{ADBB0DF3-84AD-4DAD-9B54-54807BB109BD}" name="insuranceType" dataDxfId="35"/>
+    <tableColumn id="83" xr3:uid="{DE41EEFF-2AF2-40DF-9D1C-CD072BCFB90F}" name="vehicleCondition" dataDxfId="34"/>
+    <tableColumn id="84" xr3:uid="{360A06CC-896F-472C-9184-B6485DBC2E24}" name="exteriorCondition" dataDxfId="33"/>
+    <tableColumn id="85" xr3:uid="{23C4EA02-9853-4B40-841E-D83818C82CED}" name="interiorCondition" dataDxfId="32"/>
+    <tableColumn id="86" xr3:uid="{426BC3BF-2900-43DF-B907-B998AB4A3FD6}" name="tyreCondition" dataDxfId="31"/>
+    <tableColumn id="87" xr3:uid="{59D4C78D-3A01-431B-A37F-0CAC4F8060C4}" name="engineCondition" dataDxfId="30"/>
+    <tableColumn id="88" xr3:uid="{ED1EF02C-D7E6-4C80-B7C3-EB885A408873}" name="gearBox" dataDxfId="29"/>
+    <tableColumn id="89" xr3:uid="{BB055320-D9AB-427B-B07C-C8889F1892B4}" name="suspension" dataDxfId="28"/>
+    <tableColumn id="90" xr3:uid="{7258326E-3F04-4976-8492-3603BA97D071}" name="interiorType" dataDxfId="27"/>
+    <tableColumn id="91" xr3:uid="{825B14FD-9CB2-4A4F-ADBD-5347B46D09CE}" name="manufactureWarranty" dataDxfId="26"/>
+    <tableColumn id="92" xr3:uid="{1B61C1D4-8E64-4A15-826A-E0137CB82D83}" name="warrntyYearRemaining" dataDxfId="25"/>
+    <tableColumn id="93" xr3:uid="{FDEC472D-97B5-4015-A7ED-2E1067730E27}" name="alloyWheels" dataDxfId="24"/>
+    <tableColumn id="94" xr3:uid="{74CDD0FF-484D-4DF3-BAF8-C8155EBF3011}" name="spareTyre" dataDxfId="23"/>
+    <tableColumn id="95" xr3:uid="{1CD9662A-8FB1-4C94-8C23-910A64FC9408}" name="jack" dataDxfId="22"/>
+    <tableColumn id="96" xr3:uid="{205059EB-0A88-4AB1-A579-072E85685FD1}" name="tool" dataDxfId="21"/>
+    <tableColumn id="97" xr3:uid="{47D70AEF-55CB-46E7-BEE9-A8B376ABB00A}" name="wheelCaps" dataDxfId="20"/>
+    <tableColumn id="98" xr3:uid="{4D1B9B90-6C91-4149-A427-2E573E0BE8F6}" name="floorrMats" dataDxfId="19"/>
+    <tableColumn id="99" xr3:uid="{8E0EFE84-2194-4F00-B7ED-0A22A736FE5C}" name="fireExtinguisher" dataDxfId="18"/>
+    <tableColumn id="100" xr3:uid="{8B56A608-68C9-493E-8B91-B69CF9D944BA}" name="firstAidKit" dataDxfId="17"/>
+    <tableColumn id="101" xr3:uid="{04D0114D-113B-4E4A-8945-03FB77E918E2}" name="spareKey" dataDxfId="16"/>
+    <tableColumn id="102" xr3:uid="{8EEABA6B-CD4A-41C1-AD23-3A060938FBBC}" name="radio" dataDxfId="15"/>
+    <tableColumn id="103" xr3:uid="{A476DA46-F896-41C2-B730-05A8EE8BBA0D}" name="sunRoof" dataDxfId="14"/>
+    <tableColumn id="104" xr3:uid="{40837055-ACB4-48AC-95F5-CA8E7893C55E}" name="electricWindow" dataDxfId="13"/>
+    <tableColumn id="105" xr3:uid="{606CCFC8-FBA6-4AB7-AE7B-37007236EDE6}" name="satelliteNavigation" dataDxfId="12"/>
+    <tableColumn id="106" xr3:uid="{4E3BA4DC-9193-4F34-8496-65AEE6B82737}" name="dvd" dataDxfId="11"/>
+    <tableColumn id="107" xr3:uid="{9DB233D0-755F-4162-A8E8-ABEAC6C5B3A5}" name="screen" dataDxfId="10"/>
+    <tableColumn id="108" xr3:uid="{30040546-46FE-4FA1-959E-C453DBF0BFD5}" name="airConditioner" dataDxfId="9"/>
+    <tableColumn id="109" xr3:uid="{C8813AC5-5CF8-4370-82DC-565FC005E836}" name="battery" dataDxfId="8"/>
+    <tableColumn id="110" xr3:uid="{34614546-004C-4454-8912-15181BD4ECD8}" name="remarks" dataDxfId="7"/>
+    <tableColumn id="111" xr3:uid="{54D5F79C-FEFE-4EBE-8DB3-8F37E93E43C6}" name="firstEmiDate" dataDxfId="6"/>
+    <tableColumn id="112" xr3:uid="{1848B67E-9391-4333-BD03-D9AA7D3F2B8E}" name="requiredTenure" dataDxfId="5"/>
+    <tableColumn id="113" xr3:uid="{A2F17A4A-AB2B-420C-908D-1A998ECFAA99}" name="vatPaymentMode" dataDxfId="4"/>
+    <tableColumn id="114" xr3:uid="{342CF2C2-2827-4FFE-BFA7-AE764B29441C}" name="repaymentMode" dataDxfId="3"/>
+    <tableColumn id="115" xr3:uid="{B95FCC17-EBCC-47E0-98A5-18FE8FF57B9B}" name="isDefault" dataDxfId="2"/>
+    <tableColumn id="116" xr3:uid="{C4672D46-75C5-45D3-AF43-F9E52B1EA9E8}" name="docGrp" dataDxfId="1"/>
+    <tableColumn id="117" xr3:uid="{8DB8BF92-2E3A-49A3-ADC8-23C055D38F41}" name="docType" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1599,35 +3378,92 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AV8"/>
+  <dimension ref="A1:DR8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="11.54296875" customWidth="1"/>
-    <col min="6" max="6" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.26953125" customWidth="1"/>
-    <col min="8" max="8" width="15.7265625" customWidth="1"/>
-    <col min="9" max="9" width="22.54296875" customWidth="1"/>
-    <col min="10" max="10" width="18" customWidth="1"/>
-    <col min="11" max="11" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.1796875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.81640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.54296875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12" customWidth="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.7265625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.54296875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.54296875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="26.26953125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="19.6328125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="20.7265625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="8.54296875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="36" max="37" width="12.90625" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="14" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="24.08984375" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="14" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="11.81640625" bestFit="1" customWidth="1"/>
     <col min="44" max="44" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="25.1796875" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="31.90625" bestFit="1" customWidth="1"/>
+    <col min="47" max="48" width="31.90625" customWidth="1"/>
+    <col min="49" max="49" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="14" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="19.6328125" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="54" max="55" width="20.7265625" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="59" max="60" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="22.90625" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="19.6328125" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="20.7265625" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="22.90625" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="20.7265625" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="24.08984375" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="19.6328125" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="27.453125" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="20.7265625" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="26.26953125" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="17.26953125" customWidth="1"/>
+    <col min="101" max="101" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="115" max="115" width="31.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" ht="29">
+    <row r="1" spans="1:122" ht="29">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -1635,37 +3471,37 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>4</v>
@@ -1677,297 +3513,1053 @@
         <v>6</v>
       </c>
       <c r="Q1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="S1" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="T1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="U1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="U1" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="V1" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="X1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AB1" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="AC1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AD1" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="AE1" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AF1" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AG1" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AH1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AI1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="AJ1" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="AK1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="AL1" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="AM1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AN1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AO1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="AO1" s="2" t="s">
+      <c r="AP1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AP1" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="AQ1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AR1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="AR1" s="2" t="s">
+      <c r="AS1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="AS1" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="AT1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU1" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="AV1" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="AW1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AU1" s="2" t="s">
+      <c r="AX1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="AV1" s="2" t="s">
+      <c r="AY1" s="2" t="s">
         <v>77</v>
       </c>
+      <c r="AZ1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="BA1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BB1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="BC1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="BD1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BE1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="BF1" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="BG1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="BH1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="BI1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="BJ1" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="BK1" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="BL1" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="BM1" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BN1" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BO1" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="BP1" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="BQ1" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BR1" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="BS1" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="BT1" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="BU1" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="BV1" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="BW1" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="BX1" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="BY1" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="BZ1" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="CA1" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="CB1" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="CC1" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="CD1" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="CE1" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="CF1" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="CG1" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="CH1" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="CI1" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="CJ1" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="CK1" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="CL1" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="CM1" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="CN1" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="CO1" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="CP1" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="CQ1" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="CR1" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="CS1" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="CT1" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="CU1" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="CV1" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="CW1" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="CX1" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="CY1" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="CZ1" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="DA1" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="DB1" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="DC1" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="DD1" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="DE1" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="DF1" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="DG1" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="DH1" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="DI1" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="DJ1" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="DK1" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="DL1" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="DM1" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="DN1" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="DO1" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="DP1" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="DQ1" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="DR1" s="2" t="s">
+        <v>175</v>
+      </c>
     </row>
-    <row r="2" spans="1:48" ht="43.5">
+    <row r="2" spans="1:122" ht="43.5">
       <c r="A2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="E2" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="H2" s="5" t="s">
+      <c r="I2" s="5">
+        <v>9879657</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="5">
-        <v>9889583</v>
-      </c>
-      <c r="J2" s="5" t="s">
+      <c r="K2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="L2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="5" t="s">
-        <v>24</v>
-      </c>
       <c r="M2" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
       <c r="Q2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="R2" s="9" t="s">
-        <v>42</v>
+      <c r="R2" s="5" t="s">
+        <v>41</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="T2" s="5" t="s">
         <v>7</v>
       </c>
       <c r="U2" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="V2" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="W2" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="X2" s="10" t="s">
-        <v>43</v>
+        <v>34</v>
+      </c>
+      <c r="X2" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="Y2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="Z2" s="8" t="s">
+      <c r="Z2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="AA2" s="8" t="s">
+      <c r="AA2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="AB2" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC2" s="8" t="s">
+      <c r="AB2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="AD2" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="AE2" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF2" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="AG2" s="11" t="s">
+      <c r="AD2" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE2" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF2" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG2" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH2" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="AH2" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AI2" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ2" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="AK2" s="10" t="s">
+      <c r="AI2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ2" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK2" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL2" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AL2" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="AM2" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="AN2" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="AO2" s="8" t="s">
+      <c r="AM2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AN2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AO2" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP2" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="AP2" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="AQ2" s="2" t="s">
+      <c r="AQ2" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AR2" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="AR2" s="13" t="s">
+      <c r="AS2" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="AS2" s="2" t="s">
+      <c r="AT2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="AU2" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="AV2" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="AW2" s="5">
+        <v>2</v>
+      </c>
+      <c r="AX2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AY2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AZ2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="BA2" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="BB2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="BC2" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="BD2" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="BE2" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="BF2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="BG2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="BH2" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="BI2" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ2" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="BK2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="BL2" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="BM2" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN2" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="BO2" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="BP2" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="BQ2" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="BR2" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="BS2" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="BT2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="BU2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="BV2" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="BW2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="BX2" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="BY2" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="BZ2" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="CA2" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="CB2" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="CC2" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="CD2" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="CE2" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="CF2" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="CG2" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="CH2" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="CI2" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="CJ2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="CK2" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="CL2" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="CM2" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="CN2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="CO2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="CP2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="CQ2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="CR2" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="CS2" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="CT2" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="CU2" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="CV2" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="CW2" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="CX2" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="CY2" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="CZ2" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="DA2" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="DB2" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="DC2" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="DD2" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="DE2" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="DF2" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="DG2" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="DH2" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="DI2" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="DJ2" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="DK2" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="DL2" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="DM2" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="DN2" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="DO2" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="DP2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="DQ2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="DR2" s="9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="3" spans="1:122" ht="43.5">
+      <c r="A3" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="AT2" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="AU2" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="AV2" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:48">
-      <c r="A3" s="5"/>
-      <c r="B3" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
+      <c r="H3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="5">
+        <v>9879656</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>27</v>
+      </c>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
-      <c r="Z3" s="2"/>
-      <c r="AA3" s="2"/>
-      <c r="AB3" s="2"/>
-      <c r="AC3" s="2"/>
-      <c r="AD3" s="2"/>
-      <c r="AE3" s="2"/>
-      <c r="AF3" s="2"/>
-      <c r="AG3" s="2"/>
-      <c r="AH3" s="2"/>
-      <c r="AI3" s="2"/>
-      <c r="AJ3" s="2"/>
-      <c r="AK3" s="2"/>
-      <c r="AL3" s="2"/>
-      <c r="AM3" s="2"/>
-      <c r="AN3" s="2"/>
-      <c r="AO3" s="2"/>
-      <c r="AP3" s="2"/>
-      <c r="AQ3" s="2"/>
-      <c r="AR3" s="2"/>
-      <c r="AS3" s="2"/>
-      <c r="AT3" s="2"/>
-      <c r="AU3" s="2"/>
-      <c r="AV3" s="2"/>
+      <c r="Q3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="S3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="T3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="V3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="W3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="X3" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD3" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE3" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF3" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG3" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH3" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AI3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ3" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK3" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL3" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AN3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AO3" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP3" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AQ3" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AR3" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AS3" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AT3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="AU3" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="AV3" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="AW3" s="5">
+        <v>2</v>
+      </c>
+      <c r="AX3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AY3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AZ3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="BA3" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="BB3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="BC3" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="BD3" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="BE3" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="BF3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="BG3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="BH3" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="BI3" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ3" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="BK3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="BL3" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="BM3" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN3" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="BO3" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="BP3" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="BQ3" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="BR3" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="BS3" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="BT3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="BU3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="BV3" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="BW3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="BX3" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="BY3" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="BZ3" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="CA3" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="CB3" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="CC3" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="CD3" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="CE3" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="CF3" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="CG3" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="CH3" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="CI3" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="CJ3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="CK3" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="CL3" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="CM3" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="CN3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="CO3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="CP3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="CQ3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="CR3" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="CS3" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="CT3" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="CU3" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="CV3" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="CW3" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="CX3" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="CY3" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="CZ3" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="DA3" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="DB3" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="DC3" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="DD3" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="DE3" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="DF3" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="DG3" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="DH3" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="DI3" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="DJ3" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="DK3" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="DL3" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="DM3" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="DN3" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="DO3" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="DP3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="DQ3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="DR3" s="9" t="s">
+        <v>176</v>
+      </c>
     </row>
-    <row r="4" spans="1:48">
+    <row r="4" spans="1:122">
       <c r="A4" s="5"/>
       <c r="B4" s="7" t="s">
         <v>2</v>
@@ -2018,8 +4610,82 @@
       <c r="AT4" s="2"/>
       <c r="AU4" s="2"/>
       <c r="AV4" s="2"/>
+      <c r="AW4" s="2"/>
+      <c r="AX4" s="2"/>
+      <c r="AY4" s="2"/>
+      <c r="AZ4" s="2"/>
+      <c r="BA4" s="2"/>
+      <c r="BB4" s="2"/>
+      <c r="BC4" s="2"/>
+      <c r="BD4" s="2"/>
+      <c r="BE4" s="2"/>
+      <c r="BF4" s="2"/>
+      <c r="BG4" s="2"/>
+      <c r="BH4" s="2"/>
+      <c r="BI4" s="2"/>
+      <c r="BJ4" s="2"/>
+      <c r="BK4" s="2"/>
+      <c r="BL4" s="2"/>
+      <c r="BM4" s="2"/>
+      <c r="BN4" s="2"/>
+      <c r="BO4" s="2"/>
+      <c r="BP4" s="2"/>
+      <c r="BQ4" s="2"/>
+      <c r="BR4" s="2"/>
+      <c r="BS4" s="2"/>
+      <c r="BT4" s="2"/>
+      <c r="BU4" s="2"/>
+      <c r="BV4" s="2"/>
+      <c r="BW4" s="2"/>
+      <c r="BX4" s="2"/>
+      <c r="BY4" s="2"/>
+      <c r="BZ4" s="2"/>
+      <c r="CA4" s="2"/>
+      <c r="CB4" s="2"/>
+      <c r="CC4" s="2"/>
+      <c r="CD4" s="2"/>
+      <c r="CE4" s="2"/>
+      <c r="CF4" s="2"/>
+      <c r="CG4" s="2"/>
+      <c r="CH4" s="2"/>
+      <c r="CI4" s="2"/>
+      <c r="CJ4" s="2"/>
+      <c r="CK4" s="2"/>
+      <c r="CL4" s="2"/>
+      <c r="CM4" s="2"/>
+      <c r="CN4" s="2"/>
+      <c r="CO4" s="2"/>
+      <c r="CP4" s="2"/>
+      <c r="CQ4" s="2"/>
+      <c r="CR4" s="2"/>
+      <c r="CS4" s="2"/>
+      <c r="CT4" s="2"/>
+      <c r="CU4" s="2"/>
+      <c r="CV4" s="2"/>
+      <c r="CW4" s="2"/>
+      <c r="CX4" s="2"/>
+      <c r="CY4" s="2"/>
+      <c r="CZ4" s="2"/>
+      <c r="DA4" s="2"/>
+      <c r="DB4" s="2"/>
+      <c r="DC4" s="2"/>
+      <c r="DD4" s="2"/>
+      <c r="DE4" s="2"/>
+      <c r="DF4" s="2"/>
+      <c r="DG4" s="2"/>
+      <c r="DH4" s="2"/>
+      <c r="DI4" s="2"/>
+      <c r="DJ4" s="2"/>
+      <c r="DK4" s="2"/>
+      <c r="DL4" s="2"/>
+      <c r="DM4" s="2"/>
+      <c r="DN4" s="2"/>
+      <c r="DO4" s="2"/>
+      <c r="DP4" s="2"/>
+      <c r="DQ4" s="2"/>
+      <c r="DR4" s="2"/>
     </row>
-    <row r="5" spans="1:48">
+    <row r="5" spans="1:122">
       <c r="A5" s="5"/>
       <c r="B5" s="7" t="s">
         <v>2</v>
@@ -2070,19 +4736,94 @@
       <c r="AT5" s="2"/>
       <c r="AU5" s="2"/>
       <c r="AV5" s="2"/>
+      <c r="AW5" s="2"/>
+      <c r="AX5" s="2"/>
+      <c r="AY5" s="2"/>
+      <c r="AZ5" s="2"/>
+      <c r="BA5" s="2"/>
+      <c r="BB5" s="2"/>
+      <c r="BC5" s="2"/>
+      <c r="BD5" s="2"/>
+      <c r="BE5" s="2"/>
+      <c r="BF5" s="2"/>
+      <c r="BG5" s="2"/>
+      <c r="BH5" s="2"/>
+      <c r="BI5" s="2"/>
+      <c r="BJ5" s="2"/>
+      <c r="BK5" s="2"/>
+      <c r="BL5" s="2"/>
+      <c r="BM5" s="2"/>
+      <c r="BN5" s="2"/>
+      <c r="BO5" s="2"/>
+      <c r="BP5" s="2"/>
+      <c r="BQ5" s="2"/>
+      <c r="BR5" s="2"/>
+      <c r="BS5" s="2"/>
+      <c r="BT5" s="2"/>
+      <c r="BU5" s="2"/>
+      <c r="BV5" s="2"/>
+      <c r="BW5" s="2"/>
+      <c r="BX5" s="2"/>
+      <c r="BY5" s="2"/>
+      <c r="BZ5" s="2"/>
+      <c r="CA5" s="2"/>
+      <c r="CB5" s="2"/>
+      <c r="CC5" s="2"/>
+      <c r="CD5" s="2"/>
+      <c r="CE5" s="2"/>
+      <c r="CF5" s="2"/>
+      <c r="CG5" s="2"/>
+      <c r="CH5" s="2"/>
+      <c r="CI5" s="2"/>
+      <c r="CJ5" s="2"/>
+      <c r="CK5" s="2"/>
+      <c r="CL5" s="2"/>
+      <c r="CM5" s="2"/>
+      <c r="CN5" s="2"/>
+      <c r="CO5" s="2"/>
+      <c r="CP5" s="2"/>
+      <c r="CQ5" s="2"/>
+      <c r="CR5" s="2"/>
+      <c r="CS5" s="2"/>
+      <c r="CT5" s="2"/>
+      <c r="CU5" s="2"/>
+      <c r="CV5" s="2"/>
+      <c r="CW5" s="2"/>
+      <c r="CX5" s="2"/>
+      <c r="CY5" s="2"/>
+      <c r="CZ5" s="2"/>
+      <c r="DA5" s="2"/>
+      <c r="DB5" s="2"/>
+      <c r="DC5" s="2"/>
+      <c r="DD5" s="2"/>
+      <c r="DE5" s="2"/>
+      <c r="DF5" s="2"/>
+      <c r="DG5" s="2"/>
+      <c r="DH5" s="2"/>
+      <c r="DI5" s="2"/>
+      <c r="DJ5" s="2"/>
+      <c r="DK5" s="2"/>
+      <c r="DL5" s="2"/>
+      <c r="DM5" s="2"/>
+      <c r="DN5" s="2"/>
+      <c r="DO5" s="2"/>
+      <c r="DP5" s="2"/>
+      <c r="DQ5" s="2"/>
+      <c r="DR5" s="2"/>
     </row>
-    <row r="8" spans="1:48">
+    <row r="8" spans="1:122">
       <c r="G8" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="R2" r:id="rId1" xr:uid="{C16C2D57-6589-452C-AB89-231F93117CCA}"/>
+    <hyperlink ref="R3" r:id="rId2" xr:uid="{13E9CD5E-C1A6-4ACF-9ABD-7F5CCE9B1B09}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
--- a/resources/test_data/Lead_Creation.xlsx
+++ b/resources/test_data/Lead_Creation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\New_automation_\web-automation-framework\resources\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82C829D9-4BCD-414E-B412-27CD3C57782E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33265577-650B-4F7A-BE5C-F40D0454DFC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="186">
   <si>
     <t>username</t>
   </si>
@@ -545,9 +545,6 @@
     <t>firstEmiDate</t>
   </si>
   <si>
-    <t>31-12-2024</t>
-  </si>
-  <si>
     <t>requiredTenure</t>
   </si>
   <si>
@@ -581,9 +578,6 @@
     <t>Harshit</t>
   </si>
   <si>
-    <t>CPR305034</t>
-  </si>
-  <si>
     <t>CPR305035</t>
   </si>
   <si>
@@ -591,6 +585,15 @@
   </si>
   <si>
     <t>Lead_Creation_CPR_2</t>
+  </si>
+  <si>
+    <t>16-01-2025</t>
+  </si>
+  <si>
+    <t>16-01-2026</t>
+  </si>
+  <si>
+    <t>CPR305040</t>
   </si>
 </sst>
 </file>
@@ -3381,7 +3384,7 @@
   <dimension ref="A1:DR8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3603,10 +3606,10 @@
         <v>74</v>
       </c>
       <c r="AU1" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AV1" s="11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AW1" s="2" t="s">
         <v>75</v>
@@ -3813,27 +3816,27 @@
         <v>168</v>
       </c>
       <c r="DM1" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="DN1" s="2" t="s">
         <v>167</v>
       </c>
       <c r="DO1" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="DP1" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="DP1" s="2" t="s">
+      <c r="DQ1" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="DQ1" s="2" t="s">
+      <c r="DR1" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="DR1" s="2" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="2" spans="1:122" ht="43.5">
       <c r="A2" s="5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>2</v>
@@ -3842,7 +3845,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>7</v>
@@ -3967,10 +3970,10 @@
         <v>23</v>
       </c>
       <c r="AU2" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AV2" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AW2" s="5">
         <v>2</v>
@@ -4174,10 +4177,10 @@
         <v>166</v>
       </c>
       <c r="DL2" s="9" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="DM2" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="DN2" s="9" t="s">
         <v>40</v>
@@ -4192,12 +4195,12 @@
         <v>3</v>
       </c>
       <c r="DR2" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:122" ht="43.5">
       <c r="A3" s="5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>2</v>
@@ -4206,7 +4209,7 @@
         <v>3</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>7</v>
@@ -4331,10 +4334,10 @@
         <v>23</v>
       </c>
       <c r="AU3" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AV3" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AW3" s="5">
         <v>2</v>
@@ -4538,10 +4541,10 @@
         <v>166</v>
       </c>
       <c r="DL3" s="9" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="DM3" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="DN3" s="9" t="s">
         <v>40</v>
@@ -4556,7 +4559,7 @@
         <v>3</v>
       </c>
       <c r="DR3" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:122">

--- a/resources/test_data/Lead_Creation.xlsx
+++ b/resources/test_data/Lead_Creation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\New_automation_\web-automation-framework\resources\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D31E40BA-E1EE-4F32-BA94-813D11C3982A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A775DC83-EC25-4408-BFC6-46E79DF57E3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -668,10 +668,10 @@
     <t>bankNameBusiness</t>
   </si>
   <si>
-    <t>370356-375</t>
-  </si>
-  <si>
-    <t>OmkarTechnology</t>
+    <t>INNOFITT</t>
+  </si>
+  <si>
+    <t>CR067-5678</t>
   </si>
 </sst>
 </file>
@@ -3746,7 +3746,7 @@
   <dimension ref="A1:EG8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -5012,10 +5012,10 @@
         <v>187</v>
       </c>
       <c r="D4" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>40</v>

--- a/resources/test_data/Lead_Creation.xlsx
+++ b/resources/test_data/Lead_Creation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\New_automation_\web-automation-framework\resources\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A775DC83-EC25-4408-BFC6-46E79DF57E3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{102F1AD3-81BE-4AED-9E85-2F966C6CE397}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -668,10 +668,10 @@
     <t>bankNameBusiness</t>
   </si>
   <si>
-    <t>INNOFITT</t>
-  </si>
-  <si>
-    <t>CR067-5678</t>
+    <t>SheetalTecno</t>
+  </si>
+  <si>
+    <t>CR067-5698</t>
   </si>
 </sst>
 </file>
@@ -3746,7 +3746,7 @@
   <dimension ref="A1:EG8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>

--- a/resources/test_data/Lead_Creation.xlsx
+++ b/resources/test_data/Lead_Creation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\New_automation_\web-automation-framework\resources\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{102F1AD3-81BE-4AED-9E85-2F966C6CE397}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3049AEA7-EA6D-462A-AF2F-A0457CCF3770}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="215">
   <si>
     <t>username</t>
   </si>
@@ -578,18 +578,12 @@
     <t>Harshit</t>
   </si>
   <si>
-    <t>CPR305035</t>
-  </si>
-  <si>
     <t>Lead_Creation_CPR_1</t>
   </si>
   <si>
     <t>Lead_Creation_CPR_2</t>
   </si>
   <si>
-    <t>16-01-2025</t>
-  </si>
-  <si>
     <t>16-01-2026</t>
   </si>
   <si>
@@ -638,9 +632,6 @@
     <t>crStatus</t>
   </si>
   <si>
-    <t>CPR305043</t>
-  </si>
-  <si>
     <t>autoBlacklisted</t>
   </si>
   <si>
@@ -668,10 +659,28 @@
     <t>bankNameBusiness</t>
   </si>
   <si>
-    <t>SheetalTecno</t>
-  </si>
-  <si>
-    <t>CR067-5698</t>
+    <t>Ap8567-5698</t>
+  </si>
+  <si>
+    <t>Lead_Creation_CR_Co_Applicant</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>26-01-2025</t>
+  </si>
+  <si>
+    <t>CPR305059</t>
+  </si>
+  <si>
+    <t>CPR305060</t>
+  </si>
+  <si>
+    <t>Ac87-5698</t>
+  </si>
+  <si>
+    <t>Infratec</t>
   </si>
 </sst>
 </file>
@@ -3746,7 +3755,7 @@
   <dimension ref="A1:EG8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3841,7 +3850,7 @@
         <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>9</v>
@@ -3895,7 +3904,7 @@
         <v>28</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="W1" s="2" t="s">
         <v>29</v>
@@ -4201,51 +4210,51 @@
         <v>173</v>
       </c>
       <c r="DT1" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="DU1" s="2" t="s">
         <v>174</v>
       </c>
       <c r="DV1" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="DW1" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="DX1" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="DW1" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="DX1" s="2" t="s">
+      <c r="DY1" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="DY1" s="2" t="s">
+      <c r="DZ1" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="EA1" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="DZ1" s="2" t="s">
+      <c r="EB1" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="EC1" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="EA1" s="2" t="s">
+      <c r="ED1" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="EB1" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="EC1" s="2" t="s">
+      <c r="EE1" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="ED1" s="2" t="s">
+      <c r="EF1" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="EE1" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="EF1" s="2" t="s">
-        <v>208</v>
-      </c>
       <c r="EG1" s="2" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="2" spans="1:137" ht="43.5">
       <c r="A2" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>2</v>
@@ -4255,13 +4264,13 @@
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>73</v>
@@ -4588,7 +4597,7 @@
         <v>166</v>
       </c>
       <c r="DN2" s="9" t="s">
-        <v>183</v>
+        <v>210</v>
       </c>
       <c r="DO2" s="9" t="s">
         <v>170</v>
@@ -4624,7 +4633,7 @@
     </row>
     <row r="3" spans="1:137" ht="43.5">
       <c r="A3" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>2</v>
@@ -4634,7 +4643,7 @@
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5" t="s">
-        <v>180</v>
+        <v>212</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>7</v>
@@ -4967,7 +4976,7 @@
         <v>166</v>
       </c>
       <c r="DN3" s="9" t="s">
-        <v>184</v>
+        <v>210</v>
       </c>
       <c r="DO3" s="9" t="s">
         <v>170</v>
@@ -5003,19 +5012,19 @@
     </row>
     <row r="4" spans="1:137" ht="43.5">
       <c r="A4" s="5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>40</v>
@@ -5036,10 +5045,10 @@
         <v>21</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="N4" s="5" t="s">
         <v>23</v>
@@ -5050,7 +5059,7 @@
       <c r="P4" s="5"/>
       <c r="Q4" s="5"/>
       <c r="R4" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="S4" s="5" t="s">
         <v>41</v>
@@ -5350,7 +5359,7 @@
         <v>166</v>
       </c>
       <c r="DN4" s="9" t="s">
-        <v>184</v>
+        <v>210</v>
       </c>
       <c r="DO4" s="9" t="s">
         <v>170</v>
@@ -5368,19 +5377,19 @@
         <v>3</v>
       </c>
       <c r="DT4" s="9" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="DU4" s="9" t="s">
         <v>175</v>
       </c>
       <c r="DV4" s="9" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="DW4" s="2" t="s">
         <v>32</v>
       </c>
       <c r="DX4" s="9" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="DY4" s="9" t="s">
         <v>7</v>
@@ -5398,10 +5407,10 @@
         <v>40</v>
       </c>
       <c r="ED4" s="9" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="EE4" s="9" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="EF4" s="9" t="s">
         <v>34</v>
@@ -5410,146 +5419,412 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:137">
-      <c r="A5" s="5"/>
-      <c r="B5" s="7" t="s">
+    <row r="5" spans="1:137" ht="58">
+      <c r="A5" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="5"/>
+      <c r="C5" s="5" t="s">
+        <v>185</v>
+      </c>
       <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
+      <c r="E5" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="5">
+        <v>9879657</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>27</v>
+      </c>
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
-      <c r="W5" s="2"/>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
-      <c r="Z5" s="2"/>
-      <c r="AA5" s="2"/>
-      <c r="AB5" s="2"/>
-      <c r="AC5" s="2"/>
-      <c r="AD5" s="2"/>
-      <c r="AE5" s="2"/>
-      <c r="AF5" s="2"/>
-      <c r="AG5" s="2"/>
-      <c r="AH5" s="2"/>
-      <c r="AI5" s="2"/>
-      <c r="AJ5" s="2"/>
-      <c r="AK5" s="2"/>
-      <c r="AL5" s="2"/>
-      <c r="AM5" s="2"/>
-      <c r="AN5" s="2"/>
-      <c r="AO5" s="2"/>
-      <c r="AP5" s="2"/>
-      <c r="AQ5" s="2"/>
-      <c r="AR5" s="2"/>
-      <c r="AS5" s="2"/>
-      <c r="AT5" s="2"/>
-      <c r="AU5" s="2"/>
-      <c r="AV5" s="2"/>
-      <c r="AW5" s="2"/>
-      <c r="AX5" s="2"/>
-      <c r="AY5" s="2"/>
-      <c r="AZ5" s="2"/>
-      <c r="BA5" s="2"/>
-      <c r="BB5" s="2"/>
-      <c r="BC5" s="2"/>
-      <c r="BD5" s="2"/>
-      <c r="BE5" s="2"/>
-      <c r="BF5" s="2"/>
-      <c r="BG5" s="2"/>
-      <c r="BH5" s="2"/>
-      <c r="BI5" s="2"/>
-      <c r="BJ5" s="2"/>
-      <c r="BK5" s="2"/>
-      <c r="BL5" s="2"/>
-      <c r="BM5" s="2"/>
-      <c r="BN5" s="2"/>
-      <c r="BO5" s="2"/>
-      <c r="BP5" s="2"/>
-      <c r="BQ5" s="2"/>
-      <c r="BR5" s="2"/>
-      <c r="BS5" s="2"/>
-      <c r="BT5" s="2"/>
-      <c r="BU5" s="2"/>
-      <c r="BV5" s="2"/>
-      <c r="BW5" s="2"/>
-      <c r="BX5" s="2"/>
-      <c r="BY5" s="2"/>
-      <c r="BZ5" s="2"/>
-      <c r="CA5" s="2"/>
-      <c r="CB5" s="2"/>
-      <c r="CC5" s="2"/>
-      <c r="CD5" s="2"/>
-      <c r="CE5" s="2"/>
-      <c r="CF5" s="2"/>
-      <c r="CG5" s="2"/>
-      <c r="CH5" s="2"/>
-      <c r="CI5" s="2"/>
-      <c r="CJ5" s="2"/>
-      <c r="CK5" s="2"/>
-      <c r="CL5" s="2"/>
-      <c r="CM5" s="2"/>
-      <c r="CN5" s="2"/>
-      <c r="CO5" s="2"/>
-      <c r="CP5" s="2"/>
-      <c r="CQ5" s="2"/>
-      <c r="CR5" s="2"/>
-      <c r="CS5" s="2"/>
-      <c r="CT5" s="2"/>
-      <c r="CU5" s="2"/>
-      <c r="CV5" s="2"/>
-      <c r="CW5" s="2"/>
-      <c r="CX5" s="2"/>
-      <c r="CY5" s="2"/>
-      <c r="CZ5" s="2"/>
-      <c r="DA5" s="2"/>
-      <c r="DB5" s="2"/>
-      <c r="DC5" s="2"/>
-      <c r="DD5" s="2"/>
-      <c r="DE5" s="2"/>
-      <c r="DF5" s="2"/>
-      <c r="DG5" s="2"/>
-      <c r="DH5" s="2"/>
-      <c r="DI5" s="2"/>
-      <c r="DJ5" s="2"/>
-      <c r="DK5" s="2"/>
-      <c r="DL5" s="2"/>
-      <c r="DM5" s="2"/>
-      <c r="DN5" s="2"/>
-      <c r="DO5" s="2"/>
-      <c r="DP5" s="2"/>
-      <c r="DQ5" s="2"/>
-      <c r="DR5" s="2"/>
-      <c r="DS5" s="2"/>
-      <c r="DT5" s="2"/>
-      <c r="DU5" s="2"/>
-      <c r="DV5" s="2"/>
-      <c r="DW5" s="2"/>
-      <c r="DX5" s="2"/>
-      <c r="DY5" s="2"/>
-      <c r="DZ5" s="2"/>
-      <c r="EA5" s="2"/>
-      <c r="EB5" s="2"/>
-      <c r="EC5" s="2"/>
-      <c r="ED5" s="2"/>
-      <c r="EE5" s="2"/>
-      <c r="EF5" s="2"/>
-      <c r="EG5" s="2"/>
+      <c r="R5" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="S5" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="T5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="U5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="V5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="W5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="X5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z5" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD5" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF5" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG5" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH5" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI5" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ5" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="AK5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="AL5" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AM5" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN5" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO5" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP5" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ5" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR5" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AS5" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT5" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AU5" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AV5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="AW5" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="AX5" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="AY5" s="5">
+        <v>2</v>
+      </c>
+      <c r="AZ5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="BA5" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="BB5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="BC5" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="BD5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="BE5" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="BF5" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="BG5" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="BH5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="BI5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="BJ5" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="BK5" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL5" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="BM5" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="BN5" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="BO5" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="BP5" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="BQ5" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="BR5" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="BS5" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="BT5" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="BU5" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="BV5" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="BW5" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="BX5" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="BY5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="BZ5" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="CA5" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="CB5" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="CC5" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="CD5" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="CE5" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="CF5" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="CG5" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="CH5" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="CI5" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="CJ5" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="CK5" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="CL5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="CM5" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="CN5" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="CO5" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="CP5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="CQ5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="CR5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="CS5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="CT5" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="CU5" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="CV5" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="CW5" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="CX5" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="CY5" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="CZ5" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="DA5" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="DB5" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="DC5" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="DD5" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="DE5" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="DF5" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="DG5" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="DH5" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="DI5" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="DJ5" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="DK5" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="DL5" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="DM5" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="DN5" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="DO5" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="DP5" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="DQ5" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="DR5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="DS5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="DT5" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="DU5" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="DV5" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="DW5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="DX5" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="DY5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="DZ5" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="EA5" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="EB5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="EC5" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="ED5" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="EE5" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="EF5" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="EG5" s="9" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="8" spans="1:137">
       <c r="H8" s="3"/>
@@ -5560,11 +5835,12 @@
     <hyperlink ref="S2" r:id="rId1" xr:uid="{C16C2D57-6589-452C-AB89-231F93117CCA}"/>
     <hyperlink ref="S3" r:id="rId2" xr:uid="{13E9CD5E-C1A6-4ACF-9ABD-7F5CCE9B1B09}"/>
     <hyperlink ref="S4" r:id="rId3" xr:uid="{7EED7963-DBA9-47F1-9340-DA5E957D739F}"/>
+    <hyperlink ref="S5" r:id="rId4" xr:uid="{54CBBEEE-524F-4ADB-9C63-4954D30211E9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
   <tableParts count="1">
-    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
   </tableParts>
 </worksheet>
 </file>
--- a/resources/test_data/Lead_Creation.xlsx
+++ b/resources/test_data/Lead_Creation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\New_automation_\web-automation-framework\resources\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3049AEA7-EA6D-462A-AF2F-A0457CCF3770}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5917D37C-5E59-4868-A586-4EFF62EED163}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="225">
   <si>
     <t>username</t>
   </si>
@@ -368,12 +368,6 @@
     <t>110</t>
   </si>
   <si>
-    <t>3000000.000</t>
-  </si>
-  <si>
-    <t>300000.000</t>
-  </si>
-  <si>
     <t>collateralType</t>
   </si>
   <si>
@@ -404,12 +398,6 @@
     <t>prompt</t>
   </si>
   <si>
-    <t>300000</t>
-  </si>
-  <si>
-    <t>'300000</t>
-  </si>
-  <si>
     <t>11-12-2024</t>
   </si>
   <si>
@@ -671,16 +659,58 @@
     <t>26-01-2025</t>
   </si>
   <si>
-    <t>CPR305059</t>
-  </si>
-  <si>
-    <t>CPR305060</t>
-  </si>
-  <si>
     <t>Ac87-5698</t>
   </si>
   <si>
     <t>Infratec</t>
+  </si>
+  <si>
+    <t>remark</t>
+  </si>
+  <si>
+    <t>Ok</t>
+  </si>
+  <si>
+    <t>4000.000</t>
+  </si>
+  <si>
+    <t>400.000</t>
+  </si>
+  <si>
+    <t>4000</t>
+  </si>
+  <si>
+    <t>CPR305061</t>
+  </si>
+  <si>
+    <t>username1</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>chasisNumber</t>
+  </si>
+  <si>
+    <t>engineNumber</t>
+  </si>
+  <si>
+    <t>CPR305068</t>
+  </si>
+  <si>
+    <t>4343</t>
+  </si>
+  <si>
+    <t>RTG76FHJ123456</t>
+  </si>
+  <si>
+    <t>Lead_Creation_CPR_3</t>
+  </si>
+  <si>
+    <t>Rawat</t>
+  </si>
+  <si>
+    <t>CPR305640</t>
   </si>
 </sst>
 </file>
@@ -792,7 +822,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -813,9 +843,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -827,7 +854,64 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="135">
+  <dxfs count="138">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -3348,142 +3432,145 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DC87E5BE-26EC-4DBC-8565-103061C7F3D4}" name="Table2" displayName="Table2" ref="E1:EG5" totalsRowShown="0" headerRowDxfId="134" dataDxfId="133">
-  <autoFilter ref="E1:EG5" xr:uid="{DC87E5BE-26EC-4DBC-8565-103061C7F3D4}"/>
-  <tableColumns count="133">
-    <tableColumn id="1" xr3:uid="{F63B5B5B-75EF-415D-9D47-65053D6DF43A}" name="IDNumber" dataDxfId="132"/>
-    <tableColumn id="2" xr3:uid="{00DFF19F-9E5D-44BD-B746-C5D10556D9C8}" name="CustomerType" dataDxfId="131"/>
-    <tableColumn id="4" xr3:uid="{16007208-EDF9-4E5D-AAA6-7F837DDD8C78}" name="FirstName" dataDxfId="130"/>
-    <tableColumn id="5" xr3:uid="{EBB0D839-0B51-4805-BD0B-AAB83E639E7A}" name="SecondName" dataDxfId="129"/>
-    <tableColumn id="6" xr3:uid="{07BF2CBA-E818-4808-9F87-9C6E9B8E27EB}" name="FamilyName" dataDxfId="128"/>
-    <tableColumn id="7" xr3:uid="{2E161694-E056-49B2-B02C-18609B166288}" name="MobileNumber" dataDxfId="127"/>
-    <tableColumn id="8" xr3:uid="{833F8941-B4C0-4E9B-89CA-6ACBE1BBC919}" name="Product" dataDxfId="126"/>
-    <tableColumn id="9" xr3:uid="{6AB217CA-8575-47C6-8323-49DBB8179C87}" name="SubProduct" dataDxfId="125"/>
-    <tableColumn id="10" xr3:uid="{B427C861-36D2-4A49-8916-781C22F94FF4}" name="SchemeType" dataDxfId="124"/>
-    <tableColumn id="11" xr3:uid="{BC30846C-2EA9-4DD7-B7FD-8EFA2281FD70}" name="Branch" dataDxfId="123"/>
-    <tableColumn id="12" xr3:uid="{7521EBC7-8105-4B20-B089-0355970E2900}" name="addressType" dataDxfId="122"/>
-    <tableColumn id="13" xr3:uid="{A68B51A1-92D8-490D-8098-B759DD9581A1}" name="addressTypeValue" dataDxfId="121"/>
-    <tableColumn id="14" xr3:uid="{F19CF168-BC8D-46DE-ACA0-71EDB250DFFF}" name="activeInActive" dataDxfId="120"/>
-    <tableColumn id="3" xr3:uid="{CA80F8FF-FC63-4AD4-9D64-0F817F3CD198}" name="ApplicantType" dataDxfId="119"/>
-    <tableColumn id="15" xr3:uid="{A95550BC-D33C-4168-9C34-660D7631DE85}" name="email" dataDxfId="118"/>
-    <tableColumn id="16" xr3:uid="{3183446F-0B43-4115-A526-CA96A24A5A0C}" name="SourceOfIncome" dataDxfId="117"/>
-    <tableColumn id="17" xr3:uid="{1673EE05-9F0D-4EB3-B6D6-DC08105325A2}" name="Title" dataDxfId="116"/>
-    <tableColumn id="120" xr3:uid="{FDC531AF-46A0-4FCB-B25A-8E287A2C8C2E}" name="formOfOrganization" dataDxfId="115"/>
-    <tableColumn id="18" xr3:uid="{683CA39D-EC12-4489-A45A-69A9DEBD4155}" name="Nationality" dataDxfId="114"/>
-    <tableColumn id="20" xr3:uid="{BBFDDC0F-FDD1-46F8-B248-DF40C724613D}" name="countryOfJurisdiction" dataDxfId="113"/>
-    <tableColumn id="21" xr3:uid="{2983BFC1-1906-4319-9DF0-B77011DD7DEA}" name="EducationLevel" dataDxfId="112"/>
-    <tableColumn id="22" xr3:uid="{986D7F90-6FF6-41A5-A619-2D271BE00764}" name="DateOfBirth" dataDxfId="111"/>
-    <tableColumn id="23" xr3:uid="{8EF037E0-977A-443D-A870-A027ABFB319E}" name="MaritalStatus" dataDxfId="110"/>
-    <tableColumn id="24" xr3:uid="{A2FF1F1E-5655-44BF-886D-A1CDF65B5A95}" name="NoOfDependents" dataDxfId="109"/>
-    <tableColumn id="25" xr3:uid="{56E2E3BE-8A9C-4AE9-94D4-966966AE8106}" name="ReturnedCheques" dataDxfId="108"/>
-    <tableColumn id="26" xr3:uid="{E193FD7F-57D4-4112-85E2-6D86AEEE2D77}" name="ChequeAbuserList" dataDxfId="107"/>
-    <tableColumn id="27" xr3:uid="{15E73E8B-3789-4FC5-959A-FEB1D9247868}" name="PropertyOwnership" dataDxfId="106"/>
-    <tableColumn id="28" xr3:uid="{6B956D5B-906C-4326-8C82-4DA36E1F5615}" name="addressLine1" dataDxfId="105"/>
-    <tableColumn id="34" xr3:uid="{007FE1DB-033B-4516-B370-A1624B351561}" name="building" dataDxfId="104"/>
-    <tableColumn id="29" xr3:uid="{2E8258A9-21F2-49E6-A32C-A2461F6F0D34}" name="flat" dataDxfId="103"/>
-    <tableColumn id="30" xr3:uid="{4B02ADB7-BF07-4814-B8AA-5139B871F77F}" name="avenue" dataDxfId="102"/>
-    <tableColumn id="31" xr3:uid="{3FDD9253-AB6B-4FD1-876D-578DA73C5B56}" name="Block" dataDxfId="101"/>
-    <tableColumn id="32" xr3:uid="{BA71D7A1-AD3D-40A5-ADFB-7F9EBCE6C2C6}" name="Country" dataDxfId="100"/>
-    <tableColumn id="33" xr3:uid="{6515130A-EC40-4F7C-AA54-1ADD52D50D5E}" name="City_Area" dataDxfId="99"/>
-    <tableColumn id="19" xr3:uid="{4D649DD4-69B1-40FF-8591-BC8ABD1B6012}" name="issueDate" dataDxfId="98"/>
-    <tableColumn id="35" xr3:uid="{A40DD074-5F3C-4816-B828-7A321AE246E1}" name="expiryDate" dataDxfId="97"/>
-    <tableColumn id="36" xr3:uid="{34620B96-0561-451C-9DBE-C0899F72320A}" name="renewalUnderProcess" dataDxfId="96"/>
-    <tableColumn id="37" xr3:uid="{0004759E-F0AA-489E-B041-D0E052AC9809}" name="natureOfEmplmt" dataDxfId="95"/>
-    <tableColumn id="38" xr3:uid="{E4D18649-8838-4E63-9E4B-3E22C3502670}" name="incomeType" dataDxfId="94"/>
-    <tableColumn id="39" xr3:uid="{B0BEE11D-04F9-4615-B858-E88D7F4B2BFF}" name="incomeAmt_txt" dataDxfId="93"/>
-    <tableColumn id="40" xr3:uid="{5F7661EC-8CA9-43FD-A1F8-605F258C9D1E}" name="bankName" dataDxfId="92"/>
-    <tableColumn id="41" xr3:uid="{03FF8983-E488-4619-B7EF-DAB89F5EAC3B}" name="accountNumber" dataDxfId="91"/>
-    <tableColumn id="42" xr3:uid="{D7557DBA-7BF9-4B6B-A993-A719B1AC1F05}" name="ibanNumber" dataDxfId="90"/>
-    <tableColumn id="43" xr3:uid="{B3FE0B56-7A31-4A0C-999F-A057737C3647}" name="CustomerTypeContactDetails" dataDxfId="89"/>
-    <tableColumn id="119" xr3:uid="{2BD3DD66-4663-429F-9EC2-7138114471C6}" name="relationName" dataDxfId="88"/>
-    <tableColumn id="118" xr3:uid="{85144347-A603-4B4C-9421-95BF2817AAD7}" name="relationWithCust" dataDxfId="87"/>
-    <tableColumn id="44" xr3:uid="{B03A64D4-2EB9-4ACE-B800-7091881934FE}" name="ContactType" dataDxfId="86"/>
-    <tableColumn id="45" xr3:uid="{E46BDB05-540A-4D5A-BE38-BB45035A1FBB}" name="Contact_status" dataDxfId="85"/>
-    <tableColumn id="46" xr3:uid="{071B7EAD-4786-4BF6-BD57-7F551BF1BFF0}" name="regWithNfh" dataDxfId="84"/>
-    <tableColumn id="47" xr3:uid="{0644A39D-5B5B-4DA9-B33F-8CBB659FE512}" name="vehPurchaseType" dataDxfId="83"/>
-    <tableColumn id="48" xr3:uid="{9C326EAF-77E1-4045-9042-56296390DA47}" name="hirePurchase" dataDxfId="82"/>
-    <tableColumn id="49" xr3:uid="{75DAB3C7-BB41-48FA-8B60-DFEFC5164F57}" name="isApplicantOwner" dataDxfId="81"/>
-    <tableColumn id="50" xr3:uid="{64AC5C43-9B94-4815-A277-3DA2D5E3A538}" name="isPrimrySecurity" dataDxfId="80"/>
-    <tableColumn id="51" xr3:uid="{7AB4CB89-CBF0-402F-91AD-AA45FC029539}" name="vehDealer" dataDxfId="79"/>
-    <tableColumn id="52" xr3:uid="{928B80BD-B376-4005-B7A0-34DA4C9FD1E3}" name="dealerSaleman" dataDxfId="78"/>
-    <tableColumn id="53" xr3:uid="{2FEEB584-A7ED-4E3A-9B89-1F6B6A099671}" name="vehCat" dataDxfId="77"/>
-    <tableColumn id="54" xr3:uid="{1DA9CDDC-77D9-44B6-8642-62F09DC56422}" name="vehMaker" dataDxfId="76"/>
-    <tableColumn id="55" xr3:uid="{C33B6678-1BA4-42C5-A240-E86E78B157C3}" name="vehModel" dataDxfId="75"/>
-    <tableColumn id="56" xr3:uid="{172E096F-A9A2-4CF3-9AFB-3424C30B1FA3}" name="vehModelCat" dataDxfId="74"/>
-    <tableColumn id="57" xr3:uid="{04B0522D-440A-4682-B572-81E681286D08}" name="manufactureCountry" dataDxfId="73"/>
-    <tableColumn id="58" xr3:uid="{63DF28F3-0DCF-4466-95D9-A7B8679C5338}" name="colour" dataDxfId="72"/>
-    <tableColumn id="59" xr3:uid="{BF43045B-8357-47B4-A489-C10F4CCDD4F1}" name="manufactureYear" dataDxfId="71"/>
-    <tableColumn id="60" xr3:uid="{30FD714C-FBFB-4619-A366-3FF395E7E139}" name="vehiclePrice_txt" dataDxfId="70"/>
-    <tableColumn id="61" xr3:uid="{94D38C5A-700A-4528-A837-90C836489E4E}" name="downPaymentPer_txt" dataDxfId="69"/>
-    <tableColumn id="62" xr3:uid="{3A681706-B2D4-49F3-88FA-97277F708246}" name="initialPaymt_txt" dataDxfId="68"/>
-    <tableColumn id="63" xr3:uid="{ACDE4A0C-A6B2-4D87-83BE-9DBEAF3B7EA8}" name="actVehiclePrice_txt" dataDxfId="67"/>
-    <tableColumn id="64" xr3:uid="{BC736CC7-6CAD-44C2-9288-91971876FC45}" name="adminCharge_txt" dataDxfId="66"/>
-    <tableColumn id="65" xr3:uid="{B7631C2C-9A9D-4C40-B97F-7A2548260750}" name="adminVat" dataDxfId="65"/>
-    <tableColumn id="66" xr3:uid="{59A7C662-7F28-4D63-9CB6-7FD71F70741D}" name="adminChagreWithVat_txt" dataDxfId="64"/>
-    <tableColumn id="67" xr3:uid="{0ACE22C9-BFA2-4413-BBC2-1C9F29D7F032}" name="modeOfPayment" dataDxfId="63"/>
-    <tableColumn id="68" xr3:uid="{956718A3-3DA9-432A-BE21-F4EE365D521C}" name="isInsuredWithNFH" dataDxfId="62"/>
-    <tableColumn id="69" xr3:uid="{D092F385-0749-4926-B32F-E4A40D97672E}" name="collateralType" dataDxfId="61"/>
-    <tableColumn id="70" xr3:uid="{D5D19B86-E695-4C1D-913A-FB6343AB534D}" name="collateralSubType" dataDxfId="60"/>
-    <tableColumn id="71" xr3:uid="{B312C1AB-E7B8-4367-B805-A99B729A14A3}" name="valuatorName" dataDxfId="59"/>
-    <tableColumn id="72" xr3:uid="{B7AB646A-EBBB-4EB0-9FB0-DBE43DFFE330}" name="otherValuatorName" dataDxfId="58"/>
-    <tableColumn id="73" xr3:uid="{B1FD4261-2181-4B55-AAE3-6162C625B56D}" name="estimatedValuationAmt_txt" dataDxfId="57"/>
-    <tableColumn id="74" xr3:uid="{A4741736-F379-42DF-88F8-841355249EDB}" name="finalValuationAmt_txt" dataDxfId="56"/>
-    <tableColumn id="75" xr3:uid="{6E8AD8AE-62CE-461D-8748-9D387CCD70C5}" name="valuationDate" dataDxfId="55"/>
-    <tableColumn id="76" xr3:uid="{02F21512-03F4-4059-9E30-C15516314CFE}" name="chassisNo" dataDxfId="54"/>
-    <tableColumn id="77" xr3:uid="{F95CBF5D-6BD7-4C3E-BA44-86E0AA0CA475}" name="registrationNo" dataDxfId="53"/>
-    <tableColumn id="78" xr3:uid="{FE95FBFA-6AF8-4E65-A8BA-C8E4667D1A10}" name="engineCapacity" dataDxfId="52"/>
-    <tableColumn id="79" xr3:uid="{F1EAECC0-75AD-4DC4-8BEB-50764716FB73}" name="mileage" dataDxfId="51"/>
-    <tableColumn id="80" xr3:uid="{E9D66C2D-3BA7-47AC-8384-C167FF40306D}" name="cylinder" dataDxfId="50"/>
-    <tableColumn id="81" xr3:uid="{AD1FB051-1EEC-4374-AAA5-6B620D830FC4}" name="color" dataDxfId="49"/>
-    <tableColumn id="82" xr3:uid="{ADBB0DF3-84AD-4DAD-9B54-54807BB109BD}" name="insuranceType" dataDxfId="48"/>
-    <tableColumn id="83" xr3:uid="{DE41EEFF-2AF2-40DF-9D1C-CD072BCFB90F}" name="vehicleCondition" dataDxfId="47"/>
-    <tableColumn id="84" xr3:uid="{360A06CC-896F-472C-9184-B6485DBC2E24}" name="exteriorCondition" dataDxfId="46"/>
-    <tableColumn id="85" xr3:uid="{23C4EA02-9853-4B40-841E-D83818C82CED}" name="interiorCondition" dataDxfId="45"/>
-    <tableColumn id="86" xr3:uid="{426BC3BF-2900-43DF-B907-B998AB4A3FD6}" name="tyreCondition" dataDxfId="44"/>
-    <tableColumn id="87" xr3:uid="{59D4C78D-3A01-431B-A37F-0CAC4F8060C4}" name="engineCondition" dataDxfId="43"/>
-    <tableColumn id="88" xr3:uid="{ED1EF02C-D7E6-4C80-B7C3-EB885A408873}" name="gearBox" dataDxfId="42"/>
-    <tableColumn id="89" xr3:uid="{BB055320-D9AB-427B-B07C-C8889F1892B4}" name="suspension" dataDxfId="41"/>
-    <tableColumn id="90" xr3:uid="{7258326E-3F04-4976-8492-3603BA97D071}" name="interiorType" dataDxfId="40"/>
-    <tableColumn id="91" xr3:uid="{825B14FD-9CB2-4A4F-ADBD-5347B46D09CE}" name="manufactureWarranty" dataDxfId="39"/>
-    <tableColumn id="92" xr3:uid="{1B61C1D4-8E64-4A15-826A-E0137CB82D83}" name="warrntyYearRemaining" dataDxfId="38"/>
-    <tableColumn id="93" xr3:uid="{FDEC472D-97B5-4015-A7ED-2E1067730E27}" name="alloyWheels" dataDxfId="37"/>
-    <tableColumn id="94" xr3:uid="{74CDD0FF-484D-4DF3-BAF8-C8155EBF3011}" name="spareTyre" dataDxfId="36"/>
-    <tableColumn id="95" xr3:uid="{1CD9662A-8FB1-4C94-8C23-910A64FC9408}" name="jack" dataDxfId="35"/>
-    <tableColumn id="96" xr3:uid="{205059EB-0A88-4AB1-A579-072E85685FD1}" name="tool" dataDxfId="34"/>
-    <tableColumn id="97" xr3:uid="{47D70AEF-55CB-46E7-BEE9-A8B376ABB00A}" name="wheelCaps" dataDxfId="33"/>
-    <tableColumn id="98" xr3:uid="{4D1B9B90-6C91-4149-A427-2E573E0BE8F6}" name="floorrMats" dataDxfId="32"/>
-    <tableColumn id="99" xr3:uid="{8E0EFE84-2194-4F00-B7ED-0A22A736FE5C}" name="fireExtinguisher" dataDxfId="31"/>
-    <tableColumn id="100" xr3:uid="{8B56A608-68C9-493E-8B91-B69CF9D944BA}" name="firstAidKit" dataDxfId="30"/>
-    <tableColumn id="101" xr3:uid="{04D0114D-113B-4E4A-8945-03FB77E918E2}" name="spareKey" dataDxfId="29"/>
-    <tableColumn id="102" xr3:uid="{8EEABA6B-CD4A-41C1-AD23-3A060938FBBC}" name="radio" dataDxfId="28"/>
-    <tableColumn id="103" xr3:uid="{A476DA46-F896-41C2-B730-05A8EE8BBA0D}" name="sunRoof" dataDxfId="27"/>
-    <tableColumn id="104" xr3:uid="{40837055-ACB4-48AC-95F5-CA8E7893C55E}" name="electricWindow" dataDxfId="26"/>
-    <tableColumn id="105" xr3:uid="{606CCFC8-FBA6-4AB7-AE7B-37007236EDE6}" name="satelliteNavigation" dataDxfId="25"/>
-    <tableColumn id="106" xr3:uid="{4E3BA4DC-9193-4F34-8496-65AEE6B82737}" name="dvd" dataDxfId="24"/>
-    <tableColumn id="107" xr3:uid="{9DB233D0-755F-4162-A8E8-ABEAC6C5B3A5}" name="screen" dataDxfId="23"/>
-    <tableColumn id="108" xr3:uid="{30040546-46FE-4FA1-959E-C453DBF0BFD5}" name="airConditioner" dataDxfId="22"/>
-    <tableColumn id="109" xr3:uid="{C8813AC5-5CF8-4370-82DC-565FC005E836}" name="battery" dataDxfId="21"/>
-    <tableColumn id="110" xr3:uid="{34614546-004C-4454-8912-15181BD4ECD8}" name="remarks" dataDxfId="20"/>
-    <tableColumn id="111" xr3:uid="{54D5F79C-FEFE-4EBE-8DB3-8F37E93E43C6}" name="firstEmiDate" dataDxfId="19"/>
-    <tableColumn id="112" xr3:uid="{1848B67E-9391-4333-BD03-D9AA7D3F2B8E}" name="requiredTenure" dataDxfId="18"/>
-    <tableColumn id="113" xr3:uid="{A2F17A4A-AB2B-420C-908D-1A998ECFAA99}" name="vatPaymentMode" dataDxfId="17"/>
-    <tableColumn id="114" xr3:uid="{342CF2C2-2827-4FFE-BFA7-AE764B29441C}" name="repaymentMode" dataDxfId="16"/>
-    <tableColumn id="115" xr3:uid="{B95FCC17-EBCC-47E0-98A5-18FE8FF57B9B}" name="isDefault" dataDxfId="15"/>
-    <tableColumn id="116" xr3:uid="{C4672D46-75C5-45D3-AF43-F9E52B1EA9E8}" name="docGrp" dataDxfId="14"/>
-    <tableColumn id="121" xr3:uid="{484C9E84-C658-4E12-AEB1-760D0E3C79F2}" name="registrationDate" dataDxfId="13"/>
-    <tableColumn id="117" xr3:uid="{8DB8BF92-2E3A-49A3-ADC8-23C055D38F41}" name="docType" dataDxfId="12"/>
-    <tableColumn id="122" xr3:uid="{07BB487A-B6A9-42DD-9ADA-E7F926155EDE}" name="expirationDate" dataDxfId="11"/>
-    <tableColumn id="123" xr3:uid="{109789D0-506D-47DA-A49A-7840BFAEFAB5}" name="placeOfEstablishment" dataDxfId="10"/>
-    <tableColumn id="124" xr3:uid="{DC239F99-E54E-4DB6-B9A3-5AC5D3176B08}" name="purposeCode" dataDxfId="9"/>
-    <tableColumn id="125" xr3:uid="{1DF4975D-740D-43AB-911C-FF1F4C635DB4}" name="crStatus" dataDxfId="8"/>
-    <tableColumn id="126" xr3:uid="{6FCB0C9B-A814-46F2-9D26-4887205F96B6}" name="autoBlacklisted" dataDxfId="7"/>
-    <tableColumn id="127" xr3:uid="{C974E4D7-EC11-4ED6-8BC0-355123A46A06}" name="unListValidated" dataDxfId="6"/>
-    <tableColumn id="128" xr3:uid="{3259DC83-3908-4D62-B105-69A90964B584}" name="returnedCheques2" dataDxfId="5"/>
-    <tableColumn id="129" xr3:uid="{57B5A4CC-9DF0-45B1-B159-6B17E5474F0F}" name="chequeAbuserList2" dataDxfId="4"/>
-    <tableColumn id="130" xr3:uid="{3EABEFDD-34C6-423C-AADC-C8ADBE9CF08B}" name="totCreditTurnOver" dataDxfId="3"/>
-    <tableColumn id="131" xr3:uid="{2A8125DB-0727-4E10-85B3-B61C752C2550}" name="noOfMonths" dataDxfId="2"/>
-    <tableColumn id="132" xr3:uid="{3305ACE0-5952-4227-967D-D64A9154ABB2}" name="avgCreditTurnoverPerc" dataDxfId="1"/>
-    <tableColumn id="133" xr3:uid="{F19797E2-CE51-436D-A775-E6D05BDF4B4F}" name="bankNameBusiness" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DC87E5BE-26EC-4DBC-8565-103061C7F3D4}" name="Table2" displayName="Table2" ref="F1:EK5" totalsRowShown="0" headerRowDxfId="137" dataDxfId="136">
+  <autoFilter ref="F1:EK5" xr:uid="{DC87E5BE-26EC-4DBC-8565-103061C7F3D4}"/>
+  <tableColumns count="136">
+    <tableColumn id="1" xr3:uid="{F63B5B5B-75EF-415D-9D47-65053D6DF43A}" name="IDNumber" dataDxfId="135"/>
+    <tableColumn id="2" xr3:uid="{00DFF19F-9E5D-44BD-B746-C5D10556D9C8}" name="CustomerType" dataDxfId="134"/>
+    <tableColumn id="4" xr3:uid="{16007208-EDF9-4E5D-AAA6-7F837DDD8C78}" name="FirstName" dataDxfId="133"/>
+    <tableColumn id="5" xr3:uid="{EBB0D839-0B51-4805-BD0B-AAB83E639E7A}" name="SecondName" dataDxfId="132"/>
+    <tableColumn id="6" xr3:uid="{07BF2CBA-E818-4808-9F87-9C6E9B8E27EB}" name="FamilyName" dataDxfId="131"/>
+    <tableColumn id="7" xr3:uid="{2E161694-E056-49B2-B02C-18609B166288}" name="MobileNumber" dataDxfId="130"/>
+    <tableColumn id="8" xr3:uid="{833F8941-B4C0-4E9B-89CA-6ACBE1BBC919}" name="Product" dataDxfId="129"/>
+    <tableColumn id="9" xr3:uid="{6AB217CA-8575-47C6-8323-49DBB8179C87}" name="SubProduct" dataDxfId="128"/>
+    <tableColumn id="10" xr3:uid="{B427C861-36D2-4A49-8916-781C22F94FF4}" name="SchemeType" dataDxfId="127"/>
+    <tableColumn id="11" xr3:uid="{BC30846C-2EA9-4DD7-B7FD-8EFA2281FD70}" name="Branch" dataDxfId="126"/>
+    <tableColumn id="12" xr3:uid="{7521EBC7-8105-4B20-B089-0355970E2900}" name="addressType" dataDxfId="125"/>
+    <tableColumn id="13" xr3:uid="{A68B51A1-92D8-490D-8098-B759DD9581A1}" name="addressTypeValue" dataDxfId="124"/>
+    <tableColumn id="14" xr3:uid="{F19CF168-BC8D-46DE-ACA0-71EDB250DFFF}" name="activeInActive" dataDxfId="123"/>
+    <tableColumn id="3" xr3:uid="{CA80F8FF-FC63-4AD4-9D64-0F817F3CD198}" name="ApplicantType" dataDxfId="122"/>
+    <tableColumn id="15" xr3:uid="{A95550BC-D33C-4168-9C34-660D7631DE85}" name="email" dataDxfId="121"/>
+    <tableColumn id="16" xr3:uid="{3183446F-0B43-4115-A526-CA96A24A5A0C}" name="SourceOfIncome" dataDxfId="120"/>
+    <tableColumn id="17" xr3:uid="{1673EE05-9F0D-4EB3-B6D6-DC08105325A2}" name="Title" dataDxfId="119"/>
+    <tableColumn id="120" xr3:uid="{FDC531AF-46A0-4FCB-B25A-8E287A2C8C2E}" name="formOfOrganization" dataDxfId="118"/>
+    <tableColumn id="18" xr3:uid="{683CA39D-EC12-4489-A45A-69A9DEBD4155}" name="Nationality" dataDxfId="117"/>
+    <tableColumn id="20" xr3:uid="{BBFDDC0F-FDD1-46F8-B248-DF40C724613D}" name="countryOfJurisdiction" dataDxfId="116"/>
+    <tableColumn id="21" xr3:uid="{2983BFC1-1906-4319-9DF0-B77011DD7DEA}" name="EducationLevel" dataDxfId="115"/>
+    <tableColumn id="22" xr3:uid="{986D7F90-6FF6-41A5-A619-2D271BE00764}" name="DateOfBirth" dataDxfId="114"/>
+    <tableColumn id="23" xr3:uid="{8EF037E0-977A-443D-A870-A027ABFB319E}" name="MaritalStatus" dataDxfId="113"/>
+    <tableColumn id="24" xr3:uid="{A2FF1F1E-5655-44BF-886D-A1CDF65B5A95}" name="NoOfDependents" dataDxfId="112"/>
+    <tableColumn id="25" xr3:uid="{56E2E3BE-8A9C-4AE9-94D4-966966AE8106}" name="ReturnedCheques" dataDxfId="111"/>
+    <tableColumn id="26" xr3:uid="{E193FD7F-57D4-4112-85E2-6D86AEEE2D77}" name="ChequeAbuserList" dataDxfId="110"/>
+    <tableColumn id="27" xr3:uid="{15E73E8B-3789-4FC5-959A-FEB1D9247868}" name="PropertyOwnership" dataDxfId="109"/>
+    <tableColumn id="28" xr3:uid="{6B956D5B-906C-4326-8C82-4DA36E1F5615}" name="addressLine1" dataDxfId="108"/>
+    <tableColumn id="34" xr3:uid="{007FE1DB-033B-4516-B370-A1624B351561}" name="building" dataDxfId="107"/>
+    <tableColumn id="29" xr3:uid="{2E8258A9-21F2-49E6-A32C-A2461F6F0D34}" name="flat" dataDxfId="106"/>
+    <tableColumn id="30" xr3:uid="{4B02ADB7-BF07-4814-B8AA-5139B871F77F}" name="avenue" dataDxfId="105"/>
+    <tableColumn id="31" xr3:uid="{3FDD9253-AB6B-4FD1-876D-578DA73C5B56}" name="Block" dataDxfId="104"/>
+    <tableColumn id="32" xr3:uid="{BA71D7A1-AD3D-40A5-ADFB-7F9EBCE6C2C6}" name="Country" dataDxfId="103"/>
+    <tableColumn id="33" xr3:uid="{6515130A-EC40-4F7C-AA54-1ADD52D50D5E}" name="City_Area" dataDxfId="102"/>
+    <tableColumn id="19" xr3:uid="{4D649DD4-69B1-40FF-8591-BC8ABD1B6012}" name="issueDate" dataDxfId="101"/>
+    <tableColumn id="35" xr3:uid="{A40DD074-5F3C-4816-B828-7A321AE246E1}" name="expiryDate" dataDxfId="100"/>
+    <tableColumn id="36" xr3:uid="{34620B96-0561-451C-9DBE-C0899F72320A}" name="renewalUnderProcess" dataDxfId="99"/>
+    <tableColumn id="37" xr3:uid="{0004759E-F0AA-489E-B041-D0E052AC9809}" name="natureOfEmplmt" dataDxfId="98"/>
+    <tableColumn id="38" xr3:uid="{E4D18649-8838-4E63-9E4B-3E22C3502670}" name="incomeType" dataDxfId="97"/>
+    <tableColumn id="39" xr3:uid="{B0BEE11D-04F9-4615-B858-E88D7F4B2BFF}" name="incomeAmt_txt" dataDxfId="96"/>
+    <tableColumn id="40" xr3:uid="{5F7661EC-8CA9-43FD-A1F8-605F258C9D1E}" name="bankName" dataDxfId="95"/>
+    <tableColumn id="41" xr3:uid="{03FF8983-E488-4619-B7EF-DAB89F5EAC3B}" name="accountNumber" dataDxfId="94"/>
+    <tableColumn id="42" xr3:uid="{D7557DBA-7BF9-4B6B-A993-A719B1AC1F05}" name="ibanNumber" dataDxfId="93"/>
+    <tableColumn id="43" xr3:uid="{B3FE0B56-7A31-4A0C-999F-A057737C3647}" name="CustomerTypeContactDetails" dataDxfId="92"/>
+    <tableColumn id="119" xr3:uid="{2BD3DD66-4663-429F-9EC2-7138114471C6}" name="relationName" dataDxfId="91"/>
+    <tableColumn id="118" xr3:uid="{85144347-A603-4B4C-9421-95BF2817AAD7}" name="relationWithCust" dataDxfId="90"/>
+    <tableColumn id="44" xr3:uid="{B03A64D4-2EB9-4ACE-B800-7091881934FE}" name="ContactType" dataDxfId="89"/>
+    <tableColumn id="45" xr3:uid="{E46BDB05-540A-4D5A-BE38-BB45035A1FBB}" name="Contact_status" dataDxfId="88"/>
+    <tableColumn id="46" xr3:uid="{071B7EAD-4786-4BF6-BD57-7F551BF1BFF0}" name="regWithNfh" dataDxfId="87"/>
+    <tableColumn id="47" xr3:uid="{0644A39D-5B5B-4DA9-B33F-8CBB659FE512}" name="vehPurchaseType" dataDxfId="86"/>
+    <tableColumn id="48" xr3:uid="{9C326EAF-77E1-4045-9042-56296390DA47}" name="hirePurchase" dataDxfId="85"/>
+    <tableColumn id="49" xr3:uid="{75DAB3C7-BB41-48FA-8B60-DFEFC5164F57}" name="isApplicantOwner" dataDxfId="84"/>
+    <tableColumn id="50" xr3:uid="{64AC5C43-9B94-4815-A277-3DA2D5E3A538}" name="isPrimrySecurity" dataDxfId="83"/>
+    <tableColumn id="51" xr3:uid="{7AB4CB89-CBF0-402F-91AD-AA45FC029539}" name="vehDealer" dataDxfId="82"/>
+    <tableColumn id="52" xr3:uid="{928B80BD-B376-4005-B7A0-34DA4C9FD1E3}" name="dealerSaleman" dataDxfId="81"/>
+    <tableColumn id="53" xr3:uid="{2FEEB584-A7ED-4E3A-9B89-1F6B6A099671}" name="vehCat" dataDxfId="80"/>
+    <tableColumn id="54" xr3:uid="{1DA9CDDC-77D9-44B6-8642-62F09DC56422}" name="vehMaker" dataDxfId="79"/>
+    <tableColumn id="55" xr3:uid="{C33B6678-1BA4-42C5-A240-E86E78B157C3}" name="vehModel" dataDxfId="78"/>
+    <tableColumn id="56" xr3:uid="{172E096F-A9A2-4CF3-9AFB-3424C30B1FA3}" name="vehModelCat" dataDxfId="77"/>
+    <tableColumn id="57" xr3:uid="{04B0522D-440A-4682-B572-81E681286D08}" name="manufactureCountry" dataDxfId="76"/>
+    <tableColumn id="58" xr3:uid="{63DF28F3-0DCF-4466-95D9-A7B8679C5338}" name="colour" dataDxfId="75"/>
+    <tableColumn id="59" xr3:uid="{BF43045B-8357-47B4-A489-C10F4CCDD4F1}" name="manufactureYear" dataDxfId="74"/>
+    <tableColumn id="60" xr3:uid="{30FD714C-FBFB-4619-A366-3FF395E7E139}" name="vehiclePrice_txt" dataDxfId="73"/>
+    <tableColumn id="61" xr3:uid="{94D38C5A-700A-4528-A837-90C836489E4E}" name="downPaymentPer_txt" dataDxfId="72"/>
+    <tableColumn id="62" xr3:uid="{3A681706-B2D4-49F3-88FA-97277F708246}" name="initialPaymt_txt" dataDxfId="71"/>
+    <tableColumn id="63" xr3:uid="{ACDE4A0C-A6B2-4D87-83BE-9DBEAF3B7EA8}" name="actVehiclePrice_txt" dataDxfId="70"/>
+    <tableColumn id="64" xr3:uid="{BC736CC7-6CAD-44C2-9288-91971876FC45}" name="adminCharge_txt" dataDxfId="69"/>
+    <tableColumn id="65" xr3:uid="{B7631C2C-9A9D-4C40-B97F-7A2548260750}" name="adminVat" dataDxfId="68"/>
+    <tableColumn id="66" xr3:uid="{59A7C662-7F28-4D63-9CB6-7FD71F70741D}" name="adminChagreWithVat_txt" dataDxfId="67"/>
+    <tableColumn id="67" xr3:uid="{0ACE22C9-BFA2-4413-BBC2-1C9F29D7F032}" name="modeOfPayment" dataDxfId="66"/>
+    <tableColumn id="68" xr3:uid="{956718A3-3DA9-432A-BE21-F4EE365D521C}" name="isInsuredWithNFH" dataDxfId="65"/>
+    <tableColumn id="69" xr3:uid="{D092F385-0749-4926-B32F-E4A40D97672E}" name="collateralType" dataDxfId="64"/>
+    <tableColumn id="70" xr3:uid="{D5D19B86-E695-4C1D-913A-FB6343AB534D}" name="collateralSubType" dataDxfId="63"/>
+    <tableColumn id="71" xr3:uid="{B312C1AB-E7B8-4367-B805-A99B729A14A3}" name="valuatorName" dataDxfId="62"/>
+    <tableColumn id="72" xr3:uid="{B7AB646A-EBBB-4EB0-9FB0-DBE43DFFE330}" name="otherValuatorName" dataDxfId="61"/>
+    <tableColumn id="73" xr3:uid="{B1FD4261-2181-4B55-AAE3-6162C625B56D}" name="estimatedValuationAmt_txt" dataDxfId="60"/>
+    <tableColumn id="74" xr3:uid="{A4741736-F379-42DF-88F8-841355249EDB}" name="finalValuationAmt_txt" dataDxfId="59"/>
+    <tableColumn id="75" xr3:uid="{6E8AD8AE-62CE-461D-8748-9D387CCD70C5}" name="valuationDate" dataDxfId="58"/>
+    <tableColumn id="76" xr3:uid="{02F21512-03F4-4059-9E30-C15516314CFE}" name="chassisNo" dataDxfId="57"/>
+    <tableColumn id="77" xr3:uid="{F95CBF5D-6BD7-4C3E-BA44-86E0AA0CA475}" name="registrationNo" dataDxfId="56"/>
+    <tableColumn id="78" xr3:uid="{FE95FBFA-6AF8-4E65-A8BA-C8E4667D1A10}" name="engineCapacity" dataDxfId="55"/>
+    <tableColumn id="79" xr3:uid="{F1EAECC0-75AD-4DC4-8BEB-50764716FB73}" name="mileage" dataDxfId="54"/>
+    <tableColumn id="80" xr3:uid="{E9D66C2D-3BA7-47AC-8384-C167FF40306D}" name="cylinder" dataDxfId="53"/>
+    <tableColumn id="81" xr3:uid="{AD1FB051-1EEC-4374-AAA5-6B620D830FC4}" name="color" dataDxfId="52"/>
+    <tableColumn id="82" xr3:uid="{ADBB0DF3-84AD-4DAD-9B54-54807BB109BD}" name="insuranceType" dataDxfId="51"/>
+    <tableColumn id="83" xr3:uid="{DE41EEFF-2AF2-40DF-9D1C-CD072BCFB90F}" name="vehicleCondition" dataDxfId="50"/>
+    <tableColumn id="84" xr3:uid="{360A06CC-896F-472C-9184-B6485DBC2E24}" name="exteriorCondition" dataDxfId="49"/>
+    <tableColumn id="85" xr3:uid="{23C4EA02-9853-4B40-841E-D83818C82CED}" name="interiorCondition" dataDxfId="48"/>
+    <tableColumn id="86" xr3:uid="{426BC3BF-2900-43DF-B907-B998AB4A3FD6}" name="tyreCondition" dataDxfId="47"/>
+    <tableColumn id="87" xr3:uid="{59D4C78D-3A01-431B-A37F-0CAC4F8060C4}" name="engineCondition" dataDxfId="46"/>
+    <tableColumn id="88" xr3:uid="{ED1EF02C-D7E6-4C80-B7C3-EB885A408873}" name="gearBox" dataDxfId="45"/>
+    <tableColumn id="89" xr3:uid="{BB055320-D9AB-427B-B07C-C8889F1892B4}" name="suspension" dataDxfId="44"/>
+    <tableColumn id="90" xr3:uid="{7258326E-3F04-4976-8492-3603BA97D071}" name="interiorType" dataDxfId="43"/>
+    <tableColumn id="91" xr3:uid="{825B14FD-9CB2-4A4F-ADBD-5347B46D09CE}" name="manufactureWarranty" dataDxfId="42"/>
+    <tableColumn id="92" xr3:uid="{1B61C1D4-8E64-4A15-826A-E0137CB82D83}" name="warrntyYearRemaining" dataDxfId="41"/>
+    <tableColumn id="93" xr3:uid="{FDEC472D-97B5-4015-A7ED-2E1067730E27}" name="alloyWheels" dataDxfId="40"/>
+    <tableColumn id="94" xr3:uid="{74CDD0FF-484D-4DF3-BAF8-C8155EBF3011}" name="spareTyre" dataDxfId="39"/>
+    <tableColumn id="95" xr3:uid="{1CD9662A-8FB1-4C94-8C23-910A64FC9408}" name="jack" dataDxfId="38"/>
+    <tableColumn id="96" xr3:uid="{205059EB-0A88-4AB1-A579-072E85685FD1}" name="tool" dataDxfId="37"/>
+    <tableColumn id="97" xr3:uid="{47D70AEF-55CB-46E7-BEE9-A8B376ABB00A}" name="wheelCaps" dataDxfId="36"/>
+    <tableColumn id="98" xr3:uid="{4D1B9B90-6C91-4149-A427-2E573E0BE8F6}" name="floorrMats" dataDxfId="35"/>
+    <tableColumn id="99" xr3:uid="{8E0EFE84-2194-4F00-B7ED-0A22A736FE5C}" name="fireExtinguisher" dataDxfId="34"/>
+    <tableColumn id="100" xr3:uid="{8B56A608-68C9-493E-8B91-B69CF9D944BA}" name="firstAidKit" dataDxfId="33"/>
+    <tableColumn id="101" xr3:uid="{04D0114D-113B-4E4A-8945-03FB77E918E2}" name="spareKey" dataDxfId="32"/>
+    <tableColumn id="102" xr3:uid="{8EEABA6B-CD4A-41C1-AD23-3A060938FBBC}" name="radio" dataDxfId="31"/>
+    <tableColumn id="103" xr3:uid="{A476DA46-F896-41C2-B730-05A8EE8BBA0D}" name="sunRoof" dataDxfId="30"/>
+    <tableColumn id="104" xr3:uid="{40837055-ACB4-48AC-95F5-CA8E7893C55E}" name="electricWindow" dataDxfId="29"/>
+    <tableColumn id="105" xr3:uid="{606CCFC8-FBA6-4AB7-AE7B-37007236EDE6}" name="satelliteNavigation" dataDxfId="28"/>
+    <tableColumn id="106" xr3:uid="{4E3BA4DC-9193-4F34-8496-65AEE6B82737}" name="dvd" dataDxfId="27"/>
+    <tableColumn id="107" xr3:uid="{9DB233D0-755F-4162-A8E8-ABEAC6C5B3A5}" name="screen" dataDxfId="26"/>
+    <tableColumn id="108" xr3:uid="{30040546-46FE-4FA1-959E-C453DBF0BFD5}" name="airConditioner" dataDxfId="25"/>
+    <tableColumn id="109" xr3:uid="{C8813AC5-5CF8-4370-82DC-565FC005E836}" name="battery" dataDxfId="24"/>
+    <tableColumn id="110" xr3:uid="{34614546-004C-4454-8912-15181BD4ECD8}" name="remarks" dataDxfId="23"/>
+    <tableColumn id="111" xr3:uid="{54D5F79C-FEFE-4EBE-8DB3-8F37E93E43C6}" name="firstEmiDate" dataDxfId="22"/>
+    <tableColumn id="112" xr3:uid="{1848B67E-9391-4333-BD03-D9AA7D3F2B8E}" name="requiredTenure" dataDxfId="21"/>
+    <tableColumn id="113" xr3:uid="{A2F17A4A-AB2B-420C-908D-1A998ECFAA99}" name="vatPaymentMode" dataDxfId="20"/>
+    <tableColumn id="114" xr3:uid="{342CF2C2-2827-4FFE-BFA7-AE764B29441C}" name="repaymentMode" dataDxfId="19"/>
+    <tableColumn id="115" xr3:uid="{B95FCC17-EBCC-47E0-98A5-18FE8FF57B9B}" name="isDefault" dataDxfId="18"/>
+    <tableColumn id="116" xr3:uid="{C4672D46-75C5-45D3-AF43-F9E52B1EA9E8}" name="docGrp" dataDxfId="17"/>
+    <tableColumn id="121" xr3:uid="{484C9E84-C658-4E12-AEB1-760D0E3C79F2}" name="registrationDate" dataDxfId="16"/>
+    <tableColumn id="117" xr3:uid="{8DB8BF92-2E3A-49A3-ADC8-23C055D38F41}" name="docType" dataDxfId="15"/>
+    <tableColumn id="122" xr3:uid="{07BB487A-B6A9-42DD-9ADA-E7F926155EDE}" name="expirationDate" dataDxfId="14"/>
+    <tableColumn id="123" xr3:uid="{109789D0-506D-47DA-A49A-7840BFAEFAB5}" name="placeOfEstablishment" dataDxfId="13"/>
+    <tableColumn id="124" xr3:uid="{DC239F99-E54E-4DB6-B9A3-5AC5D3176B08}" name="purposeCode" dataDxfId="12"/>
+    <tableColumn id="125" xr3:uid="{1DF4975D-740D-43AB-911C-FF1F4C635DB4}" name="crStatus" dataDxfId="11"/>
+    <tableColumn id="126" xr3:uid="{6FCB0C9B-A814-46F2-9D26-4887205F96B6}" name="autoBlacklisted" dataDxfId="10"/>
+    <tableColumn id="127" xr3:uid="{C974E4D7-EC11-4ED6-8BC0-355123A46A06}" name="unListValidated" dataDxfId="9"/>
+    <tableColumn id="128" xr3:uid="{3259DC83-3908-4D62-B105-69A90964B584}" name="returnedCheques2" dataDxfId="8"/>
+    <tableColumn id="129" xr3:uid="{57B5A4CC-9DF0-45B1-B159-6B17E5474F0F}" name="chequeAbuserList2" dataDxfId="7"/>
+    <tableColumn id="130" xr3:uid="{3EABEFDD-34C6-423C-AADC-C8ADBE9CF08B}" name="totCreditTurnOver" dataDxfId="6"/>
+    <tableColumn id="131" xr3:uid="{2A8125DB-0727-4E10-85B3-B61C752C2550}" name="noOfMonths" dataDxfId="5"/>
+    <tableColumn id="132" xr3:uid="{3305ACE0-5952-4227-967D-D64A9154ABB2}" name="avgCreditTurnoverPerc" dataDxfId="4"/>
+    <tableColumn id="133" xr3:uid="{F19797E2-CE51-436D-A775-E6D05BDF4B4F}" name="bankNameBusiness" dataDxfId="3"/>
+    <tableColumn id="134" xr3:uid="{F6C479B5-7401-469A-AB85-BF2888742D3E}" name="remark" dataDxfId="2"/>
+    <tableColumn id="135" xr3:uid="{EBBA0D17-56A1-44F7-9143-0DF66E09484A}" name="chasisNumber" dataDxfId="1"/>
+    <tableColumn id="136" xr3:uid="{574E9957-985F-4ED0-BB11-9D6A9905B156}" name="engineNumber" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3752,580 +3839,594 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:EG8"/>
+  <dimension ref="A1:EK8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.36328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.08984375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.08984375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.7265625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.453125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.54296875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.453125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.54296875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.54296875" customWidth="1"/>
-    <col min="23" max="23" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="26.26953125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="18.453125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="18.453125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="19.6328125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="20.7265625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="21.81640625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="16.26953125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="8.54296875" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="38" max="39" width="12.90625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="14" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="24.08984375" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="18.453125" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="14" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="25.1796875" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="31.90625" bestFit="1" customWidth="1"/>
-    <col min="49" max="50" width="31.90625" customWidth="1"/>
-    <col min="51" max="51" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="18.453125" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="14" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="19.6328125" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="16.26953125" bestFit="1" customWidth="1"/>
-    <col min="56" max="57" width="20.7265625" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="12.90625" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="61" max="62" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="22.90625" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="19.6328125" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="20.7265625" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="22.90625" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="20.7265625" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="24.08984375" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="19.6328125" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="27.453125" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="20.7265625" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="18.453125" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="21.81640625" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="16.26953125" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="26.26953125" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="17.26953125" customWidth="1"/>
-    <col min="103" max="103" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="117" max="117" width="31.81640625" bestFit="1" customWidth="1"/>
-    <col min="130" max="130" width="19.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="12" customWidth="1"/>
+    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.7265625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.54296875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.54296875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.54296875" customWidth="1"/>
+    <col min="24" max="24" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="26.26953125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="19.6328125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="20.7265625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="8.54296875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="39" max="40" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="14" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="24.08984375" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="14" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="25.1796875" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="31.90625" bestFit="1" customWidth="1"/>
+    <col min="50" max="51" width="31.90625" customWidth="1"/>
+    <col min="52" max="52" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="14" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="19.6328125" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="57" max="58" width="20.7265625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="62" max="63" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="22.90625" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="19.6328125" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="20.7265625" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="22.90625" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="20.7265625" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="24.08984375" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="19.6328125" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="27.453125" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="20.7265625" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="26.26953125" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="17.26953125" customWidth="1"/>
+    <col min="104" max="104" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="31.81640625" bestFit="1" customWidth="1"/>
+    <col min="131" max="131" width="19.6328125" bestFit="1" customWidth="1"/>
+    <col min="141" max="141" width="9.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:137" ht="29">
+    <row r="1" spans="1:141" ht="29">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="W1" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="V1" s="2" t="s">
+      <c r="X1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AK1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AL1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AM1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AN1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AO1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AR1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AS1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AT1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AU1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AV1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AW1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AX1" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="AY1" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="AZ1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="BC1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="BD1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BE1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="BF1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="BG1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BH1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="BI1" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="BJ1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="BK1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="BL1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="BM1" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="BN1" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="BO1" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="BP1" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BQ1" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BR1" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="BS1" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="BT1" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BU1" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="BV1" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="BW1" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="BX1" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="BY1" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="BZ1" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="CA1" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="CB1" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="CC1" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="CD1" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="CE1" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="CF1" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="CG1" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="CH1" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="CI1" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="CJ1" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="CK1" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="CL1" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="CM1" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="CN1" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="CO1" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="CP1" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="CQ1" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="CR1" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="CS1" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="CT1" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="CU1" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="CV1" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="CW1" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="CX1" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="CY1" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="CZ1" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="DA1" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="DB1" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="DC1" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="DD1" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="DE1" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="DF1" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="DG1" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="DH1" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="DI1" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="DJ1" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="DK1" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="DL1" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="DM1" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="DN1" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="DO1" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="DP1" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="DQ1" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="DR1" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="DS1" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="DT1" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="DU1" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="DV1" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="DW1" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="DX1" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="W1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AF1" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AG1" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AH1" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AI1" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AJ1" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AK1" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AL1" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AM1" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AN1" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO1" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AP1" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AQ1" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="AR1" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="AS1" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="AT1" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="AU1" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="AV1" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="AW1" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="AX1" s="11" t="s">
+      <c r="DY1" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="DZ1" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="EA1" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="EB1" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="EC1" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="ED1" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="EE1" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="EF1" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="EG1" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="EH1" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="EI1" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="EJ1" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="EK1" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="2" spans="1:141" ht="43.5">
+      <c r="A2" s="5" t="s">
         <v>176</v>
-      </c>
-      <c r="AY1" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="AZ1" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="BA1" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="BB1" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="BC1" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="BD1" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="BE1" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="BF1" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="BG1" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="BH1" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="BI1" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="BJ1" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="BK1" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="BL1" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="BM1" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="BN1" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="BO1" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="BP1" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BQ1" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BR1" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="BS1" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="BT1" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="BU1" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="BV1" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BW1" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="BX1" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="BY1" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="BZ1" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="CA1" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="CB1" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="CC1" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="CD1" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="CE1" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="CF1" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="CG1" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="CH1" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="CI1" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="CJ1" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="CK1" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="CL1" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="CM1" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="CN1" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="CO1" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="CP1" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="CQ1" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="CR1" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="CS1" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="CT1" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="CU1" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="CV1" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="CW1" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="CX1" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="CY1" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="CZ1" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="DA1" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="DB1" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="DC1" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="DD1" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="DE1" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="DF1" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="DG1" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="DH1" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="DI1" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="DJ1" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="DK1" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="DL1" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="DM1" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="DN1" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="DO1" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="DP1" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="DQ1" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="DR1" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="DS1" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="DT1" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="DU1" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="DV1" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="DW1" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="DX1" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="DY1" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="DZ1" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="EA1" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="EB1" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="EC1" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="ED1" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="EE1" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="EF1" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="EG1" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="2" spans="1:137" ht="43.5">
-      <c r="A2" s="5" t="s">
-        <v>180</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5" t="s">
-        <v>211</v>
-      </c>
+      <c r="E2" s="5"/>
       <c r="F2" s="5" t="s">
-        <v>7</v>
+        <v>224</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>183</v>
+        <v>7</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="5">
-        <v>9879657</v>
-      </c>
-      <c r="K2" s="5" t="s">
+      <c r="J2" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="K2" s="5">
+        <v>9069658</v>
+      </c>
+      <c r="L2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="M2" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>23</v>
       </c>
       <c r="N2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="O2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="P2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="P2" s="5"/>
       <c r="Q2" s="5"/>
-      <c r="R2" s="5" t="s">
-        <v>7</v>
-      </c>
+      <c r="R2" s="5"/>
       <c r="S2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="T2" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="T2" s="5" t="s">
+      <c r="U2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="U2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="V2" s="5"/>
-      <c r="W2" s="5" t="s">
+      <c r="V2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="X2" s="5" t="s">
+      <c r="Y2" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="Y2" s="5" t="s">
+      <c r="Z2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="Z2" s="5" t="s">
+      <c r="AA2" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="AA2" s="5" t="s">
-        <v>7</v>
-      </c>
       <c r="AB2" s="5" t="s">
         <v>7</v>
       </c>
@@ -4333,292 +4434,294 @@
         <v>7</v>
       </c>
       <c r="AD2" s="5" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="AE2" s="5" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="AF2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG2" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="AG2" s="5" t="s">
+      <c r="AH2" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="AH2" s="5" t="s">
+      <c r="AI2" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="AI2" s="5" t="s">
+      <c r="AJ2" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="AJ2" s="5" t="s">
+      <c r="AK2" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="AK2" s="5" t="s">
+      <c r="AL2" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="AL2" s="5" t="s">
+      <c r="AM2" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="AM2" s="5" t="s">
+      <c r="AN2" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="AN2" s="5" t="s">
+      <c r="AO2" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AO2" s="5" t="s">
-        <v>40</v>
-      </c>
       <c r="AP2" s="5" t="s">
         <v>40</v>
       </c>
       <c r="AQ2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AR2" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="AR2" s="5" t="s">
+      <c r="AS2" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="AS2" s="5" t="s">
+      <c r="AT2" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="AT2" s="5" t="s">
+      <c r="AU2" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="AU2" s="5" t="s">
+      <c r="AV2" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="AV2" s="5" t="s">
+      <c r="AW2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="AW2" s="5" t="s">
-        <v>179</v>
-      </c>
       <c r="AX2" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="AY2" s="5">
+        <v>175</v>
+      </c>
+      <c r="AY2" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="AZ2" s="5">
         <v>2</v>
       </c>
-      <c r="AZ2" s="5" t="s">
-        <v>7</v>
-      </c>
       <c r="BA2" s="5" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="BB2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="BC2" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="BD2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="BC2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="BD2" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="BE2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="BE2" s="5" t="s">
+      <c r="BF2" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="BF2" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="BG2" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="BH2" s="5" t="s">
-        <v>7</v>
+      <c r="BG2" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="BH2" s="7" t="s">
+        <v>40</v>
       </c>
       <c r="BI2" s="5" t="s">
         <v>7</v>
       </c>
       <c r="BJ2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="BK2" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="BK2" s="7" t="s">
+      <c r="BL2" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="BL2" s="5" t="s">
+      <c r="BM2" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="BM2" s="5" t="s">
-        <v>40</v>
-      </c>
       <c r="BN2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="BO2" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="BO2" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="BP2" s="5" t="s">
+      <c r="BP2" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="BQ2" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="BQ2" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="BR2" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="BS2" s="5" t="s">
+      <c r="BR2" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="BS2" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="BT2" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="BT2" s="5" t="s">
+      <c r="BU2" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="BU2" s="5" t="s">
+      <c r="BV2" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="BV2" s="5" t="s">
-        <v>40</v>
-      </c>
       <c r="BW2" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="BX2" s="9" t="s">
+      <c r="BX2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="BY2" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="BZ2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="CA2" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="CB2" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="BY2" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="BZ2" s="9" t="s">
+      <c r="CC2" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="CD2" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="CE2" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="CA2" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="CB2" s="9" t="s">
+      <c r="CF2" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="CC2" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="CD2" s="10" t="s">
+      <c r="CG2" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="CE2" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="CF2" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="CG2" s="9" t="s">
+      <c r="CH2" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="CI2" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="CJ2" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="CK2" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="CL2" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="CM2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="CN2" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="CO2" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="CP2" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="CQ2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="CR2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="CS2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="CT2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="CU2" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="CV2" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="CW2" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="CX2" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="CY2" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="CZ2" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="DA2" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="DB2" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="DC2" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="DD2" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="DE2" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="DF2" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="DG2" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="DH2" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="DI2" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="DJ2" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="DK2" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="DL2" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="DM2" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="DN2" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="CH2" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="CI2" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="CJ2" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="CK2" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="CL2" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="CM2" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="CN2" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="CO2" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="CP2" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="CQ2" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="CR2" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="CS2" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="CT2" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="CU2" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="CV2" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="CW2" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="CX2" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="CY2" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="CZ2" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="DA2" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="DB2" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="DC2" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="DD2" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="DE2" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="DF2" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="DG2" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="DH2" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="DI2" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="DJ2" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="DK2" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="DL2" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="DM2" s="2" t="s">
+      <c r="DO2" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="DP2" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="DN2" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="DO2" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="DP2" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="DQ2" s="9" t="s">
+      <c r="DQ2" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="DR2" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="DR2" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="DS2" s="2" t="s">
+      <c r="DS2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="DT2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="DT2" s="2"/>
-      <c r="DU2" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="DV2" s="2"/>
+      <c r="DU2" s="2"/>
+      <c r="DV2" s="8" t="s">
+        <v>171</v>
+      </c>
       <c r="DW2" s="2"/>
       <c r="DX2" s="2"/>
       <c r="DY2" s="2"/>
@@ -4630,81 +4733,91 @@
       <c r="EE2" s="2"/>
       <c r="EF2" s="2"/>
       <c r="EG2" s="2"/>
+      <c r="EH2" s="2"/>
+      <c r="EI2" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="EJ2" s="2">
+        <v>30502</v>
+      </c>
+      <c r="EK2" s="2">
+        <v>3050238</v>
+      </c>
     </row>
-    <row r="3" spans="1:137" ht="43.5">
+    <row r="3" spans="1:141" ht="43.5">
       <c r="A3" s="5" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5" t="s">
-        <v>212</v>
-      </c>
+      <c r="E3" s="5"/>
       <c r="F3" s="5" t="s">
-        <v>7</v>
+        <v>214</v>
       </c>
       <c r="G3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="I3" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="J3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="5">
+      <c r="K3" s="5">
         <v>9879656</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="L3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="M3" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>23</v>
       </c>
       <c r="N3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="O3" s="7" t="s">
+      <c r="O3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="P3" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
-      <c r="R3" s="5" t="s">
-        <v>7</v>
-      </c>
+      <c r="R3" s="5"/>
       <c r="S3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="T3" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="T3" s="5" t="s">
+      <c r="U3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="U3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="V3" s="5"/>
-      <c r="W3" s="5" t="s">
+      <c r="V3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="X3" s="5" t="s">
+      <c r="Y3" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="Y3" s="5" t="s">
+      <c r="Z3" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="Z3" s="5" t="s">
+      <c r="AA3" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="AA3" s="5" t="s">
-        <v>7</v>
-      </c>
       <c r="AB3" s="5" t="s">
         <v>7</v>
       </c>
@@ -4712,292 +4825,294 @@
         <v>7</v>
       </c>
       <c r="AD3" s="5" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="AE3" s="5" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="AF3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG3" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="AG3" s="5" t="s">
+      <c r="AH3" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="AH3" s="5" t="s">
+      <c r="AI3" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="AI3" s="5" t="s">
+      <c r="AJ3" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="AJ3" s="5" t="s">
+      <c r="AK3" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="AK3" s="5" t="s">
+      <c r="AL3" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="AL3" s="5" t="s">
+      <c r="AM3" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="AM3" s="5" t="s">
+      <c r="AN3" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="AN3" s="5" t="s">
+      <c r="AO3" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AO3" s="5" t="s">
-        <v>40</v>
-      </c>
       <c r="AP3" s="5" t="s">
         <v>40</v>
       </c>
       <c r="AQ3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AR3" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="AR3" s="5" t="s">
+      <c r="AS3" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="AS3" s="5" t="s">
+      <c r="AT3" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="AT3" s="5" t="s">
+      <c r="AU3" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="AU3" s="5" t="s">
+      <c r="AV3" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="AV3" s="5" t="s">
+      <c r="AW3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="AW3" s="5" t="s">
-        <v>179</v>
-      </c>
       <c r="AX3" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="AY3" s="5">
+        <v>175</v>
+      </c>
+      <c r="AY3" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="AZ3" s="5">
         <v>2</v>
       </c>
-      <c r="AZ3" s="5" t="s">
-        <v>7</v>
-      </c>
       <c r="BA3" s="5" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="BB3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="BC3" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="BD3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="BC3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="BD3" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="BE3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="BE3" s="5" t="s">
+      <c r="BF3" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="BF3" s="5" t="s">
+      <c r="BG3" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="BG3" s="5" t="s">
+      <c r="BH3" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="BH3" s="5" t="s">
-        <v>7</v>
-      </c>
       <c r="BI3" s="5" t="s">
         <v>7</v>
       </c>
       <c r="BJ3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="BK3" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="BK3" s="7" t="s">
+      <c r="BL3" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="BL3" s="5" t="s">
+      <c r="BM3" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="BM3" s="5" t="s">
-        <v>40</v>
-      </c>
       <c r="BN3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="BO3" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="BO3" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="BP3" s="5" t="s">
+      <c r="BP3" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="BQ3" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="BQ3" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="BR3" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="BS3" s="5" t="s">
+      <c r="BR3" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="BS3" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="BT3" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="BT3" s="5" t="s">
+      <c r="BU3" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="BU3" s="5" t="s">
+      <c r="BV3" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="BV3" s="5" t="s">
-        <v>40</v>
-      </c>
       <c r="BW3" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="BX3" s="9" t="s">
+      <c r="BX3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="BY3" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="BZ3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="CA3" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="CB3" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="BY3" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="BZ3" s="9" t="s">
+      <c r="CC3" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="CD3" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="CE3" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="CA3" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="CB3" s="9" t="s">
+      <c r="CF3" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="CC3" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="CD3" s="10" t="s">
+      <c r="CG3" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="CE3" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="CF3" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="CG3" s="9" t="s">
+      <c r="CH3" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="CI3" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="CJ3" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="CK3" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="CL3" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="CM3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="CN3" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="CO3" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="CP3" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="CQ3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="CR3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="CS3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="CT3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="CU3" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="CV3" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="CW3" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="CX3" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="CY3" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="CZ3" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="DA3" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="DB3" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="DC3" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="DD3" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="DE3" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="DF3" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="DG3" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="DH3" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="DI3" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="DJ3" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="DK3" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="DL3" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="DM3" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="DN3" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="CH3" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="CI3" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="CJ3" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="CK3" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="CL3" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="CM3" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="CN3" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="CO3" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="CP3" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="CQ3" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="CR3" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="CS3" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="CT3" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="CU3" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="CV3" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="CW3" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="CX3" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="CY3" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="CZ3" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="DA3" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="DB3" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="DC3" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="DD3" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="DE3" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="DF3" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="DG3" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="DH3" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="DI3" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="DJ3" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="DK3" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="DL3" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="DM3" s="2" t="s">
+      <c r="DO3" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="DP3" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="DN3" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="DO3" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="DP3" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="DQ3" s="9" t="s">
+      <c r="DQ3" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="DR3" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="DR3" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="DS3" s="2" t="s">
+      <c r="DS3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="DT3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="DT3" s="2"/>
-      <c r="DU3" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="DV3" s="2"/>
+      <c r="DU3" s="2"/>
+      <c r="DV3" s="8" t="s">
+        <v>171</v>
+      </c>
       <c r="DW3" s="2"/>
       <c r="DX3" s="2"/>
       <c r="DY3" s="2"/>
@@ -5009,838 +5124,1260 @@
       <c r="EE3" s="2"/>
       <c r="EF3" s="2"/>
       <c r="EG3" s="2"/>
+      <c r="EH3" s="2"/>
+      <c r="EI3" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="EJ3" s="2">
+        <v>30502</v>
+      </c>
+      <c r="EK3" s="2">
+        <v>3050238</v>
+      </c>
     </row>
-    <row r="4" spans="1:137" ht="43.5">
+    <row r="4" spans="1:141" ht="43.5">
       <c r="A4" s="5" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="5">
+        <v>9879657</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="E4" s="7" t="s">
+      <c r="T4" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="W4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="X4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA4" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG4" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH4" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI4" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ4" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK4" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="AL4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="AM4" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AN4" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AO4" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AP4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AR4" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AS4" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AT4" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AU4" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AV4" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="AX4" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="AY4" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="AZ4" s="5">
+        <v>2</v>
+      </c>
+      <c r="BA4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="BB4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="BC4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="BD4" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="BE4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="BF4" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="BG4" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="BH4" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="BI4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="BJ4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="BK4" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="BL4" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="BM4" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="BN4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="BO4" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="BP4" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="BQ4" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="BR4" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="BS4" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="BT4" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="BU4" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="BV4" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="BW4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="BX4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="BY4" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="BZ4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="CA4" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="CB4" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="CC4" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" s="5">
-        <v>9879657</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="M4" s="7" t="s">
+      <c r="CD4" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="CE4" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="CF4" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="CG4" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="CH4" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="CI4" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="CJ4" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="CK4" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="CL4" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="CM4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="CN4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="CO4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="CP4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="CQ4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="CR4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="CS4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="CT4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="CU4" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="CV4" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="CW4" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="CX4" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="CY4" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="CZ4" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="DA4" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="DB4" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="DC4" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="DD4" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="DE4" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="DF4" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="DG4" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="DH4" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="DI4" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="DJ4" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="DK4" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="DL4" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="DM4" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="DN4" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="DO4" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="DP4" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="DQ4" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="DR4" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="DS4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="DT4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="DU4" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="N4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="S4" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="T4" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="U4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="V4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="W4" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="X4" s="5" t="s">
+      <c r="DV4" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="DW4" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="DX4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="Y4" s="5" t="s">
+      <c r="DY4" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="DZ4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="EA4" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="EB4" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="EC4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="ED4" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="EE4" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="EF4" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="EG4" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="Z4" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="AD4" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="AE4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF4" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG4" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="AH4" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="AI4" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="AJ4" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="AK4" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="AL4" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="AM4" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="AN4" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="AO4" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="AP4" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="AQ4" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="AR4" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="AS4" s="5" t="s">
+      <c r="EH4" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="AT4" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="AU4" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="AV4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="AW4" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="AX4" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="AY4" s="5">
-        <v>2</v>
-      </c>
-      <c r="AZ4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="BA4" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="BB4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="BC4" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="BD4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="BE4" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="BF4" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="BG4" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="BH4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="BI4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="BJ4" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="BK4" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="BL4" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="BM4" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="BN4" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="BO4" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="BP4" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="BQ4" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="BR4" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="BS4" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="BT4" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="BU4" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="BV4" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="BW4" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="BX4" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="BY4" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="BZ4" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="CA4" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="CB4" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="CC4" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="CD4" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="CE4" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="CF4" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="CG4" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="CH4" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="CI4" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="CJ4" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="CK4" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="CL4" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="CM4" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="CN4" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="CO4" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="CP4" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="CQ4" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="CR4" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="CS4" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="CT4" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="CU4" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="CV4" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="CW4" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="CX4" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="CY4" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="CZ4" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="DA4" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="DB4" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="DC4" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="DD4" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="DE4" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="DF4" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="DG4" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="DH4" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="DI4" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="DJ4" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="DK4" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="DL4" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="DM4" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="DN4" s="9" t="s">
+      <c r="EI4" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="DO4" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="DP4" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="DQ4" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="DR4" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="DS4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="DT4" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="DU4" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="DV4" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="DW4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="DX4" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="DY4" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="DZ4" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="EA4" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="EB4" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="EC4" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="ED4" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="EE4" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="EF4" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="EG4" s="9" t="s">
-        <v>70</v>
+      <c r="EJ4" s="2">
+        <v>30502</v>
+      </c>
+      <c r="EK4" s="2">
+        <v>3050238</v>
       </c>
     </row>
-    <row r="5" spans="1:137" ht="58">
+    <row r="5" spans="1:141" ht="58">
       <c r="A5" s="5" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="7" t="s">
-        <v>207</v>
-      </c>
+      <c r="C5" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="E5" s="5"/>
       <c r="F5" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="G5" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="H5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="I5" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="J5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="5">
+      <c r="K5" s="5">
         <v>9879657</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="L5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="L5" s="7" t="s">
-        <v>187</v>
-      </c>
       <c r="M5" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="T5" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="W5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="X5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA5" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE5" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG5" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH5" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI5" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ5" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK5" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="AL5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="AM5" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AN5" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AO5" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AP5" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ5" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AR5" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AS5" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AT5" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AU5" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AV5" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="AX5" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="AY5" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="AZ5" s="5">
+        <v>2</v>
+      </c>
+      <c r="BA5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="BB5" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="BC5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="BD5" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="BE5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="BF5" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="BG5" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="BH5" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="BI5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="BJ5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="BK5" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="BL5" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="BM5" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="BN5" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="BO5" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="BP5" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="BQ5" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="BR5" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="BS5" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="BT5" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="BU5" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="BV5" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="BW5" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="BX5" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="BY5" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="BZ5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="CA5" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="CB5" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="CC5" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="CD5" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="CE5" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="CF5" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="CG5" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="CH5" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="CI5" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="CJ5" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="CK5" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="CL5" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="CM5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="CN5" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="CO5" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="CP5" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="CQ5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="CR5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="CS5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="CT5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="CU5" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="CV5" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="CW5" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="CX5" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="CY5" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="CZ5" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="DA5" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="DB5" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="DC5" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="DD5" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="DE5" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="DF5" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="DG5" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="DH5" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="DI5" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="DJ5" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="DK5" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="DL5" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="DM5" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="DN5" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="DO5" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="DP5" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="DQ5" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="DR5" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="DS5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="DT5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="DU5" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="N5" s="5" t="s">
+      <c r="DV5" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="DW5" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="DX5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="DY5" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="DZ5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="EA5" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="EB5" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="EC5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="ED5" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="EE5" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="EF5" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="EG5" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="EH5" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="EI5" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="EJ5" s="2">
+        <v>30502</v>
+      </c>
+      <c r="EK5" s="2">
+        <v>3050238</v>
+      </c>
+    </row>
+    <row r="6" spans="1:141" ht="43.5">
+      <c r="A6" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="5">
+        <v>9879657</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="O5" s="7" t="s">
+      <c r="O6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="S5" s="5" t="s">
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="T6" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="T5" s="5" t="s">
+      <c r="U6" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="U5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="V5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="W5" s="5" t="s">
+      <c r="V6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="X5" s="5" t="s">
+      <c r="Y6" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="Y5" s="5" t="s">
+      <c r="Z6" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="Z5" s="5" t="s">
+      <c r="AA6" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="AA5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="AD5" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="AE5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF5" s="5" t="s">
+      <c r="AB6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE6" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG6" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="AG5" s="5" t="s">
+      <c r="AH6" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="AH5" s="5" t="s">
+      <c r="AI6" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="AI5" s="5" t="s">
+      <c r="AJ6" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="AJ5" s="7" t="s">
+      <c r="AK6" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="AK5" s="5" t="s">
+      <c r="AL6" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="AL5" s="5" t="s">
+      <c r="AM6" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="AM5" s="5" t="s">
+      <c r="AN6" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="AN5" s="5" t="s">
+      <c r="AO6" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AO5" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="AP5" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="AQ5" s="5" t="s">
+      <c r="AP6" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ6" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AR6" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="AR5" s="5" t="s">
+      <c r="AS6" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="AS5" s="5" t="s">
+      <c r="AT6" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="AT5" s="5" t="s">
+      <c r="AU6" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="AU5" s="5" t="s">
+      <c r="AV6" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="AV5" s="5" t="s">
+      <c r="AW6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="AW5" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="AX5" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="AY5" s="5">
+      <c r="AX6" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="AY6" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="AZ6" s="5">
         <v>2</v>
       </c>
-      <c r="AZ5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="BA5" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="BB5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="BC5" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="BD5" s="5" t="s">
+      <c r="BA6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="BB6" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="BC6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="BD6" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="BE6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="BE5" s="5" t="s">
+      <c r="BF6" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="BF5" s="5" t="s">
+      <c r="BG6" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="BG5" s="5" t="s">
+      <c r="BH6" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="BH5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="BI5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="BJ5" s="5" t="s">
+      <c r="BI6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="BJ6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="BK6" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="BK5" s="7" t="s">
+      <c r="BL6" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="BL5" s="5" t="s">
+      <c r="BM6" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="BM5" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="BN5" s="5" t="s">
+      <c r="BN6" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="BO6" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="BO5" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="BP5" s="5" t="s">
+      <c r="BP6" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="BQ6" s="5"/>
+      <c r="BR6" s="7"/>
+      <c r="BS6" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="BT6" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="BU6" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="BQ5" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="BR5" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="BS5" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="BT5" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="BU5" s="5" t="s">
+      <c r="BV6" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="BV5" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="BW5" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="BX5" s="9" t="s">
+      <c r="BW6" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="BX6" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="BY6" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="BZ6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="CA6" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="CB6" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="BY5" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="BZ5" s="9" t="s">
+      <c r="CC6" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="CD6" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="CE6" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="CA5" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="CB5" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="CC5" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="CD5" s="10" t="s">
+      <c r="CF6" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="CG6" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="CE5" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="CF5" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="CG5" s="9" t="s">
+      <c r="CH6" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="CI6" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="CJ6" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="CK6" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="CL6" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="CM6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="CN6" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="CO6" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="CP6" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="CQ6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="CR6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="CS6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="CT6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="CU6" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="CV6" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="CW6" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="CX6" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="CY6" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="CZ6" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="DA6" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="DB6" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="DC6" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="DD6" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="DE6" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="DF6" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="DG6" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="DH6" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="DI6" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="DJ6" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="DK6" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="DL6" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="DM6" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="DN6" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="CH5" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="CI5" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="CJ5" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="CK5" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="CL5" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="CM5" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="CN5" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="CO5" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="CP5" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="CQ5" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="CR5" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="CS5" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="CT5" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="CU5" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="CV5" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="CW5" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="CX5" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="CY5" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="CZ5" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="DA5" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="DB5" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="DC5" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="DD5" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="DE5" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="DF5" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="DG5" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="DH5" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="DI5" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="DJ5" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="DK5" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="DL5" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="DM5" s="2" t="s">
+      <c r="DO6" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="DP6" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="DN5" s="9" t="s">
+      <c r="DQ6" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="DR6" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="DS6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="DT6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="DU6" s="2"/>
+      <c r="DV6" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="DW6" s="2"/>
+      <c r="DX6" s="2"/>
+      <c r="DY6" s="2"/>
+      <c r="DZ6" s="2"/>
+      <c r="EA6" s="2"/>
+      <c r="EB6" s="2"/>
+      <c r="EC6" s="2"/>
+      <c r="ED6" s="2"/>
+      <c r="EE6" s="2"/>
+      <c r="EF6" s="2"/>
+      <c r="EG6" s="2"/>
+      <c r="EH6" s="2"/>
+      <c r="EI6" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="DO5" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="DP5" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="DQ5" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="DR5" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="DS5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="DT5" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="DU5" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="DV5" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="DW5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="DX5" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="DY5" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="DZ5" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="EA5" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="EB5" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="EC5" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="ED5" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="EE5" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="EF5" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="EG5" s="9" t="s">
-        <v>70</v>
+      <c r="EJ6" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="EK6" s="2">
+        <v>65464567</v>
       </c>
     </row>
-    <row r="8" spans="1:137">
-      <c r="H8" s="3"/>
+    <row r="8" spans="1:141">
+      <c r="I8" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="S2" r:id="rId1" xr:uid="{C16C2D57-6589-452C-AB89-231F93117CCA}"/>
-    <hyperlink ref="S3" r:id="rId2" xr:uid="{13E9CD5E-C1A6-4ACF-9ABD-7F5CCE9B1B09}"/>
-    <hyperlink ref="S4" r:id="rId3" xr:uid="{7EED7963-DBA9-47F1-9340-DA5E957D739F}"/>
-    <hyperlink ref="S5" r:id="rId4" xr:uid="{54CBBEEE-524F-4ADB-9C63-4954D30211E9}"/>
+    <hyperlink ref="T2" r:id="rId1" xr:uid="{C16C2D57-6589-452C-AB89-231F93117CCA}"/>
+    <hyperlink ref="T3" r:id="rId2" xr:uid="{13E9CD5E-C1A6-4ACF-9ABD-7F5CCE9B1B09}"/>
+    <hyperlink ref="T4" r:id="rId3" xr:uid="{7EED7963-DBA9-47F1-9340-DA5E957D739F}"/>
+    <hyperlink ref="T5" r:id="rId4" xr:uid="{54CBBEEE-524F-4ADB-9C63-4954D30211E9}"/>
+    <hyperlink ref="T6" r:id="rId5" xr:uid="{96632BFD-6258-46E0-A0BF-CC405DB7E252}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
   <tableParts count="1">
-    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
   </tableParts>
 </worksheet>
 </file>
--- a/resources/test_data/Lead_Creation.xlsx
+++ b/resources/test_data/Lead_Creation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\New_automation_\web-automation-framework\resources\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5917D37C-5E59-4868-A586-4EFF62EED163}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0187306C-E8C9-490A-9E9A-8FD8D4D210AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -659,12 +659,6 @@
     <t>26-01-2025</t>
   </si>
   <si>
-    <t>Ac87-5698</t>
-  </si>
-  <si>
-    <t>Infratec</t>
-  </si>
-  <si>
     <t>remark</t>
   </si>
   <si>
@@ -711,6 +705,12 @@
   </si>
   <si>
     <t>CPR305640</t>
+  </si>
+  <si>
+    <t>Ararshitesting</t>
+  </si>
+  <si>
+    <t>ADora-343</t>
   </si>
 </sst>
 </file>
@@ -3843,7 +3843,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3936,7 +3936,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>8</v>
@@ -4344,13 +4344,13 @@
         <v>202</v>
       </c>
       <c r="EI1" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="EJ1" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="EK1" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="2" spans="1:141" ht="43.5">
@@ -4361,14 +4361,14 @@
         <v>2</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>7</v>
@@ -4380,7 +4380,7 @@
         <v>20</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K2" s="5">
         <v>9069658</v>
@@ -4548,16 +4548,16 @@
         <v>106</v>
       </c>
       <c r="BP2" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="BQ2" s="5" t="s">
         <v>107</v>
       </c>
       <c r="BR2" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="BS2" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="BT2" s="5" t="s">
         <v>108</v>
@@ -4587,10 +4587,10 @@
         <v>119</v>
       </c>
       <c r="CC2" s="8" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="CD2" s="8" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="CE2" s="9" t="s">
         <v>120</v>
@@ -4735,7 +4735,7 @@
       <c r="EG2" s="2"/>
       <c r="EH2" s="2"/>
       <c r="EI2" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="EJ2" s="2">
         <v>30502</v>
@@ -4752,14 +4752,14 @@
         <v>2</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>7</v>
@@ -4939,16 +4939,16 @@
         <v>106</v>
       </c>
       <c r="BP3" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="BQ3" s="5" t="s">
         <v>107</v>
       </c>
       <c r="BR3" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="BS3" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="BT3" s="5" t="s">
         <v>108</v>
@@ -4978,10 +4978,10 @@
         <v>119</v>
       </c>
       <c r="CC3" s="8" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="CD3" s="8" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="CE3" s="9" t="s">
         <v>120</v>
@@ -5126,7 +5126,7 @@
       <c r="EG3" s="2"/>
       <c r="EH3" s="2"/>
       <c r="EI3" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="EJ3" s="2">
         <v>30502</v>
@@ -5143,16 +5143,16 @@
         <v>2</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>181</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>40</v>
@@ -5334,16 +5334,16 @@
         <v>106</v>
       </c>
       <c r="BP4" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="BQ4" s="5" t="s">
         <v>107</v>
       </c>
       <c r="BR4" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="BS4" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="BT4" s="5" t="s">
         <v>108</v>
@@ -5373,10 +5373,10 @@
         <v>119</v>
       </c>
       <c r="CC4" s="8" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="CD4" s="8" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="CE4" s="9" t="s">
         <v>120</v>
@@ -5547,7 +5547,7 @@
         <v>70</v>
       </c>
       <c r="EI4" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="EJ4" s="2">
         <v>30502</v>
@@ -5564,7 +5564,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>181</v>
@@ -5753,16 +5753,16 @@
         <v>106</v>
       </c>
       <c r="BP5" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="BQ5" s="5" t="s">
         <v>107</v>
       </c>
       <c r="BR5" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="BS5" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="BT5" s="5" t="s">
         <v>108</v>
@@ -5792,10 +5792,10 @@
         <v>119</v>
       </c>
       <c r="CC5" s="8" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="CD5" s="8" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="CE5" s="9" t="s">
         <v>120</v>
@@ -5966,7 +5966,7 @@
         <v>70</v>
       </c>
       <c r="EI5" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="EJ5" s="2">
         <v>30502</v>
@@ -5977,20 +5977,20 @@
     </row>
     <row r="6" spans="1:141" ht="43.5">
       <c r="A6" s="5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>7</v>
@@ -6170,12 +6170,12 @@
         <v>106</v>
       </c>
       <c r="BP6" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="BQ6" s="5"/>
       <c r="BR6" s="7"/>
       <c r="BS6" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="BT6" s="5" t="s">
         <v>108</v>
@@ -6205,16 +6205,16 @@
         <v>119</v>
       </c>
       <c r="CC6" s="8" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="CD6" s="8" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="CE6" s="9" t="s">
         <v>120</v>
       </c>
       <c r="CF6" s="8" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="CG6" s="8" t="s">
         <v>124</v>
@@ -6353,10 +6353,10 @@
       <c r="EG6" s="2"/>
       <c r="EH6" s="2"/>
       <c r="EI6" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="EJ6" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="EK6" s="2">
         <v>65464567</v>

--- a/resources/test_data/Lead_Creation.xlsx
+++ b/resources/test_data/Lead_Creation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\New_automation_\web-automation-framework\resources\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0187306C-E8C9-490A-9E9A-8FD8D4D210AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1391F67C-064E-4568-9D59-F97274CDDF7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="225">
   <si>
     <t>username</t>
   </si>
@@ -701,16 +701,16 @@
     <t>Lead_Creation_CPR_3</t>
   </si>
   <si>
-    <t>Rawat</t>
-  </si>
-  <si>
-    <t>CPR305640</t>
-  </si>
-  <si>
-    <t>Ararshitesting</t>
-  </si>
-  <si>
-    <t>ADora-343</t>
+    <t>Puneeta</t>
+  </si>
+  <si>
+    <t>Praa-34</t>
+  </si>
+  <si>
+    <t>raj</t>
+  </si>
+  <si>
+    <t>CPR305644</t>
   </si>
 </sst>
 </file>
@@ -3843,7 +3843,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -4368,7 +4368,7 @@
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>7</v>
@@ -4376,11 +4376,9 @@
       <c r="H2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="5" t="s">
-        <v>20</v>
-      </c>
+      <c r="I2" s="5"/>
       <c r="J2" s="5" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="K2" s="5">
         <v>9069658</v>
@@ -5149,10 +5147,10 @@
         <v>181</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>40</v>

--- a/resources/test_data/Lead_Creation.xlsx
+++ b/resources/test_data/Lead_Creation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\New_automation_\web-automation-framework\resources\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCEA0139-A2B3-427C-B8E6-21BA6857EB3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{432839DF-C17F-4DF6-BE7E-0165E87C8510}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="255">
   <si>
     <t>username</t>
   </si>
@@ -569,9 +569,6 @@
     <t>16-01-2026</t>
   </si>
   <si>
-    <t>Amit</t>
-  </si>
-  <si>
     <t>Lead_Creation_CR_1</t>
   </si>
   <si>
@@ -641,12 +638,6 @@
     <t>bankNameBusiness</t>
   </si>
   <si>
-    <t>Ap8567-5698</t>
-  </si>
-  <si>
-    <t>Lead_Creation_CR_Co_Applicant</t>
-  </si>
-  <si>
     <t>102</t>
   </si>
   <si>
@@ -680,18 +671,6 @@
     <t>engineNumber</t>
   </si>
   <si>
-    <t>CPR305068</t>
-  </si>
-  <si>
-    <t>4343</t>
-  </si>
-  <si>
-    <t>RTG76FHJ123456</t>
-  </si>
-  <si>
-    <t>Lead_Creation_CPR_3</t>
-  </si>
-  <si>
     <t>Puneeta</t>
   </si>
   <si>
@@ -731,13 +710,97 @@
     <t>25-12-2024</t>
   </si>
   <si>
-    <t>Rawat</t>
-  </si>
-  <si>
-    <t>Sivang</t>
-  </si>
-  <si>
-    <t>CPR305466</t>
+    <t>Singh</t>
+  </si>
+  <si>
+    <t>Vinay</t>
+  </si>
+  <si>
+    <t>CPR305470</t>
+  </si>
+  <si>
+    <t>Lead_Creation_CPR_Co_Applicant</t>
+  </si>
+  <si>
+    <t>Praa-324</t>
+  </si>
+  <si>
+    <t>Aditi</t>
+  </si>
+  <si>
+    <t>Lead_Creation_CPR_Co_Applicant_2</t>
+  </si>
+  <si>
+    <t>custFirstName</t>
+  </si>
+  <si>
+    <t>510001</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>00</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>50489</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>787</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>ITA</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>PanelWattage</t>
+  </si>
+  <si>
+    <t>InverterType</t>
+  </si>
+  <si>
+    <t>InverterMake</t>
+  </si>
+  <si>
+    <t>InverterSize</t>
+  </si>
+  <si>
+    <t>soleqiLtv</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>AC</t>
+  </si>
+  <si>
+    <t>Voltas</t>
+  </si>
+  <si>
+    <t>soleqiSeriolNumber</t>
+  </si>
+  <si>
+    <t>347339</t>
+  </si>
+  <si>
+    <t>Arpit</t>
+  </si>
+  <si>
+    <t>Pathak</t>
+  </si>
+  <si>
+    <t>CPR303650</t>
   </si>
 </sst>
 </file>
@@ -849,7 +912,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -877,9 +940,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="22" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -902,7 +962,140 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="140">
+  <dxfs count="147">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -3519,147 +3712,154 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DC87E5BE-26EC-4DBC-8565-103061C7F3D4}" name="Table2" displayName="Table2" ref="H1:EO8" totalsRowShown="0" headerRowDxfId="139" dataDxfId="138">
-  <autoFilter ref="H1:EO8" xr:uid="{DC87E5BE-26EC-4DBC-8565-103061C7F3D4}"/>
-  <tableColumns count="138">
-    <tableColumn id="1" xr3:uid="{F63B5B5B-75EF-415D-9D47-65053D6DF43A}" name="IDNumber" dataDxfId="137"/>
-    <tableColumn id="2" xr3:uid="{00DFF19F-9E5D-44BD-B746-C5D10556D9C8}" name="CustomerType" dataDxfId="136"/>
-    <tableColumn id="4" xr3:uid="{16007208-EDF9-4E5D-AAA6-7F837DDD8C78}" name="FirstName" dataDxfId="135"/>
-    <tableColumn id="5" xr3:uid="{EBB0D839-0B51-4805-BD0B-AAB83E639E7A}" name="SecondName" dataDxfId="134"/>
-    <tableColumn id="6" xr3:uid="{07BF2CBA-E818-4808-9F87-9C6E9B8E27EB}" name="FamilyName" dataDxfId="133"/>
-    <tableColumn id="7" xr3:uid="{2E161694-E056-49B2-B02C-18609B166288}" name="MobileNumber" dataDxfId="132"/>
-    <tableColumn id="8" xr3:uid="{833F8941-B4C0-4E9B-89CA-6ACBE1BBC919}" name="Product" dataDxfId="131"/>
-    <tableColumn id="9" xr3:uid="{6AB217CA-8575-47C6-8323-49DBB8179C87}" name="SubProduct" dataDxfId="130"/>
-    <tableColumn id="10" xr3:uid="{B427C861-36D2-4A49-8916-781C22F94FF4}" name="SchemeType" dataDxfId="129"/>
-    <tableColumn id="11" xr3:uid="{BC30846C-2EA9-4DD7-B7FD-8EFA2281FD70}" name="Branch" dataDxfId="128"/>
-    <tableColumn id="12" xr3:uid="{7521EBC7-8105-4B20-B089-0355970E2900}" name="addressType" dataDxfId="127"/>
-    <tableColumn id="13" xr3:uid="{A68B51A1-92D8-490D-8098-B759DD9581A1}" name="addressTypeValue" dataDxfId="126"/>
-    <tableColumn id="14" xr3:uid="{F19CF168-BC8D-46DE-ACA0-71EDB250DFFF}" name="activeInActive" dataDxfId="125"/>
-    <tableColumn id="3" xr3:uid="{CA80F8FF-FC63-4AD4-9D64-0F817F3CD198}" name="ApplicantType" dataDxfId="124"/>
-    <tableColumn id="15" xr3:uid="{A95550BC-D33C-4168-9C34-660D7631DE85}" name="email" dataDxfId="123"/>
-    <tableColumn id="16" xr3:uid="{3183446F-0B43-4115-A526-CA96A24A5A0C}" name="SourceOfIncome" dataDxfId="122"/>
-    <tableColumn id="17" xr3:uid="{1673EE05-9F0D-4EB3-B6D6-DC08105325A2}" name="Title" dataDxfId="121"/>
-    <tableColumn id="120" xr3:uid="{FDC531AF-46A0-4FCB-B25A-8E287A2C8C2E}" name="formOfOrganization" dataDxfId="120"/>
-    <tableColumn id="18" xr3:uid="{683CA39D-EC12-4489-A45A-69A9DEBD4155}" name="Nationality" dataDxfId="119"/>
-    <tableColumn id="20" xr3:uid="{BBFDDC0F-FDD1-46F8-B248-DF40C724613D}" name="countryOfJurisdiction" dataDxfId="118"/>
-    <tableColumn id="21" xr3:uid="{2983BFC1-1906-4319-9DF0-B77011DD7DEA}" name="EducationLevel" dataDxfId="117"/>
-    <tableColumn id="22" xr3:uid="{986D7F90-6FF6-41A5-A619-2D271BE00764}" name="DateOfBirth" dataDxfId="116"/>
-    <tableColumn id="23" xr3:uid="{8EF037E0-977A-443D-A870-A027ABFB319E}" name="MaritalStatus" dataDxfId="115"/>
-    <tableColumn id="24" xr3:uid="{A2FF1F1E-5655-44BF-886D-A1CDF65B5A95}" name="NoOfDependents" dataDxfId="114"/>
-    <tableColumn id="25" xr3:uid="{56E2E3BE-8A9C-4AE9-94D4-966966AE8106}" name="ReturnedCheques" dataDxfId="113"/>
-    <tableColumn id="26" xr3:uid="{E193FD7F-57D4-4112-85E2-6D86AEEE2D77}" name="ChequeAbuserList" dataDxfId="112"/>
-    <tableColumn id="27" xr3:uid="{15E73E8B-3789-4FC5-959A-FEB1D9247868}" name="PropertyOwnership" dataDxfId="111"/>
-    <tableColumn id="28" xr3:uid="{6B956D5B-906C-4326-8C82-4DA36E1F5615}" name="addressLine1" dataDxfId="110"/>
-    <tableColumn id="34" xr3:uid="{007FE1DB-033B-4516-B370-A1624B351561}" name="building" dataDxfId="109"/>
-    <tableColumn id="29" xr3:uid="{2E8258A9-21F2-49E6-A32C-A2461F6F0D34}" name="flat" dataDxfId="108"/>
-    <tableColumn id="30" xr3:uid="{4B02ADB7-BF07-4814-B8AA-5139B871F77F}" name="avenue" dataDxfId="107"/>
-    <tableColumn id="31" xr3:uid="{3FDD9253-AB6B-4FD1-876D-578DA73C5B56}" name="Block" dataDxfId="106"/>
-    <tableColumn id="32" xr3:uid="{BA71D7A1-AD3D-40A5-ADFB-7F9EBCE6C2C6}" name="Country" dataDxfId="105"/>
-    <tableColumn id="33" xr3:uid="{6515130A-EC40-4F7C-AA54-1ADD52D50D5E}" name="City_Area" dataDxfId="104"/>
-    <tableColumn id="19" xr3:uid="{4D649DD4-69B1-40FF-8591-BC8ABD1B6012}" name="issueDate" dataDxfId="103"/>
-    <tableColumn id="35" xr3:uid="{A40DD074-5F3C-4816-B828-7A321AE246E1}" name="expiryDate" dataDxfId="102"/>
-    <tableColumn id="36" xr3:uid="{34620B96-0561-451C-9DBE-C0899F72320A}" name="renewalUnderProcess" dataDxfId="101"/>
-    <tableColumn id="37" xr3:uid="{0004759E-F0AA-489E-B041-D0E052AC9809}" name="natureOfEmplmt" dataDxfId="100"/>
-    <tableColumn id="38" xr3:uid="{E4D18649-8838-4E63-9E4B-3E22C3502670}" name="incomeType" dataDxfId="99"/>
-    <tableColumn id="39" xr3:uid="{B0BEE11D-04F9-4615-B858-E88D7F4B2BFF}" name="incomeAmt_txt" dataDxfId="98"/>
-    <tableColumn id="40" xr3:uid="{5F7661EC-8CA9-43FD-A1F8-605F258C9D1E}" name="bankName" dataDxfId="97"/>
-    <tableColumn id="41" xr3:uid="{03FF8983-E488-4619-B7EF-DAB89F5EAC3B}" name="accountNumber" dataDxfId="96"/>
-    <tableColumn id="42" xr3:uid="{D7557DBA-7BF9-4B6B-A993-A719B1AC1F05}" name="ibanNumber" dataDxfId="95"/>
-    <tableColumn id="43" xr3:uid="{B3FE0B56-7A31-4A0C-999F-A057737C3647}" name="CustomerTypeContactDetails" dataDxfId="94"/>
-    <tableColumn id="119" xr3:uid="{2BD3DD66-4663-429F-9EC2-7138114471C6}" name="relationName" dataDxfId="93"/>
-    <tableColumn id="118" xr3:uid="{85144347-A603-4B4C-9421-95BF2817AAD7}" name="relationWithCust" dataDxfId="92"/>
-    <tableColumn id="44" xr3:uid="{B03A64D4-2EB9-4ACE-B800-7091881934FE}" name="ContactType" dataDxfId="91"/>
-    <tableColumn id="45" xr3:uid="{E46BDB05-540A-4D5A-BE38-BB45035A1FBB}" name="Contact_status" dataDxfId="90"/>
-    <tableColumn id="46" xr3:uid="{071B7EAD-4786-4BF6-BD57-7F551BF1BFF0}" name="regWithNfh" dataDxfId="89"/>
-    <tableColumn id="47" xr3:uid="{0644A39D-5B5B-4DA9-B33F-8CBB659FE512}" name="vehPurchaseType" dataDxfId="88"/>
-    <tableColumn id="48" xr3:uid="{9C326EAF-77E1-4045-9042-56296390DA47}" name="hirePurchase" dataDxfId="87"/>
-    <tableColumn id="49" xr3:uid="{75DAB3C7-BB41-48FA-8B60-DFEFC5164F57}" name="isApplicantOwner" dataDxfId="86"/>
-    <tableColumn id="50" xr3:uid="{64AC5C43-9B94-4815-A277-3DA2D5E3A538}" name="isPrimrySecurity" dataDxfId="85"/>
-    <tableColumn id="51" xr3:uid="{7AB4CB89-CBF0-402F-91AD-AA45FC029539}" name="vehDealer" dataDxfId="84"/>
-    <tableColumn id="52" xr3:uid="{928B80BD-B376-4005-B7A0-34DA4C9FD1E3}" name="dealerSaleman" dataDxfId="83"/>
-    <tableColumn id="53" xr3:uid="{2FEEB584-A7ED-4E3A-9B89-1F6B6A099671}" name="vehCat" dataDxfId="82"/>
-    <tableColumn id="54" xr3:uid="{1DA9CDDC-77D9-44B6-8642-62F09DC56422}" name="vehMaker" dataDxfId="81"/>
-    <tableColumn id="55" xr3:uid="{C33B6678-1BA4-42C5-A240-E86E78B157C3}" name="vehModel" dataDxfId="80"/>
-    <tableColumn id="56" xr3:uid="{172E096F-A9A2-4CF3-9AFB-3424C30B1FA3}" name="vehModelCat" dataDxfId="79"/>
-    <tableColumn id="57" xr3:uid="{04B0522D-440A-4682-B572-81E681286D08}" name="manufactureCountry" dataDxfId="78"/>
-    <tableColumn id="58" xr3:uid="{63DF28F3-0DCF-4466-95D9-A7B8679C5338}" name="colour" dataDxfId="77"/>
-    <tableColumn id="59" xr3:uid="{BF43045B-8357-47B4-A489-C10F4CCDD4F1}" name="manufactureYear" dataDxfId="76"/>
-    <tableColumn id="60" xr3:uid="{30FD714C-FBFB-4619-A366-3FF395E7E139}" name="vehiclePrice_txt" dataDxfId="75"/>
-    <tableColumn id="61" xr3:uid="{94D38C5A-700A-4528-A837-90C836489E4E}" name="downPaymentPer_txt" dataDxfId="74"/>
-    <tableColumn id="62" xr3:uid="{3A681706-B2D4-49F3-88FA-97277F708246}" name="initialPaymt_txt" dataDxfId="73"/>
-    <tableColumn id="63" xr3:uid="{ACDE4A0C-A6B2-4D87-83BE-9DBEAF3B7EA8}" name="actVehiclePrice_txt" dataDxfId="72"/>
-    <tableColumn id="64" xr3:uid="{BC736CC7-6CAD-44C2-9288-91971876FC45}" name="adminCharge_txt" dataDxfId="71"/>
-    <tableColumn id="65" xr3:uid="{B7631C2C-9A9D-4C40-B97F-7A2548260750}" name="adminVat" dataDxfId="70"/>
-    <tableColumn id="66" xr3:uid="{59A7C662-7F28-4D63-9CB6-7FD71F70741D}" name="adminChagreWithVat_txt" dataDxfId="69"/>
-    <tableColumn id="67" xr3:uid="{0ACE22C9-BFA2-4413-BBC2-1C9F29D7F032}" name="modeOfPayment" dataDxfId="68"/>
-    <tableColumn id="68" xr3:uid="{956718A3-3DA9-432A-BE21-F4EE365D521C}" name="isInsuredWithNFH" dataDxfId="67"/>
-    <tableColumn id="69" xr3:uid="{D092F385-0749-4926-B32F-E4A40D97672E}" name="collateralType" dataDxfId="66"/>
-    <tableColumn id="70" xr3:uid="{D5D19B86-E695-4C1D-913A-FB6343AB534D}" name="collateralSubType" dataDxfId="65"/>
-    <tableColumn id="71" xr3:uid="{B312C1AB-E7B8-4367-B805-A99B729A14A3}" name="valuatorName" dataDxfId="64"/>
-    <tableColumn id="72" xr3:uid="{B7AB646A-EBBB-4EB0-9FB0-DBE43DFFE330}" name="otherValuatorName" dataDxfId="63"/>
-    <tableColumn id="73" xr3:uid="{B1FD4261-2181-4B55-AAE3-6162C625B56D}" name="estimatedValuationAmt_txt" dataDxfId="62"/>
-    <tableColumn id="74" xr3:uid="{A4741736-F379-42DF-88F8-841355249EDB}" name="finalValuationAmt_txt" dataDxfId="61"/>
-    <tableColumn id="75" xr3:uid="{6E8AD8AE-62CE-461D-8748-9D387CCD70C5}" name="valuationDate" dataDxfId="60"/>
-    <tableColumn id="76" xr3:uid="{02F21512-03F4-4059-9E30-C15516314CFE}" name="chassisNo" dataDxfId="59"/>
-    <tableColumn id="77" xr3:uid="{F95CBF5D-6BD7-4C3E-BA44-86E0AA0CA475}" name="registrationNo" dataDxfId="58"/>
-    <tableColumn id="78" xr3:uid="{FE95FBFA-6AF8-4E65-A8BA-C8E4667D1A10}" name="engineCapacity" dataDxfId="57"/>
-    <tableColumn id="79" xr3:uid="{F1EAECC0-75AD-4DC4-8BEB-50764716FB73}" name="mileage" dataDxfId="56"/>
-    <tableColumn id="80" xr3:uid="{E9D66C2D-3BA7-47AC-8384-C167FF40306D}" name="cylinder" dataDxfId="55"/>
-    <tableColumn id="81" xr3:uid="{AD1FB051-1EEC-4374-AAA5-6B620D830FC4}" name="color" dataDxfId="54"/>
-    <tableColumn id="82" xr3:uid="{ADBB0DF3-84AD-4DAD-9B54-54807BB109BD}" name="insuranceType" dataDxfId="53"/>
-    <tableColumn id="83" xr3:uid="{DE41EEFF-2AF2-40DF-9D1C-CD072BCFB90F}" name="vehicleCondition" dataDxfId="52"/>
-    <tableColumn id="84" xr3:uid="{360A06CC-896F-472C-9184-B6485DBC2E24}" name="exteriorCondition" dataDxfId="51"/>
-    <tableColumn id="85" xr3:uid="{23C4EA02-9853-4B40-841E-D83818C82CED}" name="interiorCondition" dataDxfId="50"/>
-    <tableColumn id="86" xr3:uid="{426BC3BF-2900-43DF-B907-B998AB4A3FD6}" name="tyreCondition" dataDxfId="49"/>
-    <tableColumn id="87" xr3:uid="{59D4C78D-3A01-431B-A37F-0CAC4F8060C4}" name="engineCondition" dataDxfId="48"/>
-    <tableColumn id="88" xr3:uid="{ED1EF02C-D7E6-4C80-B7C3-EB885A408873}" name="gearBox" dataDxfId="47"/>
-    <tableColumn id="89" xr3:uid="{BB055320-D9AB-427B-B07C-C8889F1892B4}" name="suspension" dataDxfId="46"/>
-    <tableColumn id="90" xr3:uid="{7258326E-3F04-4976-8492-3603BA97D071}" name="interiorType" dataDxfId="45"/>
-    <tableColumn id="91" xr3:uid="{825B14FD-9CB2-4A4F-ADBD-5347B46D09CE}" name="manufactureWarranty" dataDxfId="44"/>
-    <tableColumn id="92" xr3:uid="{1B61C1D4-8E64-4A15-826A-E0137CB82D83}" name="warrntyYearRemaining" dataDxfId="43"/>
-    <tableColumn id="93" xr3:uid="{FDEC472D-97B5-4015-A7ED-2E1067730E27}" name="alloyWheels" dataDxfId="42"/>
-    <tableColumn id="94" xr3:uid="{74CDD0FF-484D-4DF3-BAF8-C8155EBF3011}" name="spareTyre" dataDxfId="41"/>
-    <tableColumn id="95" xr3:uid="{1CD9662A-8FB1-4C94-8C23-910A64FC9408}" name="jack" dataDxfId="40"/>
-    <tableColumn id="96" xr3:uid="{205059EB-0A88-4AB1-A579-072E85685FD1}" name="tool" dataDxfId="39"/>
-    <tableColumn id="97" xr3:uid="{47D70AEF-55CB-46E7-BEE9-A8B376ABB00A}" name="wheelCaps" dataDxfId="38"/>
-    <tableColumn id="98" xr3:uid="{4D1B9B90-6C91-4149-A427-2E573E0BE8F6}" name="floorrMats" dataDxfId="37"/>
-    <tableColumn id="99" xr3:uid="{8E0EFE84-2194-4F00-B7ED-0A22A736FE5C}" name="fireExtinguisher" dataDxfId="36"/>
-    <tableColumn id="100" xr3:uid="{8B56A608-68C9-493E-8B91-B69CF9D944BA}" name="firstAidKit" dataDxfId="35"/>
-    <tableColumn id="101" xr3:uid="{04D0114D-113B-4E4A-8945-03FB77E918E2}" name="spareKey" dataDxfId="34"/>
-    <tableColumn id="102" xr3:uid="{8EEABA6B-CD4A-41C1-AD23-3A060938FBBC}" name="radio" dataDxfId="33"/>
-    <tableColumn id="103" xr3:uid="{A476DA46-F896-41C2-B730-05A8EE8BBA0D}" name="sunRoof" dataDxfId="32"/>
-    <tableColumn id="104" xr3:uid="{40837055-ACB4-48AC-95F5-CA8E7893C55E}" name="electricWindow" dataDxfId="31"/>
-    <tableColumn id="105" xr3:uid="{606CCFC8-FBA6-4AB7-AE7B-37007236EDE6}" name="satelliteNavigation" dataDxfId="30"/>
-    <tableColumn id="106" xr3:uid="{4E3BA4DC-9193-4F34-8496-65AEE6B82737}" name="dvd" dataDxfId="29"/>
-    <tableColumn id="107" xr3:uid="{9DB233D0-755F-4162-A8E8-ABEAC6C5B3A5}" name="screen" dataDxfId="28"/>
-    <tableColumn id="108" xr3:uid="{30040546-46FE-4FA1-959E-C453DBF0BFD5}" name="airConditioner" dataDxfId="27"/>
-    <tableColumn id="109" xr3:uid="{C8813AC5-5CF8-4370-82DC-565FC005E836}" name="battery" dataDxfId="26"/>
-    <tableColumn id="110" xr3:uid="{34614546-004C-4454-8912-15181BD4ECD8}" name="remarks" dataDxfId="25"/>
-    <tableColumn id="111" xr3:uid="{54D5F79C-FEFE-4EBE-8DB3-8F37E93E43C6}" name="firstEmiDate" dataDxfId="24"/>
-    <tableColumn id="112" xr3:uid="{1848B67E-9391-4333-BD03-D9AA7D3F2B8E}" name="requiredTenure" dataDxfId="23"/>
-    <tableColumn id="113" xr3:uid="{A2F17A4A-AB2B-420C-908D-1A998ECFAA99}" name="vatPaymentMode" dataDxfId="22"/>
-    <tableColumn id="114" xr3:uid="{342CF2C2-2827-4FFE-BFA7-AE764B29441C}" name="repaymentMode" dataDxfId="21"/>
-    <tableColumn id="115" xr3:uid="{B95FCC17-EBCC-47E0-98A5-18FE8FF57B9B}" name="isDefault" dataDxfId="20"/>
-    <tableColumn id="116" xr3:uid="{C4672D46-75C5-45D3-AF43-F9E52B1EA9E8}" name="docGrp" dataDxfId="19"/>
-    <tableColumn id="121" xr3:uid="{484C9E84-C658-4E12-AEB1-760D0E3C79F2}" name="registrationDate" dataDxfId="18"/>
-    <tableColumn id="117" xr3:uid="{8DB8BF92-2E3A-49A3-ADC8-23C055D38F41}" name="docType" dataDxfId="17"/>
-    <tableColumn id="122" xr3:uid="{07BB487A-B6A9-42DD-9ADA-E7F926155EDE}" name="expirationDate" dataDxfId="16"/>
-    <tableColumn id="123" xr3:uid="{109789D0-506D-47DA-A49A-7840BFAEFAB5}" name="placeOfEstablishment" dataDxfId="15"/>
-    <tableColumn id="124" xr3:uid="{DC239F99-E54E-4DB6-B9A3-5AC5D3176B08}" name="purposeCode" dataDxfId="14"/>
-    <tableColumn id="125" xr3:uid="{1DF4975D-740D-43AB-911C-FF1F4C635DB4}" name="crStatus" dataDxfId="13"/>
-    <tableColumn id="126" xr3:uid="{6FCB0C9B-A814-46F2-9D26-4887205F96B6}" name="autoBlacklisted" dataDxfId="12"/>
-    <tableColumn id="127" xr3:uid="{C974E4D7-EC11-4ED6-8BC0-355123A46A06}" name="unListValidated" dataDxfId="11"/>
-    <tableColumn id="128" xr3:uid="{3259DC83-3908-4D62-B105-69A90964B584}" name="returnedCheques2" dataDxfId="10"/>
-    <tableColumn id="129" xr3:uid="{57B5A4CC-9DF0-45B1-B159-6B17E5474F0F}" name="chequeAbuserList2" dataDxfId="9"/>
-    <tableColumn id="130" xr3:uid="{3EABEFDD-34C6-423C-AADC-C8ADBE9CF08B}" name="totCreditTurnOver" dataDxfId="8"/>
-    <tableColumn id="131" xr3:uid="{2A8125DB-0727-4E10-85B3-B61C752C2550}" name="noOfMonths" dataDxfId="7"/>
-    <tableColumn id="132" xr3:uid="{3305ACE0-5952-4227-967D-D64A9154ABB2}" name="avgCreditTurnoverPerc" dataDxfId="6"/>
-    <tableColumn id="133" xr3:uid="{F19797E2-CE51-436D-A775-E6D05BDF4B4F}" name="bankNameBusiness" dataDxfId="5"/>
-    <tableColumn id="134" xr3:uid="{F6C479B5-7401-469A-AB85-BF2888742D3E}" name="remark" dataDxfId="4"/>
-    <tableColumn id="135" xr3:uid="{EBBA0D17-56A1-44F7-9143-0DF66E09484A}" name="chasisNumber" dataDxfId="3"/>
-    <tableColumn id="136" xr3:uid="{574E9957-985F-4ED0-BB11-9D6A9905B156}" name="engineNumber" dataDxfId="2"/>
-    <tableColumn id="137" xr3:uid="{FE15058E-BC39-4958-81B8-4BA5335639B4}" name="servReqDate" dataDxfId="1"/>
-    <tableColumn id="138" xr3:uid="{78CA1DA9-FDA0-4A64-A35F-17D344404278}" name="srcOfPayment" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DC87E5BE-26EC-4DBC-8565-103061C7F3D4}" name="Table2" displayName="Table2" ref="H1:EV8" totalsRowShown="0" headerRowDxfId="146" dataDxfId="145">
+  <autoFilter ref="H1:EV8" xr:uid="{DC87E5BE-26EC-4DBC-8565-103061C7F3D4}"/>
+  <tableColumns count="145">
+    <tableColumn id="1" xr3:uid="{F63B5B5B-75EF-415D-9D47-65053D6DF43A}" name="IDNumber" dataDxfId="144"/>
+    <tableColumn id="2" xr3:uid="{00DFF19F-9E5D-44BD-B746-C5D10556D9C8}" name="CustomerType" dataDxfId="143"/>
+    <tableColumn id="4" xr3:uid="{16007208-EDF9-4E5D-AAA6-7F837DDD8C78}" name="FirstName" dataDxfId="142"/>
+    <tableColumn id="5" xr3:uid="{EBB0D839-0B51-4805-BD0B-AAB83E639E7A}" name="SecondName" dataDxfId="141"/>
+    <tableColumn id="6" xr3:uid="{07BF2CBA-E818-4808-9F87-9C6E9B8E27EB}" name="FamilyName" dataDxfId="140"/>
+    <tableColumn id="7" xr3:uid="{2E161694-E056-49B2-B02C-18609B166288}" name="MobileNumber" dataDxfId="139"/>
+    <tableColumn id="8" xr3:uid="{833F8941-B4C0-4E9B-89CA-6ACBE1BBC919}" name="Product" dataDxfId="138"/>
+    <tableColumn id="9" xr3:uid="{6AB217CA-8575-47C6-8323-49DBB8179C87}" name="SubProduct" dataDxfId="137"/>
+    <tableColumn id="10" xr3:uid="{B427C861-36D2-4A49-8916-781C22F94FF4}" name="SchemeType" dataDxfId="136"/>
+    <tableColumn id="11" xr3:uid="{BC30846C-2EA9-4DD7-B7FD-8EFA2281FD70}" name="Branch" dataDxfId="135"/>
+    <tableColumn id="12" xr3:uid="{7521EBC7-8105-4B20-B089-0355970E2900}" name="addressType" dataDxfId="134"/>
+    <tableColumn id="13" xr3:uid="{A68B51A1-92D8-490D-8098-B759DD9581A1}" name="addressTypeValue" dataDxfId="133"/>
+    <tableColumn id="14" xr3:uid="{F19CF168-BC8D-46DE-ACA0-71EDB250DFFF}" name="activeInActive" dataDxfId="132"/>
+    <tableColumn id="3" xr3:uid="{CA80F8FF-FC63-4AD4-9D64-0F817F3CD198}" name="ApplicantType" dataDxfId="131"/>
+    <tableColumn id="15" xr3:uid="{A95550BC-D33C-4168-9C34-660D7631DE85}" name="email" dataDxfId="130"/>
+    <tableColumn id="16" xr3:uid="{3183446F-0B43-4115-A526-CA96A24A5A0C}" name="SourceOfIncome" dataDxfId="129"/>
+    <tableColumn id="17" xr3:uid="{1673EE05-9F0D-4EB3-B6D6-DC08105325A2}" name="Title" dataDxfId="128"/>
+    <tableColumn id="120" xr3:uid="{FDC531AF-46A0-4FCB-B25A-8E287A2C8C2E}" name="formOfOrganization" dataDxfId="127"/>
+    <tableColumn id="18" xr3:uid="{683CA39D-EC12-4489-A45A-69A9DEBD4155}" name="Nationality" dataDxfId="126"/>
+    <tableColumn id="20" xr3:uid="{BBFDDC0F-FDD1-46F8-B248-DF40C724613D}" name="countryOfJurisdiction" dataDxfId="125"/>
+    <tableColumn id="21" xr3:uid="{2983BFC1-1906-4319-9DF0-B77011DD7DEA}" name="EducationLevel" dataDxfId="124"/>
+    <tableColumn id="22" xr3:uid="{986D7F90-6FF6-41A5-A619-2D271BE00764}" name="DateOfBirth" dataDxfId="123"/>
+    <tableColumn id="23" xr3:uid="{8EF037E0-977A-443D-A870-A027ABFB319E}" name="MaritalStatus" dataDxfId="122"/>
+    <tableColumn id="24" xr3:uid="{A2FF1F1E-5655-44BF-886D-A1CDF65B5A95}" name="NoOfDependents" dataDxfId="121"/>
+    <tableColumn id="25" xr3:uid="{56E2E3BE-8A9C-4AE9-94D4-966966AE8106}" name="ReturnedCheques" dataDxfId="120"/>
+    <tableColumn id="26" xr3:uid="{E193FD7F-57D4-4112-85E2-6D86AEEE2D77}" name="ChequeAbuserList" dataDxfId="119"/>
+    <tableColumn id="27" xr3:uid="{15E73E8B-3789-4FC5-959A-FEB1D9247868}" name="PropertyOwnership" dataDxfId="118"/>
+    <tableColumn id="28" xr3:uid="{6B956D5B-906C-4326-8C82-4DA36E1F5615}" name="addressLine1" dataDxfId="117"/>
+    <tableColumn id="34" xr3:uid="{007FE1DB-033B-4516-B370-A1624B351561}" name="building" dataDxfId="116"/>
+    <tableColumn id="29" xr3:uid="{2E8258A9-21F2-49E6-A32C-A2461F6F0D34}" name="flat" dataDxfId="115"/>
+    <tableColumn id="30" xr3:uid="{4B02ADB7-BF07-4814-B8AA-5139B871F77F}" name="avenue" dataDxfId="114"/>
+    <tableColumn id="31" xr3:uid="{3FDD9253-AB6B-4FD1-876D-578DA73C5B56}" name="Block" dataDxfId="113"/>
+    <tableColumn id="32" xr3:uid="{BA71D7A1-AD3D-40A5-ADFB-7F9EBCE6C2C6}" name="Country" dataDxfId="112"/>
+    <tableColumn id="33" xr3:uid="{6515130A-EC40-4F7C-AA54-1ADD52D50D5E}" name="City_Area" dataDxfId="111"/>
+    <tableColumn id="19" xr3:uid="{4D649DD4-69B1-40FF-8591-BC8ABD1B6012}" name="issueDate" dataDxfId="110"/>
+    <tableColumn id="35" xr3:uid="{A40DD074-5F3C-4816-B828-7A321AE246E1}" name="expiryDate" dataDxfId="109"/>
+    <tableColumn id="36" xr3:uid="{34620B96-0561-451C-9DBE-C0899F72320A}" name="renewalUnderProcess" dataDxfId="108"/>
+    <tableColumn id="37" xr3:uid="{0004759E-F0AA-489E-B041-D0E052AC9809}" name="natureOfEmplmt" dataDxfId="107"/>
+    <tableColumn id="38" xr3:uid="{E4D18649-8838-4E63-9E4B-3E22C3502670}" name="incomeType" dataDxfId="106"/>
+    <tableColumn id="39" xr3:uid="{B0BEE11D-04F9-4615-B858-E88D7F4B2BFF}" name="incomeAmt_txt" dataDxfId="105"/>
+    <tableColumn id="40" xr3:uid="{5F7661EC-8CA9-43FD-A1F8-605F258C9D1E}" name="bankName" dataDxfId="104"/>
+    <tableColumn id="41" xr3:uid="{03FF8983-E488-4619-B7EF-DAB89F5EAC3B}" name="accountNumber" dataDxfId="103"/>
+    <tableColumn id="42" xr3:uid="{D7557DBA-7BF9-4B6B-A993-A719B1AC1F05}" name="ibanNumber" dataDxfId="102"/>
+    <tableColumn id="43" xr3:uid="{B3FE0B56-7A31-4A0C-999F-A057737C3647}" name="CustomerTypeContactDetails" dataDxfId="101"/>
+    <tableColumn id="119" xr3:uid="{2BD3DD66-4663-429F-9EC2-7138114471C6}" name="relationName" dataDxfId="100"/>
+    <tableColumn id="118" xr3:uid="{85144347-A603-4B4C-9421-95BF2817AAD7}" name="relationWithCust" dataDxfId="99"/>
+    <tableColumn id="44" xr3:uid="{B03A64D4-2EB9-4ACE-B800-7091881934FE}" name="ContactType" dataDxfId="98"/>
+    <tableColumn id="45" xr3:uid="{E46BDB05-540A-4D5A-BE38-BB45035A1FBB}" name="Contact_status" dataDxfId="97"/>
+    <tableColumn id="46" xr3:uid="{071B7EAD-4786-4BF6-BD57-7F551BF1BFF0}" name="regWithNfh" dataDxfId="96"/>
+    <tableColumn id="47" xr3:uid="{0644A39D-5B5B-4DA9-B33F-8CBB659FE512}" name="vehPurchaseType" dataDxfId="95"/>
+    <tableColumn id="48" xr3:uid="{9C326EAF-77E1-4045-9042-56296390DA47}" name="hirePurchase" dataDxfId="94"/>
+    <tableColumn id="49" xr3:uid="{75DAB3C7-BB41-48FA-8B60-DFEFC5164F57}" name="isApplicantOwner" dataDxfId="93"/>
+    <tableColumn id="50" xr3:uid="{64AC5C43-9B94-4815-A277-3DA2D5E3A538}" name="isPrimrySecurity" dataDxfId="92"/>
+    <tableColumn id="51" xr3:uid="{7AB4CB89-CBF0-402F-91AD-AA45FC029539}" name="vehDealer" dataDxfId="91"/>
+    <tableColumn id="52" xr3:uid="{928B80BD-B376-4005-B7A0-34DA4C9FD1E3}" name="dealerSaleman" dataDxfId="90"/>
+    <tableColumn id="53" xr3:uid="{2FEEB584-A7ED-4E3A-9B89-1F6B6A099671}" name="vehCat" dataDxfId="89"/>
+    <tableColumn id="54" xr3:uid="{1DA9CDDC-77D9-44B6-8642-62F09DC56422}" name="vehMaker" dataDxfId="88"/>
+    <tableColumn id="55" xr3:uid="{C33B6678-1BA4-42C5-A240-E86E78B157C3}" name="vehModel" dataDxfId="87"/>
+    <tableColumn id="56" xr3:uid="{172E096F-A9A2-4CF3-9AFB-3424C30B1FA3}" name="vehModelCat" dataDxfId="86"/>
+    <tableColumn id="57" xr3:uid="{04B0522D-440A-4682-B572-81E681286D08}" name="manufactureCountry" dataDxfId="85"/>
+    <tableColumn id="58" xr3:uid="{63DF28F3-0DCF-4466-95D9-A7B8679C5338}" name="colour" dataDxfId="84"/>
+    <tableColumn id="59" xr3:uid="{BF43045B-8357-47B4-A489-C10F4CCDD4F1}" name="manufactureYear" dataDxfId="83"/>
+    <tableColumn id="60" xr3:uid="{30FD714C-FBFB-4619-A366-3FF395E7E139}" name="vehiclePrice_txt" dataDxfId="82"/>
+    <tableColumn id="61" xr3:uid="{94D38C5A-700A-4528-A837-90C836489E4E}" name="downPaymentPer_txt" dataDxfId="81"/>
+    <tableColumn id="62" xr3:uid="{3A681706-B2D4-49F3-88FA-97277F708246}" name="initialPaymt_txt" dataDxfId="80"/>
+    <tableColumn id="63" xr3:uid="{ACDE4A0C-A6B2-4D87-83BE-9DBEAF3B7EA8}" name="actVehiclePrice_txt" dataDxfId="79"/>
+    <tableColumn id="64" xr3:uid="{BC736CC7-6CAD-44C2-9288-91971876FC45}" name="adminCharge_txt" dataDxfId="78"/>
+    <tableColumn id="65" xr3:uid="{B7631C2C-9A9D-4C40-B97F-7A2548260750}" name="adminVat" dataDxfId="77"/>
+    <tableColumn id="66" xr3:uid="{59A7C662-7F28-4D63-9CB6-7FD71F70741D}" name="adminChagreWithVat_txt" dataDxfId="76"/>
+    <tableColumn id="67" xr3:uid="{0ACE22C9-BFA2-4413-BBC2-1C9F29D7F032}" name="modeOfPayment" dataDxfId="75"/>
+    <tableColumn id="68" xr3:uid="{956718A3-3DA9-432A-BE21-F4EE365D521C}" name="isInsuredWithNFH" dataDxfId="74"/>
+    <tableColumn id="69" xr3:uid="{D092F385-0749-4926-B32F-E4A40D97672E}" name="collateralType" dataDxfId="73"/>
+    <tableColumn id="70" xr3:uid="{D5D19B86-E695-4C1D-913A-FB6343AB534D}" name="collateralSubType" dataDxfId="72"/>
+    <tableColumn id="71" xr3:uid="{B312C1AB-E7B8-4367-B805-A99B729A14A3}" name="valuatorName" dataDxfId="71"/>
+    <tableColumn id="72" xr3:uid="{B7AB646A-EBBB-4EB0-9FB0-DBE43DFFE330}" name="otherValuatorName" dataDxfId="70"/>
+    <tableColumn id="73" xr3:uid="{B1FD4261-2181-4B55-AAE3-6162C625B56D}" name="estimatedValuationAmt_txt" dataDxfId="69"/>
+    <tableColumn id="74" xr3:uid="{A4741736-F379-42DF-88F8-841355249EDB}" name="finalValuationAmt_txt" dataDxfId="68"/>
+    <tableColumn id="75" xr3:uid="{6E8AD8AE-62CE-461D-8748-9D387CCD70C5}" name="valuationDate" dataDxfId="67"/>
+    <tableColumn id="76" xr3:uid="{02F21512-03F4-4059-9E30-C15516314CFE}" name="chassisNo" dataDxfId="66"/>
+    <tableColumn id="77" xr3:uid="{F95CBF5D-6BD7-4C3E-BA44-86E0AA0CA475}" name="registrationNo" dataDxfId="65"/>
+    <tableColumn id="78" xr3:uid="{FE95FBFA-6AF8-4E65-A8BA-C8E4667D1A10}" name="engineCapacity" dataDxfId="64"/>
+    <tableColumn id="79" xr3:uid="{F1EAECC0-75AD-4DC4-8BEB-50764716FB73}" name="mileage" dataDxfId="63"/>
+    <tableColumn id="80" xr3:uid="{E9D66C2D-3BA7-47AC-8384-C167FF40306D}" name="cylinder" dataDxfId="62"/>
+    <tableColumn id="81" xr3:uid="{AD1FB051-1EEC-4374-AAA5-6B620D830FC4}" name="color" dataDxfId="61"/>
+    <tableColumn id="82" xr3:uid="{ADBB0DF3-84AD-4DAD-9B54-54807BB109BD}" name="insuranceType" dataDxfId="60"/>
+    <tableColumn id="83" xr3:uid="{DE41EEFF-2AF2-40DF-9D1C-CD072BCFB90F}" name="vehicleCondition" dataDxfId="59"/>
+    <tableColumn id="84" xr3:uid="{360A06CC-896F-472C-9184-B6485DBC2E24}" name="exteriorCondition" dataDxfId="58"/>
+    <tableColumn id="85" xr3:uid="{23C4EA02-9853-4B40-841E-D83818C82CED}" name="interiorCondition" dataDxfId="57"/>
+    <tableColumn id="86" xr3:uid="{426BC3BF-2900-43DF-B907-B998AB4A3FD6}" name="tyreCondition" dataDxfId="56"/>
+    <tableColumn id="87" xr3:uid="{59D4C78D-3A01-431B-A37F-0CAC4F8060C4}" name="engineCondition" dataDxfId="55"/>
+    <tableColumn id="88" xr3:uid="{ED1EF02C-D7E6-4C80-B7C3-EB885A408873}" name="gearBox" dataDxfId="54"/>
+    <tableColumn id="89" xr3:uid="{BB055320-D9AB-427B-B07C-C8889F1892B4}" name="suspension" dataDxfId="53"/>
+    <tableColumn id="90" xr3:uid="{7258326E-3F04-4976-8492-3603BA97D071}" name="interiorType" dataDxfId="52"/>
+    <tableColumn id="91" xr3:uid="{825B14FD-9CB2-4A4F-ADBD-5347B46D09CE}" name="manufactureWarranty" dataDxfId="51"/>
+    <tableColumn id="92" xr3:uid="{1B61C1D4-8E64-4A15-826A-E0137CB82D83}" name="warrntyYearRemaining" dataDxfId="50"/>
+    <tableColumn id="93" xr3:uid="{FDEC472D-97B5-4015-A7ED-2E1067730E27}" name="alloyWheels" dataDxfId="49"/>
+    <tableColumn id="94" xr3:uid="{74CDD0FF-484D-4DF3-BAF8-C8155EBF3011}" name="spareTyre" dataDxfId="48"/>
+    <tableColumn id="95" xr3:uid="{1CD9662A-8FB1-4C94-8C23-910A64FC9408}" name="jack" dataDxfId="47"/>
+    <tableColumn id="96" xr3:uid="{205059EB-0A88-4AB1-A579-072E85685FD1}" name="tool" dataDxfId="46"/>
+    <tableColumn id="97" xr3:uid="{47D70AEF-55CB-46E7-BEE9-A8B376ABB00A}" name="wheelCaps" dataDxfId="45"/>
+    <tableColumn id="98" xr3:uid="{4D1B9B90-6C91-4149-A427-2E573E0BE8F6}" name="floorrMats" dataDxfId="44"/>
+    <tableColumn id="99" xr3:uid="{8E0EFE84-2194-4F00-B7ED-0A22A736FE5C}" name="fireExtinguisher" dataDxfId="43"/>
+    <tableColumn id="100" xr3:uid="{8B56A608-68C9-493E-8B91-B69CF9D944BA}" name="firstAidKit" dataDxfId="42"/>
+    <tableColumn id="101" xr3:uid="{04D0114D-113B-4E4A-8945-03FB77E918E2}" name="spareKey" dataDxfId="41"/>
+    <tableColumn id="102" xr3:uid="{8EEABA6B-CD4A-41C1-AD23-3A060938FBBC}" name="radio" dataDxfId="40"/>
+    <tableColumn id="103" xr3:uid="{A476DA46-F896-41C2-B730-05A8EE8BBA0D}" name="sunRoof" dataDxfId="39"/>
+    <tableColumn id="104" xr3:uid="{40837055-ACB4-48AC-95F5-CA8E7893C55E}" name="electricWindow" dataDxfId="38"/>
+    <tableColumn id="105" xr3:uid="{606CCFC8-FBA6-4AB7-AE7B-37007236EDE6}" name="satelliteNavigation" dataDxfId="37"/>
+    <tableColumn id="106" xr3:uid="{4E3BA4DC-9193-4F34-8496-65AEE6B82737}" name="dvd" dataDxfId="36"/>
+    <tableColumn id="107" xr3:uid="{9DB233D0-755F-4162-A8E8-ABEAC6C5B3A5}" name="screen" dataDxfId="35"/>
+    <tableColumn id="108" xr3:uid="{30040546-46FE-4FA1-959E-C453DBF0BFD5}" name="airConditioner" dataDxfId="34"/>
+    <tableColumn id="109" xr3:uid="{C8813AC5-5CF8-4370-82DC-565FC005E836}" name="battery" dataDxfId="33"/>
+    <tableColumn id="110" xr3:uid="{34614546-004C-4454-8912-15181BD4ECD8}" name="remarks" dataDxfId="32"/>
+    <tableColumn id="111" xr3:uid="{54D5F79C-FEFE-4EBE-8DB3-8F37E93E43C6}" name="firstEmiDate" dataDxfId="31"/>
+    <tableColumn id="112" xr3:uid="{1848B67E-9391-4333-BD03-D9AA7D3F2B8E}" name="requiredTenure" dataDxfId="30"/>
+    <tableColumn id="113" xr3:uid="{A2F17A4A-AB2B-420C-908D-1A998ECFAA99}" name="vatPaymentMode" dataDxfId="29"/>
+    <tableColumn id="114" xr3:uid="{342CF2C2-2827-4FFE-BFA7-AE764B29441C}" name="repaymentMode" dataDxfId="28"/>
+    <tableColumn id="115" xr3:uid="{B95FCC17-EBCC-47E0-98A5-18FE8FF57B9B}" name="isDefault" dataDxfId="27"/>
+    <tableColumn id="116" xr3:uid="{C4672D46-75C5-45D3-AF43-F9E52B1EA9E8}" name="docGrp" dataDxfId="26"/>
+    <tableColumn id="121" xr3:uid="{484C9E84-C658-4E12-AEB1-760D0E3C79F2}" name="registrationDate" dataDxfId="25"/>
+    <tableColumn id="117" xr3:uid="{8DB8BF92-2E3A-49A3-ADC8-23C055D38F41}" name="docType" dataDxfId="24"/>
+    <tableColumn id="122" xr3:uid="{07BB487A-B6A9-42DD-9ADA-E7F926155EDE}" name="expirationDate" dataDxfId="23"/>
+    <tableColumn id="123" xr3:uid="{109789D0-506D-47DA-A49A-7840BFAEFAB5}" name="placeOfEstablishment" dataDxfId="22"/>
+    <tableColumn id="124" xr3:uid="{DC239F99-E54E-4DB6-B9A3-5AC5D3176B08}" name="purposeCode" dataDxfId="21"/>
+    <tableColumn id="125" xr3:uid="{1DF4975D-740D-43AB-911C-FF1F4C635DB4}" name="crStatus" dataDxfId="20"/>
+    <tableColumn id="126" xr3:uid="{6FCB0C9B-A814-46F2-9D26-4887205F96B6}" name="autoBlacklisted" dataDxfId="19"/>
+    <tableColumn id="127" xr3:uid="{C974E4D7-EC11-4ED6-8BC0-355123A46A06}" name="unListValidated" dataDxfId="18"/>
+    <tableColumn id="128" xr3:uid="{3259DC83-3908-4D62-B105-69A90964B584}" name="returnedCheques2" dataDxfId="17"/>
+    <tableColumn id="129" xr3:uid="{57B5A4CC-9DF0-45B1-B159-6B17E5474F0F}" name="chequeAbuserList2" dataDxfId="16"/>
+    <tableColumn id="130" xr3:uid="{3EABEFDD-34C6-423C-AADC-C8ADBE9CF08B}" name="totCreditTurnOver" dataDxfId="15"/>
+    <tableColumn id="131" xr3:uid="{2A8125DB-0727-4E10-85B3-B61C752C2550}" name="noOfMonths" dataDxfId="14"/>
+    <tableColumn id="132" xr3:uid="{3305ACE0-5952-4227-967D-D64A9154ABB2}" name="avgCreditTurnoverPerc" dataDxfId="13"/>
+    <tableColumn id="133" xr3:uid="{F19797E2-CE51-436D-A775-E6D05BDF4B4F}" name="bankNameBusiness" dataDxfId="12"/>
+    <tableColumn id="134" xr3:uid="{F6C479B5-7401-469A-AB85-BF2888742D3E}" name="remark" dataDxfId="11"/>
+    <tableColumn id="135" xr3:uid="{EBBA0D17-56A1-44F7-9143-0DF66E09484A}" name="chasisNumber" dataDxfId="10"/>
+    <tableColumn id="136" xr3:uid="{574E9957-985F-4ED0-BB11-9D6A9905B156}" name="engineNumber" dataDxfId="9"/>
+    <tableColumn id="137" xr3:uid="{FE15058E-BC39-4958-81B8-4BA5335639B4}" name="servReqDate" dataDxfId="8"/>
+    <tableColumn id="138" xr3:uid="{78CA1DA9-FDA0-4A64-A35F-17D344404278}" name="srcOfPayment" dataDxfId="7"/>
+    <tableColumn id="139" xr3:uid="{2609A799-B1A4-4E5C-A3C3-2D2CC31698F0}" name="custFirstName" dataDxfId="6"/>
+    <tableColumn id="140" xr3:uid="{A793CC16-2518-4F0A-8F45-283202D247D9}" name="PanelWattage" dataDxfId="5"/>
+    <tableColumn id="141" xr3:uid="{BA87B0AF-AFAE-475E-8C5C-C2AB6EB19E78}" name="InverterType" dataDxfId="4"/>
+    <tableColumn id="142" xr3:uid="{D9221ECE-40E2-454D-A6AF-650371A2E5B3}" name="InverterMake" dataDxfId="3"/>
+    <tableColumn id="143" xr3:uid="{02685692-7861-4BA3-B621-FA30598A0CA1}" name="InverterSize" dataDxfId="2"/>
+    <tableColumn id="144" xr3:uid="{3F543D1A-FE59-4D7E-89AB-19E8B47F772A}" name="soleqiLtv" dataDxfId="1"/>
+    <tableColumn id="145" xr3:uid="{DB61FEFA-F07C-485E-AD74-4473D57BF43B}" name="soleqiSeriolNumber" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3928,11 +4128,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:EO11"/>
+  <dimension ref="A1:EV11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -4016,9 +4216,10 @@
     <col min="133" max="133" width="19.6328125" bestFit="1" customWidth="1"/>
     <col min="143" max="143" width="9.54296875" bestFit="1" customWidth="1"/>
     <col min="144" max="144" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="147" max="149" width="16.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:145" ht="29">
+    <row r="1" spans="1:152" ht="29">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -4026,19 +4227,19 @@
         <v>0</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>9</v>
@@ -4092,7 +4293,7 @@
         <v>28</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="Z1" s="2" t="s">
         <v>29</v>
@@ -4398,64 +4599,85 @@
         <v>168</v>
       </c>
       <c r="DW1" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="DX1" s="2" t="s">
         <v>169</v>
       </c>
       <c r="DY1" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="DZ1" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="DZ1" s="2" t="s">
+      <c r="EA1" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="EA1" s="2" t="s">
-        <v>189</v>
-      </c>
       <c r="EB1" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="EC1" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="EC1" s="2" t="s">
+      <c r="ED1" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="ED1" s="2" t="s">
+      <c r="EE1" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="EE1" s="2" t="s">
+      <c r="EF1" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="EF1" s="2" t="s">
+      <c r="EG1" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="EG1" s="2" t="s">
-        <v>196</v>
-      </c>
       <c r="EH1" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="EI1" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="EI1" s="2" t="s">
+      <c r="EJ1" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="EJ1" s="2" t="s">
-        <v>200</v>
-      </c>
       <c r="EK1" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="EL1" s="2" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="EM1" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="EN1" s="2" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="EO1" s="2" t="s">
-        <v>229</v>
+        <v>222</v>
+      </c>
+      <c r="EP1" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="EQ1" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="ER1" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="ES1" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="ET1" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="EU1" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="EV1" s="2" t="s">
+        <v>250</v>
       </c>
     </row>
-    <row r="2" spans="1:145" ht="43.5">
+    <row r="2" spans="1:152" ht="43.5">
       <c r="A2" s="5" t="s">
         <v>175</v>
       </c>
@@ -4463,7 +4685,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
@@ -4472,7 +4694,7 @@
       </c>
       <c r="G2" s="5"/>
       <c r="H2" s="5" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>7</v>
@@ -4482,7 +4704,7 @@
       </c>
       <c r="K2" s="5"/>
       <c r="L2" s="5" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="M2" s="5">
         <v>9069658</v>
@@ -4526,8 +4748,8 @@
       <c r="AB2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="AC2" s="11">
-        <v>37250</v>
+      <c r="AC2" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="AD2" s="5" t="s">
         <v>7</v>
@@ -4565,8 +4787,8 @@
       <c r="AO2" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="AP2" s="17" t="s">
-        <v>230</v>
+      <c r="AP2" s="16" t="s">
+        <v>223</v>
       </c>
       <c r="AQ2" s="5" t="s">
         <v>59</v>
@@ -4650,16 +4872,16 @@
         <v>105</v>
       </c>
       <c r="BR2" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="BS2" s="5" t="s">
         <v>106</v>
       </c>
       <c r="BT2" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="BU2" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="BV2" s="5" t="s">
         <v>107</v>
@@ -4689,10 +4911,10 @@
         <v>118</v>
       </c>
       <c r="CE2" s="8" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="CF2" s="8" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="CG2" s="9" t="s">
         <v>119</v>
@@ -4803,7 +5025,7 @@
         <v>161</v>
       </c>
       <c r="DQ2" s="8" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="DR2" s="8" t="s">
         <v>165</v>
@@ -4837,7 +5059,7 @@
       <c r="EI2" s="2"/>
       <c r="EJ2" s="2"/>
       <c r="EK2" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="EL2" s="2">
         <v>30502</v>
@@ -4847,39 +5069,46 @@
       </c>
       <c r="EN2" s="9"/>
       <c r="EO2" s="2"/>
+      <c r="EP2" s="2"/>
+      <c r="EQ2" s="2"/>
+      <c r="ER2" s="2"/>
+      <c r="ES2" s="2"/>
+      <c r="ET2" s="2"/>
+      <c r="EU2" s="2"/>
+      <c r="EV2" s="2"/>
     </row>
-    <row r="3" spans="1:145" ht="58">
+    <row r="3" spans="1:152" ht="58">
       <c r="A3" s="5" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>3</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>7</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="K3" s="5"/>
       <c r="L3" s="5" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="M3" s="5">
         <v>7290898</v>
@@ -4962,8 +5191,8 @@
       <c r="AO3" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="AP3" s="17" t="s">
-        <v>230</v>
+      <c r="AP3" s="16" t="s">
+        <v>223</v>
       </c>
       <c r="AQ3" s="5" t="s">
         <v>59</v>
@@ -5047,16 +5276,16 @@
         <v>105</v>
       </c>
       <c r="BR3" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="BS3" s="5" t="s">
         <v>106</v>
       </c>
       <c r="BT3" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="BU3" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="BV3" s="5" t="s">
         <v>107</v>
@@ -5086,10 +5315,10 @@
         <v>118</v>
       </c>
       <c r="CE3" s="8" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="CF3" s="8" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="CG3" s="9" t="s">
         <v>119</v>
@@ -5200,7 +5429,7 @@
         <v>161</v>
       </c>
       <c r="DQ3" s="8" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="DR3" s="8" t="s">
         <v>165</v>
@@ -5234,7 +5463,7 @@
       <c r="EI3" s="2"/>
       <c r="EJ3" s="2"/>
       <c r="EK3" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="EL3" s="2">
         <v>30502</v>
@@ -5243,36 +5472,43 @@
         <v>3050238</v>
       </c>
       <c r="EN3" s="9" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="EO3" s="8" t="s">
         <v>7</v>
       </c>
+      <c r="EP3" s="2"/>
+      <c r="EQ3" s="2"/>
+      <c r="ER3" s="2"/>
+      <c r="ES3" s="2"/>
+      <c r="ET3" s="2"/>
+      <c r="EU3" s="2"/>
+      <c r="EV3" s="2"/>
     </row>
-    <row r="4" spans="1:145" ht="43.5">
+    <row r="4" spans="1:152" ht="43.5">
       <c r="A4" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>218</v>
-      </c>
       <c r="H4" s="7" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="I4" s="7" t="s">
         <v>40</v>
@@ -5293,10 +5529,10 @@
         <v>21</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="Q4" s="5" t="s">
         <v>23</v>
@@ -5307,7 +5543,7 @@
       <c r="S4" s="5"/>
       <c r="T4" s="5"/>
       <c r="U4" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="V4" s="5" t="s">
         <v>41</v>
@@ -5369,8 +5605,8 @@
       <c r="AO4" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="AP4" s="17" t="s">
-        <v>230</v>
+      <c r="AP4" s="16" t="s">
+        <v>223</v>
       </c>
       <c r="AQ4" s="5" t="s">
         <v>59</v>
@@ -5454,16 +5690,16 @@
         <v>105</v>
       </c>
       <c r="BR4" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="BS4" s="5" t="s">
         <v>106</v>
       </c>
       <c r="BT4" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="BU4" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="BV4" s="5" t="s">
         <v>107</v>
@@ -5493,10 +5729,10 @@
         <v>118</v>
       </c>
       <c r="CE4" s="8" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="CF4" s="8" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="CG4" s="9" t="s">
         <v>119</v>
@@ -5607,7 +5843,7 @@
         <v>161</v>
       </c>
       <c r="DQ4" s="8" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="DR4" s="8" t="s">
         <v>165</v>
@@ -5625,7 +5861,7 @@
         <v>3</v>
       </c>
       <c r="DW4" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="DX4" s="8" t="s">
         <v>170</v>
@@ -5637,7 +5873,7 @@
         <v>32</v>
       </c>
       <c r="EA4" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="EB4" s="8" t="s">
         <v>7</v>
@@ -5655,10 +5891,10 @@
         <v>40</v>
       </c>
       <c r="EG4" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="EH4" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="EI4" s="8" t="s">
         <v>34</v>
@@ -5667,7 +5903,7 @@
         <v>69</v>
       </c>
       <c r="EK4" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="EL4" s="2">
         <v>30502</v>
@@ -5677,39 +5913,44 @@
       </c>
       <c r="EN4" s="2"/>
       <c r="EO4" s="2"/>
+      <c r="EP4" s="2"/>
+      <c r="EQ4" s="2"/>
+      <c r="ER4" s="2"/>
+      <c r="ES4" s="2"/>
+      <c r="ET4" s="2"/>
+      <c r="EU4" s="2"/>
+      <c r="EV4" s="2"/>
     </row>
-    <row r="5" spans="1:145" ht="58">
+    <row r="5" spans="1:152" ht="58">
       <c r="A5" s="5" t="s">
-        <v>202</v>
+        <v>230</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>179</v>
+        <v>3</v>
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="7" t="s">
-        <v>201</v>
+        <v>228</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>72</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="K5" s="5"/>
       <c r="L5" s="5" t="s">
         <v>20</v>
       </c>
@@ -5720,10 +5961,10 @@
         <v>21</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="Q5" s="5" t="s">
         <v>23</v>
@@ -5734,7 +5975,7 @@
       <c r="S5" s="5"/>
       <c r="T5" s="5"/>
       <c r="U5" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="V5" s="5" t="s">
         <v>41</v>
@@ -5796,8 +6037,8 @@
       <c r="AO5" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="AP5" s="17" t="s">
-        <v>230</v>
+      <c r="AP5" s="16" t="s">
+        <v>223</v>
       </c>
       <c r="AQ5" s="5" t="s">
         <v>59</v>
@@ -5881,16 +6122,16 @@
         <v>105</v>
       </c>
       <c r="BR5" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="BS5" s="5" t="s">
         <v>106</v>
       </c>
       <c r="BT5" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="BU5" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="BV5" s="5" t="s">
         <v>107</v>
@@ -5920,10 +6161,10 @@
         <v>118</v>
       </c>
       <c r="CE5" s="8" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="CF5" s="8" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="CG5" s="9" t="s">
         <v>119</v>
@@ -6034,7 +6275,7 @@
         <v>161</v>
       </c>
       <c r="DQ5" s="8" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="DR5" s="8" t="s">
         <v>165</v>
@@ -6052,7 +6293,7 @@
         <v>3</v>
       </c>
       <c r="DW5" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="DX5" s="8" t="s">
         <v>170</v>
@@ -6064,7 +6305,7 @@
         <v>32</v>
       </c>
       <c r="EA5" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="EB5" s="8" t="s">
         <v>7</v>
@@ -6082,10 +6323,10 @@
         <v>40</v>
       </c>
       <c r="EG5" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="EH5" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="EI5" s="8" t="s">
         <v>34</v>
@@ -6094,7 +6335,7 @@
         <v>69</v>
       </c>
       <c r="EK5" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="EL5" s="2">
         <v>30502</v>
@@ -6104,53 +6345,56 @@
       </c>
       <c r="EN5" s="2"/>
       <c r="EO5" s="2"/>
+      <c r="EP5" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="EQ5" s="2"/>
+      <c r="ER5" s="2"/>
+      <c r="ES5" s="2"/>
+      <c r="ET5" s="2"/>
+      <c r="EU5" s="2"/>
+      <c r="EV5" s="2"/>
     </row>
-    <row r="6" spans="1:145" ht="43.5">
+    <row r="6" spans="1:152" ht="58">
       <c r="A6" s="5" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>211</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
       <c r="F6" s="5" t="s">
         <v>3</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="5" t="s">
-        <v>214</v>
+        <v>254</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>7</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>72</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="K6" s="5"/>
       <c r="L6" s="5" t="s">
-        <v>20</v>
+        <v>253</v>
       </c>
       <c r="M6" s="5">
-        <v>9879657</v>
+        <v>9069658</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="O6" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="P6" s="5" t="s">
-        <v>23</v>
+        <v>232</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>234</v>
       </c>
       <c r="Q6" s="5" t="s">
         <v>23</v>
@@ -6221,8 +6465,8 @@
       <c r="AO6" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="AP6" s="17" t="s">
-        <v>230</v>
+      <c r="AP6" s="16" t="s">
+        <v>223</v>
       </c>
       <c r="AQ6" s="5" t="s">
         <v>59</v>
@@ -6278,40 +6522,44 @@
       <c r="BH6" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="BI6" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="BJ6" s="5" t="s">
-        <v>101</v>
+      <c r="BI6" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="BJ6" s="7" t="s">
+        <v>237</v>
       </c>
       <c r="BK6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="BL6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="BM6" s="5" t="s">
-        <v>102</v>
+      <c r="BL6" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="BM6" s="7" t="s">
+        <v>238</v>
       </c>
       <c r="BN6" s="7" t="s">
-        <v>103</v>
+        <v>239</v>
       </c>
       <c r="BO6" s="5" t="s">
-        <v>104</v>
+        <v>240</v>
       </c>
       <c r="BP6" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="BQ6" s="5" t="s">
-        <v>105</v>
+      <c r="BQ6" s="7" t="s">
+        <v>241</v>
       </c>
       <c r="BR6" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="BS6" s="5"/>
-      <c r="BT6" s="7"/>
+        <v>204</v>
+      </c>
+      <c r="BS6" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="BT6" s="7" t="s">
+        <v>205</v>
+      </c>
       <c r="BU6" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="BV6" s="5" t="s">
         <v>107</v>
@@ -6329,7 +6577,7 @@
         <v>40</v>
       </c>
       <c r="CA6" s="8" t="s">
-        <v>116</v>
+        <v>235</v>
       </c>
       <c r="CB6" s="8" t="s">
         <v>7</v>
@@ -6341,16 +6589,16 @@
         <v>118</v>
       </c>
       <c r="CE6" s="8" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="CF6" s="8" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="CG6" s="9" t="s">
         <v>119</v>
       </c>
       <c r="CH6" s="8" t="s">
-        <v>215</v>
+        <v>121</v>
       </c>
       <c r="CI6" s="8" t="s">
         <v>123</v>
@@ -6455,7 +6703,7 @@
         <v>161</v>
       </c>
       <c r="DQ6" s="8" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="DR6" s="8" t="s">
         <v>165</v>
@@ -6489,87 +6737,108 @@
       <c r="EI6" s="2"/>
       <c r="EJ6" s="2"/>
       <c r="EK6" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="EL6" s="2" t="s">
-        <v>216</v>
+        <v>203</v>
+      </c>
+      <c r="EL6" s="2">
+        <v>30502</v>
       </c>
       <c r="EM6" s="2">
-        <v>65464567</v>
+        <v>3050238</v>
+      </c>
+      <c r="EN6" s="9"/>
+      <c r="EO6" s="2"/>
+      <c r="EP6" s="2"/>
+      <c r="EQ6" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="ER6" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="ES6" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="ET6" s="2">
+        <v>30</v>
+      </c>
+      <c r="EU6" s="2">
+        <v>7</v>
+      </c>
+      <c r="EV6" s="8" t="s">
+        <v>251</v>
       </c>
     </row>
-    <row r="7" spans="1:145">
+    <row r="7" spans="1:152">
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
-      <c r="J7" s="12"/>
+      <c r="J7" s="11"/>
       <c r="K7" s="5"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="16"/>
-      <c r="S7" s="15"/>
-      <c r="T7" s="15"/>
-      <c r="U7" s="16"/>
-      <c r="V7" s="15"/>
-      <c r="W7" s="15"/>
-      <c r="X7" s="15"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="15"/>
+      <c r="S7" s="14"/>
+      <c r="T7" s="14"/>
+      <c r="U7" s="15"/>
+      <c r="V7" s="14"/>
+      <c r="W7" s="14"/>
+      <c r="X7" s="14"/>
       <c r="Y7" s="7"/>
-      <c r="Z7" s="15"/>
-      <c r="AA7" s="15"/>
-      <c r="AB7" s="15"/>
-      <c r="AC7" s="15"/>
-      <c r="AD7" s="15"/>
-      <c r="AE7" s="15"/>
-      <c r="AF7" s="15"/>
-      <c r="AG7" s="15"/>
-      <c r="AH7" s="15"/>
-      <c r="AI7" s="15"/>
-      <c r="AJ7" s="15"/>
-      <c r="AK7" s="15"/>
-      <c r="AL7" s="15"/>
-      <c r="AM7" s="16"/>
-      <c r="AN7" s="15"/>
-      <c r="AO7" s="15"/>
-      <c r="AP7" s="15"/>
-      <c r="AQ7" s="15"/>
-      <c r="AR7" s="15"/>
-      <c r="AS7" s="15"/>
-      <c r="AT7" s="15"/>
-      <c r="AU7" s="15"/>
-      <c r="AV7" s="15"/>
-      <c r="AW7" s="15"/>
-      <c r="AX7" s="15"/>
-      <c r="AY7" s="15"/>
-      <c r="AZ7" s="15"/>
-      <c r="BA7" s="15"/>
-      <c r="BB7" s="15"/>
-      <c r="BC7" s="15"/>
-      <c r="BD7" s="15"/>
-      <c r="BE7" s="15"/>
-      <c r="BF7" s="16"/>
-      <c r="BG7" s="15"/>
-      <c r="BH7" s="15"/>
-      <c r="BI7" s="15"/>
-      <c r="BJ7" s="15"/>
-      <c r="BK7" s="15"/>
-      <c r="BL7" s="15"/>
-      <c r="BM7" s="15"/>
-      <c r="BN7" s="16"/>
-      <c r="BO7" s="15"/>
-      <c r="BP7" s="15"/>
-      <c r="BQ7" s="15"/>
-      <c r="BR7" s="16"/>
-      <c r="BS7" s="15"/>
-      <c r="BT7" s="16"/>
-      <c r="BU7" s="16"/>
-      <c r="BV7" s="15"/>
-      <c r="BW7" s="15"/>
-      <c r="BX7" s="15"/>
-      <c r="BY7" s="15"/>
-      <c r="BZ7" s="15"/>
+      <c r="Z7" s="14"/>
+      <c r="AA7" s="14"/>
+      <c r="AB7" s="14"/>
+      <c r="AC7" s="14"/>
+      <c r="AD7" s="14"/>
+      <c r="AE7" s="14"/>
+      <c r="AF7" s="14"/>
+      <c r="AG7" s="14"/>
+      <c r="AH7" s="14"/>
+      <c r="AI7" s="14"/>
+      <c r="AJ7" s="14"/>
+      <c r="AK7" s="14"/>
+      <c r="AL7" s="14"/>
+      <c r="AM7" s="15"/>
+      <c r="AN7" s="14"/>
+      <c r="AO7" s="14"/>
+      <c r="AP7" s="14"/>
+      <c r="AQ7" s="14"/>
+      <c r="AR7" s="14"/>
+      <c r="AS7" s="14"/>
+      <c r="AT7" s="14"/>
+      <c r="AU7" s="14"/>
+      <c r="AV7" s="14"/>
+      <c r="AW7" s="14"/>
+      <c r="AX7" s="14"/>
+      <c r="AY7" s="14"/>
+      <c r="AZ7" s="14"/>
+      <c r="BA7" s="14"/>
+      <c r="BB7" s="14"/>
+      <c r="BC7" s="14"/>
+      <c r="BD7" s="14"/>
+      <c r="BE7" s="14"/>
+      <c r="BF7" s="15"/>
+      <c r="BG7" s="14"/>
+      <c r="BH7" s="14"/>
+      <c r="BI7" s="14"/>
+      <c r="BJ7" s="14"/>
+      <c r="BK7" s="14"/>
+      <c r="BL7" s="14"/>
+      <c r="BM7" s="14"/>
+      <c r="BN7" s="15"/>
+      <c r="BO7" s="14"/>
+      <c r="BP7" s="14"/>
+      <c r="BQ7" s="14"/>
+      <c r="BR7" s="15"/>
+      <c r="BS7" s="14"/>
+      <c r="BT7" s="15"/>
+      <c r="BU7" s="15"/>
+      <c r="BV7" s="14"/>
+      <c r="BW7" s="14"/>
+      <c r="BX7" s="14"/>
+      <c r="BY7" s="14"/>
+      <c r="BZ7" s="14"/>
       <c r="CA7" s="8"/>
       <c r="CB7" s="8"/>
       <c r="CC7" s="8"/>
@@ -6637,79 +6906,86 @@
       <c r="EM7" s="2"/>
       <c r="EN7" s="2"/>
       <c r="EO7" s="2"/>
+      <c r="EP7" s="2"/>
+      <c r="EQ7" s="2"/>
+      <c r="ER7" s="2"/>
+      <c r="ES7" s="2"/>
+      <c r="ET7" s="2"/>
+      <c r="EU7" s="2"/>
+      <c r="EV7" s="2"/>
     </row>
-    <row r="8" spans="1:145">
+    <row r="8" spans="1:152">
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
-      <c r="J8" s="12"/>
+      <c r="J8" s="11"/>
       <c r="K8" s="5"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="15"/>
-      <c r="R8" s="16"/>
-      <c r="S8" s="15"/>
-      <c r="T8" s="15"/>
-      <c r="U8" s="16"/>
-      <c r="V8" s="15"/>
-      <c r="W8" s="15"/>
-      <c r="X8" s="15"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="15"/>
+      <c r="S8" s="14"/>
+      <c r="T8" s="14"/>
+      <c r="U8" s="15"/>
+      <c r="V8" s="14"/>
+      <c r="W8" s="14"/>
+      <c r="X8" s="14"/>
       <c r="Y8" s="7"/>
-      <c r="Z8" s="15"/>
-      <c r="AA8" s="15"/>
-      <c r="AB8" s="15"/>
-      <c r="AC8" s="15"/>
-      <c r="AD8" s="15"/>
-      <c r="AE8" s="15"/>
-      <c r="AF8" s="15"/>
-      <c r="AG8" s="15"/>
-      <c r="AH8" s="15"/>
-      <c r="AI8" s="15"/>
-      <c r="AJ8" s="15"/>
-      <c r="AK8" s="15"/>
-      <c r="AL8" s="15"/>
-      <c r="AM8" s="16"/>
-      <c r="AN8" s="15"/>
-      <c r="AO8" s="15"/>
-      <c r="AP8" s="15"/>
-      <c r="AQ8" s="15"/>
-      <c r="AR8" s="15"/>
-      <c r="AS8" s="15"/>
-      <c r="AT8" s="15"/>
-      <c r="AU8" s="15"/>
-      <c r="AV8" s="15"/>
-      <c r="AW8" s="15"/>
-      <c r="AX8" s="15"/>
-      <c r="AY8" s="15"/>
-      <c r="AZ8" s="15"/>
-      <c r="BA8" s="15"/>
-      <c r="BB8" s="15"/>
-      <c r="BC8" s="15"/>
-      <c r="BD8" s="15"/>
-      <c r="BE8" s="15"/>
-      <c r="BF8" s="16"/>
-      <c r="BG8" s="15"/>
-      <c r="BH8" s="15"/>
-      <c r="BI8" s="15"/>
-      <c r="BJ8" s="15"/>
-      <c r="BK8" s="15"/>
-      <c r="BL8" s="15"/>
-      <c r="BM8" s="15"/>
-      <c r="BN8" s="16"/>
-      <c r="BO8" s="15"/>
-      <c r="BP8" s="15"/>
-      <c r="BQ8" s="15"/>
-      <c r="BR8" s="16"/>
-      <c r="BS8" s="15"/>
-      <c r="BT8" s="16"/>
-      <c r="BU8" s="16"/>
-      <c r="BV8" s="15"/>
-      <c r="BW8" s="15"/>
-      <c r="BX8" s="15"/>
-      <c r="BY8" s="15"/>
-      <c r="BZ8" s="15"/>
+      <c r="Z8" s="14"/>
+      <c r="AA8" s="14"/>
+      <c r="AB8" s="14"/>
+      <c r="AC8" s="14"/>
+      <c r="AD8" s="14"/>
+      <c r="AE8" s="14"/>
+      <c r="AF8" s="14"/>
+      <c r="AG8" s="14"/>
+      <c r="AH8" s="14"/>
+      <c r="AI8" s="14"/>
+      <c r="AJ8" s="14"/>
+      <c r="AK8" s="14"/>
+      <c r="AL8" s="14"/>
+      <c r="AM8" s="15"/>
+      <c r="AN8" s="14"/>
+      <c r="AO8" s="14"/>
+      <c r="AP8" s="14"/>
+      <c r="AQ8" s="14"/>
+      <c r="AR8" s="14"/>
+      <c r="AS8" s="14"/>
+      <c r="AT8" s="14"/>
+      <c r="AU8" s="14"/>
+      <c r="AV8" s="14"/>
+      <c r="AW8" s="14"/>
+      <c r="AX8" s="14"/>
+      <c r="AY8" s="14"/>
+      <c r="AZ8" s="14"/>
+      <c r="BA8" s="14"/>
+      <c r="BB8" s="14"/>
+      <c r="BC8" s="14"/>
+      <c r="BD8" s="14"/>
+      <c r="BE8" s="14"/>
+      <c r="BF8" s="15"/>
+      <c r="BG8" s="14"/>
+      <c r="BH8" s="14"/>
+      <c r="BI8" s="14"/>
+      <c r="BJ8" s="14"/>
+      <c r="BK8" s="14"/>
+      <c r="BL8" s="14"/>
+      <c r="BM8" s="14"/>
+      <c r="BN8" s="15"/>
+      <c r="BO8" s="14"/>
+      <c r="BP8" s="14"/>
+      <c r="BQ8" s="14"/>
+      <c r="BR8" s="15"/>
+      <c r="BS8" s="14"/>
+      <c r="BT8" s="15"/>
+      <c r="BU8" s="15"/>
+      <c r="BV8" s="14"/>
+      <c r="BW8" s="14"/>
+      <c r="BX8" s="14"/>
+      <c r="BY8" s="14"/>
+      <c r="BZ8" s="14"/>
       <c r="CA8" s="8"/>
       <c r="CB8" s="8"/>
       <c r="CC8" s="8"/>
@@ -6777,8 +7053,15 @@
       <c r="EM8" s="2"/>
       <c r="EN8" s="2"/>
       <c r="EO8" s="2"/>
+      <c r="EP8" s="2"/>
+      <c r="EQ8" s="2"/>
+      <c r="ER8" s="2"/>
+      <c r="ES8" s="2"/>
+      <c r="ET8" s="2"/>
+      <c r="EU8" s="2"/>
+      <c r="EV8" s="2"/>
     </row>
-    <row r="11" spans="1:145">
+    <row r="11" spans="1:152">
       <c r="K11" s="3"/>
     </row>
   </sheetData>
@@ -6788,7 +7071,7 @@
     <hyperlink ref="V3" r:id="rId2" xr:uid="{13E9CD5E-C1A6-4ACF-9ABD-7F5CCE9B1B09}"/>
     <hyperlink ref="V4" r:id="rId3" xr:uid="{7EED7963-DBA9-47F1-9340-DA5E957D739F}"/>
     <hyperlink ref="V5" r:id="rId4" xr:uid="{54CBBEEE-524F-4ADB-9C63-4954D30211E9}"/>
-    <hyperlink ref="V6" r:id="rId5" xr:uid="{96632BFD-6258-46E0-A0BF-CC405DB7E252}"/>
+    <hyperlink ref="V6" r:id="rId5" xr:uid="{63E26354-9D3D-417B-B107-2DEF50BE711F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>

--- a/resources/test_data/Lead_Creation.xlsx
+++ b/resources/test_data/Lead_Creation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\New_automation_\web-automation-framework\resources\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{432839DF-C17F-4DF6-BE7E-0165E87C8510}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E13324FA-0254-4297-9D7B-891ABD623231}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1077" uniqueCount="270">
   <si>
     <t>username</t>
   </si>
@@ -95,9 +95,6 @@
     <t>Branch</t>
   </si>
   <si>
-    <t>Akarshit</t>
-  </si>
-  <si>
     <t>Raj</t>
   </si>
   <si>
@@ -671,15 +668,6 @@
     <t>engineNumber</t>
   </si>
   <si>
-    <t>Puneeta</t>
-  </si>
-  <si>
-    <t>Praa-34</t>
-  </si>
-  <si>
-    <t>raj</t>
-  </si>
-  <si>
     <t>Lead_Creation_CPR_Teller_1</t>
   </si>
   <si>
@@ -701,27 +689,12 @@
     <t>1-1-2024</t>
   </si>
   <si>
-    <t>CPR305645</t>
-  </si>
-  <si>
     <t>srcOfPayment</t>
   </si>
   <si>
     <t>25-12-2024</t>
   </si>
   <si>
-    <t>Singh</t>
-  </si>
-  <si>
-    <t>Vinay</t>
-  </si>
-  <si>
-    <t>CPR305470</t>
-  </si>
-  <si>
-    <t>Lead_Creation_CPR_Co_Applicant</t>
-  </si>
-  <si>
     <t>Praa-324</t>
   </si>
   <si>
@@ -794,20 +767,121 @@
     <t>347339</t>
   </si>
   <si>
-    <t>Arpit</t>
-  </si>
-  <si>
     <t>Pathak</t>
   </si>
   <si>
-    <t>CPR303650</t>
+    <t>Kar</t>
+  </si>
+  <si>
+    <t>Arati</t>
+  </si>
+  <si>
+    <t>Gupta</t>
+  </si>
+  <si>
+    <t>Mani</t>
+  </si>
+  <si>
+    <t>Anil</t>
+  </si>
+  <si>
+    <t>Tilak</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <r>
+      <t>L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>ead_Crea</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF7A7E85"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>tion_CR_Co_Applicant_Medic</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>al</t>
+    </r>
+  </si>
+  <si>
+    <t>nhraNumber</t>
+  </si>
+  <si>
+    <t>23457</t>
+  </si>
+  <si>
+    <t>medeqiPowerConsumption</t>
+  </si>
+  <si>
+    <t>100W</t>
+  </si>
+  <si>
+    <t>medeqiDimension</t>
+  </si>
+  <si>
+    <t>Checkup</t>
+  </si>
+  <si>
+    <t>medeqiWeight</t>
+  </si>
+  <si>
+    <t>SudheerProd</t>
+  </si>
+  <si>
+    <t>Sud-trus</t>
+  </si>
+  <si>
+    <t>ShradhaLimited</t>
+  </si>
+  <si>
+    <t>Shradha-3456</t>
+  </si>
+  <si>
+    <t>Lead_Creation_CR_Co_Applicant_Solar</t>
+  </si>
+  <si>
+    <t>Lead_Creation_CPR_Co_Applicant_Solar</t>
+  </si>
+  <si>
+    <t>CPR303354</t>
+  </si>
+  <si>
+    <t>TamhreeT</t>
+  </si>
+  <si>
+    <t>Tmhre-347</t>
+  </si>
+  <si>
+    <t>CPR301465</t>
+  </si>
+  <si>
+    <t>CPR305239</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -855,6 +929,12 @@
       <name val="Courier New"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF7A7E85"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -876,7 +956,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -908,11 +988,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -940,29 +1031,102 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="22" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="147">
+  <dxfs count="151">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -3712,154 +3876,158 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DC87E5BE-26EC-4DBC-8565-103061C7F3D4}" name="Table2" displayName="Table2" ref="H1:EV8" totalsRowShown="0" headerRowDxfId="146" dataDxfId="145">
-  <autoFilter ref="H1:EV8" xr:uid="{DC87E5BE-26EC-4DBC-8565-103061C7F3D4}"/>
-  <tableColumns count="145">
-    <tableColumn id="1" xr3:uid="{F63B5B5B-75EF-415D-9D47-65053D6DF43A}" name="IDNumber" dataDxfId="144"/>
-    <tableColumn id="2" xr3:uid="{00DFF19F-9E5D-44BD-B746-C5D10556D9C8}" name="CustomerType" dataDxfId="143"/>
-    <tableColumn id="4" xr3:uid="{16007208-EDF9-4E5D-AAA6-7F837DDD8C78}" name="FirstName" dataDxfId="142"/>
-    <tableColumn id="5" xr3:uid="{EBB0D839-0B51-4805-BD0B-AAB83E639E7A}" name="SecondName" dataDxfId="141"/>
-    <tableColumn id="6" xr3:uid="{07BF2CBA-E818-4808-9F87-9C6E9B8E27EB}" name="FamilyName" dataDxfId="140"/>
-    <tableColumn id="7" xr3:uid="{2E161694-E056-49B2-B02C-18609B166288}" name="MobileNumber" dataDxfId="139"/>
-    <tableColumn id="8" xr3:uid="{833F8941-B4C0-4E9B-89CA-6ACBE1BBC919}" name="Product" dataDxfId="138"/>
-    <tableColumn id="9" xr3:uid="{6AB217CA-8575-47C6-8323-49DBB8179C87}" name="SubProduct" dataDxfId="137"/>
-    <tableColumn id="10" xr3:uid="{B427C861-36D2-4A49-8916-781C22F94FF4}" name="SchemeType" dataDxfId="136"/>
-    <tableColumn id="11" xr3:uid="{BC30846C-2EA9-4DD7-B7FD-8EFA2281FD70}" name="Branch" dataDxfId="135"/>
-    <tableColumn id="12" xr3:uid="{7521EBC7-8105-4B20-B089-0355970E2900}" name="addressType" dataDxfId="134"/>
-    <tableColumn id="13" xr3:uid="{A68B51A1-92D8-490D-8098-B759DD9581A1}" name="addressTypeValue" dataDxfId="133"/>
-    <tableColumn id="14" xr3:uid="{F19CF168-BC8D-46DE-ACA0-71EDB250DFFF}" name="activeInActive" dataDxfId="132"/>
-    <tableColumn id="3" xr3:uid="{CA80F8FF-FC63-4AD4-9D64-0F817F3CD198}" name="ApplicantType" dataDxfId="131"/>
-    <tableColumn id="15" xr3:uid="{A95550BC-D33C-4168-9C34-660D7631DE85}" name="email" dataDxfId="130"/>
-    <tableColumn id="16" xr3:uid="{3183446F-0B43-4115-A526-CA96A24A5A0C}" name="SourceOfIncome" dataDxfId="129"/>
-    <tableColumn id="17" xr3:uid="{1673EE05-9F0D-4EB3-B6D6-DC08105325A2}" name="Title" dataDxfId="128"/>
-    <tableColumn id="120" xr3:uid="{FDC531AF-46A0-4FCB-B25A-8E287A2C8C2E}" name="formOfOrganization" dataDxfId="127"/>
-    <tableColumn id="18" xr3:uid="{683CA39D-EC12-4489-A45A-69A9DEBD4155}" name="Nationality" dataDxfId="126"/>
-    <tableColumn id="20" xr3:uid="{BBFDDC0F-FDD1-46F8-B248-DF40C724613D}" name="countryOfJurisdiction" dataDxfId="125"/>
-    <tableColumn id="21" xr3:uid="{2983BFC1-1906-4319-9DF0-B77011DD7DEA}" name="EducationLevel" dataDxfId="124"/>
-    <tableColumn id="22" xr3:uid="{986D7F90-6FF6-41A5-A619-2D271BE00764}" name="DateOfBirth" dataDxfId="123"/>
-    <tableColumn id="23" xr3:uid="{8EF037E0-977A-443D-A870-A027ABFB319E}" name="MaritalStatus" dataDxfId="122"/>
-    <tableColumn id="24" xr3:uid="{A2FF1F1E-5655-44BF-886D-A1CDF65B5A95}" name="NoOfDependents" dataDxfId="121"/>
-    <tableColumn id="25" xr3:uid="{56E2E3BE-8A9C-4AE9-94D4-966966AE8106}" name="ReturnedCheques" dataDxfId="120"/>
-    <tableColumn id="26" xr3:uid="{E193FD7F-57D4-4112-85E2-6D86AEEE2D77}" name="ChequeAbuserList" dataDxfId="119"/>
-    <tableColumn id="27" xr3:uid="{15E73E8B-3789-4FC5-959A-FEB1D9247868}" name="PropertyOwnership" dataDxfId="118"/>
-    <tableColumn id="28" xr3:uid="{6B956D5B-906C-4326-8C82-4DA36E1F5615}" name="addressLine1" dataDxfId="117"/>
-    <tableColumn id="34" xr3:uid="{007FE1DB-033B-4516-B370-A1624B351561}" name="building" dataDxfId="116"/>
-    <tableColumn id="29" xr3:uid="{2E8258A9-21F2-49E6-A32C-A2461F6F0D34}" name="flat" dataDxfId="115"/>
-    <tableColumn id="30" xr3:uid="{4B02ADB7-BF07-4814-B8AA-5139B871F77F}" name="avenue" dataDxfId="114"/>
-    <tableColumn id="31" xr3:uid="{3FDD9253-AB6B-4FD1-876D-578DA73C5B56}" name="Block" dataDxfId="113"/>
-    <tableColumn id="32" xr3:uid="{BA71D7A1-AD3D-40A5-ADFB-7F9EBCE6C2C6}" name="Country" dataDxfId="112"/>
-    <tableColumn id="33" xr3:uid="{6515130A-EC40-4F7C-AA54-1ADD52D50D5E}" name="City_Area" dataDxfId="111"/>
-    <tableColumn id="19" xr3:uid="{4D649DD4-69B1-40FF-8591-BC8ABD1B6012}" name="issueDate" dataDxfId="110"/>
-    <tableColumn id="35" xr3:uid="{A40DD074-5F3C-4816-B828-7A321AE246E1}" name="expiryDate" dataDxfId="109"/>
-    <tableColumn id="36" xr3:uid="{34620B96-0561-451C-9DBE-C0899F72320A}" name="renewalUnderProcess" dataDxfId="108"/>
-    <tableColumn id="37" xr3:uid="{0004759E-F0AA-489E-B041-D0E052AC9809}" name="natureOfEmplmt" dataDxfId="107"/>
-    <tableColumn id="38" xr3:uid="{E4D18649-8838-4E63-9E4B-3E22C3502670}" name="incomeType" dataDxfId="106"/>
-    <tableColumn id="39" xr3:uid="{B0BEE11D-04F9-4615-B858-E88D7F4B2BFF}" name="incomeAmt_txt" dataDxfId="105"/>
-    <tableColumn id="40" xr3:uid="{5F7661EC-8CA9-43FD-A1F8-605F258C9D1E}" name="bankName" dataDxfId="104"/>
-    <tableColumn id="41" xr3:uid="{03FF8983-E488-4619-B7EF-DAB89F5EAC3B}" name="accountNumber" dataDxfId="103"/>
-    <tableColumn id="42" xr3:uid="{D7557DBA-7BF9-4B6B-A993-A719B1AC1F05}" name="ibanNumber" dataDxfId="102"/>
-    <tableColumn id="43" xr3:uid="{B3FE0B56-7A31-4A0C-999F-A057737C3647}" name="CustomerTypeContactDetails" dataDxfId="101"/>
-    <tableColumn id="119" xr3:uid="{2BD3DD66-4663-429F-9EC2-7138114471C6}" name="relationName" dataDxfId="100"/>
-    <tableColumn id="118" xr3:uid="{85144347-A603-4B4C-9421-95BF2817AAD7}" name="relationWithCust" dataDxfId="99"/>
-    <tableColumn id="44" xr3:uid="{B03A64D4-2EB9-4ACE-B800-7091881934FE}" name="ContactType" dataDxfId="98"/>
-    <tableColumn id="45" xr3:uid="{E46BDB05-540A-4D5A-BE38-BB45035A1FBB}" name="Contact_status" dataDxfId="97"/>
-    <tableColumn id="46" xr3:uid="{071B7EAD-4786-4BF6-BD57-7F551BF1BFF0}" name="regWithNfh" dataDxfId="96"/>
-    <tableColumn id="47" xr3:uid="{0644A39D-5B5B-4DA9-B33F-8CBB659FE512}" name="vehPurchaseType" dataDxfId="95"/>
-    <tableColumn id="48" xr3:uid="{9C326EAF-77E1-4045-9042-56296390DA47}" name="hirePurchase" dataDxfId="94"/>
-    <tableColumn id="49" xr3:uid="{75DAB3C7-BB41-48FA-8B60-DFEFC5164F57}" name="isApplicantOwner" dataDxfId="93"/>
-    <tableColumn id="50" xr3:uid="{64AC5C43-9B94-4815-A277-3DA2D5E3A538}" name="isPrimrySecurity" dataDxfId="92"/>
-    <tableColumn id="51" xr3:uid="{7AB4CB89-CBF0-402F-91AD-AA45FC029539}" name="vehDealer" dataDxfId="91"/>
-    <tableColumn id="52" xr3:uid="{928B80BD-B376-4005-B7A0-34DA4C9FD1E3}" name="dealerSaleman" dataDxfId="90"/>
-    <tableColumn id="53" xr3:uid="{2FEEB584-A7ED-4E3A-9B89-1F6B6A099671}" name="vehCat" dataDxfId="89"/>
-    <tableColumn id="54" xr3:uid="{1DA9CDDC-77D9-44B6-8642-62F09DC56422}" name="vehMaker" dataDxfId="88"/>
-    <tableColumn id="55" xr3:uid="{C33B6678-1BA4-42C5-A240-E86E78B157C3}" name="vehModel" dataDxfId="87"/>
-    <tableColumn id="56" xr3:uid="{172E096F-A9A2-4CF3-9AFB-3424C30B1FA3}" name="vehModelCat" dataDxfId="86"/>
-    <tableColumn id="57" xr3:uid="{04B0522D-440A-4682-B572-81E681286D08}" name="manufactureCountry" dataDxfId="85"/>
-    <tableColumn id="58" xr3:uid="{63DF28F3-0DCF-4466-95D9-A7B8679C5338}" name="colour" dataDxfId="84"/>
-    <tableColumn id="59" xr3:uid="{BF43045B-8357-47B4-A489-C10F4CCDD4F1}" name="manufactureYear" dataDxfId="83"/>
-    <tableColumn id="60" xr3:uid="{30FD714C-FBFB-4619-A366-3FF395E7E139}" name="vehiclePrice_txt" dataDxfId="82"/>
-    <tableColumn id="61" xr3:uid="{94D38C5A-700A-4528-A837-90C836489E4E}" name="downPaymentPer_txt" dataDxfId="81"/>
-    <tableColumn id="62" xr3:uid="{3A681706-B2D4-49F3-88FA-97277F708246}" name="initialPaymt_txt" dataDxfId="80"/>
-    <tableColumn id="63" xr3:uid="{ACDE4A0C-A6B2-4D87-83BE-9DBEAF3B7EA8}" name="actVehiclePrice_txt" dataDxfId="79"/>
-    <tableColumn id="64" xr3:uid="{BC736CC7-6CAD-44C2-9288-91971876FC45}" name="adminCharge_txt" dataDxfId="78"/>
-    <tableColumn id="65" xr3:uid="{B7631C2C-9A9D-4C40-B97F-7A2548260750}" name="adminVat" dataDxfId="77"/>
-    <tableColumn id="66" xr3:uid="{59A7C662-7F28-4D63-9CB6-7FD71F70741D}" name="adminChagreWithVat_txt" dataDxfId="76"/>
-    <tableColumn id="67" xr3:uid="{0ACE22C9-BFA2-4413-BBC2-1C9F29D7F032}" name="modeOfPayment" dataDxfId="75"/>
-    <tableColumn id="68" xr3:uid="{956718A3-3DA9-432A-BE21-F4EE365D521C}" name="isInsuredWithNFH" dataDxfId="74"/>
-    <tableColumn id="69" xr3:uid="{D092F385-0749-4926-B32F-E4A40D97672E}" name="collateralType" dataDxfId="73"/>
-    <tableColumn id="70" xr3:uid="{D5D19B86-E695-4C1D-913A-FB6343AB534D}" name="collateralSubType" dataDxfId="72"/>
-    <tableColumn id="71" xr3:uid="{B312C1AB-E7B8-4367-B805-A99B729A14A3}" name="valuatorName" dataDxfId="71"/>
-    <tableColumn id="72" xr3:uid="{B7AB646A-EBBB-4EB0-9FB0-DBE43DFFE330}" name="otherValuatorName" dataDxfId="70"/>
-    <tableColumn id="73" xr3:uid="{B1FD4261-2181-4B55-AAE3-6162C625B56D}" name="estimatedValuationAmt_txt" dataDxfId="69"/>
-    <tableColumn id="74" xr3:uid="{A4741736-F379-42DF-88F8-841355249EDB}" name="finalValuationAmt_txt" dataDxfId="68"/>
-    <tableColumn id="75" xr3:uid="{6E8AD8AE-62CE-461D-8748-9D387CCD70C5}" name="valuationDate" dataDxfId="67"/>
-    <tableColumn id="76" xr3:uid="{02F21512-03F4-4059-9E30-C15516314CFE}" name="chassisNo" dataDxfId="66"/>
-    <tableColumn id="77" xr3:uid="{F95CBF5D-6BD7-4C3E-BA44-86E0AA0CA475}" name="registrationNo" dataDxfId="65"/>
-    <tableColumn id="78" xr3:uid="{FE95FBFA-6AF8-4E65-A8BA-C8E4667D1A10}" name="engineCapacity" dataDxfId="64"/>
-    <tableColumn id="79" xr3:uid="{F1EAECC0-75AD-4DC4-8BEB-50764716FB73}" name="mileage" dataDxfId="63"/>
-    <tableColumn id="80" xr3:uid="{E9D66C2D-3BA7-47AC-8384-C167FF40306D}" name="cylinder" dataDxfId="62"/>
-    <tableColumn id="81" xr3:uid="{AD1FB051-1EEC-4374-AAA5-6B620D830FC4}" name="color" dataDxfId="61"/>
-    <tableColumn id="82" xr3:uid="{ADBB0DF3-84AD-4DAD-9B54-54807BB109BD}" name="insuranceType" dataDxfId="60"/>
-    <tableColumn id="83" xr3:uid="{DE41EEFF-2AF2-40DF-9D1C-CD072BCFB90F}" name="vehicleCondition" dataDxfId="59"/>
-    <tableColumn id="84" xr3:uid="{360A06CC-896F-472C-9184-B6485DBC2E24}" name="exteriorCondition" dataDxfId="58"/>
-    <tableColumn id="85" xr3:uid="{23C4EA02-9853-4B40-841E-D83818C82CED}" name="interiorCondition" dataDxfId="57"/>
-    <tableColumn id="86" xr3:uid="{426BC3BF-2900-43DF-B907-B998AB4A3FD6}" name="tyreCondition" dataDxfId="56"/>
-    <tableColumn id="87" xr3:uid="{59D4C78D-3A01-431B-A37F-0CAC4F8060C4}" name="engineCondition" dataDxfId="55"/>
-    <tableColumn id="88" xr3:uid="{ED1EF02C-D7E6-4C80-B7C3-EB885A408873}" name="gearBox" dataDxfId="54"/>
-    <tableColumn id="89" xr3:uid="{BB055320-D9AB-427B-B07C-C8889F1892B4}" name="suspension" dataDxfId="53"/>
-    <tableColumn id="90" xr3:uid="{7258326E-3F04-4976-8492-3603BA97D071}" name="interiorType" dataDxfId="52"/>
-    <tableColumn id="91" xr3:uid="{825B14FD-9CB2-4A4F-ADBD-5347B46D09CE}" name="manufactureWarranty" dataDxfId="51"/>
-    <tableColumn id="92" xr3:uid="{1B61C1D4-8E64-4A15-826A-E0137CB82D83}" name="warrntyYearRemaining" dataDxfId="50"/>
-    <tableColumn id="93" xr3:uid="{FDEC472D-97B5-4015-A7ED-2E1067730E27}" name="alloyWheels" dataDxfId="49"/>
-    <tableColumn id="94" xr3:uid="{74CDD0FF-484D-4DF3-BAF8-C8155EBF3011}" name="spareTyre" dataDxfId="48"/>
-    <tableColumn id="95" xr3:uid="{1CD9662A-8FB1-4C94-8C23-910A64FC9408}" name="jack" dataDxfId="47"/>
-    <tableColumn id="96" xr3:uid="{205059EB-0A88-4AB1-A579-072E85685FD1}" name="tool" dataDxfId="46"/>
-    <tableColumn id="97" xr3:uid="{47D70AEF-55CB-46E7-BEE9-A8B376ABB00A}" name="wheelCaps" dataDxfId="45"/>
-    <tableColumn id="98" xr3:uid="{4D1B9B90-6C91-4149-A427-2E573E0BE8F6}" name="floorrMats" dataDxfId="44"/>
-    <tableColumn id="99" xr3:uid="{8E0EFE84-2194-4F00-B7ED-0A22A736FE5C}" name="fireExtinguisher" dataDxfId="43"/>
-    <tableColumn id="100" xr3:uid="{8B56A608-68C9-493E-8B91-B69CF9D944BA}" name="firstAidKit" dataDxfId="42"/>
-    <tableColumn id="101" xr3:uid="{04D0114D-113B-4E4A-8945-03FB77E918E2}" name="spareKey" dataDxfId="41"/>
-    <tableColumn id="102" xr3:uid="{8EEABA6B-CD4A-41C1-AD23-3A060938FBBC}" name="radio" dataDxfId="40"/>
-    <tableColumn id="103" xr3:uid="{A476DA46-F896-41C2-B730-05A8EE8BBA0D}" name="sunRoof" dataDxfId="39"/>
-    <tableColumn id="104" xr3:uid="{40837055-ACB4-48AC-95F5-CA8E7893C55E}" name="electricWindow" dataDxfId="38"/>
-    <tableColumn id="105" xr3:uid="{606CCFC8-FBA6-4AB7-AE7B-37007236EDE6}" name="satelliteNavigation" dataDxfId="37"/>
-    <tableColumn id="106" xr3:uid="{4E3BA4DC-9193-4F34-8496-65AEE6B82737}" name="dvd" dataDxfId="36"/>
-    <tableColumn id="107" xr3:uid="{9DB233D0-755F-4162-A8E8-ABEAC6C5B3A5}" name="screen" dataDxfId="35"/>
-    <tableColumn id="108" xr3:uid="{30040546-46FE-4FA1-959E-C453DBF0BFD5}" name="airConditioner" dataDxfId="34"/>
-    <tableColumn id="109" xr3:uid="{C8813AC5-5CF8-4370-82DC-565FC005E836}" name="battery" dataDxfId="33"/>
-    <tableColumn id="110" xr3:uid="{34614546-004C-4454-8912-15181BD4ECD8}" name="remarks" dataDxfId="32"/>
-    <tableColumn id="111" xr3:uid="{54D5F79C-FEFE-4EBE-8DB3-8F37E93E43C6}" name="firstEmiDate" dataDxfId="31"/>
-    <tableColumn id="112" xr3:uid="{1848B67E-9391-4333-BD03-D9AA7D3F2B8E}" name="requiredTenure" dataDxfId="30"/>
-    <tableColumn id="113" xr3:uid="{A2F17A4A-AB2B-420C-908D-1A998ECFAA99}" name="vatPaymentMode" dataDxfId="29"/>
-    <tableColumn id="114" xr3:uid="{342CF2C2-2827-4FFE-BFA7-AE764B29441C}" name="repaymentMode" dataDxfId="28"/>
-    <tableColumn id="115" xr3:uid="{B95FCC17-EBCC-47E0-98A5-18FE8FF57B9B}" name="isDefault" dataDxfId="27"/>
-    <tableColumn id="116" xr3:uid="{C4672D46-75C5-45D3-AF43-F9E52B1EA9E8}" name="docGrp" dataDxfId="26"/>
-    <tableColumn id="121" xr3:uid="{484C9E84-C658-4E12-AEB1-760D0E3C79F2}" name="registrationDate" dataDxfId="25"/>
-    <tableColumn id="117" xr3:uid="{8DB8BF92-2E3A-49A3-ADC8-23C055D38F41}" name="docType" dataDxfId="24"/>
-    <tableColumn id="122" xr3:uid="{07BB487A-B6A9-42DD-9ADA-E7F926155EDE}" name="expirationDate" dataDxfId="23"/>
-    <tableColumn id="123" xr3:uid="{109789D0-506D-47DA-A49A-7840BFAEFAB5}" name="placeOfEstablishment" dataDxfId="22"/>
-    <tableColumn id="124" xr3:uid="{DC239F99-E54E-4DB6-B9A3-5AC5D3176B08}" name="purposeCode" dataDxfId="21"/>
-    <tableColumn id="125" xr3:uid="{1DF4975D-740D-43AB-911C-FF1F4C635DB4}" name="crStatus" dataDxfId="20"/>
-    <tableColumn id="126" xr3:uid="{6FCB0C9B-A814-46F2-9D26-4887205F96B6}" name="autoBlacklisted" dataDxfId="19"/>
-    <tableColumn id="127" xr3:uid="{C974E4D7-EC11-4ED6-8BC0-355123A46A06}" name="unListValidated" dataDxfId="18"/>
-    <tableColumn id="128" xr3:uid="{3259DC83-3908-4D62-B105-69A90964B584}" name="returnedCheques2" dataDxfId="17"/>
-    <tableColumn id="129" xr3:uid="{57B5A4CC-9DF0-45B1-B159-6B17E5474F0F}" name="chequeAbuserList2" dataDxfId="16"/>
-    <tableColumn id="130" xr3:uid="{3EABEFDD-34C6-423C-AADC-C8ADBE9CF08B}" name="totCreditTurnOver" dataDxfId="15"/>
-    <tableColumn id="131" xr3:uid="{2A8125DB-0727-4E10-85B3-B61C752C2550}" name="noOfMonths" dataDxfId="14"/>
-    <tableColumn id="132" xr3:uid="{3305ACE0-5952-4227-967D-D64A9154ABB2}" name="avgCreditTurnoverPerc" dataDxfId="13"/>
-    <tableColumn id="133" xr3:uid="{F19797E2-CE51-436D-A775-E6D05BDF4B4F}" name="bankNameBusiness" dataDxfId="12"/>
-    <tableColumn id="134" xr3:uid="{F6C479B5-7401-469A-AB85-BF2888742D3E}" name="remark" dataDxfId="11"/>
-    <tableColumn id="135" xr3:uid="{EBBA0D17-56A1-44F7-9143-0DF66E09484A}" name="chasisNumber" dataDxfId="10"/>
-    <tableColumn id="136" xr3:uid="{574E9957-985F-4ED0-BB11-9D6A9905B156}" name="engineNumber" dataDxfId="9"/>
-    <tableColumn id="137" xr3:uid="{FE15058E-BC39-4958-81B8-4BA5335639B4}" name="servReqDate" dataDxfId="8"/>
-    <tableColumn id="138" xr3:uid="{78CA1DA9-FDA0-4A64-A35F-17D344404278}" name="srcOfPayment" dataDxfId="7"/>
-    <tableColumn id="139" xr3:uid="{2609A799-B1A4-4E5C-A3C3-2D2CC31698F0}" name="custFirstName" dataDxfId="6"/>
-    <tableColumn id="140" xr3:uid="{A793CC16-2518-4F0A-8F45-283202D247D9}" name="PanelWattage" dataDxfId="5"/>
-    <tableColumn id="141" xr3:uid="{BA87B0AF-AFAE-475E-8C5C-C2AB6EB19E78}" name="InverterType" dataDxfId="4"/>
-    <tableColumn id="142" xr3:uid="{D9221ECE-40E2-454D-A6AF-650371A2E5B3}" name="InverterMake" dataDxfId="3"/>
-    <tableColumn id="143" xr3:uid="{02685692-7861-4BA3-B621-FA30598A0CA1}" name="InverterSize" dataDxfId="2"/>
-    <tableColumn id="144" xr3:uid="{3F543D1A-FE59-4D7E-89AB-19E8B47F772A}" name="soleqiLtv" dataDxfId="1"/>
-    <tableColumn id="145" xr3:uid="{DB61FEFA-F07C-485E-AD74-4473D57BF43B}" name="soleqiSeriolNumber" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DC87E5BE-26EC-4DBC-8565-103061C7F3D4}" name="Table2" displayName="Table2" ref="H1:EZ9" totalsRowShown="0" headerRowDxfId="150" dataDxfId="149">
+  <autoFilter ref="H1:EZ9" xr:uid="{DC87E5BE-26EC-4DBC-8565-103061C7F3D4}"/>
+  <tableColumns count="149">
+    <tableColumn id="1" xr3:uid="{F63B5B5B-75EF-415D-9D47-65053D6DF43A}" name="IDNumber" dataDxfId="148"/>
+    <tableColumn id="2" xr3:uid="{00DFF19F-9E5D-44BD-B746-C5D10556D9C8}" name="CustomerType" dataDxfId="147"/>
+    <tableColumn id="4" xr3:uid="{16007208-EDF9-4E5D-AAA6-7F837DDD8C78}" name="FirstName" dataDxfId="146"/>
+    <tableColumn id="5" xr3:uid="{EBB0D839-0B51-4805-BD0B-AAB83E639E7A}" name="SecondName" dataDxfId="145"/>
+    <tableColumn id="6" xr3:uid="{07BF2CBA-E818-4808-9F87-9C6E9B8E27EB}" name="FamilyName" dataDxfId="144"/>
+    <tableColumn id="7" xr3:uid="{2E161694-E056-49B2-B02C-18609B166288}" name="MobileNumber" dataDxfId="143"/>
+    <tableColumn id="8" xr3:uid="{833F8941-B4C0-4E9B-89CA-6ACBE1BBC919}" name="Product" dataDxfId="142"/>
+    <tableColumn id="9" xr3:uid="{6AB217CA-8575-47C6-8323-49DBB8179C87}" name="SubProduct" dataDxfId="141"/>
+    <tableColumn id="10" xr3:uid="{B427C861-36D2-4A49-8916-781C22F94FF4}" name="SchemeType" dataDxfId="140"/>
+    <tableColumn id="11" xr3:uid="{BC30846C-2EA9-4DD7-B7FD-8EFA2281FD70}" name="Branch" dataDxfId="139"/>
+    <tableColumn id="12" xr3:uid="{7521EBC7-8105-4B20-B089-0355970E2900}" name="addressType" dataDxfId="138"/>
+    <tableColumn id="13" xr3:uid="{A68B51A1-92D8-490D-8098-B759DD9581A1}" name="addressTypeValue" dataDxfId="137"/>
+    <tableColumn id="14" xr3:uid="{F19CF168-BC8D-46DE-ACA0-71EDB250DFFF}" name="activeInActive" dataDxfId="136"/>
+    <tableColumn id="3" xr3:uid="{CA80F8FF-FC63-4AD4-9D64-0F817F3CD198}" name="ApplicantType" dataDxfId="135"/>
+    <tableColumn id="15" xr3:uid="{A95550BC-D33C-4168-9C34-660D7631DE85}" name="email" dataDxfId="134"/>
+    <tableColumn id="16" xr3:uid="{3183446F-0B43-4115-A526-CA96A24A5A0C}" name="SourceOfIncome" dataDxfId="133"/>
+    <tableColumn id="17" xr3:uid="{1673EE05-9F0D-4EB3-B6D6-DC08105325A2}" name="Title" dataDxfId="132"/>
+    <tableColumn id="120" xr3:uid="{FDC531AF-46A0-4FCB-B25A-8E287A2C8C2E}" name="formOfOrganization" dataDxfId="131"/>
+    <tableColumn id="18" xr3:uid="{683CA39D-EC12-4489-A45A-69A9DEBD4155}" name="Nationality" dataDxfId="130"/>
+    <tableColumn id="20" xr3:uid="{BBFDDC0F-FDD1-46F8-B248-DF40C724613D}" name="countryOfJurisdiction" dataDxfId="129"/>
+    <tableColumn id="21" xr3:uid="{2983BFC1-1906-4319-9DF0-B77011DD7DEA}" name="EducationLevel" dataDxfId="128"/>
+    <tableColumn id="22" xr3:uid="{986D7F90-6FF6-41A5-A619-2D271BE00764}" name="DateOfBirth" dataDxfId="127"/>
+    <tableColumn id="23" xr3:uid="{8EF037E0-977A-443D-A870-A027ABFB319E}" name="MaritalStatus" dataDxfId="126"/>
+    <tableColumn id="24" xr3:uid="{A2FF1F1E-5655-44BF-886D-A1CDF65B5A95}" name="NoOfDependents" dataDxfId="125"/>
+    <tableColumn id="25" xr3:uid="{56E2E3BE-8A9C-4AE9-94D4-966966AE8106}" name="ReturnedCheques" dataDxfId="124"/>
+    <tableColumn id="26" xr3:uid="{E193FD7F-57D4-4112-85E2-6D86AEEE2D77}" name="ChequeAbuserList" dataDxfId="123"/>
+    <tableColumn id="27" xr3:uid="{15E73E8B-3789-4FC5-959A-FEB1D9247868}" name="PropertyOwnership" dataDxfId="122"/>
+    <tableColumn id="28" xr3:uid="{6B956D5B-906C-4326-8C82-4DA36E1F5615}" name="addressLine1" dataDxfId="121"/>
+    <tableColumn id="34" xr3:uid="{007FE1DB-033B-4516-B370-A1624B351561}" name="building" dataDxfId="120"/>
+    <tableColumn id="29" xr3:uid="{2E8258A9-21F2-49E6-A32C-A2461F6F0D34}" name="flat" dataDxfId="119"/>
+    <tableColumn id="30" xr3:uid="{4B02ADB7-BF07-4814-B8AA-5139B871F77F}" name="avenue" dataDxfId="118"/>
+    <tableColumn id="31" xr3:uid="{3FDD9253-AB6B-4FD1-876D-578DA73C5B56}" name="Block" dataDxfId="117"/>
+    <tableColumn id="32" xr3:uid="{BA71D7A1-AD3D-40A5-ADFB-7F9EBCE6C2C6}" name="Country" dataDxfId="116"/>
+    <tableColumn id="33" xr3:uid="{6515130A-EC40-4F7C-AA54-1ADD52D50D5E}" name="City_Area" dataDxfId="115"/>
+    <tableColumn id="19" xr3:uid="{4D649DD4-69B1-40FF-8591-BC8ABD1B6012}" name="issueDate" dataDxfId="114"/>
+    <tableColumn id="35" xr3:uid="{A40DD074-5F3C-4816-B828-7A321AE246E1}" name="expiryDate" dataDxfId="113"/>
+    <tableColumn id="36" xr3:uid="{34620B96-0561-451C-9DBE-C0899F72320A}" name="renewalUnderProcess" dataDxfId="112"/>
+    <tableColumn id="37" xr3:uid="{0004759E-F0AA-489E-B041-D0E052AC9809}" name="natureOfEmplmt" dataDxfId="111"/>
+    <tableColumn id="38" xr3:uid="{E4D18649-8838-4E63-9E4B-3E22C3502670}" name="incomeType" dataDxfId="110"/>
+    <tableColumn id="39" xr3:uid="{B0BEE11D-04F9-4615-B858-E88D7F4B2BFF}" name="incomeAmt_txt" dataDxfId="109"/>
+    <tableColumn id="40" xr3:uid="{5F7661EC-8CA9-43FD-A1F8-605F258C9D1E}" name="bankName" dataDxfId="108"/>
+    <tableColumn id="41" xr3:uid="{03FF8983-E488-4619-B7EF-DAB89F5EAC3B}" name="accountNumber" dataDxfId="107"/>
+    <tableColumn id="42" xr3:uid="{D7557DBA-7BF9-4B6B-A993-A719B1AC1F05}" name="ibanNumber" dataDxfId="106"/>
+    <tableColumn id="43" xr3:uid="{B3FE0B56-7A31-4A0C-999F-A057737C3647}" name="CustomerTypeContactDetails" dataDxfId="105"/>
+    <tableColumn id="119" xr3:uid="{2BD3DD66-4663-429F-9EC2-7138114471C6}" name="relationName" dataDxfId="104"/>
+    <tableColumn id="118" xr3:uid="{85144347-A603-4B4C-9421-95BF2817AAD7}" name="relationWithCust" dataDxfId="103"/>
+    <tableColumn id="44" xr3:uid="{B03A64D4-2EB9-4ACE-B800-7091881934FE}" name="ContactType" dataDxfId="102"/>
+    <tableColumn id="45" xr3:uid="{E46BDB05-540A-4D5A-BE38-BB45035A1FBB}" name="Contact_status" dataDxfId="101"/>
+    <tableColumn id="46" xr3:uid="{071B7EAD-4786-4BF6-BD57-7F551BF1BFF0}" name="regWithNfh" dataDxfId="100"/>
+    <tableColumn id="47" xr3:uid="{0644A39D-5B5B-4DA9-B33F-8CBB659FE512}" name="vehPurchaseType" dataDxfId="99"/>
+    <tableColumn id="48" xr3:uid="{9C326EAF-77E1-4045-9042-56296390DA47}" name="hirePurchase" dataDxfId="98"/>
+    <tableColumn id="49" xr3:uid="{75DAB3C7-BB41-48FA-8B60-DFEFC5164F57}" name="isApplicantOwner" dataDxfId="97"/>
+    <tableColumn id="50" xr3:uid="{64AC5C43-9B94-4815-A277-3DA2D5E3A538}" name="isPrimrySecurity" dataDxfId="96"/>
+    <tableColumn id="51" xr3:uid="{7AB4CB89-CBF0-402F-91AD-AA45FC029539}" name="vehDealer" dataDxfId="95"/>
+    <tableColumn id="52" xr3:uid="{928B80BD-B376-4005-B7A0-34DA4C9FD1E3}" name="dealerSaleman" dataDxfId="94"/>
+    <tableColumn id="53" xr3:uid="{2FEEB584-A7ED-4E3A-9B89-1F6B6A099671}" name="vehCat" dataDxfId="93"/>
+    <tableColumn id="54" xr3:uid="{1DA9CDDC-77D9-44B6-8642-62F09DC56422}" name="vehMaker" dataDxfId="92"/>
+    <tableColumn id="55" xr3:uid="{C33B6678-1BA4-42C5-A240-E86E78B157C3}" name="vehModel" dataDxfId="91"/>
+    <tableColumn id="56" xr3:uid="{172E096F-A9A2-4CF3-9AFB-3424C30B1FA3}" name="vehModelCat" dataDxfId="90"/>
+    <tableColumn id="57" xr3:uid="{04B0522D-440A-4682-B572-81E681286D08}" name="manufactureCountry" dataDxfId="89"/>
+    <tableColumn id="58" xr3:uid="{63DF28F3-0DCF-4466-95D9-A7B8679C5338}" name="colour" dataDxfId="88"/>
+    <tableColumn id="59" xr3:uid="{BF43045B-8357-47B4-A489-C10F4CCDD4F1}" name="manufactureYear" dataDxfId="87"/>
+    <tableColumn id="60" xr3:uid="{30FD714C-FBFB-4619-A366-3FF395E7E139}" name="vehiclePrice_txt" dataDxfId="86"/>
+    <tableColumn id="61" xr3:uid="{94D38C5A-700A-4528-A837-90C836489E4E}" name="downPaymentPer_txt" dataDxfId="85"/>
+    <tableColumn id="62" xr3:uid="{3A681706-B2D4-49F3-88FA-97277F708246}" name="initialPaymt_txt" dataDxfId="84"/>
+    <tableColumn id="63" xr3:uid="{ACDE4A0C-A6B2-4D87-83BE-9DBEAF3B7EA8}" name="actVehiclePrice_txt" dataDxfId="83"/>
+    <tableColumn id="64" xr3:uid="{BC736CC7-6CAD-44C2-9288-91971876FC45}" name="adminCharge_txt" dataDxfId="82"/>
+    <tableColumn id="65" xr3:uid="{B7631C2C-9A9D-4C40-B97F-7A2548260750}" name="adminVat" dataDxfId="81"/>
+    <tableColumn id="66" xr3:uid="{59A7C662-7F28-4D63-9CB6-7FD71F70741D}" name="adminChagreWithVat_txt" dataDxfId="80"/>
+    <tableColumn id="67" xr3:uid="{0ACE22C9-BFA2-4413-BBC2-1C9F29D7F032}" name="modeOfPayment" dataDxfId="79"/>
+    <tableColumn id="68" xr3:uid="{956718A3-3DA9-432A-BE21-F4EE365D521C}" name="isInsuredWithNFH" dataDxfId="78"/>
+    <tableColumn id="69" xr3:uid="{D092F385-0749-4926-B32F-E4A40D97672E}" name="collateralType" dataDxfId="77"/>
+    <tableColumn id="70" xr3:uid="{D5D19B86-E695-4C1D-913A-FB6343AB534D}" name="collateralSubType" dataDxfId="76"/>
+    <tableColumn id="71" xr3:uid="{B312C1AB-E7B8-4367-B805-A99B729A14A3}" name="valuatorName" dataDxfId="75"/>
+    <tableColumn id="72" xr3:uid="{B7AB646A-EBBB-4EB0-9FB0-DBE43DFFE330}" name="otherValuatorName" dataDxfId="74"/>
+    <tableColumn id="73" xr3:uid="{B1FD4261-2181-4B55-AAE3-6162C625B56D}" name="estimatedValuationAmt_txt" dataDxfId="73"/>
+    <tableColumn id="74" xr3:uid="{A4741736-F379-42DF-88F8-841355249EDB}" name="finalValuationAmt_txt" dataDxfId="72"/>
+    <tableColumn id="75" xr3:uid="{6E8AD8AE-62CE-461D-8748-9D387CCD70C5}" name="valuationDate" dataDxfId="71"/>
+    <tableColumn id="76" xr3:uid="{02F21512-03F4-4059-9E30-C15516314CFE}" name="chassisNo" dataDxfId="70"/>
+    <tableColumn id="77" xr3:uid="{F95CBF5D-6BD7-4C3E-BA44-86E0AA0CA475}" name="registrationNo" dataDxfId="69"/>
+    <tableColumn id="78" xr3:uid="{FE95FBFA-6AF8-4E65-A8BA-C8E4667D1A10}" name="engineCapacity" dataDxfId="68"/>
+    <tableColumn id="79" xr3:uid="{F1EAECC0-75AD-4DC4-8BEB-50764716FB73}" name="mileage" dataDxfId="67"/>
+    <tableColumn id="80" xr3:uid="{E9D66C2D-3BA7-47AC-8384-C167FF40306D}" name="cylinder" dataDxfId="66"/>
+    <tableColumn id="81" xr3:uid="{AD1FB051-1EEC-4374-AAA5-6B620D830FC4}" name="color" dataDxfId="65"/>
+    <tableColumn id="82" xr3:uid="{ADBB0DF3-84AD-4DAD-9B54-54807BB109BD}" name="insuranceType" dataDxfId="64"/>
+    <tableColumn id="83" xr3:uid="{DE41EEFF-2AF2-40DF-9D1C-CD072BCFB90F}" name="vehicleCondition" dataDxfId="63"/>
+    <tableColumn id="84" xr3:uid="{360A06CC-896F-472C-9184-B6485DBC2E24}" name="exteriorCondition" dataDxfId="62"/>
+    <tableColumn id="85" xr3:uid="{23C4EA02-9853-4B40-841E-D83818C82CED}" name="interiorCondition" dataDxfId="61"/>
+    <tableColumn id="86" xr3:uid="{426BC3BF-2900-43DF-B907-B998AB4A3FD6}" name="tyreCondition" dataDxfId="60"/>
+    <tableColumn id="87" xr3:uid="{59D4C78D-3A01-431B-A37F-0CAC4F8060C4}" name="engineCondition" dataDxfId="59"/>
+    <tableColumn id="88" xr3:uid="{ED1EF02C-D7E6-4C80-B7C3-EB885A408873}" name="gearBox" dataDxfId="58"/>
+    <tableColumn id="89" xr3:uid="{BB055320-D9AB-427B-B07C-C8889F1892B4}" name="suspension" dataDxfId="57"/>
+    <tableColumn id="90" xr3:uid="{7258326E-3F04-4976-8492-3603BA97D071}" name="interiorType" dataDxfId="56"/>
+    <tableColumn id="91" xr3:uid="{825B14FD-9CB2-4A4F-ADBD-5347B46D09CE}" name="manufactureWarranty" dataDxfId="55"/>
+    <tableColumn id="92" xr3:uid="{1B61C1D4-8E64-4A15-826A-E0137CB82D83}" name="warrntyYearRemaining" dataDxfId="54"/>
+    <tableColumn id="93" xr3:uid="{FDEC472D-97B5-4015-A7ED-2E1067730E27}" name="alloyWheels" dataDxfId="53"/>
+    <tableColumn id="94" xr3:uid="{74CDD0FF-484D-4DF3-BAF8-C8155EBF3011}" name="spareTyre" dataDxfId="52"/>
+    <tableColumn id="95" xr3:uid="{1CD9662A-8FB1-4C94-8C23-910A64FC9408}" name="jack" dataDxfId="51"/>
+    <tableColumn id="96" xr3:uid="{205059EB-0A88-4AB1-A579-072E85685FD1}" name="tool" dataDxfId="50"/>
+    <tableColumn id="97" xr3:uid="{47D70AEF-55CB-46E7-BEE9-A8B376ABB00A}" name="wheelCaps" dataDxfId="49"/>
+    <tableColumn id="98" xr3:uid="{4D1B9B90-6C91-4149-A427-2E573E0BE8F6}" name="floorrMats" dataDxfId="48"/>
+    <tableColumn id="99" xr3:uid="{8E0EFE84-2194-4F00-B7ED-0A22A736FE5C}" name="fireExtinguisher" dataDxfId="47"/>
+    <tableColumn id="100" xr3:uid="{8B56A608-68C9-493E-8B91-B69CF9D944BA}" name="firstAidKit" dataDxfId="46"/>
+    <tableColumn id="101" xr3:uid="{04D0114D-113B-4E4A-8945-03FB77E918E2}" name="spareKey" dataDxfId="45"/>
+    <tableColumn id="102" xr3:uid="{8EEABA6B-CD4A-41C1-AD23-3A060938FBBC}" name="radio" dataDxfId="44"/>
+    <tableColumn id="103" xr3:uid="{A476DA46-F896-41C2-B730-05A8EE8BBA0D}" name="sunRoof" dataDxfId="43"/>
+    <tableColumn id="104" xr3:uid="{40837055-ACB4-48AC-95F5-CA8E7893C55E}" name="electricWindow" dataDxfId="42"/>
+    <tableColumn id="105" xr3:uid="{606CCFC8-FBA6-4AB7-AE7B-37007236EDE6}" name="satelliteNavigation" dataDxfId="41"/>
+    <tableColumn id="106" xr3:uid="{4E3BA4DC-9193-4F34-8496-65AEE6B82737}" name="dvd" dataDxfId="40"/>
+    <tableColumn id="107" xr3:uid="{9DB233D0-755F-4162-A8E8-ABEAC6C5B3A5}" name="screen" dataDxfId="39"/>
+    <tableColumn id="108" xr3:uid="{30040546-46FE-4FA1-959E-C453DBF0BFD5}" name="airConditioner" dataDxfId="38"/>
+    <tableColumn id="109" xr3:uid="{C8813AC5-5CF8-4370-82DC-565FC005E836}" name="battery" dataDxfId="37"/>
+    <tableColumn id="110" xr3:uid="{34614546-004C-4454-8912-15181BD4ECD8}" name="remarks" dataDxfId="36"/>
+    <tableColumn id="111" xr3:uid="{54D5F79C-FEFE-4EBE-8DB3-8F37E93E43C6}" name="firstEmiDate" dataDxfId="35"/>
+    <tableColumn id="112" xr3:uid="{1848B67E-9391-4333-BD03-D9AA7D3F2B8E}" name="requiredTenure" dataDxfId="34"/>
+    <tableColumn id="113" xr3:uid="{A2F17A4A-AB2B-420C-908D-1A998ECFAA99}" name="vatPaymentMode" dataDxfId="33"/>
+    <tableColumn id="114" xr3:uid="{342CF2C2-2827-4FFE-BFA7-AE764B29441C}" name="repaymentMode" dataDxfId="32"/>
+    <tableColumn id="115" xr3:uid="{B95FCC17-EBCC-47E0-98A5-18FE8FF57B9B}" name="isDefault" dataDxfId="31"/>
+    <tableColumn id="116" xr3:uid="{C4672D46-75C5-45D3-AF43-F9E52B1EA9E8}" name="docGrp" dataDxfId="30"/>
+    <tableColumn id="121" xr3:uid="{484C9E84-C658-4E12-AEB1-760D0E3C79F2}" name="registrationDate" dataDxfId="29"/>
+    <tableColumn id="117" xr3:uid="{8DB8BF92-2E3A-49A3-ADC8-23C055D38F41}" name="docType" dataDxfId="28"/>
+    <tableColumn id="122" xr3:uid="{07BB487A-B6A9-42DD-9ADA-E7F926155EDE}" name="expirationDate" dataDxfId="27"/>
+    <tableColumn id="123" xr3:uid="{109789D0-506D-47DA-A49A-7840BFAEFAB5}" name="placeOfEstablishment" dataDxfId="26"/>
+    <tableColumn id="124" xr3:uid="{DC239F99-E54E-4DB6-B9A3-5AC5D3176B08}" name="purposeCode" dataDxfId="25"/>
+    <tableColumn id="125" xr3:uid="{1DF4975D-740D-43AB-911C-FF1F4C635DB4}" name="crStatus" dataDxfId="24"/>
+    <tableColumn id="126" xr3:uid="{6FCB0C9B-A814-46F2-9D26-4887205F96B6}" name="autoBlacklisted" dataDxfId="23"/>
+    <tableColumn id="127" xr3:uid="{C974E4D7-EC11-4ED6-8BC0-355123A46A06}" name="unListValidated" dataDxfId="22"/>
+    <tableColumn id="128" xr3:uid="{3259DC83-3908-4D62-B105-69A90964B584}" name="returnedCheques2" dataDxfId="21"/>
+    <tableColumn id="129" xr3:uid="{57B5A4CC-9DF0-45B1-B159-6B17E5474F0F}" name="chequeAbuserList2" dataDxfId="20"/>
+    <tableColumn id="130" xr3:uid="{3EABEFDD-34C6-423C-AADC-C8ADBE9CF08B}" name="totCreditTurnOver" dataDxfId="19"/>
+    <tableColumn id="131" xr3:uid="{2A8125DB-0727-4E10-85B3-B61C752C2550}" name="noOfMonths" dataDxfId="18"/>
+    <tableColumn id="132" xr3:uid="{3305ACE0-5952-4227-967D-D64A9154ABB2}" name="avgCreditTurnoverPerc" dataDxfId="17"/>
+    <tableColumn id="133" xr3:uid="{F19797E2-CE51-436D-A775-E6D05BDF4B4F}" name="bankNameBusiness" dataDxfId="16"/>
+    <tableColumn id="134" xr3:uid="{F6C479B5-7401-469A-AB85-BF2888742D3E}" name="remark" dataDxfId="15"/>
+    <tableColumn id="135" xr3:uid="{EBBA0D17-56A1-44F7-9143-0DF66E09484A}" name="chasisNumber" dataDxfId="14"/>
+    <tableColumn id="136" xr3:uid="{574E9957-985F-4ED0-BB11-9D6A9905B156}" name="engineNumber" dataDxfId="13"/>
+    <tableColumn id="137" xr3:uid="{FE15058E-BC39-4958-81B8-4BA5335639B4}" name="servReqDate" dataDxfId="12"/>
+    <tableColumn id="138" xr3:uid="{78CA1DA9-FDA0-4A64-A35F-17D344404278}" name="srcOfPayment" dataDxfId="11"/>
+    <tableColumn id="139" xr3:uid="{2609A799-B1A4-4E5C-A3C3-2D2CC31698F0}" name="custFirstName" dataDxfId="10"/>
+    <tableColumn id="140" xr3:uid="{A793CC16-2518-4F0A-8F45-283202D247D9}" name="PanelWattage" dataDxfId="9"/>
+    <tableColumn id="141" xr3:uid="{BA87B0AF-AFAE-475E-8C5C-C2AB6EB19E78}" name="InverterType" dataDxfId="8"/>
+    <tableColumn id="142" xr3:uid="{D9221ECE-40E2-454D-A6AF-650371A2E5B3}" name="InverterMake" dataDxfId="7"/>
+    <tableColumn id="143" xr3:uid="{02685692-7861-4BA3-B621-FA30598A0CA1}" name="InverterSize" dataDxfId="6"/>
+    <tableColumn id="144" xr3:uid="{3F543D1A-FE59-4D7E-89AB-19E8B47F772A}" name="soleqiLtv" dataDxfId="5"/>
+    <tableColumn id="145" xr3:uid="{DB61FEFA-F07C-485E-AD74-4473D57BF43B}" name="soleqiSeriolNumber" dataDxfId="4"/>
+    <tableColumn id="146" xr3:uid="{D739C869-7247-46E6-8A6C-58B06D86CE2D}" name="nhraNumber" dataDxfId="3"/>
+    <tableColumn id="147" xr3:uid="{A3063C25-7882-42C4-87B9-39ECDEB5EC5F}" name="medeqiPowerConsumption" dataDxfId="2"/>
+    <tableColumn id="148" xr3:uid="{2D9F505B-3293-4666-8C72-B1AAFC1D3A00}" name="medeqiDimension" dataDxfId="1"/>
+    <tableColumn id="149" xr3:uid="{3B1D236F-EDD7-4ED0-A41C-B16D2049B25E}" name="medeqiWeight" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4128,11 +4296,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:EV11"/>
+  <dimension ref="A1:EZ11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -4219,7 +4387,7 @@
     <col min="147" max="149" width="16.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:152" ht="29">
+    <row r="1" spans="1:156" ht="29">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -4227,19 +4395,19 @@
         <v>0</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>9</v>
@@ -4281,411 +4449,423 @@
         <v>6</v>
       </c>
       <c r="U1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="V1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="W1" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="X1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="Z1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AN1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP1" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AT1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AU1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AV1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AY1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AZ1" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="BA1" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="BB1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="BC1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="BD1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="BE1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="BG1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="BH1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BI1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="BJ1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="BK1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BL1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="BM1" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="BN1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="BO1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="BP1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="BQ1" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="BR1" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="BS1" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="BT1" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BU1" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BV1" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="BW1" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="BX1" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BY1" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="BZ1" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="CA1" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="CB1" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="CC1" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="CD1" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="CE1" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="CF1" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="CG1" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="CH1" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="CI1" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="CJ1" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="CK1" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="CL1" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="CM1" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="CN1" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="CO1" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="CP1" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="CQ1" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="CR1" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="CS1" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="CT1" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="CU1" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="CV1" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="CW1" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="CX1" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="CY1" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="CZ1" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="DA1" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="DB1" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="DC1" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="DD1" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="DE1" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="DF1" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="DG1" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="DH1" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="DI1" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="DJ1" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="DK1" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="DL1" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="DM1" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="DN1" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="DO1" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="DP1" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="DQ1" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="DR1" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="DS1" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="DT1" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="DU1" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="DV1" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="DW1" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="Z1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AF1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AG1" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH1" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AI1" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AJ1" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AK1" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AL1" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AM1" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AN1" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AO1" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AP1" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="AQ1" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR1" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AS1" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AT1" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AU1" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="AV1" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AW1" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="AX1" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="AY1" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AZ1" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="BA1" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="BB1" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="BC1" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="BD1" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="BE1" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="BF1" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="BG1" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="BH1" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="BI1" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="BJ1" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="BK1" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="BL1" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="BM1" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="BN1" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="BO1" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="BP1" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="BQ1" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="BR1" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="BS1" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="BT1" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BU1" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BV1" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="BW1" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="BX1" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="BY1" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="BZ1" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="CA1" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="CB1" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="CC1" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="CD1" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="CE1" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="CF1" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="CG1" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="CH1" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="CI1" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="CJ1" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="CK1" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="CL1" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="CM1" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="CN1" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="CO1" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="CP1" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="CQ1" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="CR1" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="CS1" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="CT1" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="CU1" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="CV1" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="CW1" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="CX1" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="CY1" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="CZ1" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="DA1" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="DB1" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="DC1" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="DD1" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="DE1" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="DF1" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="DG1" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="DH1" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="DI1" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="DJ1" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="DK1" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="DL1" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="DM1" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="DN1" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="DO1" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="DP1" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="DQ1" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="DR1" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="DS1" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="DT1" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="DU1" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="DV1" s="2" t="s">
+      <c r="DX1" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="DW1" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="DX1" s="2" t="s">
-        <v>169</v>
-      </c>
       <c r="DY1" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="DZ1" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="DZ1" s="2" t="s">
+      <c r="EA1" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="EA1" s="2" t="s">
-        <v>188</v>
-      </c>
       <c r="EB1" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="EC1" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="EC1" s="2" t="s">
+      <c r="ED1" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="ED1" s="2" t="s">
+      <c r="EE1" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="EE1" s="2" t="s">
+      <c r="EF1" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="EF1" s="2" t="s">
+      <c r="EG1" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="EG1" s="2" t="s">
-        <v>195</v>
-      </c>
       <c r="EH1" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="EI1" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="EI1" s="2" t="s">
+      <c r="EJ1" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="EJ1" s="2" t="s">
-        <v>199</v>
-      </c>
       <c r="EK1" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="EL1" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="EM1" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="EM1" s="2" t="s">
-        <v>210</v>
-      </c>
       <c r="EN1" s="2" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="EO1" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="EP1" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="EP1" s="2" t="s">
-        <v>231</v>
-      </c>
       <c r="EQ1" s="2" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="ER1" s="2" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="ES1" s="2" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="ET1" s="2" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="EU1" s="2" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="EV1" s="2" t="s">
-        <v>250</v>
+        <v>241</v>
+      </c>
+      <c r="EW1" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="EX1" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="EY1" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="EZ1" s="2" t="s">
+        <v>258</v>
       </c>
     </row>
-    <row r="2" spans="1:152" ht="43.5">
+    <row r="2" spans="1:156" ht="43.5">
       <c r="A2" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
@@ -4694,35 +4874,35 @@
       </c>
       <c r="G2" s="5"/>
       <c r="H2" s="5" t="s">
-        <v>221</v>
+        <v>269</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>7</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>19</v>
+        <v>248</v>
       </c>
       <c r="K2" s="5"/>
       <c r="L2" s="5" t="s">
-        <v>213</v>
+        <v>19</v>
       </c>
       <c r="M2" s="5">
         <v>9069658</v>
       </c>
       <c r="N2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="P2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="P2" s="5" t="s">
-        <v>23</v>
-      </c>
       <c r="Q2" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R2" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S2" s="5"/>
       <c r="T2" s="5"/>
@@ -4730,26 +4910,26 @@
         <v>7</v>
       </c>
       <c r="V2" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W2" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="X2" s="5" t="s">
         <v>7</v>
       </c>
       <c r="Y2" s="5"/>
       <c r="Z2" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AA2" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AB2" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC2" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AD2" s="5" t="s">
         <v>7</v>
@@ -4761,67 +4941,67 @@
         <v>7</v>
       </c>
       <c r="AG2" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AH2" s="5" t="s">
         <v>7</v>
       </c>
       <c r="AI2" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AJ2" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AK2" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AL2" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AM2" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="AM2" s="5" t="s">
-        <v>50</v>
-      </c>
       <c r="AN2" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AO2" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="AP2" s="16" t="s">
-        <v>223</v>
+        <v>53</v>
+      </c>
+      <c r="AP2" s="11" t="s">
+        <v>218</v>
       </c>
       <c r="AQ2" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AR2" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AS2" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AT2" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AU2" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="AU2" s="5" t="s">
-        <v>65</v>
-      </c>
       <c r="AV2" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="AW2" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="AW2" s="5" t="s">
+      <c r="AX2" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="AX2" s="5" t="s">
-        <v>71</v>
-      </c>
       <c r="AY2" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AZ2" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="BA2" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="BB2" s="5">
         <v>2</v>
@@ -4830,25 +5010,25 @@
         <v>7</v>
       </c>
       <c r="BD2" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="BE2" s="5" t="s">
         <v>7</v>
       </c>
       <c r="BF2" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="BG2" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BH2" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="BI2" s="7" t="s">
-        <v>40</v>
+        <v>227</v>
       </c>
       <c r="BJ2" s="7" t="s">
-        <v>40</v>
+        <v>228</v>
       </c>
       <c r="BK2" s="5" t="s">
         <v>7</v>
@@ -4857,184 +5037,184 @@
         <v>7</v>
       </c>
       <c r="BM2" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="BN2" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="BN2" s="7" t="s">
+      <c r="BO2" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="BO2" s="5" t="s">
+      <c r="BP2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="BQ2" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="BP2" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="BQ2" s="5" t="s">
+      <c r="BR2" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="BS2" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="BR2" s="7" t="s">
+      <c r="BT2" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="BS2" s="5" t="s">
+      <c r="BU2" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="BV2" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="BT2" s="7" t="s">
+      <c r="BW2" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="BX2" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="BY2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="BZ2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="CA2" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="CB2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="CC2" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="CD2" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="CE2" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="BU2" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="BV2" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="BW2" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="BX2" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="BY2" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="BZ2" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="CA2" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="CB2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="CC2" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="CD2" s="2" t="s">
+      <c r="CF2" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="CG2" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="CE2" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="CF2" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="CG2" s="9" t="s">
-        <v>119</v>
-      </c>
       <c r="CH2" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="CI2" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="CJ2" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="CK2" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="CL2" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="CM2" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="CK2" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="CL2" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="CM2" s="8" t="s">
+      <c r="CN2" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="CN2" s="2" t="s">
+      <c r="CO2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="CP2" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="CQ2" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="CR2" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="CS2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="CT2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="CU2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="CV2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="CW2" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="CX2" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="CO2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="CP2" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="CQ2" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="CR2" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="CS2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="CT2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="CU2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="CV2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="CW2" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="CX2" s="8" t="s">
+      <c r="CY2" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="CZ2" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="DA2" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="DB2" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="DC2" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="DD2" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="DE2" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="DF2" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="DG2" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="DH2" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="DI2" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="DJ2" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="DK2" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="DL2" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="DM2" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="DN2" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="DO2" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="DP2" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="CY2" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="CZ2" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="DA2" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="DB2" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="DC2" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="DD2" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="DE2" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="DF2" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="DG2" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="DH2" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="DI2" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="DJ2" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="DK2" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="DL2" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="DM2" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="DN2" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="DO2" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="DP2" s="2" t="s">
-        <v>161</v>
-      </c>
       <c r="DQ2" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="DR2" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="DS2" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="DT2" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="DU2" s="8" t="s">
         <v>7</v>
@@ -5044,7 +5224,7 @@
       </c>
       <c r="DW2" s="2"/>
       <c r="DX2" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="DY2" s="2"/>
       <c r="DZ2" s="2"/>
@@ -5059,7 +5239,7 @@
       <c r="EI2" s="2"/>
       <c r="EJ2" s="2"/>
       <c r="EK2" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="EL2" s="2">
         <v>30502</v>
@@ -5076,57 +5256,61 @@
       <c r="ET2" s="2"/>
       <c r="EU2" s="2"/>
       <c r="EV2" s="2"/>
+      <c r="EW2" s="2"/>
+      <c r="EX2" s="2"/>
+      <c r="EY2" s="2"/>
+      <c r="EZ2" s="2"/>
     </row>
-    <row r="3" spans="1:152" ht="58">
+    <row r="3" spans="1:156" ht="58">
       <c r="A3" s="5" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>3</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5" t="s">
-        <v>226</v>
+        <v>268</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>7</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>225</v>
+        <v>249</v>
       </c>
       <c r="K3" s="5"/>
       <c r="L3" s="5" t="s">
-        <v>224</v>
+        <v>244</v>
       </c>
       <c r="M3" s="5">
         <v>7290898</v>
       </c>
       <c r="N3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="P3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="P3" s="5" t="s">
-        <v>23</v>
-      </c>
       <c r="Q3" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R3" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S3" s="5"/>
       <c r="T3" s="5"/>
@@ -5134,26 +5318,26 @@
         <v>7</v>
       </c>
       <c r="V3" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W3" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="X3" s="5" t="s">
         <v>7</v>
       </c>
       <c r="Y3" s="5"/>
       <c r="Z3" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AA3" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AB3" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC3" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AD3" s="5" t="s">
         <v>7</v>
@@ -5165,67 +5349,67 @@
         <v>7</v>
       </c>
       <c r="AG3" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AH3" s="5" t="s">
         <v>7</v>
       </c>
       <c r="AI3" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AJ3" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AK3" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AL3" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AM3" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="AM3" s="5" t="s">
-        <v>50</v>
-      </c>
       <c r="AN3" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AO3" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="AP3" s="16" t="s">
-        <v>223</v>
+        <v>53</v>
+      </c>
+      <c r="AP3" s="11" t="s">
+        <v>218</v>
       </c>
       <c r="AQ3" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AR3" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AS3" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AT3" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AU3" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="AU3" s="5" t="s">
-        <v>65</v>
-      </c>
       <c r="AV3" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="AW3" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="AW3" s="5" t="s">
+      <c r="AX3" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="AX3" s="5" t="s">
-        <v>71</v>
-      </c>
       <c r="AY3" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AZ3" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="BA3" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="BB3" s="5">
         <v>2</v>
@@ -5234,211 +5418,211 @@
         <v>7</v>
       </c>
       <c r="BD3" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="BE3" s="5" t="s">
         <v>7</v>
       </c>
       <c r="BF3" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="BG3" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BH3" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="BI3" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="BI3" s="5" t="s">
+      <c r="BJ3" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="BJ3" s="5" t="s">
+      <c r="BK3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="BL3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="BM3" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="BK3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="BL3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="BM3" s="5" t="s">
+      <c r="BN3" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="BN3" s="7" t="s">
+      <c r="BO3" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="BO3" s="5" t="s">
+      <c r="BP3" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="BQ3" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="BP3" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="BQ3" s="5" t="s">
+      <c r="BR3" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="BS3" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="BR3" s="7" t="s">
+      <c r="BT3" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="BS3" s="5" t="s">
+      <c r="BU3" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="BV3" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="BT3" s="7" t="s">
+      <c r="BW3" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="BX3" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="BY3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="BZ3" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="CA3" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="CB3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="CC3" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="CD3" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="CE3" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="BU3" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="BV3" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="BW3" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="BX3" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="BY3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="BZ3" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="CA3" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="CB3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="CC3" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="CD3" s="2" t="s">
+      <c r="CF3" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="CG3" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="CE3" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="CF3" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="CG3" s="9" t="s">
-        <v>119</v>
-      </c>
       <c r="CH3" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="CI3" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="CJ3" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="CK3" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="CL3" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="CM3" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="CK3" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="CL3" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="CM3" s="8" t="s">
+      <c r="CN3" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="CN3" s="2" t="s">
+      <c r="CO3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="CP3" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="CQ3" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="CR3" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="CS3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="CT3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="CU3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="CV3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="CW3" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="CX3" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="CO3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="CP3" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="CQ3" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="CR3" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="CS3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="CT3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="CU3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="CV3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="CW3" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="CX3" s="8" t="s">
+      <c r="CY3" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="CZ3" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="DA3" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="DB3" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="DC3" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="DD3" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="DE3" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="DF3" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="DG3" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="DH3" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="DI3" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="DJ3" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="DK3" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="DL3" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="DM3" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="DN3" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="DO3" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="DP3" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="CY3" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="CZ3" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="DA3" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="DB3" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="DC3" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="DD3" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="DE3" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="DF3" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="DG3" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="DH3" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="DI3" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="DJ3" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="DK3" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="DL3" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="DM3" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="DN3" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="DO3" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="DP3" s="2" t="s">
-        <v>161</v>
-      </c>
       <c r="DQ3" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="DR3" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="DS3" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="DT3" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="DU3" s="8" t="s">
         <v>7</v>
@@ -5448,7 +5632,7 @@
       </c>
       <c r="DW3" s="2"/>
       <c r="DX3" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="DY3" s="2"/>
       <c r="DZ3" s="2"/>
@@ -5463,7 +5647,7 @@
       <c r="EI3" s="2"/>
       <c r="EJ3" s="2"/>
       <c r="EK3" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="EL3" s="2">
         <v>30502</v>
@@ -5472,7 +5656,7 @@
         <v>3050238</v>
       </c>
       <c r="EN3" s="9" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="EO3" s="8" t="s">
         <v>7</v>
@@ -5484,91 +5668,93 @@
       <c r="ET3" s="2"/>
       <c r="EU3" s="2"/>
       <c r="EV3" s="2"/>
+      <c r="EW3" s="2"/>
+      <c r="EX3" s="2"/>
+      <c r="EY3" s="2"/>
+      <c r="EZ3" s="2"/>
     </row>
-    <row r="4" spans="1:152" ht="43.5">
+    <row r="4" spans="1:156" ht="43.5">
       <c r="A4" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>211</v>
+        <v>266</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>212</v>
+        <v>267</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>72</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="K4" s="5"/>
       <c r="L4" s="5" t="s">
-        <v>20</v>
+        <v>246</v>
       </c>
       <c r="M4" s="5">
         <v>9879657</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="P4" s="7" t="s">
-        <v>181</v>
-      </c>
       <c r="Q4" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R4" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S4" s="5"/>
       <c r="T4" s="5"/>
       <c r="U4" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="V4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="W4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="X4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC4" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="W4" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="X4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z4" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA4" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB4" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="AC4" s="5" t="s">
-        <v>42</v>
-      </c>
       <c r="AD4" s="5" t="s">
         <v>7</v>
       </c>
@@ -5579,67 +5765,67 @@
         <v>7</v>
       </c>
       <c r="AG4" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AH4" s="5" t="s">
         <v>7</v>
       </c>
       <c r="AI4" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AJ4" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AK4" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AL4" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AM4" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="AM4" s="7" t="s">
-        <v>50</v>
-      </c>
       <c r="AN4" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AO4" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="AP4" s="16" t="s">
-        <v>223</v>
+        <v>53</v>
+      </c>
+      <c r="AP4" s="11" t="s">
+        <v>218</v>
       </c>
       <c r="AQ4" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AR4" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AS4" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AT4" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AU4" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="AU4" s="5" t="s">
-        <v>65</v>
-      </c>
       <c r="AV4" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="AW4" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="AW4" s="5" t="s">
+      <c r="AX4" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="AX4" s="5" t="s">
-        <v>71</v>
-      </c>
       <c r="AY4" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AZ4" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="BA4" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="BB4" s="5">
         <v>2</v>
@@ -5648,211 +5834,211 @@
         <v>7</v>
       </c>
       <c r="BD4" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="BE4" s="5" t="s">
         <v>7</v>
       </c>
       <c r="BF4" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="BG4" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BH4" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="BI4" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="BI4" s="5" t="s">
+      <c r="BJ4" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="BJ4" s="5" t="s">
+      <c r="BK4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="BL4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="BM4" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="BK4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="BL4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="BM4" s="5" t="s">
+      <c r="BN4" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="BN4" s="7" t="s">
+      <c r="BO4" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="BO4" s="5" t="s">
+      <c r="BP4" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="BQ4" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="BP4" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="BQ4" s="5" t="s">
+      <c r="BR4" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="BS4" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="BR4" s="7" t="s">
+      <c r="BT4" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="BS4" s="5" t="s">
+      <c r="BU4" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="BV4" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="BT4" s="7" t="s">
+      <c r="BW4" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="BX4" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="BY4" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="BZ4" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="CA4" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="CB4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="CC4" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="CD4" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="CE4" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="BU4" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="BV4" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="BW4" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="BX4" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="BY4" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="BZ4" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="CA4" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="CB4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="CC4" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="CD4" s="2" t="s">
+      <c r="CF4" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="CG4" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="CE4" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="CF4" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="CG4" s="9" t="s">
-        <v>119</v>
-      </c>
       <c r="CH4" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="CI4" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="CJ4" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="CK4" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="CL4" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="CM4" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="CK4" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="CL4" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="CM4" s="8" t="s">
+      <c r="CN4" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="CN4" s="2" t="s">
+      <c r="CO4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="CP4" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="CQ4" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="CR4" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="CS4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="CT4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="CU4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="CV4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="CW4" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="CX4" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="CO4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="CP4" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="CQ4" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="CR4" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="CS4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="CT4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="CU4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="CV4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="CW4" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="CX4" s="8" t="s">
+      <c r="CY4" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="CZ4" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="DA4" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="DB4" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="DC4" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="DD4" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="DE4" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="DF4" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="DG4" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="DH4" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="DI4" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="DJ4" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="DK4" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="DL4" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="DM4" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="DN4" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="DO4" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="DP4" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="CY4" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="CZ4" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="DA4" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="DB4" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="DC4" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="DD4" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="DE4" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="DF4" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="DG4" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="DH4" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="DI4" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="DJ4" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="DK4" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="DL4" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="DM4" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="DN4" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="DO4" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="DP4" s="2" t="s">
-        <v>161</v>
-      </c>
       <c r="DQ4" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="DR4" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="DS4" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="DT4" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="DU4" s="8" t="s">
         <v>7</v>
@@ -5861,49 +6047,49 @@
         <v>3</v>
       </c>
       <c r="DW4" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="DX4" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="DY4" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="DZ4" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="EA4" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="EB4" s="8" t="s">
         <v>7</v>
       </c>
       <c r="EC4" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="ED4" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="EE4" s="8" t="s">
         <v>7</v>
       </c>
       <c r="EF4" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="EG4" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="EH4" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="EI4" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="EJ4" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="EK4" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="EL4" s="2">
         <v>30502</v>
@@ -5920,87 +6106,91 @@
       <c r="ET4" s="2"/>
       <c r="EU4" s="2"/>
       <c r="EV4" s="2"/>
+      <c r="EW4" s="2"/>
+      <c r="EX4" s="2"/>
+      <c r="EY4" s="2"/>
+      <c r="EZ4" s="2"/>
     </row>
-    <row r="5" spans="1:152" ht="58">
+    <row r="5" spans="1:156" ht="58">
       <c r="A5" s="5" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>3</v>
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="7" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="K5" s="5"/>
       <c r="L5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M5" s="5">
         <v>9879657</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="P5" s="7" t="s">
-        <v>181</v>
-      </c>
       <c r="Q5" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R5" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S5" s="5"/>
       <c r="T5" s="5"/>
       <c r="U5" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="V5" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="W5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="X5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC5" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="W5" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="X5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z5" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA5" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB5" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="AC5" s="5" t="s">
-        <v>42</v>
-      </c>
       <c r="AD5" s="5" t="s">
         <v>7</v>
       </c>
@@ -6011,67 +6201,67 @@
         <v>7</v>
       </c>
       <c r="AG5" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AH5" s="5" t="s">
         <v>7</v>
       </c>
       <c r="AI5" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AJ5" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AK5" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AL5" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AM5" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="AM5" s="7" t="s">
-        <v>50</v>
-      </c>
       <c r="AN5" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AO5" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="AP5" s="16" t="s">
-        <v>223</v>
+        <v>53</v>
+      </c>
+      <c r="AP5" s="11" t="s">
+        <v>218</v>
       </c>
       <c r="AQ5" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AR5" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AS5" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AT5" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AU5" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="AU5" s="5" t="s">
-        <v>65</v>
-      </c>
       <c r="AV5" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="AW5" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="AW5" s="5" t="s">
+      <c r="AX5" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="AX5" s="5" t="s">
-        <v>71</v>
-      </c>
       <c r="AY5" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AZ5" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="BA5" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="BB5" s="5">
         <v>2</v>
@@ -6080,211 +6270,211 @@
         <v>7</v>
       </c>
       <c r="BD5" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="BE5" s="5" t="s">
         <v>7</v>
       </c>
       <c r="BF5" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="BG5" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BH5" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="BI5" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="BI5" s="5" t="s">
+      <c r="BJ5" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="BJ5" s="5" t="s">
+      <c r="BK5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="BL5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="BM5" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="BK5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="BL5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="BM5" s="5" t="s">
+      <c r="BN5" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="BN5" s="7" t="s">
+      <c r="BO5" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="BO5" s="5" t="s">
+      <c r="BP5" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="BQ5" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="BP5" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="BQ5" s="5" t="s">
+      <c r="BR5" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="BS5" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="BR5" s="7" t="s">
+      <c r="BT5" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="BS5" s="5" t="s">
+      <c r="BU5" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="BV5" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="BT5" s="7" t="s">
+      <c r="BW5" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="BX5" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="BY5" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="BZ5" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="CA5" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="CB5" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="CC5" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="CD5" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="CE5" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="BU5" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="BV5" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="BW5" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="BX5" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="BY5" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="BZ5" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="CA5" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="CB5" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="CC5" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="CD5" s="2" t="s">
+      <c r="CF5" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="CG5" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="CE5" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="CF5" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="CG5" s="9" t="s">
-        <v>119</v>
-      </c>
       <c r="CH5" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="CI5" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="CJ5" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="CK5" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="CL5" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="CM5" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="CK5" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="CL5" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="CM5" s="8" t="s">
+      <c r="CN5" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="CN5" s="2" t="s">
+      <c r="CO5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="CP5" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="CQ5" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="CR5" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="CS5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="CT5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="CU5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="CV5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="CW5" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="CX5" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="CO5" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="CP5" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="CQ5" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="CR5" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="CS5" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="CT5" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="CU5" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="CV5" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="CW5" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="CX5" s="8" t="s">
+      <c r="CY5" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="CZ5" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="DA5" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="DB5" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="DC5" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="DD5" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="DE5" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="DF5" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="DG5" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="DH5" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="DI5" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="DJ5" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="DK5" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="DL5" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="DM5" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="DN5" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="DO5" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="DP5" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="CY5" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="CZ5" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="DA5" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="DB5" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="DC5" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="DD5" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="DE5" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="DF5" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="DG5" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="DH5" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="DI5" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="DJ5" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="DK5" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="DL5" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="DM5" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="DN5" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="DO5" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="DP5" s="2" t="s">
-        <v>161</v>
-      </c>
       <c r="DQ5" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="DR5" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="DS5" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="DT5" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="DU5" s="8" t="s">
         <v>7</v>
@@ -6293,49 +6483,49 @@
         <v>3</v>
       </c>
       <c r="DW5" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="DX5" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="DY5" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="DZ5" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="EA5" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="EB5" s="8" t="s">
         <v>7</v>
       </c>
       <c r="EC5" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="ED5" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="EE5" s="8" t="s">
         <v>7</v>
       </c>
       <c r="EF5" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="EG5" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="EH5" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="EI5" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="EJ5" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="EK5" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="EL5" s="2">
         <v>30502</v>
@@ -6346,7 +6536,7 @@
       <c r="EN5" s="2"/>
       <c r="EO5" s="2"/>
       <c r="EP5" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="EQ5" s="2"/>
       <c r="ER5" s="2"/>
@@ -6354,16 +6544,20 @@
       <c r="ET5" s="2"/>
       <c r="EU5" s="2"/>
       <c r="EV5" s="2"/>
+      <c r="EW5" s="2"/>
+      <c r="EX5" s="2"/>
+      <c r="EY5" s="2"/>
+      <c r="EZ5" s="2"/>
     </row>
-    <row r="6" spans="1:152" ht="58">
+    <row r="6" spans="1:156" ht="72.5">
       <c r="A6" s="5" t="s">
-        <v>227</v>
+        <v>264</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
@@ -6372,35 +6566,35 @@
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="5" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>7</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="K6" s="5"/>
       <c r="L6" s="5" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="M6" s="5">
         <v>9069658</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R6" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S6" s="5"/>
       <c r="T6" s="5"/>
@@ -6408,26 +6602,26 @@
         <v>7</v>
       </c>
       <c r="V6" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W6" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="X6" s="5" t="s">
         <v>7</v>
       </c>
       <c r="Y6" s="5"/>
       <c r="Z6" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AA6" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AB6" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC6" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AD6" s="5" t="s">
         <v>7</v>
@@ -6439,67 +6633,67 @@
         <v>7</v>
       </c>
       <c r="AG6" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AH6" s="5" t="s">
         <v>7</v>
       </c>
       <c r="AI6" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AJ6" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AK6" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AL6" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AM6" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="AM6" s="5" t="s">
-        <v>50</v>
-      </c>
       <c r="AN6" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AO6" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="AP6" s="16" t="s">
-        <v>223</v>
+        <v>53</v>
+      </c>
+      <c r="AP6" s="11" t="s">
+        <v>218</v>
       </c>
       <c r="AQ6" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AR6" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AS6" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AT6" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AU6" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="AU6" s="5" t="s">
-        <v>65</v>
-      </c>
       <c r="AV6" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="AW6" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="AW6" s="5" t="s">
+      <c r="AX6" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="AX6" s="5" t="s">
-        <v>71</v>
-      </c>
       <c r="AY6" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AZ6" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="BA6" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="BB6" s="5">
         <v>2</v>
@@ -6508,211 +6702,211 @@
         <v>7</v>
       </c>
       <c r="BD6" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="BE6" s="5" t="s">
         <v>7</v>
       </c>
       <c r="BF6" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="BG6" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BH6" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="BI6" s="7" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="BJ6" s="7" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="BK6" s="5" t="s">
         <v>7</v>
       </c>
       <c r="BL6" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="BM6" s="7" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="BN6" s="7" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="BO6" s="5" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="BP6" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="BQ6" s="7" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="BR6" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="BS6" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="BT6" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="BS6" s="5" t="s">
+      <c r="BU6" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="BV6" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="BT6" s="7" t="s">
+      <c r="BW6" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="BX6" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="BY6" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="BZ6" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="CA6" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="CB6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="CC6" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="CD6" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="CE6" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="BU6" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="BV6" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="BW6" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="BX6" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="BY6" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="BZ6" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="CA6" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="CB6" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="CC6" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="CD6" s="2" t="s">
+      <c r="CF6" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="CG6" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="CE6" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="CF6" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="CG6" s="9" t="s">
-        <v>119</v>
-      </c>
       <c r="CH6" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="CI6" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="CJ6" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="CK6" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="CL6" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="CM6" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="CK6" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="CL6" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="CM6" s="8" t="s">
+      <c r="CN6" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="CN6" s="2" t="s">
+      <c r="CO6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="CP6" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="CQ6" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="CR6" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="CS6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="CT6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="CU6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="CV6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="CW6" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="CX6" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="CO6" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="CP6" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="CQ6" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="CR6" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="CS6" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="CT6" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="CU6" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="CV6" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="CW6" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="CX6" s="8" t="s">
+      <c r="CY6" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="CZ6" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="DA6" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="DB6" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="DC6" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="DD6" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="DE6" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="DF6" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="DG6" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="DH6" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="DI6" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="DJ6" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="DK6" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="DL6" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="DM6" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="DN6" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="DO6" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="DP6" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="CY6" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="CZ6" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="DA6" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="DB6" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="DC6" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="DD6" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="DE6" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="DF6" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="DG6" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="DH6" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="DI6" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="DJ6" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="DK6" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="DL6" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="DM6" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="DN6" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="DO6" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="DP6" s="2" t="s">
-        <v>161</v>
-      </c>
       <c r="DQ6" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="DR6" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="DS6" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="DT6" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="DU6" s="8" t="s">
         <v>7</v>
@@ -6722,7 +6916,7 @@
       </c>
       <c r="DW6" s="2"/>
       <c r="DX6" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="DY6" s="2"/>
       <c r="DZ6" s="2"/>
@@ -6737,7 +6931,7 @@
       <c r="EI6" s="2"/>
       <c r="EJ6" s="2"/>
       <c r="EK6" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="EL6" s="2">
         <v>30502</v>
@@ -6749,13 +6943,13 @@
       <c r="EO6" s="2"/>
       <c r="EP6" s="2"/>
       <c r="EQ6" s="8" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="ER6" s="2" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="ES6" s="2" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="ET6" s="2">
         <v>30</v>
@@ -6764,304 +6958,1073 @@
         <v>7</v>
       </c>
       <c r="EV6" s="8" t="s">
-        <v>251</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="EW6" s="2"/>
+      <c r="EX6" s="2"/>
+      <c r="EY6" s="2"/>
+      <c r="EZ6" s="2"/>
     </row>
-    <row r="7" spans="1:152">
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="11"/>
+    <row r="7" spans="1:156" ht="72.5">
+      <c r="A7" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>245</v>
+      </c>
       <c r="K7" s="5"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="15"/>
-      <c r="S7" s="14"/>
-      <c r="T7" s="14"/>
-      <c r="U7" s="15"/>
-      <c r="V7" s="14"/>
-      <c r="W7" s="14"/>
-      <c r="X7" s="14"/>
-      <c r="Y7" s="7"/>
-      <c r="Z7" s="14"/>
-      <c r="AA7" s="14"/>
-      <c r="AB7" s="14"/>
-      <c r="AC7" s="14"/>
-      <c r="AD7" s="14"/>
-      <c r="AE7" s="14"/>
-      <c r="AF7" s="14"/>
-      <c r="AG7" s="14"/>
-      <c r="AH7" s="14"/>
-      <c r="AI7" s="14"/>
-      <c r="AJ7" s="14"/>
-      <c r="AK7" s="14"/>
-      <c r="AL7" s="14"/>
-      <c r="AM7" s="15"/>
-      <c r="AN7" s="14"/>
-      <c r="AO7" s="14"/>
-      <c r="AP7" s="14"/>
-      <c r="AQ7" s="14"/>
-      <c r="AR7" s="14"/>
-      <c r="AS7" s="14"/>
-      <c r="AT7" s="14"/>
-      <c r="AU7" s="14"/>
-      <c r="AV7" s="14"/>
-      <c r="AW7" s="14"/>
-      <c r="AX7" s="14"/>
-      <c r="AY7" s="14"/>
-      <c r="AZ7" s="14"/>
-      <c r="BA7" s="14"/>
-      <c r="BB7" s="14"/>
-      <c r="BC7" s="14"/>
-      <c r="BD7" s="14"/>
-      <c r="BE7" s="14"/>
-      <c r="BF7" s="15"/>
-      <c r="BG7" s="14"/>
-      <c r="BH7" s="14"/>
-      <c r="BI7" s="14"/>
-      <c r="BJ7" s="14"/>
-      <c r="BK7" s="14"/>
-      <c r="BL7" s="14"/>
-      <c r="BM7" s="14"/>
-      <c r="BN7" s="15"/>
-      <c r="BO7" s="14"/>
-      <c r="BP7" s="14"/>
-      <c r="BQ7" s="14"/>
-      <c r="BR7" s="15"/>
-      <c r="BS7" s="14"/>
-      <c r="BT7" s="15"/>
-      <c r="BU7" s="15"/>
-      <c r="BV7" s="14"/>
-      <c r="BW7" s="14"/>
-      <c r="BX7" s="14"/>
-      <c r="BY7" s="14"/>
-      <c r="BZ7" s="14"/>
-      <c r="CA7" s="8"/>
-      <c r="CB7" s="8"/>
-      <c r="CC7" s="8"/>
-      <c r="CD7" s="2"/>
-      <c r="CE7" s="8"/>
-      <c r="CF7" s="8"/>
-      <c r="CG7" s="9"/>
-      <c r="CH7" s="8"/>
-      <c r="CI7" s="8"/>
-      <c r="CJ7" s="8"/>
-      <c r="CK7" s="8"/>
-      <c r="CL7" s="8"/>
-      <c r="CM7" s="8"/>
-      <c r="CN7" s="2"/>
-      <c r="CO7" s="8"/>
-      <c r="CP7" s="8"/>
-      <c r="CQ7" s="8"/>
-      <c r="CR7" s="8"/>
-      <c r="CS7" s="8"/>
-      <c r="CT7" s="8"/>
-      <c r="CU7" s="8"/>
-      <c r="CV7" s="8"/>
-      <c r="CW7" s="8"/>
-      <c r="CX7" s="8"/>
-      <c r="CY7" s="8"/>
-      <c r="CZ7" s="8"/>
-      <c r="DA7" s="8"/>
-      <c r="DB7" s="8"/>
-      <c r="DC7" s="8"/>
-      <c r="DD7" s="8"/>
-      <c r="DE7" s="8"/>
-      <c r="DF7" s="8"/>
-      <c r="DG7" s="8"/>
-      <c r="DH7" s="8"/>
-      <c r="DI7" s="8"/>
-      <c r="DJ7" s="8"/>
-      <c r="DK7" s="8"/>
-      <c r="DL7" s="8"/>
-      <c r="DM7" s="8"/>
-      <c r="DN7" s="8"/>
-      <c r="DO7" s="8"/>
-      <c r="DP7" s="2"/>
-      <c r="DQ7" s="8"/>
-      <c r="DR7" s="8"/>
-      <c r="DS7" s="8"/>
-      <c r="DT7" s="8"/>
-      <c r="DU7" s="8"/>
-      <c r="DV7" s="2"/>
-      <c r="DW7" s="8"/>
-      <c r="DX7" s="8"/>
-      <c r="DY7" s="8"/>
-      <c r="DZ7" s="2"/>
-      <c r="EA7" s="8"/>
-      <c r="EB7" s="8"/>
-      <c r="EC7" s="8"/>
-      <c r="ED7" s="8"/>
-      <c r="EE7" s="8"/>
-      <c r="EF7" s="8"/>
-      <c r="EG7" s="8"/>
-      <c r="EH7" s="8"/>
-      <c r="EI7" s="8"/>
-      <c r="EJ7" s="8"/>
-      <c r="EK7" s="2"/>
-      <c r="EL7" s="2"/>
-      <c r="EM7" s="2"/>
+      <c r="L7" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="M7" s="5">
+        <v>9879657</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="R7" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="V7" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="W7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="X7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC7" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG7" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI7" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AJ7" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK7" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL7" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AM7" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AN7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="AO7" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP7" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="AQ7" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR7" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS7" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AT7" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AU7" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="AV7" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="AW7" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="AX7" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AY7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="AZ7" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="BA7" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="BB7" s="5">
+        <v>2</v>
+      </c>
+      <c r="BC7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="BD7" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="BE7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="BF7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="BG7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="BH7" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="BI7" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="BJ7" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="BK7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="BL7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="BM7" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="BN7" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="BO7" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="BP7" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="BQ7" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="BR7" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="BS7" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="BT7" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="BU7" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="BV7" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="BW7" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="BX7" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="BY7" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="BZ7" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="CA7" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="CB7" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="CC7" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="CD7" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="CE7" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="CF7" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="CG7" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="CH7" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="CI7" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="CJ7" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="CK7" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="CL7" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="CM7" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="CN7" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="CO7" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="CP7" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="CQ7" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="CR7" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="CS7" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="CT7" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="CU7" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="CV7" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="CW7" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="CX7" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="CY7" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="CZ7" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="DA7" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="DB7" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="DC7" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="DD7" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="DE7" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="DF7" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="DG7" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="DH7" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="DI7" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="DJ7" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="DK7" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="DL7" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="DM7" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="DN7" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="DO7" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="DP7" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="DQ7" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="DR7" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="DS7" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="DT7" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="DU7" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="DV7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="DW7" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="DX7" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="DY7" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="DZ7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="EA7" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="EB7" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="EC7" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="ED7" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="EE7" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="EF7" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="EG7" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="EH7" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="EI7" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="EJ7" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="EK7" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="EL7" s="2">
+        <v>30502</v>
+      </c>
+      <c r="EM7" s="2">
+        <v>3050238</v>
+      </c>
       <c r="EN7" s="2"/>
       <c r="EO7" s="2"/>
       <c r="EP7" s="2"/>
-      <c r="EQ7" s="2"/>
-      <c r="ER7" s="2"/>
-      <c r="ES7" s="2"/>
-      <c r="ET7" s="2"/>
-      <c r="EU7" s="2"/>
-      <c r="EV7" s="2"/>
+      <c r="EQ7" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="ER7" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="ES7" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="ET7" s="2">
+        <v>30</v>
+      </c>
+      <c r="EU7" s="2">
+        <v>7</v>
+      </c>
+      <c r="EV7" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="EW7" s="2"/>
+      <c r="EX7" s="2"/>
+      <c r="EY7" s="2"/>
+      <c r="EZ7" s="2"/>
     </row>
-    <row r="8" spans="1:152">
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="11"/>
+    <row r="8" spans="1:156" ht="79.5">
+      <c r="A8" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>245</v>
+      </c>
       <c r="K8" s="5"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="15"/>
-      <c r="S8" s="14"/>
-      <c r="T8" s="14"/>
-      <c r="U8" s="15"/>
-      <c r="V8" s="14"/>
-      <c r="W8" s="14"/>
-      <c r="X8" s="14"/>
-      <c r="Y8" s="7"/>
-      <c r="Z8" s="14"/>
-      <c r="AA8" s="14"/>
-      <c r="AB8" s="14"/>
-      <c r="AC8" s="14"/>
-      <c r="AD8" s="14"/>
-      <c r="AE8" s="14"/>
-      <c r="AF8" s="14"/>
-      <c r="AG8" s="14"/>
-      <c r="AH8" s="14"/>
-      <c r="AI8" s="14"/>
-      <c r="AJ8" s="14"/>
-      <c r="AK8" s="14"/>
-      <c r="AL8" s="14"/>
-      <c r="AM8" s="15"/>
-      <c r="AN8" s="14"/>
-      <c r="AO8" s="14"/>
-      <c r="AP8" s="14"/>
-      <c r="AQ8" s="14"/>
-      <c r="AR8" s="14"/>
-      <c r="AS8" s="14"/>
-      <c r="AT8" s="14"/>
-      <c r="AU8" s="14"/>
-      <c r="AV8" s="14"/>
-      <c r="AW8" s="14"/>
-      <c r="AX8" s="14"/>
-      <c r="AY8" s="14"/>
-      <c r="AZ8" s="14"/>
-      <c r="BA8" s="14"/>
-      <c r="BB8" s="14"/>
-      <c r="BC8" s="14"/>
-      <c r="BD8" s="14"/>
-      <c r="BE8" s="14"/>
-      <c r="BF8" s="15"/>
-      <c r="BG8" s="14"/>
-      <c r="BH8" s="14"/>
-      <c r="BI8" s="14"/>
-      <c r="BJ8" s="14"/>
-      <c r="BK8" s="14"/>
-      <c r="BL8" s="14"/>
-      <c r="BM8" s="14"/>
-      <c r="BN8" s="15"/>
-      <c r="BO8" s="14"/>
-      <c r="BP8" s="14"/>
-      <c r="BQ8" s="14"/>
-      <c r="BR8" s="15"/>
-      <c r="BS8" s="14"/>
-      <c r="BT8" s="15"/>
-      <c r="BU8" s="15"/>
-      <c r="BV8" s="14"/>
-      <c r="BW8" s="14"/>
-      <c r="BX8" s="14"/>
-      <c r="BY8" s="14"/>
-      <c r="BZ8" s="14"/>
-      <c r="CA8" s="8"/>
-      <c r="CB8" s="8"/>
-      <c r="CC8" s="8"/>
-      <c r="CD8" s="2"/>
-      <c r="CE8" s="8"/>
-      <c r="CF8" s="8"/>
-      <c r="CG8" s="9"/>
-      <c r="CH8" s="8"/>
-      <c r="CI8" s="8"/>
-      <c r="CJ8" s="8"/>
-      <c r="CK8" s="8"/>
-      <c r="CL8" s="8"/>
-      <c r="CM8" s="8"/>
-      <c r="CN8" s="2"/>
-      <c r="CO8" s="8"/>
-      <c r="CP8" s="8"/>
-      <c r="CQ8" s="8"/>
-      <c r="CR8" s="8"/>
-      <c r="CS8" s="8"/>
-      <c r="CT8" s="8"/>
-      <c r="CU8" s="8"/>
-      <c r="CV8" s="8"/>
-      <c r="CW8" s="8"/>
-      <c r="CX8" s="8"/>
-      <c r="CY8" s="8"/>
-      <c r="CZ8" s="8"/>
-      <c r="DA8" s="8"/>
-      <c r="DB8" s="8"/>
-      <c r="DC8" s="8"/>
-      <c r="DD8" s="8"/>
-      <c r="DE8" s="8"/>
-      <c r="DF8" s="8"/>
-      <c r="DG8" s="8"/>
-      <c r="DH8" s="8"/>
-      <c r="DI8" s="8"/>
-      <c r="DJ8" s="8"/>
-      <c r="DK8" s="8"/>
-      <c r="DL8" s="8"/>
-      <c r="DM8" s="8"/>
-      <c r="DN8" s="8"/>
-      <c r="DO8" s="8"/>
-      <c r="DP8" s="2"/>
-      <c r="DQ8" s="8"/>
-      <c r="DR8" s="8"/>
-      <c r="DS8" s="8"/>
-      <c r="DT8" s="8"/>
-      <c r="DU8" s="8"/>
-      <c r="DV8" s="2"/>
-      <c r="DW8" s="8"/>
-      <c r="DX8" s="8"/>
-      <c r="DY8" s="8"/>
-      <c r="DZ8" s="2"/>
-      <c r="EA8" s="8"/>
-      <c r="EB8" s="8"/>
-      <c r="EC8" s="8"/>
-      <c r="ED8" s="8"/>
-      <c r="EE8" s="8"/>
-      <c r="EF8" s="8"/>
-      <c r="EG8" s="8"/>
-      <c r="EH8" s="8"/>
-      <c r="EI8" s="8"/>
-      <c r="EJ8" s="8"/>
-      <c r="EK8" s="2"/>
-      <c r="EL8" s="2"/>
-      <c r="EM8" s="2"/>
+      <c r="L8" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="M8" s="5">
+        <v>9879657</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="R8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="V8" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="W8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="X8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB8" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC8" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI8" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AJ8" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK8" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL8" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AM8" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AN8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="AO8" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP8" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="AQ8" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AT8" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AU8" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="AV8" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="AW8" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="AX8" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AY8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="AZ8" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="BA8" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="BB8" s="5">
+        <v>2</v>
+      </c>
+      <c r="BC8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="BD8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="BE8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="BF8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="BG8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="BH8" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="BI8" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="BJ8" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="BK8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="BL8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="BM8" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="BN8" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="BO8" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="BP8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="BQ8" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="BR8" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="BS8" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="BT8" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="BU8" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="BV8" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="BW8" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="BX8" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="BY8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="BZ8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="CA8" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="CB8" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="CC8" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="CD8" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="CE8" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="CF8" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="CG8" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="CH8" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="CI8" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="CJ8" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="CK8" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="CL8" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="CM8" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="CN8" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="CO8" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="CP8" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="CQ8" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="CR8" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="CS8" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="CT8" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="CU8" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="CV8" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="CW8" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="CX8" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="CY8" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="CZ8" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="DA8" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="DB8" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="DC8" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="DD8" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="DE8" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="DF8" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="DG8" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="DH8" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="DI8" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="DJ8" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="DK8" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="DL8" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="DM8" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="DN8" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="DO8" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="DP8" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="DQ8" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="DR8" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="DS8" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="DT8" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="DU8" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="DV8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="DW8" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="DX8" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="DY8" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="DZ8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="EA8" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="EB8" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="EC8" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="ED8" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="EE8" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="EF8" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="EG8" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="EH8" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="EI8" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="EJ8" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="EK8" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="EL8" s="2">
+        <v>30502</v>
+      </c>
+      <c r="EM8" s="2">
+        <v>3050238</v>
+      </c>
       <c r="EN8" s="2"/>
       <c r="EO8" s="2"/>
       <c r="EP8" s="2"/>
-      <c r="EQ8" s="2"/>
-      <c r="ER8" s="2"/>
-      <c r="ES8" s="2"/>
-      <c r="ET8" s="2"/>
-      <c r="EU8" s="2"/>
-      <c r="EV8" s="2"/>
+      <c r="EQ8" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="ER8" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="ES8" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="ET8" s="2">
+        <v>30</v>
+      </c>
+      <c r="EU8" s="2">
+        <v>7</v>
+      </c>
+      <c r="EV8" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="EW8" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="EX8" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="EY8" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="EZ8" s="8" t="s">
+        <v>164</v>
+      </c>
     </row>
-    <row r="11" spans="1:152">
+    <row r="9" spans="1:156">
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="15"/>
+      <c r="Z9" s="2"/>
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="2"/>
+      <c r="AC9" s="2"/>
+      <c r="AD9" s="2"/>
+      <c r="AE9" s="2"/>
+      <c r="AF9" s="2"/>
+      <c r="AG9" s="2"/>
+      <c r="AH9" s="2"/>
+      <c r="AI9" s="2"/>
+      <c r="AJ9" s="2"/>
+      <c r="AK9" s="2"/>
+      <c r="AL9" s="2"/>
+      <c r="AM9" s="2"/>
+      <c r="AN9" s="2"/>
+      <c r="AO9" s="2"/>
+      <c r="AP9" s="2"/>
+      <c r="AQ9" s="2"/>
+      <c r="AR9" s="2"/>
+      <c r="AS9" s="2"/>
+      <c r="AT9" s="2"/>
+      <c r="AU9" s="2"/>
+      <c r="AV9" s="2"/>
+      <c r="AW9" s="2"/>
+      <c r="AX9" s="2"/>
+      <c r="AY9" s="2"/>
+      <c r="AZ9" s="2"/>
+      <c r="BA9" s="2"/>
+      <c r="BB9" s="2"/>
+      <c r="BC9" s="2"/>
+      <c r="BD9" s="2"/>
+      <c r="BE9" s="2"/>
+      <c r="BF9" s="2"/>
+      <c r="BG9" s="2"/>
+      <c r="BH9" s="2"/>
+      <c r="BI9" s="2"/>
+      <c r="BJ9" s="2"/>
+      <c r="BK9" s="2"/>
+      <c r="BL9" s="2"/>
+      <c r="BM9" s="2"/>
+      <c r="BN9" s="2"/>
+      <c r="BO9" s="2"/>
+      <c r="BP9" s="2"/>
+      <c r="BQ9" s="2"/>
+      <c r="BR9" s="2"/>
+      <c r="BS9" s="2"/>
+      <c r="BT9" s="2"/>
+      <c r="BU9" s="2"/>
+      <c r="BV9" s="2"/>
+      <c r="BW9" s="2"/>
+      <c r="BX9" s="2"/>
+      <c r="BY9" s="2"/>
+      <c r="BZ9" s="2"/>
+      <c r="CA9" s="2"/>
+      <c r="CB9" s="2"/>
+      <c r="CC9" s="2"/>
+      <c r="CD9" s="2"/>
+      <c r="CE9" s="2"/>
+      <c r="CF9" s="2"/>
+      <c r="CG9" s="2"/>
+      <c r="CH9" s="2"/>
+      <c r="CI9" s="2"/>
+      <c r="CJ9" s="2"/>
+      <c r="CK9" s="2"/>
+      <c r="CL9" s="2"/>
+      <c r="CM9" s="2"/>
+      <c r="CN9" s="2"/>
+      <c r="CO9" s="2"/>
+      <c r="CP9" s="2"/>
+      <c r="CQ9" s="2"/>
+      <c r="CR9" s="2"/>
+      <c r="CS9" s="2"/>
+      <c r="CT9" s="2"/>
+      <c r="CU9" s="2"/>
+      <c r="CV9" s="2"/>
+      <c r="CW9" s="2"/>
+      <c r="CX9" s="2"/>
+      <c r="CY9" s="2"/>
+      <c r="CZ9" s="2"/>
+      <c r="DA9" s="2"/>
+      <c r="DB9" s="2"/>
+      <c r="DC9" s="2"/>
+      <c r="DD9" s="2"/>
+      <c r="DE9" s="2"/>
+      <c r="DF9" s="2"/>
+      <c r="DG9" s="2"/>
+      <c r="DH9" s="2"/>
+      <c r="DI9" s="2"/>
+      <c r="DJ9" s="2"/>
+      <c r="DK9" s="2"/>
+      <c r="DL9" s="2"/>
+      <c r="DM9" s="2"/>
+      <c r="DN9" s="2"/>
+      <c r="DO9" s="2"/>
+      <c r="DP9" s="2"/>
+      <c r="DQ9" s="2"/>
+      <c r="DR9" s="2"/>
+      <c r="DS9" s="2"/>
+      <c r="DT9" s="2"/>
+      <c r="DU9" s="2"/>
+      <c r="DV9" s="2"/>
+      <c r="DW9" s="2"/>
+      <c r="DX9" s="2"/>
+      <c r="DY9" s="2"/>
+      <c r="DZ9" s="2"/>
+      <c r="EA9" s="2"/>
+      <c r="EB9" s="2"/>
+      <c r="EC9" s="2"/>
+      <c r="ED9" s="2"/>
+      <c r="EE9" s="2"/>
+      <c r="EF9" s="2"/>
+      <c r="EG9" s="2"/>
+      <c r="EH9" s="2"/>
+      <c r="EI9" s="2"/>
+      <c r="EJ9" s="2"/>
+      <c r="EK9" s="2"/>
+      <c r="EL9" s="2"/>
+      <c r="EM9" s="2"/>
+      <c r="EN9" s="2"/>
+      <c r="EO9" s="2"/>
+      <c r="EP9" s="2"/>
+      <c r="EQ9" s="2"/>
+      <c r="ER9" s="2"/>
+      <c r="ES9" s="2"/>
+      <c r="ET9" s="2"/>
+      <c r="EU9" s="2"/>
+      <c r="EV9" s="2"/>
+      <c r="EW9" s="2"/>
+      <c r="EX9" s="2"/>
+      <c r="EY9" s="2"/>
+      <c r="EZ9" s="2"/>
+    </row>
+    <row r="11" spans="1:156">
       <c r="K11" s="3"/>
     </row>
   </sheetData>
@@ -7072,11 +8035,13 @@
     <hyperlink ref="V4" r:id="rId3" xr:uid="{7EED7963-DBA9-47F1-9340-DA5E957D739F}"/>
     <hyperlink ref="V5" r:id="rId4" xr:uid="{54CBBEEE-524F-4ADB-9C63-4954D30211E9}"/>
     <hyperlink ref="V6" r:id="rId5" xr:uid="{63E26354-9D3D-417B-B107-2DEF50BE711F}"/>
+    <hyperlink ref="V7" r:id="rId6" xr:uid="{B5A2F3A7-81B7-4B57-87D9-161C0BC5761C}"/>
+    <hyperlink ref="V8" r:id="rId7" xr:uid="{E3155632-BCC5-49A0-A4C7-F342FB046B16}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
   <tableParts count="1">
-    <tablePart r:id="rId7"/>
+    <tablePart r:id="rId9"/>
   </tableParts>
 </worksheet>
 </file>
--- a/resources/test_data/Lead_Creation.xlsx
+++ b/resources/test_data/Lead_Creation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\New_automation_\web-automation-framework\resources\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E13324FA-0254-4297-9D7B-891ABD623231}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E801A1C7-5A2F-4B01-B938-68E4D9C788CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1077" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1215" uniqueCount="273">
   <si>
     <t>username</t>
   </si>
@@ -560,15 +560,9 @@
     <t>Harshit</t>
   </si>
   <si>
-    <t>Lead_Creation_CPR_1</t>
-  </si>
-  <si>
     <t>16-01-2026</t>
   </si>
   <si>
-    <t>Lead_Creation_CR_1</t>
-  </si>
-  <si>
     <t>CR</t>
   </si>
   <si>
@@ -668,9 +662,6 @@
     <t>engineNumber</t>
   </si>
   <si>
-    <t>Lead_Creation_CPR_Teller_1</t>
-  </si>
-  <si>
     <t>username2</t>
   </si>
   <si>
@@ -695,12 +686,6 @@
     <t>25-12-2024</t>
   </si>
   <si>
-    <t>Praa-324</t>
-  </si>
-  <si>
-    <t>Aditi</t>
-  </si>
-  <si>
     <t>Lead_Creation_CPR_Co_Applicant_2</t>
   </si>
   <si>
@@ -780,9 +765,6 @@
   </si>
   <si>
     <t>Mani</t>
-  </si>
-  <si>
-    <t>Anil</t>
   </si>
   <si>
     <t>Tilak</t>
@@ -844,37 +826,64 @@
     <t>medeqiWeight</t>
   </si>
   <si>
-    <t>SudheerProd</t>
-  </si>
-  <si>
-    <t>Sud-trus</t>
-  </si>
-  <si>
-    <t>ShradhaLimited</t>
-  </si>
-  <si>
-    <t>Shradha-3456</t>
-  </si>
-  <si>
     <t>Lead_Creation_CR_Co_Applicant_Solar</t>
   </si>
   <si>
     <t>Lead_Creation_CPR_Co_Applicant_Solar</t>
   </si>
   <si>
-    <t>CPR303354</t>
-  </si>
-  <si>
-    <t>TamhreeT</t>
-  </si>
-  <si>
-    <t>Tmhre-347</t>
-  </si>
-  <si>
-    <t>CPR301465</t>
-  </si>
-  <si>
-    <t>CPR305239</t>
+    <t>Aman</t>
+  </si>
+  <si>
+    <t>CPR301470</t>
+  </si>
+  <si>
+    <t>CPR303359</t>
+  </si>
+  <si>
+    <t>Srba-3456</t>
+  </si>
+  <si>
+    <t>Oroj3eT</t>
+  </si>
+  <si>
+    <t>Rodnad-trus</t>
+  </si>
+  <si>
+    <t>Bdjsdj</t>
+  </si>
+  <si>
+    <t>Bnyn-trus</t>
+  </si>
+  <si>
+    <t>CPR301472</t>
+  </si>
+  <si>
+    <t>Lead_Creation_CR_flow_Teller</t>
+  </si>
+  <si>
+    <t>PrateeLimited</t>
+  </si>
+  <si>
+    <t>Prateek</t>
+  </si>
+  <si>
+    <t>CPR305250</t>
+  </si>
+  <si>
+    <t>Torntrc</t>
+  </si>
+  <si>
+    <t>Ty-boat</t>
+  </si>
+  <si>
+    <t>Lead_Creation_CR</t>
+  </si>
+  <si>
+    <t>Lead_Creation_CPR_Teller</t>
+  </si>
+  <si>
+    <t>Lead_Creation_CPR</t>
   </si>
 </sst>
 </file>
@@ -956,7 +965,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -988,22 +997,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1032,18 +1030,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4296,11 +4282,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:EZ11"/>
+  <dimension ref="A1:EZ10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -4395,19 +4381,19 @@
         <v>0</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>9</v>
@@ -4461,7 +4447,7 @@
         <v>27</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="Z1" s="2" t="s">
         <v>28</v>
@@ -4767,105 +4753,105 @@
         <v>167</v>
       </c>
       <c r="DW1" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="DX1" s="2" t="s">
         <v>168</v>
       </c>
       <c r="DY1" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="DZ1" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="EA1" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="DZ1" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="EA1" s="2" t="s">
+      <c r="EB1" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="EB1" s="2" t="s">
+      <c r="EC1" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="ED1" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="EC1" s="2" t="s">
+      <c r="EE1" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="ED1" s="2" t="s">
+      <c r="EF1" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="EE1" s="2" t="s">
+      <c r="EG1" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="EF1" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="EG1" s="2" t="s">
+      <c r="EH1" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="EH1" s="2" t="s">
+      <c r="EI1" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="EJ1" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="EI1" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="EJ1" s="2" t="s">
-        <v>198</v>
-      </c>
       <c r="EK1" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="EL1" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="EM1" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="EN1" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="EO1" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="EP1" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="EP1" s="2" t="s">
-        <v>222</v>
-      </c>
       <c r="EQ1" s="2" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="ER1" s="2" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="ES1" s="2" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="ET1" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="EU1" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="EV1" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="EU1" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="EV1" s="2" t="s">
-        <v>241</v>
-      </c>
       <c r="EW1" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="EX1" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="EY1" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="EZ1" s="2" t="s">
         <v>252</v>
-      </c>
-      <c r="EX1" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="EY1" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="EZ1" s="2" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="2" spans="1:156" ht="43.5">
       <c r="A2" s="5" t="s">
-        <v>174</v>
+        <v>272</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
@@ -4874,13 +4860,13 @@
       </c>
       <c r="G2" s="5"/>
       <c r="H2" s="5" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>7</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>248</v>
+        <v>266</v>
       </c>
       <c r="K2" s="5"/>
       <c r="L2" s="5" t="s">
@@ -4968,7 +4954,7 @@
         <v>53</v>
       </c>
       <c r="AP2" s="11" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="AQ2" s="5" t="s">
         <v>58</v>
@@ -5025,10 +5011,10 @@
         <v>98</v>
       </c>
       <c r="BI2" s="7" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="BJ2" s="7" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="BK2" s="5" t="s">
         <v>7</v>
@@ -5052,16 +5038,16 @@
         <v>104</v>
       </c>
       <c r="BR2" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="BS2" s="5" t="s">
         <v>105</v>
       </c>
       <c r="BT2" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="BU2" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="BV2" s="5" t="s">
         <v>106</v>
@@ -5091,10 +5077,10 @@
         <v>117</v>
       </c>
       <c r="CE2" s="8" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="CF2" s="8" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="CG2" s="9" t="s">
         <v>118</v>
@@ -5205,7 +5191,7 @@
         <v>160</v>
       </c>
       <c r="DQ2" s="8" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="DR2" s="8" t="s">
         <v>164</v>
@@ -5239,7 +5225,7 @@
       <c r="EI2" s="2"/>
       <c r="EJ2" s="2"/>
       <c r="EK2" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="EL2" s="2">
         <v>30502</v>
@@ -5261,38 +5247,38 @@
       <c r="EY2" s="2"/>
       <c r="EZ2" s="2"/>
     </row>
-    <row r="3" spans="1:156" ht="58">
+    <row r="3" spans="1:156" ht="43.5">
       <c r="A3" s="5" t="s">
-        <v>210</v>
+        <v>271</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>3</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>7</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="K3" s="5"/>
       <c r="L3" s="5" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="M3" s="5">
         <v>7290898</v>
@@ -5376,7 +5362,7 @@
         <v>53</v>
       </c>
       <c r="AP3" s="11" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="AQ3" s="5" t="s">
         <v>58</v>
@@ -5460,16 +5446,16 @@
         <v>104</v>
       </c>
       <c r="BR3" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="BS3" s="5" t="s">
         <v>105</v>
       </c>
       <c r="BT3" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="BU3" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="BV3" s="5" t="s">
         <v>106</v>
@@ -5499,10 +5485,10 @@
         <v>117</v>
       </c>
       <c r="CE3" s="8" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="CF3" s="8" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="CG3" s="9" t="s">
         <v>118</v>
@@ -5613,7 +5599,7 @@
         <v>160</v>
       </c>
       <c r="DQ3" s="8" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="DR3" s="8" t="s">
         <v>164</v>
@@ -5647,7 +5633,7 @@
       <c r="EI3" s="2"/>
       <c r="EJ3" s="2"/>
       <c r="EK3" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="EL3" s="2">
         <v>30502</v>
@@ -5656,7 +5642,7 @@
         <v>3050238</v>
       </c>
       <c r="EN3" s="9" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="EO3" s="8" t="s">
         <v>7</v>
@@ -5673,40 +5659,40 @@
       <c r="EY3" s="2"/>
       <c r="EZ3" s="2"/>
     </row>
-    <row r="4" spans="1:156" ht="43.5">
+    <row r="4" spans="1:156" ht="29">
       <c r="A4" s="5" t="s">
-        <v>176</v>
+        <v>270</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="I4" s="7" t="s">
         <v>39</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="K4" s="5"/>
       <c r="L4" s="5" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="M4" s="5">
         <v>9879657</v>
@@ -5715,10 +5701,10 @@
         <v>20</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="Q4" s="5" t="s">
         <v>22</v>
@@ -5729,7 +5715,7 @@
       <c r="S4" s="5"/>
       <c r="T4" s="5"/>
       <c r="U4" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="V4" s="5" t="s">
         <v>40</v>
@@ -5792,7 +5778,7 @@
         <v>53</v>
       </c>
       <c r="AP4" s="11" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="AQ4" s="5" t="s">
         <v>58</v>
@@ -5876,16 +5862,16 @@
         <v>104</v>
       </c>
       <c r="BR4" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="BS4" s="5" t="s">
         <v>105</v>
       </c>
       <c r="BT4" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="BU4" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="BV4" s="5" t="s">
         <v>106</v>
@@ -5915,10 +5901,10 @@
         <v>117</v>
       </c>
       <c r="CE4" s="8" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="CF4" s="8" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="CG4" s="9" t="s">
         <v>118</v>
@@ -6029,7 +6015,7 @@
         <v>160</v>
       </c>
       <c r="DQ4" s="8" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="DR4" s="8" t="s">
         <v>164</v>
@@ -6047,19 +6033,19 @@
         <v>3</v>
       </c>
       <c r="DW4" s="8" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="DX4" s="8" t="s">
         <v>169</v>
       </c>
       <c r="DY4" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="DZ4" s="2" t="s">
         <v>31</v>
       </c>
       <c r="EA4" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="EB4" s="8" t="s">
         <v>7</v>
@@ -6077,10 +6063,10 @@
         <v>39</v>
       </c>
       <c r="EG4" s="8" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="EH4" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="EI4" s="8" t="s">
         <v>33</v>
@@ -6089,7 +6075,7 @@
         <v>68</v>
       </c>
       <c r="EK4" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="EL4" s="2">
         <v>30502</v>
@@ -6111,38 +6097,38 @@
       <c r="EY4" s="2"/>
       <c r="EZ4" s="2"/>
     </row>
-    <row r="5" spans="1:156" ht="58">
+    <row r="5" spans="1:156" ht="58" hidden="1">
       <c r="A5" s="5" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>3</v>
       </c>
       <c r="G5" s="5"/>
-      <c r="H5" s="7" t="s">
-        <v>219</v>
+      <c r="H5" s="5" t="s">
+        <v>256</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>220</v>
+        <v>255</v>
       </c>
       <c r="K5" s="5"/>
       <c r="L5" s="5" t="s">
-        <v>19</v>
+        <v>238</v>
       </c>
       <c r="M5" s="5">
         <v>9879657</v>
@@ -6151,10 +6137,10 @@
         <v>20</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="Q5" s="5" t="s">
         <v>22</v>
@@ -6165,7 +6151,7 @@
       <c r="S5" s="5"/>
       <c r="T5" s="5"/>
       <c r="U5" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="V5" s="5" t="s">
         <v>40</v>
@@ -6228,7 +6214,7 @@
         <v>53</v>
       </c>
       <c r="AP5" s="11" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="AQ5" s="5" t="s">
         <v>58</v>
@@ -6312,16 +6298,16 @@
         <v>104</v>
       </c>
       <c r="BR5" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="BS5" s="5" t="s">
         <v>105</v>
       </c>
       <c r="BT5" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="BU5" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="BV5" s="5" t="s">
         <v>106</v>
@@ -6351,10 +6337,10 @@
         <v>117</v>
       </c>
       <c r="CE5" s="8" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="CF5" s="8" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="CG5" s="9" t="s">
         <v>118</v>
@@ -6465,7 +6451,7 @@
         <v>160</v>
       </c>
       <c r="DQ5" s="8" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="DR5" s="8" t="s">
         <v>164</v>
@@ -6483,19 +6469,19 @@
         <v>3</v>
       </c>
       <c r="DW5" s="8" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="DX5" s="8" t="s">
         <v>169</v>
       </c>
       <c r="DY5" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="DZ5" s="2" t="s">
         <v>31</v>
       </c>
       <c r="EA5" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="EB5" s="8" t="s">
         <v>7</v>
@@ -6513,10 +6499,10 @@
         <v>39</v>
       </c>
       <c r="EG5" s="8" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="EH5" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="EI5" s="8" t="s">
         <v>33</v>
@@ -6525,7 +6511,7 @@
         <v>68</v>
       </c>
       <c r="EK5" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="EL5" s="2">
         <v>30502</v>
@@ -6551,13 +6537,13 @@
     </row>
     <row r="6" spans="1:156" ht="72.5">
       <c r="A6" s="5" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
@@ -6566,29 +6552,29 @@
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="5" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>7</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="K6" s="5"/>
       <c r="L6" s="5" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="M6" s="5">
         <v>9069658</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="Q6" s="5" t="s">
         <v>22</v>
@@ -6660,7 +6646,7 @@
         <v>53</v>
       </c>
       <c r="AP6" s="11" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="AQ6" s="5" t="s">
         <v>58</v>
@@ -6717,43 +6703,43 @@
         <v>98</v>
       </c>
       <c r="BI6" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="BJ6" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="BK6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="BL6" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="BM6" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="BN6" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="BO6" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="BP6" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="BQ6" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="BJ6" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="BK6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="BL6" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="BM6" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="BN6" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="BO6" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="BP6" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="BQ6" s="7" t="s">
-        <v>232</v>
-      </c>
       <c r="BR6" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="BS6" s="5" t="s">
         <v>105</v>
       </c>
       <c r="BT6" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="BU6" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="BV6" s="5" t="s">
         <v>106</v>
@@ -6771,7 +6757,7 @@
         <v>39</v>
       </c>
       <c r="CA6" s="8" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="CB6" s="8" t="s">
         <v>7</v>
@@ -6783,10 +6769,10 @@
         <v>117</v>
       </c>
       <c r="CE6" s="8" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="CF6" s="8" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="CG6" s="9" t="s">
         <v>118</v>
@@ -6897,7 +6883,7 @@
         <v>160</v>
       </c>
       <c r="DQ6" s="8" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="DR6" s="8" t="s">
         <v>164</v>
@@ -6931,7 +6917,7 @@
       <c r="EI6" s="2"/>
       <c r="EJ6" s="2"/>
       <c r="EK6" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="EL6" s="2">
         <v>30502</v>
@@ -6943,13 +6929,13 @@
       <c r="EO6" s="2"/>
       <c r="EP6" s="2"/>
       <c r="EQ6" s="8" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="ER6" s="2" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="ES6" s="2" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="ET6" s="2">
         <v>30</v>
@@ -6958,7 +6944,7 @@
         <v>7</v>
       </c>
       <c r="EV6" s="8" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="EW6" s="2"/>
       <c r="EX6" s="2"/>
@@ -6967,50 +6953,50 @@
     </row>
     <row r="7" spans="1:156" ht="72.5">
       <c r="A7" s="5" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="I7" s="7" t="s">
         <v>39</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="K7" s="5"/>
       <c r="L7" s="5" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="M7" s="5">
         <v>9879657</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="Q7" s="5" t="s">
         <v>22</v>
@@ -7021,7 +7007,7 @@
       <c r="S7" s="5"/>
       <c r="T7" s="5"/>
       <c r="U7" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="V7" s="5" t="s">
         <v>40</v>
@@ -7084,7 +7070,7 @@
         <v>53</v>
       </c>
       <c r="AP7" s="11" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="AQ7" s="5" t="s">
         <v>58</v>
@@ -7168,16 +7154,16 @@
         <v>104</v>
       </c>
       <c r="BR7" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="BS7" s="5" t="s">
         <v>105</v>
       </c>
       <c r="BT7" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="BU7" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="BV7" s="5" t="s">
         <v>106</v>
@@ -7195,7 +7181,7 @@
         <v>39</v>
       </c>
       <c r="CA7" s="8" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="CB7" s="8" t="s">
         <v>7</v>
@@ -7207,10 +7193,10 @@
         <v>117</v>
       </c>
       <c r="CE7" s="8" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="CF7" s="8" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="CG7" s="9" t="s">
         <v>118</v>
@@ -7321,7 +7307,7 @@
         <v>160</v>
       </c>
       <c r="DQ7" s="8" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="DR7" s="8" t="s">
         <v>164</v>
@@ -7339,19 +7325,19 @@
         <v>3</v>
       </c>
       <c r="DW7" s="8" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="DX7" s="8" t="s">
         <v>169</v>
       </c>
       <c r="DY7" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="DZ7" s="2" t="s">
         <v>31</v>
       </c>
       <c r="EA7" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="EB7" s="8" t="s">
         <v>7</v>
@@ -7369,10 +7355,10 @@
         <v>39</v>
       </c>
       <c r="EG7" s="8" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="EH7" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="EI7" s="8" t="s">
         <v>33</v>
@@ -7381,7 +7367,7 @@
         <v>68</v>
       </c>
       <c r="EK7" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="EL7" s="2">
         <v>30502</v>
@@ -7393,13 +7379,13 @@
       <c r="EO7" s="2"/>
       <c r="EP7" s="2"/>
       <c r="EQ7" s="8" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="ER7" s="2" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="ES7" s="2" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="ET7" s="2">
         <v>30</v>
@@ -7408,7 +7394,7 @@
         <v>7</v>
       </c>
       <c r="EV7" s="8" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="EW7" s="2"/>
       <c r="EX7" s="2"/>
@@ -7417,50 +7403,50 @@
     </row>
     <row r="8" spans="1:156" ht="79.5">
       <c r="A8" s="5" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="I8" s="7" t="s">
         <v>39</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="K8" s="5"/>
       <c r="L8" s="5" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="M8" s="5">
         <v>9879657</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>21</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="Q8" s="5" t="s">
         <v>22</v>
@@ -7471,7 +7457,7 @@
       <c r="S8" s="5"/>
       <c r="T8" s="5"/>
       <c r="U8" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="V8" s="5" t="s">
         <v>40</v>
@@ -7534,7 +7520,7 @@
         <v>53</v>
       </c>
       <c r="AP8" s="11" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="AQ8" s="5" t="s">
         <v>58</v>
@@ -7618,16 +7604,16 @@
         <v>104</v>
       </c>
       <c r="BR8" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="BS8" s="5" t="s">
         <v>105</v>
       </c>
       <c r="BT8" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="BU8" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="BV8" s="5" t="s">
         <v>106</v>
@@ -7645,7 +7631,7 @@
         <v>39</v>
       </c>
       <c r="CA8" s="8" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="CB8" s="8" t="s">
         <v>39</v>
@@ -7657,10 +7643,10 @@
         <v>117</v>
       </c>
       <c r="CE8" s="8" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="CF8" s="8" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="CG8" s="9" t="s">
         <v>118</v>
@@ -7771,7 +7757,7 @@
         <v>160</v>
       </c>
       <c r="DQ8" s="8" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="DR8" s="8" t="s">
         <v>164</v>
@@ -7789,19 +7775,19 @@
         <v>3</v>
       </c>
       <c r="DW8" s="8" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="DX8" s="8" t="s">
         <v>169</v>
       </c>
       <c r="DY8" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="DZ8" s="2" t="s">
         <v>31</v>
       </c>
       <c r="EA8" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="EB8" s="8" t="s">
         <v>7</v>
@@ -7819,10 +7805,10 @@
         <v>39</v>
       </c>
       <c r="EG8" s="8" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="EH8" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="EI8" s="8" t="s">
         <v>33</v>
@@ -7831,7 +7817,7 @@
         <v>68</v>
       </c>
       <c r="EK8" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="EL8" s="2">
         <v>30502</v>
@@ -7843,13 +7829,13 @@
       <c r="EO8" s="2"/>
       <c r="EP8" s="2"/>
       <c r="EQ8" s="8" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="ER8" s="2" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="ES8" s="2" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="ET8" s="2">
         <v>30</v>
@@ -7858,160 +7844,451 @@
         <v>7</v>
       </c>
       <c r="EV8" s="8" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="EW8" s="8" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="EX8" s="2" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="EY8" s="2" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="EZ8" s="8" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="9" spans="1:156">
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
-      <c r="U9" s="2"/>
-      <c r="V9" s="2"/>
-      <c r="W9" s="2"/>
-      <c r="X9" s="2"/>
-      <c r="Y9" s="15"/>
-      <c r="Z9" s="2"/>
-      <c r="AA9" s="2"/>
-      <c r="AB9" s="2"/>
-      <c r="AC9" s="2"/>
-      <c r="AD9" s="2"/>
-      <c r="AE9" s="2"/>
-      <c r="AF9" s="2"/>
-      <c r="AG9" s="2"/>
-      <c r="AH9" s="2"/>
-      <c r="AI9" s="2"/>
-      <c r="AJ9" s="2"/>
-      <c r="AK9" s="2"/>
-      <c r="AL9" s="2"/>
-      <c r="AM9" s="2"/>
-      <c r="AN9" s="2"/>
-      <c r="AO9" s="2"/>
-      <c r="AP9" s="2"/>
-      <c r="AQ9" s="2"/>
-      <c r="AR9" s="2"/>
-      <c r="AS9" s="2"/>
-      <c r="AT9" s="2"/>
-      <c r="AU9" s="2"/>
-      <c r="AV9" s="2"/>
-      <c r="AW9" s="2"/>
-      <c r="AX9" s="2"/>
-      <c r="AY9" s="2"/>
-      <c r="AZ9" s="2"/>
-      <c r="BA9" s="2"/>
-      <c r="BB9" s="2"/>
-      <c r="BC9" s="2"/>
-      <c r="BD9" s="2"/>
-      <c r="BE9" s="2"/>
-      <c r="BF9" s="2"/>
-      <c r="BG9" s="2"/>
-      <c r="BH9" s="2"/>
-      <c r="BI9" s="2"/>
-      <c r="BJ9" s="2"/>
-      <c r="BK9" s="2"/>
-      <c r="BL9" s="2"/>
-      <c r="BM9" s="2"/>
-      <c r="BN9" s="2"/>
-      <c r="BO9" s="2"/>
-      <c r="BP9" s="2"/>
-      <c r="BQ9" s="2"/>
-      <c r="BR9" s="2"/>
-      <c r="BS9" s="2"/>
-      <c r="BT9" s="2"/>
-      <c r="BU9" s="2"/>
-      <c r="BV9" s="2"/>
-      <c r="BW9" s="2"/>
-      <c r="BX9" s="2"/>
-      <c r="BY9" s="2"/>
-      <c r="BZ9" s="2"/>
-      <c r="CA9" s="2"/>
-      <c r="CB9" s="2"/>
-      <c r="CC9" s="2"/>
-      <c r="CD9" s="2"/>
-      <c r="CE9" s="2"/>
-      <c r="CF9" s="2"/>
-      <c r="CG9" s="2"/>
-      <c r="CH9" s="2"/>
-      <c r="CI9" s="2"/>
-      <c r="CJ9" s="2"/>
-      <c r="CK9" s="2"/>
-      <c r="CL9" s="2"/>
-      <c r="CM9" s="2"/>
-      <c r="CN9" s="2"/>
-      <c r="CO9" s="2"/>
-      <c r="CP9" s="2"/>
-      <c r="CQ9" s="2"/>
-      <c r="CR9" s="2"/>
-      <c r="CS9" s="2"/>
-      <c r="CT9" s="2"/>
-      <c r="CU9" s="2"/>
-      <c r="CV9" s="2"/>
-      <c r="CW9" s="2"/>
-      <c r="CX9" s="2"/>
-      <c r="CY9" s="2"/>
-      <c r="CZ9" s="2"/>
-      <c r="DA9" s="2"/>
-      <c r="DB9" s="2"/>
-      <c r="DC9" s="2"/>
-      <c r="DD9" s="2"/>
-      <c r="DE9" s="2"/>
-      <c r="DF9" s="2"/>
-      <c r="DG9" s="2"/>
-      <c r="DH9" s="2"/>
-      <c r="DI9" s="2"/>
-      <c r="DJ9" s="2"/>
-      <c r="DK9" s="2"/>
-      <c r="DL9" s="2"/>
-      <c r="DM9" s="2"/>
-      <c r="DN9" s="2"/>
-      <c r="DO9" s="2"/>
-      <c r="DP9" s="2"/>
-      <c r="DQ9" s="2"/>
-      <c r="DR9" s="2"/>
-      <c r="DS9" s="2"/>
-      <c r="DT9" s="2"/>
-      <c r="DU9" s="2"/>
-      <c r="DV9" s="2"/>
-      <c r="DW9" s="2"/>
-      <c r="DX9" s="2"/>
-      <c r="DY9" s="2"/>
-      <c r="DZ9" s="2"/>
-      <c r="EA9" s="2"/>
-      <c r="EB9" s="2"/>
-      <c r="EC9" s="2"/>
-      <c r="ED9" s="2"/>
-      <c r="EE9" s="2"/>
-      <c r="EF9" s="2"/>
-      <c r="EG9" s="2"/>
-      <c r="EH9" s="2"/>
-      <c r="EI9" s="2"/>
-      <c r="EJ9" s="2"/>
-      <c r="EK9" s="2"/>
-      <c r="EL9" s="2"/>
-      <c r="EM9" s="2"/>
-      <c r="EN9" s="2"/>
-      <c r="EO9" s="2"/>
+    <row r="9" spans="1:156" ht="58">
+      <c r="A9" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="M9" s="5">
+        <v>9879657</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="R9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="V9" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="W9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="X9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB9" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC9" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG9" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI9" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AJ9" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK9" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL9" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AM9" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AN9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="AO9" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP9" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="AQ9" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR9" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS9" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AT9" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AU9" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="AV9" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="AW9" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="AX9" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AY9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="AZ9" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="BA9" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="BB9" s="5">
+        <v>2</v>
+      </c>
+      <c r="BC9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="BD9" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="BE9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="BF9" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="BG9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="BH9" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="BI9" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="BJ9" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="BK9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="BL9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="BM9" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="BN9" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="BO9" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="BP9" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="BQ9" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="BR9" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="BS9" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="BT9" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="BU9" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="BV9" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="BW9" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="BX9" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="BY9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="BZ9" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="CA9" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="CB9" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="CC9" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="CD9" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="CE9" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="CF9" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="CG9" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="CH9" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="CI9" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="CJ9" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="CK9" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="CL9" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="CM9" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="CN9" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="CO9" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="CP9" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="CQ9" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="CR9" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="CS9" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="CT9" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="CU9" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="CV9" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="CW9" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="CX9" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="CY9" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="CZ9" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="DA9" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="DB9" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="DC9" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="DD9" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="DE9" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="DF9" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="DG9" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="DH9" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="DI9" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="DJ9" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="DK9" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="DL9" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="DM9" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="DN9" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="DO9" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="DP9" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="DQ9" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="DR9" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="DS9" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="DT9" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="DU9" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="DV9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="DW9" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="DX9" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="DY9" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="DZ9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="EA9" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="EB9" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="EC9" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="ED9" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="EE9" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="EF9" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="EG9" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="EH9" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="EI9" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="EJ9" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="EK9" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="EL9" s="2">
+        <v>30502</v>
+      </c>
+      <c r="EM9" s="2">
+        <v>3050238</v>
+      </c>
+      <c r="EN9" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="EO9" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="EP9" s="2"/>
       <c r="EQ9" s="2"/>
       <c r="ER9" s="2"/>
@@ -8024,8 +8301,11 @@
       <c r="EY9" s="2"/>
       <c r="EZ9" s="2"/>
     </row>
-    <row r="11" spans="1:156">
-      <c r="K11" s="3"/>
+    <row r="10" spans="1:156">
+      <c r="K10" s="3"/>
+      <c r="BY10">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -8037,11 +8317,12 @@
     <hyperlink ref="V6" r:id="rId5" xr:uid="{63E26354-9D3D-417B-B107-2DEF50BE711F}"/>
     <hyperlink ref="V7" r:id="rId6" xr:uid="{B5A2F3A7-81B7-4B57-87D9-161C0BC5761C}"/>
     <hyperlink ref="V8" r:id="rId7" xr:uid="{E3155632-BCC5-49A0-A4C7-F342FB046B16}"/>
+    <hyperlink ref="V9" r:id="rId8" xr:uid="{6BA7E264-DB6F-4BBE-959E-E07DC682D6F1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
   <tableParts count="1">
-    <tablePart r:id="rId9"/>
+    <tablePart r:id="rId10"/>
   </tableParts>
 </worksheet>
 </file>
--- a/resources/test_data/Lead_Creation.xlsx
+++ b/resources/test_data/Lead_Creation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\New_automation_\web-automation-framework\resources\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E801A1C7-5A2F-4B01-B938-68E4D9C788CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6A6BE26-C9D3-4FB3-AD32-B204AEFAF09D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -838,45 +838,12 @@
     <t>CPR301470</t>
   </si>
   <si>
-    <t>CPR303359</t>
-  </si>
-  <si>
-    <t>Srba-3456</t>
-  </si>
-  <si>
-    <t>Oroj3eT</t>
-  </si>
-  <si>
-    <t>Rodnad-trus</t>
-  </si>
-  <si>
-    <t>Bdjsdj</t>
-  </si>
-  <si>
-    <t>Bnyn-trus</t>
-  </si>
-  <si>
-    <t>CPR301472</t>
-  </si>
-  <si>
     <t>Lead_Creation_CR_flow_Teller</t>
   </si>
   <si>
-    <t>PrateeLimited</t>
-  </si>
-  <si>
     <t>Prateek</t>
   </si>
   <si>
-    <t>CPR305250</t>
-  </si>
-  <si>
-    <t>Torntrc</t>
-  </si>
-  <si>
-    <t>Ty-boat</t>
-  </si>
-  <si>
     <t>Lead_Creation_CR</t>
   </si>
   <si>
@@ -884,6 +851,39 @@
   </si>
   <si>
     <t>Lead_Creation_CPR</t>
+  </si>
+  <si>
+    <t>CPR305252</t>
+  </si>
+  <si>
+    <t>Oriental</t>
+  </si>
+  <si>
+    <t>Orie-trus</t>
+  </si>
+  <si>
+    <t>CPR303360</t>
+  </si>
+  <si>
+    <t>Pat-3456</t>
+  </si>
+  <si>
+    <t>PAatricLimited</t>
+  </si>
+  <si>
+    <t>Bhadohu</t>
+  </si>
+  <si>
+    <t>Bhoyn-trus</t>
+  </si>
+  <si>
+    <t>Produc</t>
+  </si>
+  <si>
+    <t>Prod-boat</t>
+  </si>
+  <si>
+    <t>CPR301474</t>
   </si>
 </sst>
 </file>
@@ -4286,7 +4286,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5:XFD5"/>
+      <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -4845,7 +4845,7 @@
     </row>
     <row r="2" spans="1:156" ht="43.5">
       <c r="A2" s="5" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>2</v>
@@ -4860,13 +4860,13 @@
       </c>
       <c r="G2" s="5"/>
       <c r="H2" s="5" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>7</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="K2" s="5"/>
       <c r="L2" s="5" t="s">
@@ -5249,7 +5249,7 @@
     </row>
     <row r="3" spans="1:156" ht="43.5">
       <c r="A3" s="5" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>2</v>
@@ -5268,7 +5268,7 @@
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>7</v>
@@ -5661,7 +5661,7 @@
     </row>
     <row r="4" spans="1:156" ht="29">
       <c r="A4" s="5" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>2</v>
@@ -5679,10 +5679,10 @@
         <v>175</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="I4" s="7" t="s">
         <v>39</v>
@@ -6552,7 +6552,7 @@
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="5" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>7</v>
@@ -6971,10 +6971,10 @@
         <v>175</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="I7" s="7" t="s">
         <v>39</v>
@@ -7421,10 +7421,10 @@
         <v>175</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="I8" s="7" t="s">
         <v>39</v>
@@ -7861,7 +7861,7 @@
     </row>
     <row r="9" spans="1:156" ht="58">
       <c r="A9" s="5" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>2</v>
@@ -7879,10 +7879,10 @@
         <v>175</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="I9" s="7" t="s">
         <v>39</v>

--- a/resources/test_data/Lead_Creation.xlsx
+++ b/resources/test_data/Lead_Creation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\New_automation_\web-automation-framework\resources\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6A6BE26-C9D3-4FB3-AD32-B204AEFAF09D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CDD4FCA-1F90-40BD-AEED-F58A903DEB2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -853,37 +853,37 @@
     <t>Lead_Creation_CPR</t>
   </si>
   <si>
-    <t>CPR305252</t>
-  </si>
-  <si>
-    <t>Oriental</t>
-  </si>
-  <si>
-    <t>Orie-trus</t>
-  </si>
-  <si>
-    <t>CPR303360</t>
-  </si>
-  <si>
-    <t>Pat-3456</t>
-  </si>
-  <si>
-    <t>PAatricLimited</t>
-  </si>
-  <si>
-    <t>Bhadohu</t>
-  </si>
-  <si>
-    <t>Bhoyn-trus</t>
-  </si>
-  <si>
-    <t>Produc</t>
-  </si>
-  <si>
-    <t>Prod-boat</t>
-  </si>
-  <si>
-    <t>CPR301474</t>
+    <t>CPR301475</t>
+  </si>
+  <si>
+    <t>CPR303361</t>
+  </si>
+  <si>
+    <t>Cummings-3456</t>
+  </si>
+  <si>
+    <t>CummingsLimited</t>
+  </si>
+  <si>
+    <t>Truthtrust</t>
+  </si>
+  <si>
+    <t>Truth-trus</t>
+  </si>
+  <si>
+    <t>Prath89</t>
+  </si>
+  <si>
+    <t>Pradgh-boat</t>
+  </si>
+  <si>
+    <t>PrateekSoft</t>
+  </si>
+  <si>
+    <t>Prateek-trus</t>
+  </si>
+  <si>
+    <t>CPR305255</t>
   </si>
 </sst>
 </file>
@@ -4284,9 +4284,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:EZ10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
+      <selection pane="bottomLeft" activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -4860,7 +4860,7 @@
       </c>
       <c r="G2" s="5"/>
       <c r="H2" s="5" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>7</v>
@@ -4876,7 +4876,7 @@
         <v>9069658</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O2" s="5" t="s">
         <v>21</v>
@@ -5268,7 +5268,7 @@
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>7</v>
@@ -5679,10 +5679,10 @@
         <v>175</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="I4" s="7" t="s">
         <v>39</v>
@@ -5698,7 +5698,7 @@
         <v>9879657</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>177</v>
@@ -6552,7 +6552,7 @@
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="5" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>7</v>
@@ -6971,10 +6971,10 @@
         <v>175</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="I7" s="7" t="s">
         <v>39</v>
@@ -7421,10 +7421,10 @@
         <v>175</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="I8" s="7" t="s">
         <v>39</v>
@@ -7879,10 +7879,10 @@
         <v>175</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="I9" s="7" t="s">
         <v>39</v>

--- a/resources/test_data/Lead_Creation.xlsx
+++ b/resources/test_data/Lead_Creation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\New_automation_\web-automation-framework\resources\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CDD4FCA-1F90-40BD-AEED-F58A903DEB2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7C6A1E8-70CA-4810-9D86-A72C77D1E04D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -871,12 +871,6 @@
     <t>Truth-trus</t>
   </si>
   <si>
-    <t>Prath89</t>
-  </si>
-  <si>
-    <t>Pradgh-boat</t>
-  </si>
-  <si>
     <t>PrateekSoft</t>
   </si>
   <si>
@@ -884,6 +878,12 @@
   </si>
   <si>
     <t>CPR305255</t>
+  </si>
+  <si>
+    <t>Prathth89</t>
+  </si>
+  <si>
+    <t>Ptydgh-boat</t>
   </si>
 </sst>
 </file>
@@ -4284,9 +4284,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:EZ10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N4" sqref="N4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -4860,7 +4860,7 @@
       </c>
       <c r="G2" s="5"/>
       <c r="H2" s="5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>7</v>
@@ -5679,10 +5679,10 @@
         <v>175</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="I4" s="7" t="s">
         <v>39</v>
@@ -7879,10 +7879,10 @@
         <v>175</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="I9" s="7" t="s">
         <v>39</v>

--- a/resources/test_data/Lead_Creation.xlsx
+++ b/resources/test_data/Lead_Creation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\New_automation_\web-automation-framework\resources\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4032BEAB-7EB2-40ED-B313-69F98994EE0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECEAF853-94D5-4156-9362-D7F4E54BCC76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -874,9 +874,6 @@
     <t>142</t>
   </si>
   <si>
-    <t>CPR305356</t>
-  </si>
-  <si>
     <t>CPR301503</t>
   </si>
   <si>
@@ -887,6 +884,9 @@
   </si>
   <si>
     <t>TNDH-RYT</t>
+  </si>
+  <si>
+    <t>CPR305359</t>
   </si>
 </sst>
 </file>
@@ -4332,7 +4332,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
+      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -4892,7 +4892,7 @@
         <v>264</v>
       </c>
       <c r="FB1" s="10" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="2" spans="1:158" ht="29">
@@ -4912,7 +4912,7 @@
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>7</v>
@@ -5326,7 +5326,7 @@
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>7</v>
@@ -5743,10 +5743,10 @@
         <v>173</v>
       </c>
       <c r="G4" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="H4" s="5" t="s">
         <v>272</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>273</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>38</v>

--- a/resources/test_data/Lead_Creation.xlsx
+++ b/resources/test_data/Lead_Creation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\New_automation_\web-automation-framework\resources\test_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\New_automation_\web-automation-KFIC\resources\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECEAF853-94D5-4156-9362-D7F4E54BCC76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6412F334-F0B5-4CE6-B96D-65766E2625DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1233" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1243" uniqueCount="276">
   <si>
     <t>username</t>
   </si>
@@ -62,18 +62,6 @@
     <t>1</t>
   </si>
   <si>
-    <t>IDType</t>
-  </si>
-  <si>
-    <t>IDNumber</t>
-  </si>
-  <si>
-    <t>CustomerType</t>
-  </si>
-  <si>
-    <t>FirstName</t>
-  </si>
-  <si>
     <t>SecondName</t>
   </si>
   <si>
@@ -506,9 +494,6 @@
     <t>red</t>
   </si>
   <si>
-    <t>Full</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -560,9 +545,6 @@
     <t>CR</t>
   </si>
   <si>
-    <t>companyName</t>
-  </si>
-  <si>
     <t>02</t>
   </si>
   <si>
@@ -651,12 +633,6 @@
   </si>
   <si>
     <t>engineNumber</t>
-  </si>
-  <si>
-    <t>username2</t>
-  </si>
-  <si>
-    <t>Password2</t>
   </si>
   <si>
     <t>infraadmin</t>
@@ -826,30 +802,12 @@
     <t>Lead_Creation_CR_flow_Teller</t>
   </si>
   <si>
-    <t>Prateek</t>
-  </si>
-  <si>
     <t>Lead_Creation_CR</t>
   </si>
   <si>
     <t>Lead_Creation_CPR_Teller</t>
   </si>
   <si>
-    <t>Lead_Creation_CPR</t>
-  </si>
-  <si>
-    <t>Ritlngs-3456</t>
-  </si>
-  <si>
-    <t>Ritlh</t>
-  </si>
-  <si>
-    <t>Frust</t>
-  </si>
-  <si>
-    <t>Frus-trus</t>
-  </si>
-  <si>
     <t>Kalpan</t>
   </si>
   <si>
@@ -865,35 +823,83 @@
     <t>1000</t>
   </si>
   <si>
-    <t>CPR303365</t>
-  </si>
-  <si>
     <t>85</t>
   </si>
   <si>
     <t>142</t>
   </si>
   <si>
-    <t>CPR301503</t>
-  </si>
-  <si>
     <t>primrySourseIncome</t>
   </si>
   <si>
-    <t>PRTHRec</t>
-  </si>
-  <si>
-    <t>TNDH-RYT</t>
-  </si>
-  <si>
-    <t>CPR305359</t>
+    <t>CPR311621</t>
+  </si>
+  <si>
+    <t>CPR303370</t>
+  </si>
+  <si>
+    <t>accountType</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>IRTSM</t>
+  </si>
+  <si>
+    <t>ITRISM-3456</t>
+  </si>
+  <si>
+    <t>FTT</t>
+  </si>
+  <si>
+    <t>FTTH-RYT</t>
+  </si>
+  <si>
+    <t>PERWRT</t>
+  </si>
+  <si>
+    <t>WEREPT-TRTST</t>
+  </si>
+  <si>
+    <t>Receipt_Master</t>
+  </si>
+  <si>
+    <t>bookSize</t>
+  </si>
+  <si>
+    <t>noOfBooks</t>
+  </si>
+  <si>
+    <t>startReceiptNo</t>
+  </si>
+  <si>
+    <t>bookPrefix</t>
+  </si>
+  <si>
+    <t>BK</t>
+  </si>
+  <si>
+    <t>receiptPrefix</t>
+  </si>
+  <si>
+    <t>RC</t>
+  </si>
+  <si>
+    <t>kiyaadmin</t>
+  </si>
+  <si>
+    <t>password1</t>
+  </si>
+  <si>
+    <t>password</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -926,6 +932,13 @@
       <color rgb="FF7A7E85"/>
       <name val="JetBrains Mono"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -998,9 +1011,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1025,11 +1035,33 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="154">
+  <dxfs count="155">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -3906,160 +3938,161 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DC87E5BE-26EC-4DBC-8565-103061C7F3D4}" name="Table2" displayName="Table2" ref="H1:FB9" totalsRowShown="0" headerRowDxfId="153" dataDxfId="151" headerRowBorderDxfId="152">
-  <autoFilter ref="H1:FB9" xr:uid="{DC87E5BE-26EC-4DBC-8565-103061C7F3D4}"/>
-  <tableColumns count="151">
-    <tableColumn id="1" xr3:uid="{F63B5B5B-75EF-415D-9D47-65053D6DF43A}" name="IDNumber" dataDxfId="150"/>
-    <tableColumn id="2" xr3:uid="{00DFF19F-9E5D-44BD-B746-C5D10556D9C8}" name="CustomerType" dataDxfId="149"/>
-    <tableColumn id="4" xr3:uid="{16007208-EDF9-4E5D-AAA6-7F837DDD8C78}" name="FirstName" dataDxfId="148"/>
-    <tableColumn id="5" xr3:uid="{EBB0D839-0B51-4805-BD0B-AAB83E639E7A}" name="SecondName" dataDxfId="147"/>
-    <tableColumn id="6" xr3:uid="{07BF2CBA-E818-4808-9F87-9C6E9B8E27EB}" name="FamilyName" dataDxfId="146"/>
-    <tableColumn id="7" xr3:uid="{2E161694-E056-49B2-B02C-18609B166288}" name="MobileNumber" dataDxfId="145"/>
-    <tableColumn id="8" xr3:uid="{833F8941-B4C0-4E9B-89CA-6ACBE1BBC919}" name="Product" dataDxfId="144"/>
-    <tableColumn id="9" xr3:uid="{6AB217CA-8575-47C6-8323-49DBB8179C87}" name="SubProduct" dataDxfId="143"/>
-    <tableColumn id="10" xr3:uid="{B427C861-36D2-4A49-8916-781C22F94FF4}" name="SchemeType" dataDxfId="142"/>
-    <tableColumn id="11" xr3:uid="{BC30846C-2EA9-4DD7-B7FD-8EFA2281FD70}" name="Branch" dataDxfId="141"/>
-    <tableColumn id="12" xr3:uid="{7521EBC7-8105-4B20-B089-0355970E2900}" name="addressType" dataDxfId="140"/>
-    <tableColumn id="13" xr3:uid="{A68B51A1-92D8-490D-8098-B759DD9581A1}" name="addressTypeValue" dataDxfId="139"/>
-    <tableColumn id="14" xr3:uid="{F19CF168-BC8D-46DE-ACA0-71EDB250DFFF}" name="activeInActive" dataDxfId="138"/>
-    <tableColumn id="3" xr3:uid="{CA80F8FF-FC63-4AD4-9D64-0F817F3CD198}" name="ApplicantType" dataDxfId="137"/>
-    <tableColumn id="15" xr3:uid="{A95550BC-D33C-4168-9C34-660D7631DE85}" name="email" dataDxfId="136"/>
-    <tableColumn id="16" xr3:uid="{3183446F-0B43-4115-A526-CA96A24A5A0C}" name="SourceOfIncome" dataDxfId="135"/>
-    <tableColumn id="17" xr3:uid="{1673EE05-9F0D-4EB3-B6D6-DC08105325A2}" name="Title" dataDxfId="134"/>
-    <tableColumn id="120" xr3:uid="{FDC531AF-46A0-4FCB-B25A-8E287A2C8C2E}" name="formOfOrganization" dataDxfId="133"/>
-    <tableColumn id="18" xr3:uid="{683CA39D-EC12-4489-A45A-69A9DEBD4155}" name="Nationality" dataDxfId="132"/>
-    <tableColumn id="20" xr3:uid="{BBFDDC0F-FDD1-46F8-B248-DF40C724613D}" name="countryOfJurisdiction" dataDxfId="131"/>
-    <tableColumn id="21" xr3:uid="{2983BFC1-1906-4319-9DF0-B77011DD7DEA}" name="EducationLevel" dataDxfId="130"/>
-    <tableColumn id="22" xr3:uid="{986D7F90-6FF6-41A5-A619-2D271BE00764}" name="DateOfBirth" dataDxfId="129"/>
-    <tableColumn id="23" xr3:uid="{8EF037E0-977A-443D-A870-A027ABFB319E}" name="MaritalStatus" dataDxfId="128"/>
-    <tableColumn id="24" xr3:uid="{A2FF1F1E-5655-44BF-886D-A1CDF65B5A95}" name="NoOfDependents" dataDxfId="127"/>
-    <tableColumn id="25" xr3:uid="{56E2E3BE-8A9C-4AE9-94D4-966966AE8106}" name="ReturnedCheques" dataDxfId="126"/>
-    <tableColumn id="26" xr3:uid="{E193FD7F-57D4-4112-85E2-6D86AEEE2D77}" name="ChequeAbuserList" dataDxfId="125"/>
-    <tableColumn id="27" xr3:uid="{15E73E8B-3789-4FC5-959A-FEB1D9247868}" name="PropertyOwnership" dataDxfId="124"/>
-    <tableColumn id="28" xr3:uid="{6B956D5B-906C-4326-8C82-4DA36E1F5615}" name="addressLine1" dataDxfId="123"/>
-    <tableColumn id="34" xr3:uid="{007FE1DB-033B-4516-B370-A1624B351561}" name="building" dataDxfId="122"/>
-    <tableColumn id="29" xr3:uid="{2E8258A9-21F2-49E6-A32C-A2461F6F0D34}" name="flat" dataDxfId="121"/>
-    <tableColumn id="30" xr3:uid="{4B02ADB7-BF07-4814-B8AA-5139B871F77F}" name="avenue" dataDxfId="120"/>
-    <tableColumn id="31" xr3:uid="{3FDD9253-AB6B-4FD1-876D-578DA73C5B56}" name="Block" dataDxfId="119"/>
-    <tableColumn id="32" xr3:uid="{BA71D7A1-AD3D-40A5-ADFB-7F9EBCE6C2C6}" name="Country" dataDxfId="118"/>
-    <tableColumn id="33" xr3:uid="{6515130A-EC40-4F7C-AA54-1ADD52D50D5E}" name="City_Area" dataDxfId="117"/>
-    <tableColumn id="19" xr3:uid="{4D649DD4-69B1-40FF-8591-BC8ABD1B6012}" name="issueDate" dataDxfId="116"/>
-    <tableColumn id="35" xr3:uid="{A40DD074-5F3C-4816-B828-7A321AE246E1}" name="expiryDate" dataDxfId="115"/>
-    <tableColumn id="36" xr3:uid="{34620B96-0561-451C-9DBE-C0899F72320A}" name="renewalUnderProcess" dataDxfId="114"/>
-    <tableColumn id="37" xr3:uid="{0004759E-F0AA-489E-B041-D0E052AC9809}" name="natureOfEmplmt" dataDxfId="113"/>
-    <tableColumn id="38" xr3:uid="{E4D18649-8838-4E63-9E4B-3E22C3502670}" name="incomeType" dataDxfId="112"/>
-    <tableColumn id="39" xr3:uid="{B0BEE11D-04F9-4615-B858-E88D7F4B2BFF}" name="incomeAmt_txt" dataDxfId="111"/>
-    <tableColumn id="40" xr3:uid="{5F7661EC-8CA9-43FD-A1F8-605F258C9D1E}" name="bankName" dataDxfId="110"/>
-    <tableColumn id="41" xr3:uid="{03FF8983-E488-4619-B7EF-DAB89F5EAC3B}" name="accountNumber" dataDxfId="109"/>
-    <tableColumn id="42" xr3:uid="{D7557DBA-7BF9-4B6B-A993-A719B1AC1F05}" name="ibanNumber" dataDxfId="108"/>
-    <tableColumn id="43" xr3:uid="{B3FE0B56-7A31-4A0C-999F-A057737C3647}" name="CustomerTypeContactDetails" dataDxfId="107"/>
-    <tableColumn id="119" xr3:uid="{2BD3DD66-4663-429F-9EC2-7138114471C6}" name="relationName" dataDxfId="106"/>
-    <tableColumn id="118" xr3:uid="{85144347-A603-4B4C-9421-95BF2817AAD7}" name="relationWithCust" dataDxfId="105"/>
-    <tableColumn id="44" xr3:uid="{B03A64D4-2EB9-4ACE-B800-7091881934FE}" name="ContactType" dataDxfId="104"/>
-    <tableColumn id="45" xr3:uid="{E46BDB05-540A-4D5A-BE38-BB45035A1FBB}" name="Contact_status" dataDxfId="103"/>
-    <tableColumn id="46" xr3:uid="{071B7EAD-4786-4BF6-BD57-7F551BF1BFF0}" name="regWithNfh" dataDxfId="102"/>
-    <tableColumn id="47" xr3:uid="{0644A39D-5B5B-4DA9-B33F-8CBB659FE512}" name="vehPurchaseType" dataDxfId="101"/>
-    <tableColumn id="48" xr3:uid="{9C326EAF-77E1-4045-9042-56296390DA47}" name="hirePurchase" dataDxfId="100"/>
-    <tableColumn id="49" xr3:uid="{75DAB3C7-BB41-48FA-8B60-DFEFC5164F57}" name="isApplicantOwner" dataDxfId="99"/>
-    <tableColumn id="50" xr3:uid="{64AC5C43-9B94-4815-A277-3DA2D5E3A538}" name="isPrimrySecurity" dataDxfId="98"/>
-    <tableColumn id="51" xr3:uid="{7AB4CB89-CBF0-402F-91AD-AA45FC029539}" name="vehDealer" dataDxfId="97"/>
-    <tableColumn id="52" xr3:uid="{928B80BD-B376-4005-B7A0-34DA4C9FD1E3}" name="dealerSaleman" dataDxfId="96"/>
-    <tableColumn id="53" xr3:uid="{2FEEB584-A7ED-4E3A-9B89-1F6B6A099671}" name="vehCat" dataDxfId="95"/>
-    <tableColumn id="54" xr3:uid="{1DA9CDDC-77D9-44B6-8642-62F09DC56422}" name="vehMaker" dataDxfId="94"/>
-    <tableColumn id="55" xr3:uid="{C33B6678-1BA4-42C5-A240-E86E78B157C3}" name="vehModel" dataDxfId="93"/>
-    <tableColumn id="56" xr3:uid="{172E096F-A9A2-4CF3-9AFB-3424C30B1FA3}" name="vehModelCat" dataDxfId="92"/>
-    <tableColumn id="57" xr3:uid="{04B0522D-440A-4682-B572-81E681286D08}" name="manufactureCountry" dataDxfId="91"/>
-    <tableColumn id="58" xr3:uid="{63DF28F3-0DCF-4466-95D9-A7B8679C5338}" name="colour" dataDxfId="90"/>
-    <tableColumn id="59" xr3:uid="{BF43045B-8357-47B4-A489-C10F4CCDD4F1}" name="manufactureYear" dataDxfId="89"/>
-    <tableColumn id="60" xr3:uid="{30FD714C-FBFB-4619-A366-3FF395E7E139}" name="vehiclePrice_txt" dataDxfId="88"/>
-    <tableColumn id="61" xr3:uid="{94D38C5A-700A-4528-A837-90C836489E4E}" name="downPaymentPer_txt" dataDxfId="87"/>
-    <tableColumn id="62" xr3:uid="{3A681706-B2D4-49F3-88FA-97277F708246}" name="initialPaymt_txt" dataDxfId="86"/>
-    <tableColumn id="63" xr3:uid="{ACDE4A0C-A6B2-4D87-83BE-9DBEAF3B7EA8}" name="actVehiclePrice_txt" dataDxfId="85"/>
-    <tableColumn id="64" xr3:uid="{BC736CC7-6CAD-44C2-9288-91971876FC45}" name="adminCharge_txt" dataDxfId="84"/>
-    <tableColumn id="65" xr3:uid="{B7631C2C-9A9D-4C40-B97F-7A2548260750}" name="adminVat" dataDxfId="83"/>
-    <tableColumn id="66" xr3:uid="{59A7C662-7F28-4D63-9CB6-7FD71F70741D}" name="adminChagreWithVat_txt" dataDxfId="82"/>
-    <tableColumn id="67" xr3:uid="{0ACE22C9-BFA2-4413-BBC2-1C9F29D7F032}" name="modeOfPayment" dataDxfId="81"/>
-    <tableColumn id="68" xr3:uid="{956718A3-3DA9-432A-BE21-F4EE365D521C}" name="isInsuredWithNFH" dataDxfId="80"/>
-    <tableColumn id="69" xr3:uid="{D092F385-0749-4926-B32F-E4A40D97672E}" name="collateralType" dataDxfId="79"/>
-    <tableColumn id="70" xr3:uid="{D5D19B86-E695-4C1D-913A-FB6343AB534D}" name="collateralSubType" dataDxfId="78"/>
-    <tableColumn id="71" xr3:uid="{B312C1AB-E7B8-4367-B805-A99B729A14A3}" name="valuatorName" dataDxfId="77"/>
-    <tableColumn id="72" xr3:uid="{B7AB646A-EBBB-4EB0-9FB0-DBE43DFFE330}" name="otherValuatorName" dataDxfId="76"/>
-    <tableColumn id="73" xr3:uid="{B1FD4261-2181-4B55-AAE3-6162C625B56D}" name="estimatedValuationAmt_txt" dataDxfId="75"/>
-    <tableColumn id="74" xr3:uid="{A4741736-F379-42DF-88F8-841355249EDB}" name="finalValuationAmt_txt" dataDxfId="74"/>
-    <tableColumn id="75" xr3:uid="{6E8AD8AE-62CE-461D-8748-9D387CCD70C5}" name="valuationDate" dataDxfId="73"/>
-    <tableColumn id="76" xr3:uid="{02F21512-03F4-4059-9E30-C15516314CFE}" name="chassisNo" dataDxfId="72"/>
-    <tableColumn id="77" xr3:uid="{F95CBF5D-6BD7-4C3E-BA44-86E0AA0CA475}" name="registrationNo" dataDxfId="71"/>
-    <tableColumn id="78" xr3:uid="{FE95FBFA-6AF8-4E65-A8BA-C8E4667D1A10}" name="engineCapacity" dataDxfId="70"/>
-    <tableColumn id="79" xr3:uid="{F1EAECC0-75AD-4DC4-8BEB-50764716FB73}" name="mileage" dataDxfId="69"/>
-    <tableColumn id="80" xr3:uid="{E9D66C2D-3BA7-47AC-8384-C167FF40306D}" name="cylinder" dataDxfId="68"/>
-    <tableColumn id="81" xr3:uid="{AD1FB051-1EEC-4374-AAA5-6B620D830FC4}" name="color" dataDxfId="67"/>
-    <tableColumn id="82" xr3:uid="{ADBB0DF3-84AD-4DAD-9B54-54807BB109BD}" name="insuranceType" dataDxfId="66"/>
-    <tableColumn id="83" xr3:uid="{DE41EEFF-2AF2-40DF-9D1C-CD072BCFB90F}" name="vehicleCondition" dataDxfId="65"/>
-    <tableColumn id="84" xr3:uid="{360A06CC-896F-472C-9184-B6485DBC2E24}" name="exteriorCondition" dataDxfId="64"/>
-    <tableColumn id="85" xr3:uid="{23C4EA02-9853-4B40-841E-D83818C82CED}" name="interiorCondition" dataDxfId="63"/>
-    <tableColumn id="86" xr3:uid="{426BC3BF-2900-43DF-B907-B998AB4A3FD6}" name="tyreCondition" dataDxfId="62"/>
-    <tableColumn id="87" xr3:uid="{59D4C78D-3A01-431B-A37F-0CAC4F8060C4}" name="engineCondition" dataDxfId="61"/>
-    <tableColumn id="88" xr3:uid="{ED1EF02C-D7E6-4C80-B7C3-EB885A408873}" name="gearBox" dataDxfId="60"/>
-    <tableColumn id="89" xr3:uid="{BB055320-D9AB-427B-B07C-C8889F1892B4}" name="suspension" dataDxfId="59"/>
-    <tableColumn id="90" xr3:uid="{7258326E-3F04-4976-8492-3603BA97D071}" name="interiorType" dataDxfId="58"/>
-    <tableColumn id="91" xr3:uid="{825B14FD-9CB2-4A4F-ADBD-5347B46D09CE}" name="manufactureWarranty" dataDxfId="57"/>
-    <tableColumn id="92" xr3:uid="{1B61C1D4-8E64-4A15-826A-E0137CB82D83}" name="warrntyYearRemaining" dataDxfId="56"/>
-    <tableColumn id="93" xr3:uid="{FDEC472D-97B5-4015-A7ED-2E1067730E27}" name="alloyWheels" dataDxfId="55"/>
-    <tableColumn id="94" xr3:uid="{74CDD0FF-484D-4DF3-BAF8-C8155EBF3011}" name="spareTyre" dataDxfId="54"/>
-    <tableColumn id="95" xr3:uid="{1CD9662A-8FB1-4C94-8C23-910A64FC9408}" name="jack" dataDxfId="53"/>
-    <tableColumn id="96" xr3:uid="{205059EB-0A88-4AB1-A579-072E85685FD1}" name="tool" dataDxfId="52"/>
-    <tableColumn id="97" xr3:uid="{47D70AEF-55CB-46E7-BEE9-A8B376ABB00A}" name="wheelCaps" dataDxfId="51"/>
-    <tableColumn id="98" xr3:uid="{4D1B9B90-6C91-4149-A427-2E573E0BE8F6}" name="floorrMats" dataDxfId="50"/>
-    <tableColumn id="99" xr3:uid="{8E0EFE84-2194-4F00-B7ED-0A22A736FE5C}" name="fireExtinguisher" dataDxfId="49"/>
-    <tableColumn id="100" xr3:uid="{8B56A608-68C9-493E-8B91-B69CF9D944BA}" name="firstAidKit" dataDxfId="48"/>
-    <tableColumn id="101" xr3:uid="{04D0114D-113B-4E4A-8945-03FB77E918E2}" name="spareKey" dataDxfId="47"/>
-    <tableColumn id="102" xr3:uid="{8EEABA6B-CD4A-41C1-AD23-3A060938FBBC}" name="radio" dataDxfId="46"/>
-    <tableColumn id="103" xr3:uid="{A476DA46-F896-41C2-B730-05A8EE8BBA0D}" name="sunRoof" dataDxfId="45"/>
-    <tableColumn id="104" xr3:uid="{40837055-ACB4-48AC-95F5-CA8E7893C55E}" name="electricWindow" dataDxfId="44"/>
-    <tableColumn id="105" xr3:uid="{606CCFC8-FBA6-4AB7-AE7B-37007236EDE6}" name="satelliteNavigation" dataDxfId="43"/>
-    <tableColumn id="106" xr3:uid="{4E3BA4DC-9193-4F34-8496-65AEE6B82737}" name="dvd" dataDxfId="42"/>
-    <tableColumn id="107" xr3:uid="{9DB233D0-755F-4162-A8E8-ABEAC6C5B3A5}" name="screen" dataDxfId="41"/>
-    <tableColumn id="108" xr3:uid="{30040546-46FE-4FA1-959E-C453DBF0BFD5}" name="airConditioner" dataDxfId="40"/>
-    <tableColumn id="109" xr3:uid="{C8813AC5-5CF8-4370-82DC-565FC005E836}" name="battery" dataDxfId="39"/>
-    <tableColumn id="110" xr3:uid="{34614546-004C-4454-8912-15181BD4ECD8}" name="remarks" dataDxfId="38"/>
-    <tableColumn id="111" xr3:uid="{54D5F79C-FEFE-4EBE-8DB3-8F37E93E43C6}" name="firstEmiDate" dataDxfId="37"/>
-    <tableColumn id="112" xr3:uid="{1848B67E-9391-4333-BD03-D9AA7D3F2B8E}" name="requiredTenure" dataDxfId="36"/>
-    <tableColumn id="113" xr3:uid="{A2F17A4A-AB2B-420C-908D-1A998ECFAA99}" name="vatPaymentMode" dataDxfId="35"/>
-    <tableColumn id="114" xr3:uid="{342CF2C2-2827-4FFE-BFA7-AE764B29441C}" name="repaymentMode" dataDxfId="34"/>
-    <tableColumn id="115" xr3:uid="{B95FCC17-EBCC-47E0-98A5-18FE8FF57B9B}" name="isDefault" dataDxfId="33"/>
-    <tableColumn id="116" xr3:uid="{C4672D46-75C5-45D3-AF43-F9E52B1EA9E8}" name="docGrp" dataDxfId="32"/>
-    <tableColumn id="121" xr3:uid="{484C9E84-C658-4E12-AEB1-760D0E3C79F2}" name="registrationDate" dataDxfId="31"/>
-    <tableColumn id="117" xr3:uid="{8DB8BF92-2E3A-49A3-ADC8-23C055D38F41}" name="docType" dataDxfId="30"/>
-    <tableColumn id="122" xr3:uid="{07BB487A-B6A9-42DD-9ADA-E7F926155EDE}" name="expirationDate" dataDxfId="29"/>
-    <tableColumn id="123" xr3:uid="{109789D0-506D-47DA-A49A-7840BFAEFAB5}" name="placeOfEstablishment" dataDxfId="28"/>
-    <tableColumn id="124" xr3:uid="{DC239F99-E54E-4DB6-B9A3-5AC5D3176B08}" name="purposeCode" dataDxfId="27"/>
-    <tableColumn id="125" xr3:uid="{1DF4975D-740D-43AB-911C-FF1F4C635DB4}" name="crStatus" dataDxfId="26"/>
-    <tableColumn id="126" xr3:uid="{6FCB0C9B-A814-46F2-9D26-4887205F96B6}" name="autoBlacklisted" dataDxfId="25"/>
-    <tableColumn id="127" xr3:uid="{C974E4D7-EC11-4ED6-8BC0-355123A46A06}" name="unListValidated" dataDxfId="24"/>
-    <tableColumn id="128" xr3:uid="{3259DC83-3908-4D62-B105-69A90964B584}" name="returnedCheques2" dataDxfId="23"/>
-    <tableColumn id="129" xr3:uid="{57B5A4CC-9DF0-45B1-B159-6B17E5474F0F}" name="chequeAbuserList2" dataDxfId="22"/>
-    <tableColumn id="130" xr3:uid="{3EABEFDD-34C6-423C-AADC-C8ADBE9CF08B}" name="totCreditTurnOver" dataDxfId="21"/>
-    <tableColumn id="131" xr3:uid="{2A8125DB-0727-4E10-85B3-B61C752C2550}" name="noOfMonths" dataDxfId="20"/>
-    <tableColumn id="132" xr3:uid="{3305ACE0-5952-4227-967D-D64A9154ABB2}" name="avgCreditTurnoverPerc" dataDxfId="19"/>
-    <tableColumn id="133" xr3:uid="{F19797E2-CE51-436D-A775-E6D05BDF4B4F}" name="bankNameBusiness" dataDxfId="18"/>
-    <tableColumn id="134" xr3:uid="{F6C479B5-7401-469A-AB85-BF2888742D3E}" name="remark" dataDxfId="17"/>
-    <tableColumn id="135" xr3:uid="{EBBA0D17-56A1-44F7-9143-0DF66E09484A}" name="chasisNumber" dataDxfId="16"/>
-    <tableColumn id="136" xr3:uid="{574E9957-985F-4ED0-BB11-9D6A9905B156}" name="engineNumber" dataDxfId="15"/>
-    <tableColumn id="137" xr3:uid="{FE15058E-BC39-4958-81B8-4BA5335639B4}" name="servReqDate" dataDxfId="14"/>
-    <tableColumn id="138" xr3:uid="{78CA1DA9-FDA0-4A64-A35F-17D344404278}" name="srcOfPayment" dataDxfId="13"/>
-    <tableColumn id="139" xr3:uid="{2609A799-B1A4-4E5C-A3C3-2D2CC31698F0}" name="custFirstName" dataDxfId="12"/>
-    <tableColumn id="140" xr3:uid="{A793CC16-2518-4F0A-8F45-283202D247D9}" name="PanelWattage" dataDxfId="11"/>
-    <tableColumn id="141" xr3:uid="{BA87B0AF-AFAE-475E-8C5C-C2AB6EB19E78}" name="InverterType" dataDxfId="10"/>
-    <tableColumn id="142" xr3:uid="{D9221ECE-40E2-454D-A6AF-650371A2E5B3}" name="InverterMake" dataDxfId="9"/>
-    <tableColumn id="143" xr3:uid="{02685692-7861-4BA3-B621-FA30598A0CA1}" name="InverterSize" dataDxfId="8"/>
-    <tableColumn id="144" xr3:uid="{3F543D1A-FE59-4D7E-89AB-19E8B47F772A}" name="soleqiLtv" dataDxfId="7"/>
-    <tableColumn id="145" xr3:uid="{DB61FEFA-F07C-485E-AD74-4473D57BF43B}" name="soleqiSeriolNumber" dataDxfId="6"/>
-    <tableColumn id="146" xr3:uid="{D739C869-7247-46E6-8A6C-58B06D86CE2D}" name="nhraNumber" dataDxfId="5"/>
-    <tableColumn id="147" xr3:uid="{A3063C25-7882-42C4-87B9-39ECDEB5EC5F}" name="medeqiPowerConsumption" dataDxfId="4"/>
-    <tableColumn id="148" xr3:uid="{2D9F505B-3293-4666-8C72-B1AAFC1D3A00}" name="medeqiDimension" dataDxfId="3"/>
-    <tableColumn id="149" xr3:uid="{3B1D236F-EDD7-4ED0-A41C-B16D2049B25E}" name="medeqiWeight" dataDxfId="2"/>
-    <tableColumn id="150" xr3:uid="{D0285AC4-9FC3-493B-B779-60302F62AD94}" name="lifeInsuranceAmt_txt" dataDxfId="1"/>
-    <tableColumn id="151" xr3:uid="{32F14FDF-8D17-433D-A578-5A434E256A6F}" name="primrySourseIncome" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DC87E5BE-26EC-4DBC-8565-103061C7F3D4}" name="Table2" displayName="Table2" ref="H1:FC9" totalsRowShown="0" headerRowDxfId="154" dataDxfId="152" headerRowBorderDxfId="153">
+  <autoFilter ref="H1:FC9" xr:uid="{DC87E5BE-26EC-4DBC-8565-103061C7F3D4}"/>
+  <tableColumns count="152">
+    <tableColumn id="1" xr3:uid="{F63B5B5B-75EF-415D-9D47-65053D6DF43A}" name="startReceiptNo" dataDxfId="151"/>
+    <tableColumn id="2" xr3:uid="{00DFF19F-9E5D-44BD-B746-C5D10556D9C8}" name="bookPrefix" dataDxfId="150"/>
+    <tableColumn id="4" xr3:uid="{16007208-EDF9-4E5D-AAA6-7F837DDD8C78}" name="receiptPrefix" dataDxfId="149"/>
+    <tableColumn id="5" xr3:uid="{EBB0D839-0B51-4805-BD0B-AAB83E639E7A}" name="SecondName" dataDxfId="148"/>
+    <tableColumn id="6" xr3:uid="{07BF2CBA-E818-4808-9F87-9C6E9B8E27EB}" name="FamilyName" dataDxfId="147"/>
+    <tableColumn id="7" xr3:uid="{2E161694-E056-49B2-B02C-18609B166288}" name="MobileNumber" dataDxfId="146"/>
+    <tableColumn id="8" xr3:uid="{833F8941-B4C0-4E9B-89CA-6ACBE1BBC919}" name="Product" dataDxfId="145"/>
+    <tableColumn id="9" xr3:uid="{6AB217CA-8575-47C6-8323-49DBB8179C87}" name="SubProduct" dataDxfId="144"/>
+    <tableColumn id="10" xr3:uid="{B427C861-36D2-4A49-8916-781C22F94FF4}" name="SchemeType" dataDxfId="143"/>
+    <tableColumn id="11" xr3:uid="{BC30846C-2EA9-4DD7-B7FD-8EFA2281FD70}" name="Branch" dataDxfId="142"/>
+    <tableColumn id="12" xr3:uid="{7521EBC7-8105-4B20-B089-0355970E2900}" name="addressType" dataDxfId="141"/>
+    <tableColumn id="13" xr3:uid="{A68B51A1-92D8-490D-8098-B759DD9581A1}" name="addressTypeValue" dataDxfId="140"/>
+    <tableColumn id="14" xr3:uid="{F19CF168-BC8D-46DE-ACA0-71EDB250DFFF}" name="activeInActive" dataDxfId="139"/>
+    <tableColumn id="3" xr3:uid="{CA80F8FF-FC63-4AD4-9D64-0F817F3CD198}" name="ApplicantType" dataDxfId="138"/>
+    <tableColumn id="15" xr3:uid="{A95550BC-D33C-4168-9C34-660D7631DE85}" name="email" dataDxfId="137"/>
+    <tableColumn id="16" xr3:uid="{3183446F-0B43-4115-A526-CA96A24A5A0C}" name="SourceOfIncome" dataDxfId="136"/>
+    <tableColumn id="17" xr3:uid="{1673EE05-9F0D-4EB3-B6D6-DC08105325A2}" name="Title" dataDxfId="135"/>
+    <tableColumn id="120" xr3:uid="{FDC531AF-46A0-4FCB-B25A-8E287A2C8C2E}" name="formOfOrganization" dataDxfId="134"/>
+    <tableColumn id="18" xr3:uid="{683CA39D-EC12-4489-A45A-69A9DEBD4155}" name="Nationality" dataDxfId="133"/>
+    <tableColumn id="20" xr3:uid="{BBFDDC0F-FDD1-46F8-B248-DF40C724613D}" name="countryOfJurisdiction" dataDxfId="132"/>
+    <tableColumn id="21" xr3:uid="{2983BFC1-1906-4319-9DF0-B77011DD7DEA}" name="EducationLevel" dataDxfId="131"/>
+    <tableColumn id="22" xr3:uid="{986D7F90-6FF6-41A5-A619-2D271BE00764}" name="DateOfBirth" dataDxfId="130"/>
+    <tableColumn id="23" xr3:uid="{8EF037E0-977A-443D-A870-A027ABFB319E}" name="MaritalStatus" dataDxfId="129"/>
+    <tableColumn id="24" xr3:uid="{A2FF1F1E-5655-44BF-886D-A1CDF65B5A95}" name="NoOfDependents" dataDxfId="128"/>
+    <tableColumn id="25" xr3:uid="{56E2E3BE-8A9C-4AE9-94D4-966966AE8106}" name="ReturnedCheques" dataDxfId="127"/>
+    <tableColumn id="26" xr3:uid="{E193FD7F-57D4-4112-85E2-6D86AEEE2D77}" name="ChequeAbuserList" dataDxfId="126"/>
+    <tableColumn id="27" xr3:uid="{15E73E8B-3789-4FC5-959A-FEB1D9247868}" name="PropertyOwnership" dataDxfId="125"/>
+    <tableColumn id="28" xr3:uid="{6B956D5B-906C-4326-8C82-4DA36E1F5615}" name="addressLine1" dataDxfId="124"/>
+    <tableColumn id="34" xr3:uid="{007FE1DB-033B-4516-B370-A1624B351561}" name="building" dataDxfId="123"/>
+    <tableColumn id="29" xr3:uid="{2E8258A9-21F2-49E6-A32C-A2461F6F0D34}" name="flat" dataDxfId="122"/>
+    <tableColumn id="30" xr3:uid="{4B02ADB7-BF07-4814-B8AA-5139B871F77F}" name="avenue" dataDxfId="121"/>
+    <tableColumn id="31" xr3:uid="{3FDD9253-AB6B-4FD1-876D-578DA73C5B56}" name="Block" dataDxfId="120"/>
+    <tableColumn id="32" xr3:uid="{BA71D7A1-AD3D-40A5-ADFB-7F9EBCE6C2C6}" name="Country" dataDxfId="119"/>
+    <tableColumn id="33" xr3:uid="{6515130A-EC40-4F7C-AA54-1ADD52D50D5E}" name="City_Area" dataDxfId="118"/>
+    <tableColumn id="19" xr3:uid="{4D649DD4-69B1-40FF-8591-BC8ABD1B6012}" name="issueDate" dataDxfId="117"/>
+    <tableColumn id="35" xr3:uid="{A40DD074-5F3C-4816-B828-7A321AE246E1}" name="expiryDate" dataDxfId="116"/>
+    <tableColumn id="36" xr3:uid="{34620B96-0561-451C-9DBE-C0899F72320A}" name="renewalUnderProcess" dataDxfId="115"/>
+    <tableColumn id="37" xr3:uid="{0004759E-F0AA-489E-B041-D0E052AC9809}" name="natureOfEmplmt" dataDxfId="114"/>
+    <tableColumn id="38" xr3:uid="{E4D18649-8838-4E63-9E4B-3E22C3502670}" name="incomeType" dataDxfId="113"/>
+    <tableColumn id="39" xr3:uid="{B0BEE11D-04F9-4615-B858-E88D7F4B2BFF}" name="incomeAmt_txt" dataDxfId="112"/>
+    <tableColumn id="40" xr3:uid="{5F7661EC-8CA9-43FD-A1F8-605F258C9D1E}" name="bankName" dataDxfId="111"/>
+    <tableColumn id="41" xr3:uid="{03FF8983-E488-4619-B7EF-DAB89F5EAC3B}" name="accountNumber" dataDxfId="110"/>
+    <tableColumn id="42" xr3:uid="{D7557DBA-7BF9-4B6B-A993-A719B1AC1F05}" name="ibanNumber" dataDxfId="109"/>
+    <tableColumn id="43" xr3:uid="{B3FE0B56-7A31-4A0C-999F-A057737C3647}" name="CustomerTypeContactDetails" dataDxfId="108"/>
+    <tableColumn id="119" xr3:uid="{2BD3DD66-4663-429F-9EC2-7138114471C6}" name="relationName" dataDxfId="107"/>
+    <tableColumn id="118" xr3:uid="{85144347-A603-4B4C-9421-95BF2817AAD7}" name="relationWithCust" dataDxfId="106"/>
+    <tableColumn id="44" xr3:uid="{B03A64D4-2EB9-4ACE-B800-7091881934FE}" name="ContactType" dataDxfId="105"/>
+    <tableColumn id="45" xr3:uid="{E46BDB05-540A-4D5A-BE38-BB45035A1FBB}" name="Contact_status" dataDxfId="104"/>
+    <tableColumn id="46" xr3:uid="{071B7EAD-4786-4BF6-BD57-7F551BF1BFF0}" name="regWithNfh" dataDxfId="103"/>
+    <tableColumn id="47" xr3:uid="{0644A39D-5B5B-4DA9-B33F-8CBB659FE512}" name="vehPurchaseType" dataDxfId="102"/>
+    <tableColumn id="48" xr3:uid="{9C326EAF-77E1-4045-9042-56296390DA47}" name="hirePurchase" dataDxfId="101"/>
+    <tableColumn id="49" xr3:uid="{75DAB3C7-BB41-48FA-8B60-DFEFC5164F57}" name="isApplicantOwner" dataDxfId="100"/>
+    <tableColumn id="50" xr3:uid="{64AC5C43-9B94-4815-A277-3DA2D5E3A538}" name="isPrimrySecurity" dataDxfId="99"/>
+    <tableColumn id="51" xr3:uid="{7AB4CB89-CBF0-402F-91AD-AA45FC029539}" name="vehDealer" dataDxfId="98"/>
+    <tableColumn id="52" xr3:uid="{928B80BD-B376-4005-B7A0-34DA4C9FD1E3}" name="dealerSaleman" dataDxfId="97"/>
+    <tableColumn id="53" xr3:uid="{2FEEB584-A7ED-4E3A-9B89-1F6B6A099671}" name="vehCat" dataDxfId="96"/>
+    <tableColumn id="54" xr3:uid="{1DA9CDDC-77D9-44B6-8642-62F09DC56422}" name="vehMaker" dataDxfId="95"/>
+    <tableColumn id="55" xr3:uid="{C33B6678-1BA4-42C5-A240-E86E78B157C3}" name="vehModel" dataDxfId="94"/>
+    <tableColumn id="56" xr3:uid="{172E096F-A9A2-4CF3-9AFB-3424C30B1FA3}" name="vehModelCat" dataDxfId="93"/>
+    <tableColumn id="57" xr3:uid="{04B0522D-440A-4682-B572-81E681286D08}" name="manufactureCountry" dataDxfId="92"/>
+    <tableColumn id="58" xr3:uid="{63DF28F3-0DCF-4466-95D9-A7B8679C5338}" name="colour" dataDxfId="91"/>
+    <tableColumn id="59" xr3:uid="{BF43045B-8357-47B4-A489-C10F4CCDD4F1}" name="manufactureYear" dataDxfId="90"/>
+    <tableColumn id="60" xr3:uid="{30FD714C-FBFB-4619-A366-3FF395E7E139}" name="vehiclePrice_txt" dataDxfId="89"/>
+    <tableColumn id="61" xr3:uid="{94D38C5A-700A-4528-A837-90C836489E4E}" name="downPaymentPer_txt" dataDxfId="88"/>
+    <tableColumn id="62" xr3:uid="{3A681706-B2D4-49F3-88FA-97277F708246}" name="initialPaymt_txt" dataDxfId="87"/>
+    <tableColumn id="63" xr3:uid="{ACDE4A0C-A6B2-4D87-83BE-9DBEAF3B7EA8}" name="actVehiclePrice_txt" dataDxfId="86"/>
+    <tableColumn id="64" xr3:uid="{BC736CC7-6CAD-44C2-9288-91971876FC45}" name="adminCharge_txt" dataDxfId="85"/>
+    <tableColumn id="65" xr3:uid="{B7631C2C-9A9D-4C40-B97F-7A2548260750}" name="adminVat" dataDxfId="84"/>
+    <tableColumn id="66" xr3:uid="{59A7C662-7F28-4D63-9CB6-7FD71F70741D}" name="adminChagreWithVat_txt" dataDxfId="83"/>
+    <tableColumn id="67" xr3:uid="{0ACE22C9-BFA2-4413-BBC2-1C9F29D7F032}" name="modeOfPayment" dataDxfId="82"/>
+    <tableColumn id="68" xr3:uid="{956718A3-3DA9-432A-BE21-F4EE365D521C}" name="isInsuredWithNFH" dataDxfId="81"/>
+    <tableColumn id="69" xr3:uid="{D092F385-0749-4926-B32F-E4A40D97672E}" name="collateralType" dataDxfId="80"/>
+    <tableColumn id="70" xr3:uid="{D5D19B86-E695-4C1D-913A-FB6343AB534D}" name="collateralSubType" dataDxfId="79"/>
+    <tableColumn id="71" xr3:uid="{B312C1AB-E7B8-4367-B805-A99B729A14A3}" name="valuatorName" dataDxfId="78"/>
+    <tableColumn id="72" xr3:uid="{B7AB646A-EBBB-4EB0-9FB0-DBE43DFFE330}" name="otherValuatorName" dataDxfId="77"/>
+    <tableColumn id="73" xr3:uid="{B1FD4261-2181-4B55-AAE3-6162C625B56D}" name="estimatedValuationAmt_txt" dataDxfId="76"/>
+    <tableColumn id="74" xr3:uid="{A4741736-F379-42DF-88F8-841355249EDB}" name="finalValuationAmt_txt" dataDxfId="75"/>
+    <tableColumn id="75" xr3:uid="{6E8AD8AE-62CE-461D-8748-9D387CCD70C5}" name="valuationDate" dataDxfId="74"/>
+    <tableColumn id="76" xr3:uid="{02F21512-03F4-4059-9E30-C15516314CFE}" name="chassisNo" dataDxfId="73"/>
+    <tableColumn id="77" xr3:uid="{F95CBF5D-6BD7-4C3E-BA44-86E0AA0CA475}" name="registrationNo" dataDxfId="72"/>
+    <tableColumn id="78" xr3:uid="{FE95FBFA-6AF8-4E65-A8BA-C8E4667D1A10}" name="engineCapacity" dataDxfId="71"/>
+    <tableColumn id="79" xr3:uid="{F1EAECC0-75AD-4DC4-8BEB-50764716FB73}" name="mileage" dataDxfId="70"/>
+    <tableColumn id="80" xr3:uid="{E9D66C2D-3BA7-47AC-8384-C167FF40306D}" name="cylinder" dataDxfId="69"/>
+    <tableColumn id="81" xr3:uid="{AD1FB051-1EEC-4374-AAA5-6B620D830FC4}" name="color" dataDxfId="68"/>
+    <tableColumn id="82" xr3:uid="{ADBB0DF3-84AD-4DAD-9B54-54807BB109BD}" name="insuranceType" dataDxfId="67"/>
+    <tableColumn id="83" xr3:uid="{DE41EEFF-2AF2-40DF-9D1C-CD072BCFB90F}" name="vehicleCondition" dataDxfId="66"/>
+    <tableColumn id="84" xr3:uid="{360A06CC-896F-472C-9184-B6485DBC2E24}" name="exteriorCondition" dataDxfId="65"/>
+    <tableColumn id="85" xr3:uid="{23C4EA02-9853-4B40-841E-D83818C82CED}" name="interiorCondition" dataDxfId="64"/>
+    <tableColumn id="86" xr3:uid="{426BC3BF-2900-43DF-B907-B998AB4A3FD6}" name="tyreCondition" dataDxfId="63"/>
+    <tableColumn id="87" xr3:uid="{59D4C78D-3A01-431B-A37F-0CAC4F8060C4}" name="engineCondition" dataDxfId="62"/>
+    <tableColumn id="88" xr3:uid="{ED1EF02C-D7E6-4C80-B7C3-EB885A408873}" name="gearBox" dataDxfId="61"/>
+    <tableColumn id="89" xr3:uid="{BB055320-D9AB-427B-B07C-C8889F1892B4}" name="suspension" dataDxfId="60"/>
+    <tableColumn id="90" xr3:uid="{7258326E-3F04-4976-8492-3603BA97D071}" name="interiorType" dataDxfId="59"/>
+    <tableColumn id="91" xr3:uid="{825B14FD-9CB2-4A4F-ADBD-5347B46D09CE}" name="manufactureWarranty" dataDxfId="58"/>
+    <tableColumn id="92" xr3:uid="{1B61C1D4-8E64-4A15-826A-E0137CB82D83}" name="warrntyYearRemaining" dataDxfId="57"/>
+    <tableColumn id="93" xr3:uid="{FDEC472D-97B5-4015-A7ED-2E1067730E27}" name="alloyWheels" dataDxfId="56"/>
+    <tableColumn id="94" xr3:uid="{74CDD0FF-484D-4DF3-BAF8-C8155EBF3011}" name="spareTyre" dataDxfId="55"/>
+    <tableColumn id="95" xr3:uid="{1CD9662A-8FB1-4C94-8C23-910A64FC9408}" name="jack" dataDxfId="54"/>
+    <tableColumn id="96" xr3:uid="{205059EB-0A88-4AB1-A579-072E85685FD1}" name="tool" dataDxfId="53"/>
+    <tableColumn id="97" xr3:uid="{47D70AEF-55CB-46E7-BEE9-A8B376ABB00A}" name="wheelCaps" dataDxfId="52"/>
+    <tableColumn id="98" xr3:uid="{4D1B9B90-6C91-4149-A427-2E573E0BE8F6}" name="floorrMats" dataDxfId="51"/>
+    <tableColumn id="99" xr3:uid="{8E0EFE84-2194-4F00-B7ED-0A22A736FE5C}" name="fireExtinguisher" dataDxfId="50"/>
+    <tableColumn id="100" xr3:uid="{8B56A608-68C9-493E-8B91-B69CF9D944BA}" name="firstAidKit" dataDxfId="49"/>
+    <tableColumn id="101" xr3:uid="{04D0114D-113B-4E4A-8945-03FB77E918E2}" name="spareKey" dataDxfId="48"/>
+    <tableColumn id="102" xr3:uid="{8EEABA6B-CD4A-41C1-AD23-3A060938FBBC}" name="radio" dataDxfId="47"/>
+    <tableColumn id="103" xr3:uid="{A476DA46-F896-41C2-B730-05A8EE8BBA0D}" name="sunRoof" dataDxfId="46"/>
+    <tableColumn id="104" xr3:uid="{40837055-ACB4-48AC-95F5-CA8E7893C55E}" name="electricWindow" dataDxfId="45"/>
+    <tableColumn id="105" xr3:uid="{606CCFC8-FBA6-4AB7-AE7B-37007236EDE6}" name="satelliteNavigation" dataDxfId="44"/>
+    <tableColumn id="106" xr3:uid="{4E3BA4DC-9193-4F34-8496-65AEE6B82737}" name="dvd" dataDxfId="43"/>
+    <tableColumn id="107" xr3:uid="{9DB233D0-755F-4162-A8E8-ABEAC6C5B3A5}" name="screen" dataDxfId="42"/>
+    <tableColumn id="108" xr3:uid="{30040546-46FE-4FA1-959E-C453DBF0BFD5}" name="airConditioner" dataDxfId="41"/>
+    <tableColumn id="109" xr3:uid="{C8813AC5-5CF8-4370-82DC-565FC005E836}" name="battery" dataDxfId="40"/>
+    <tableColumn id="110" xr3:uid="{34614546-004C-4454-8912-15181BD4ECD8}" name="remarks" dataDxfId="39"/>
+    <tableColumn id="111" xr3:uid="{54D5F79C-FEFE-4EBE-8DB3-8F37E93E43C6}" name="firstEmiDate" dataDxfId="38"/>
+    <tableColumn id="112" xr3:uid="{1848B67E-9391-4333-BD03-D9AA7D3F2B8E}" name="requiredTenure" dataDxfId="37"/>
+    <tableColumn id="113" xr3:uid="{A2F17A4A-AB2B-420C-908D-1A998ECFAA99}" name="vatPaymentMode" dataDxfId="36"/>
+    <tableColumn id="114" xr3:uid="{342CF2C2-2827-4FFE-BFA7-AE764B29441C}" name="repaymentMode" dataDxfId="35"/>
+    <tableColumn id="115" xr3:uid="{B95FCC17-EBCC-47E0-98A5-18FE8FF57B9B}" name="isDefault" dataDxfId="34"/>
+    <tableColumn id="116" xr3:uid="{C4672D46-75C5-45D3-AF43-F9E52B1EA9E8}" name="docGrp" dataDxfId="33"/>
+    <tableColumn id="121" xr3:uid="{484C9E84-C658-4E12-AEB1-760D0E3C79F2}" name="registrationDate" dataDxfId="32"/>
+    <tableColumn id="117" xr3:uid="{8DB8BF92-2E3A-49A3-ADC8-23C055D38F41}" name="docType" dataDxfId="31"/>
+    <tableColumn id="122" xr3:uid="{07BB487A-B6A9-42DD-9ADA-E7F926155EDE}" name="expirationDate" dataDxfId="30"/>
+    <tableColumn id="123" xr3:uid="{109789D0-506D-47DA-A49A-7840BFAEFAB5}" name="placeOfEstablishment" dataDxfId="29"/>
+    <tableColumn id="124" xr3:uid="{DC239F99-E54E-4DB6-B9A3-5AC5D3176B08}" name="purposeCode" dataDxfId="28"/>
+    <tableColumn id="125" xr3:uid="{1DF4975D-740D-43AB-911C-FF1F4C635DB4}" name="crStatus" dataDxfId="27"/>
+    <tableColumn id="126" xr3:uid="{6FCB0C9B-A814-46F2-9D26-4887205F96B6}" name="autoBlacklisted" dataDxfId="26"/>
+    <tableColumn id="127" xr3:uid="{C974E4D7-EC11-4ED6-8BC0-355123A46A06}" name="unListValidated" dataDxfId="25"/>
+    <tableColumn id="128" xr3:uid="{3259DC83-3908-4D62-B105-69A90964B584}" name="returnedCheques2" dataDxfId="24"/>
+    <tableColumn id="129" xr3:uid="{57B5A4CC-9DF0-45B1-B159-6B17E5474F0F}" name="chequeAbuserList2" dataDxfId="23"/>
+    <tableColumn id="130" xr3:uid="{3EABEFDD-34C6-423C-AADC-C8ADBE9CF08B}" name="totCreditTurnOver" dataDxfId="22"/>
+    <tableColumn id="131" xr3:uid="{2A8125DB-0727-4E10-85B3-B61C752C2550}" name="noOfMonths" dataDxfId="21"/>
+    <tableColumn id="132" xr3:uid="{3305ACE0-5952-4227-967D-D64A9154ABB2}" name="avgCreditTurnoverPerc" dataDxfId="20"/>
+    <tableColumn id="133" xr3:uid="{F19797E2-CE51-436D-A775-E6D05BDF4B4F}" name="bankNameBusiness" dataDxfId="19"/>
+    <tableColumn id="134" xr3:uid="{F6C479B5-7401-469A-AB85-BF2888742D3E}" name="remark" dataDxfId="18"/>
+    <tableColumn id="135" xr3:uid="{EBBA0D17-56A1-44F7-9143-0DF66E09484A}" name="chasisNumber" dataDxfId="17"/>
+    <tableColumn id="136" xr3:uid="{574E9957-985F-4ED0-BB11-9D6A9905B156}" name="engineNumber" dataDxfId="16"/>
+    <tableColumn id="137" xr3:uid="{FE15058E-BC39-4958-81B8-4BA5335639B4}" name="servReqDate" dataDxfId="15"/>
+    <tableColumn id="138" xr3:uid="{78CA1DA9-FDA0-4A64-A35F-17D344404278}" name="srcOfPayment" dataDxfId="14"/>
+    <tableColumn id="139" xr3:uid="{2609A799-B1A4-4E5C-A3C3-2D2CC31698F0}" name="custFirstName" dataDxfId="13"/>
+    <tableColumn id="140" xr3:uid="{A793CC16-2518-4F0A-8F45-283202D247D9}" name="PanelWattage" dataDxfId="12"/>
+    <tableColumn id="141" xr3:uid="{BA87B0AF-AFAE-475E-8C5C-C2AB6EB19E78}" name="InverterType" dataDxfId="11"/>
+    <tableColumn id="142" xr3:uid="{D9221ECE-40E2-454D-A6AF-650371A2E5B3}" name="InverterMake" dataDxfId="10"/>
+    <tableColumn id="143" xr3:uid="{02685692-7861-4BA3-B621-FA30598A0CA1}" name="InverterSize" dataDxfId="9"/>
+    <tableColumn id="144" xr3:uid="{3F543D1A-FE59-4D7E-89AB-19E8B47F772A}" name="soleqiLtv" dataDxfId="8"/>
+    <tableColumn id="145" xr3:uid="{DB61FEFA-F07C-485E-AD74-4473D57BF43B}" name="soleqiSeriolNumber" dataDxfId="7"/>
+    <tableColumn id="146" xr3:uid="{D739C869-7247-46E6-8A6C-58B06D86CE2D}" name="nhraNumber" dataDxfId="6"/>
+    <tableColumn id="147" xr3:uid="{A3063C25-7882-42C4-87B9-39ECDEB5EC5F}" name="medeqiPowerConsumption" dataDxfId="5"/>
+    <tableColumn id="148" xr3:uid="{2D9F505B-3293-4666-8C72-B1AAFC1D3A00}" name="medeqiDimension" dataDxfId="4"/>
+    <tableColumn id="149" xr3:uid="{3B1D236F-EDD7-4ED0-A41C-B16D2049B25E}" name="medeqiWeight" dataDxfId="3"/>
+    <tableColumn id="150" xr3:uid="{D0285AC4-9FC3-493B-B779-60302F62AD94}" name="lifeInsuranceAmt_txt" dataDxfId="2"/>
+    <tableColumn id="151" xr3:uid="{32F14FDF-8D17-433D-A578-5A434E256A6F}" name="primrySourseIncome" dataDxfId="1"/>
+    <tableColumn id="152" xr3:uid="{FC7186EF-CFF5-431A-AA3E-8A3E394A8B8B}" name="accountType" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4328,11 +4361,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:FB10"/>
+  <dimension ref="A1:FC10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
+      <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -4419,850 +4452,859 @@
     <col min="147" max="149" width="16.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:158" s="3" customFormat="1" ht="58">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:159" s="2" customFormat="1" ht="58">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AK1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AL1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AN1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AO1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AP1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AQ1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AR1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AS1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AT1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AU1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AW1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AX1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AY1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AZ1" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="BA1" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="BB1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="BC1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="BD1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="BE1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="BF1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="BG1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BH1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="BI1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="BJ1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="BK1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BL1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="BM1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="BN1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BO1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="BP1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="BQ1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BR1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="BS1" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="BT1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="BU1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="BV1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="BW1" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="BX1" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="BY1" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="BZ1" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CA1" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="CB1" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="CC1" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="CD1" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="CE1" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="CF1" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="CG1" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="CH1" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="CI1" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="CJ1" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="CK1" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="CL1" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="CM1" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="CN1" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="CO1" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="CP1" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="CQ1" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="CR1" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="CS1" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="CT1" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="CU1" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="CV1" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="CW1" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="CX1" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="CY1" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="CZ1" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="DA1" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="DB1" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="DC1" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="DD1" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="DE1" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="DF1" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="DG1" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="DH1" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="DI1" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="DJ1" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="DK1" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="DL1" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="DM1" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="DN1" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="DO1" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="DP1" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="DQ1" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="DR1" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="DS1" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="DT1" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="DU1" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="DV1" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="DW1" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="DX1" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="DY1" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="DZ1" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="EA1" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="EB1" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="EC1" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="ED1" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="EE1" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="EF1" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="EG1" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="EH1" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="EI1" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="EJ1" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="EK1" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="EL1" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="EM1" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="EN1" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="EO1" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="EP1" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="N1" s="3" t="s">
+      <c r="EQ1" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="ER1" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="ES1" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="ET1" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="EU1" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="EV1" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="EW1" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="EX1" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="EY1" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="EZ1" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="FA1" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="FB1" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="FC1" s="8" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2" spans="1:159" ht="29">
+      <c r="A2" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="F2" s="4">
+        <v>1</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="H2" s="3">
+        <v>173501</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="P1" s="3" t="s">
+      <c r="M2" s="3">
+        <v>9069658</v>
+      </c>
+      <c r="N2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="O2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="P2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="R1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="Z1" s="3" t="s">
+      <c r="Q2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="AA1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC1" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="AD1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE1" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AC2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AG1" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AD2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AI1" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AJ1" s="3" t="s">
+      <c r="AL2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM2" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="AN2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AO2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AP2" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="AQ2" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AK1" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="AL1" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="AM1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="AN1" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="AO1" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="AP1" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="AQ1" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AR1" s="3" t="s">
+      <c r="AR2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AS2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AT2" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="AS1" s="3" t="s">
+      <c r="AU2" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="AT1" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="AU1" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="AV1" s="3" t="s">
+      <c r="AV2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW2" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="AW1" s="3" t="s">
+      <c r="AX2" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="AX1" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AY1" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="AZ1" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="BA1" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="BB1" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="BC1" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="BD1" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="BE1" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="BF1" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="BG1" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="BH1" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="BI1" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="BJ1" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="BK1" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="BL1" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="BM1" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="BN1" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="BO1" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="BP1" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="BQ1" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="BR1" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="BS1" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="BT1" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="BU1" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="BV1" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="BW1" s="3" t="s">
+      <c r="AY2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AZ2" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="BA2" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="BB2" s="3">
+        <v>2</v>
+      </c>
+      <c r="BC2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="BD2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="BE2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="BF2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="BG2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="BH2" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="BX1" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="BY1" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="BZ1" s="3" t="s">
+      <c r="BI2" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="BJ2" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="BK2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="BL2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="BM2" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="CA1" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="CB1" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="CC1" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="CD1" s="3" t="s">
+      <c r="BN2" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="BO2" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="BP2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="BQ2" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="BR2" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="BS2" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="BT2" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="BU2" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="BV2" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="BW2" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="BX2" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="BY2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="BZ2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="CA2" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="CE1" s="3" t="s">
+      <c r="CB2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="CC2" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="CF1" s="3" t="s">
+      <c r="CD2" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="CG1" s="3" t="s">
+      <c r="CE2" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="CF2" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="CG2" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="CH1" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="CI1" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="CJ1" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="CK1" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="CL1" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="CM1" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="CN1" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="CO1" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="CP1" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="CQ1" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="CR1" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="CS1" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="CT1" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="CU1" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="CV1" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="CW1" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="CX1" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="CY1" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="CZ1" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="DA1" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="DB1" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="DC1" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="DD1" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="DE1" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="DF1" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="DG1" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="DH1" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="DI1" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="DJ1" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="DK1" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="DL1" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="DM1" s="3" t="s">
+      <c r="CH2" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="CI2" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="CJ2" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="DN1" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="DO1" s="3" t="s">
+      <c r="CK2" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="CL2" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="CM2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="CN2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="CO2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="CP2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="CQ2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="CR2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="CS2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="CT2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="CU2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="CV2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="CW2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="CX2" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="DP1" s="3" t="s">
+      <c r="CY2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="CZ2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="DA2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="DB2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="DC2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="DD2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="DE2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="DF2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="DG2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="DH2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="DI2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="DJ2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="DK2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="DL2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="DM2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="DN2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="DO2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="DP2" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="DQ1" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="DR1" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="DS1" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="DT1" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="DU1" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="DV1" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="DW1" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="DX1" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="DY1" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="DZ1" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="EA1" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="EB1" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="EC1" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="ED1" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="EE1" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="EF1" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="EG1" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="EH1" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="EI1" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="EJ1" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="EK1" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="EL1" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="EM1" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="EN1" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="EO1" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="EP1" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="EQ1" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="ER1" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="ES1" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="ET1" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="EU1" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="EV1" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="EW1" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="EX1" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="EY1" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="EZ1" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="FA1" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="FB1" s="10" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="2" spans="1:158" ht="29">
-      <c r="A2" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="M2" s="4">
-        <v>9069658</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="R2" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="V2" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="W2" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="X2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y2" s="4"/>
-      <c r="Z2" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="AA2" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB2" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC2" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AD2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AE2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AG2" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AH2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AI2" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="AJ2" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="AK2" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="AL2" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="AM2" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="AN2" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="AO2" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="AP2" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="AQ2" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AR2" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AS2" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AT2" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="AU2" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="AV2" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="AW2" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="AX2" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="AY2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="AZ2" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="BA2" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="BB2" s="4">
-        <v>2</v>
-      </c>
-      <c r="BC2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="BD2" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="BE2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="BF2" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="BG2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="BH2" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="BI2" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="BJ2" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="BK2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="BL2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="BM2" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="BN2" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="BO2" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="BP2" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="BQ2" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="BR2" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="BS2" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="BT2" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="BU2" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="BV2" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="BW2" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="BX2" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="BY2" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="BZ2" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="CA2" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="CB2" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="CC2" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="CD2" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="CE2" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="CF2" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="CG2" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="CH2" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="CI2" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="CJ2" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="CK2" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="CL2" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="CM2" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="CN2" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="CO2" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="CP2" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="CQ2" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="CR2" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="CS2" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="CT2" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="CU2" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="CV2" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="CW2" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="CX2" s="6" t="s">
+      <c r="DQ2" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="DR2" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="CY2" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="CZ2" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="DA2" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="DB2" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="DC2" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="DD2" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="DE2" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="DF2" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="DG2" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="DH2" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="DI2" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="DJ2" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="DK2" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="DL2" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="DM2" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="DN2" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="DO2" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="DP2" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="DQ2" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="DR2" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="DS2" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="DT2" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="DU2" s="6" t="s">
+      <c r="DS2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="DT2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="DU2" s="5" t="s">
         <v>7</v>
       </c>
       <c r="DV2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="DW2" s="1"/>
-      <c r="DX2" s="6" t="s">
-        <v>167</v>
+      <c r="DX2" s="5" t="s">
+        <v>162</v>
       </c>
       <c r="DY2" s="1"/>
       <c r="DZ2" s="1"/>
@@ -5277,7 +5319,7 @@
       <c r="EI2" s="1"/>
       <c r="EJ2" s="1"/>
       <c r="EK2" s="1" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="EL2" s="1">
         <v>30502</v>
@@ -5285,7 +5327,7 @@
       <c r="EM2" s="1">
         <v>3050238</v>
       </c>
-      <c r="EN2" s="7"/>
+      <c r="EN2" s="6"/>
       <c r="EO2" s="1"/>
       <c r="EP2" s="1"/>
       <c r="EQ2" s="1"/>
@@ -5298,385 +5340,388 @@
       <c r="EX2" s="1"/>
       <c r="EY2" s="1"/>
       <c r="EZ2" s="1"/>
-      <c r="FA2" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="FB2" s="6" t="s">
+      <c r="FA2" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="FB2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="FC2" s="5" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="3" spans="1:159" ht="29">
+      <c r="A3" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="M3" s="3">
+        <v>7290898</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA3" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="1:158" ht="29">
-      <c r="A3" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="AB3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM3" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="AN3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AO3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AP3" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="AQ3" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AR3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AS3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AT3" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW3" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AX3" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AY3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AZ3" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="BA3" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="BB3" s="3">
         <v>2</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="M3" s="4">
-        <v>7290898</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="P3" s="4" t="s">
+      <c r="BC3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="BD3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="BE3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="BF3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="BG3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="BH3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="BI3" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="BJ3" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="BK3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="BL3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="BM3" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="BN3" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="BO3" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="BP3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="BQ3" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="BR3" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="BS3" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="BT3" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="BU3" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="BV3" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="BW3" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="BX3" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="BY3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BZ3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="CA3" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="CB3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="CC3" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="CD3" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="CE3" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="CF3" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="CG3" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="CH3" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="CI3" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="CJ3" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="CK3" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="CL3" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="CM3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="CN3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="CO3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="CP3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="Q3" s="4" t="s">
+      <c r="CQ3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="R3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="V3" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="W3" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="X3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y3" s="4"/>
-      <c r="Z3" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="AA3" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB3" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC3" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AD3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AE3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AG3" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AH3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AI3" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="AJ3" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="AK3" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="AL3" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="AM3" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="AN3" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="AO3" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="AP3" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="AQ3" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AR3" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AS3" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AT3" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="AU3" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="AV3" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="AW3" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="AX3" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="AY3" s="4" t="s">
+      <c r="CR3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="AZ3" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="BA3" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="BB3" s="4">
-        <v>2</v>
-      </c>
-      <c r="BC3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="BD3" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="BE3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="BF3" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="BG3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="BH3" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="BI3" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="BJ3" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="BK3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="BL3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="BM3" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="BN3" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="BO3" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="BP3" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="BQ3" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="BR3" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="BS3" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="BT3" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="BU3" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="BV3" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="BW3" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="BX3" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="BY3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="BZ3" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="CA3" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="CB3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="CC3" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="CD3" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="CE3" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="CF3" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="CG3" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="CH3" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="CI3" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="CJ3" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="CK3" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="CL3" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="CM3" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="CN3" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="CO3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="CP3" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="CQ3" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="CR3" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="CS3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="CT3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="CU3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="CV3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="CW3" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="CX3" s="6" t="s">
+      <c r="CS3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="CT3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="CU3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="CV3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="CW3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="CX3" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="CY3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="CZ3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="DA3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="DB3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="DC3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="DD3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="DE3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="DF3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="DG3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="DH3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="DI3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="DJ3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="DK3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="DL3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="DM3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="DN3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="DO3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="DP3" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="DQ3" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="DR3" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="CY3" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="CZ3" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="DA3" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="DB3" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="DC3" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="DD3" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="DE3" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="DF3" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="DG3" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="DH3" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="DI3" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="DJ3" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="DK3" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="DL3" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="DM3" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="DN3" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="DO3" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="DP3" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="DQ3" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="DR3" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="DS3" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="DT3" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="DU3" s="6" t="s">
+      <c r="DS3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="DT3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="DU3" s="5" t="s">
         <v>7</v>
       </c>
       <c r="DV3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="DW3" s="1"/>
-      <c r="DX3" s="6" t="s">
-        <v>167</v>
+      <c r="DX3" s="5" t="s">
+        <v>162</v>
       </c>
       <c r="DY3" s="1"/>
       <c r="DZ3" s="1"/>
@@ -5691,7 +5736,7 @@
       <c r="EI3" s="1"/>
       <c r="EJ3" s="1"/>
       <c r="EK3" s="1" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="EL3" s="1">
         <v>30502</v>
@@ -5699,10 +5744,10 @@
       <c r="EM3" s="1">
         <v>3050238</v>
       </c>
-      <c r="EN3" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="EO3" s="6" t="s">
+      <c r="EN3" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="EO3" s="5" t="s">
         <v>7</v>
       </c>
       <c r="EP3" s="1"/>
@@ -5716,430 +5761,433 @@
       <c r="EX3" s="1"/>
       <c r="EY3" s="1"/>
       <c r="EZ3" s="1"/>
-      <c r="FA3" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="FB3" s="6" t="s">
+      <c r="FA3" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="FB3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="FC3" s="5" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="4" spans="1:159" ht="29">
+      <c r="A4" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="M4" s="3">
+        <v>9879657</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="X4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z4" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA4" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="4" spans="1:158" ht="29">
-      <c r="A4" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B4" s="4" t="s">
+      <c r="AB4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM4" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="AN4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AO4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AP4" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="AQ4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AR4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AS4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AT4" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU4" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV4" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW4" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AX4" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AY4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AZ4" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="BA4" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="BB4" s="3">
         <v>2</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="M4" s="4">
-        <v>9879657</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="O4" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="P4" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q4" s="4" t="s">
+      <c r="BC4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="BD4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="BE4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="BF4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="BG4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="BH4" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="BI4" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="BJ4" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="BK4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="BL4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="BM4" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="BN4" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="BO4" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="BP4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="BQ4" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="BR4" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="BS4" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="BT4" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="BU4" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="BV4" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="BW4" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="BX4" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="BY4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="BZ4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="CA4" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="CB4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="CC4" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="CD4" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="CE4" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="CF4" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="CG4" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="CH4" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="CI4" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="CJ4" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="CK4" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="CL4" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="CM4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="CN4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="CO4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="CP4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="R4" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="V4" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="W4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="X4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z4" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="AA4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB4" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC4" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AD4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AE4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AG4" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AH4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AI4" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="AJ4" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="AK4" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="AL4" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="AM4" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="AN4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="AO4" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="AP4" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="AQ4" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AR4" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AS4" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AT4" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="AU4" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="AV4" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="AW4" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="AX4" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="AY4" s="4" t="s">
+      <c r="CQ4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="AZ4" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="BA4" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="BB4" s="4">
-        <v>2</v>
-      </c>
-      <c r="BC4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="BD4" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="BE4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="BF4" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="BG4" s="4" t="s">
+      <c r="CR4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="BH4" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="BI4" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="BJ4" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="BK4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="BL4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="BM4" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="BN4" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="BO4" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="BP4" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="BQ4" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="BR4" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="BS4" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="BT4" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="BU4" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="BV4" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="BW4" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="BX4" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="BY4" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="BZ4" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="CA4" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="CB4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="CC4" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="CD4" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="CE4" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="CF4" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="CG4" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="CH4" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="CI4" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="CJ4" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="CK4" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="CL4" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="CM4" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="CN4" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="CO4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="CP4" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="CQ4" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="CR4" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="CS4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="CT4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="CU4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="CV4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="CW4" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="CX4" s="6" t="s">
+      <c r="CS4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="CT4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="CU4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="CV4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="CW4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="CX4" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="CY4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="CZ4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="DA4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="DB4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="DC4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="DD4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="DE4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="DF4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="DG4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="DH4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="DI4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="DJ4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="DK4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="DL4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="DM4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="DN4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="DO4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="DP4" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="DQ4" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="DR4" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="CY4" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="CZ4" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="DA4" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="DB4" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="DC4" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="DD4" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="DE4" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="DF4" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="DG4" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="DH4" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="DI4" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="DJ4" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="DK4" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="DL4" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="DM4" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="DN4" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="DO4" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="DP4" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="DQ4" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="DR4" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="DS4" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="DT4" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="DU4" s="6" t="s">
+      <c r="DS4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="DT4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="DU4" s="5" t="s">
         <v>7</v>
       </c>
       <c r="DV4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="DW4" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="DX4" s="6" t="s">
+      <c r="DW4" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="DX4" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="DY4" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="DY4" s="6" t="s">
-        <v>172</v>
-      </c>
       <c r="DZ4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="EA4" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="EB4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="EC4" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="ED4" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="EE4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="EF4" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="EG4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="EA4" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="EB4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="EC4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="ED4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="EE4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="EF4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="EG4" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="EH4" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="EI4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="EJ4" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="EK4" s="1" t="s">
         <v>191</v>
-      </c>
-      <c r="EH4" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="EI4" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="EJ4" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="EK4" s="1" t="s">
-        <v>197</v>
       </c>
       <c r="EL4" s="1">
         <v>30502</v>
@@ -6160,428 +6208,431 @@
       <c r="EX4" s="1"/>
       <c r="EY4" s="1"/>
       <c r="EZ4" s="1"/>
-      <c r="FA4" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="FB4" s="6" t="s">
+      <c r="FA4" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="FB4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="FC4" s="5" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="5" spans="1:159" ht="29" hidden="1">
+      <c r="A5" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="M5" s="3">
+        <v>9879657</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="V5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="W5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="X5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z5" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA5" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="5" spans="1:158" ht="29" hidden="1">
-      <c r="A5" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="B5" s="4" t="s">
+      <c r="AB5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM5" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="AN5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AO5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AP5" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="AQ5" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AR5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AS5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AT5" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU5" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV5" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW5" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AX5" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AY5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AZ5" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="BA5" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="BB5" s="3">
         <v>2</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="M5" s="4">
-        <v>9879657</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="O5" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="P5" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q5" s="4" t="s">
+      <c r="BC5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="BD5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="BE5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="BF5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="BG5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="BH5" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="BI5" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="BJ5" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="BK5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="BL5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="BM5" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="BN5" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="BO5" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="BP5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="BQ5" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="BR5" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="BS5" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="BT5" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="BU5" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="BV5" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="BW5" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="BX5" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="BY5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="BZ5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="CA5" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="CB5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="CC5" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="CD5" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="CE5" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="CF5" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="CG5" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="CH5" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="CI5" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="CJ5" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="CK5" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="CL5" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="CM5" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="CN5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="CO5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="CP5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="R5" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="V5" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="W5" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="X5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z5" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="AA5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB5" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC5" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AD5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AE5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AG5" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AH5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AI5" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="AJ5" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="AK5" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="AL5" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="AM5" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="AN5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="AO5" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="AP5" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="AQ5" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AR5" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AS5" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AT5" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="AU5" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="AV5" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="AW5" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="AX5" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="AY5" s="4" t="s">
+      <c r="CQ5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="AZ5" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="BA5" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="BB5" s="4">
-        <v>2</v>
-      </c>
-      <c r="BC5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="BD5" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="BE5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="BF5" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="BG5" s="4" t="s">
+      <c r="CR5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="BH5" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="BI5" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="BJ5" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="BK5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="BL5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="BM5" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="BN5" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="BO5" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="BP5" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="BQ5" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="BR5" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="BS5" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="BT5" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="BU5" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="BV5" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="BW5" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="BX5" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="BY5" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="BZ5" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="CA5" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="CB5" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="CC5" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="CD5" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="CE5" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="CF5" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="CG5" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="CH5" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="CI5" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="CJ5" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="CK5" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="CL5" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="CM5" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="CN5" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="CO5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="CP5" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="CQ5" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="CR5" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="CS5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="CT5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="CU5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="CV5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="CW5" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="CX5" s="6" t="s">
+      <c r="CS5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="CT5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="CU5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="CV5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="CW5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="CX5" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="CY5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="CZ5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="DA5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="DB5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="DC5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="DD5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="DE5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="DF5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="DG5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="DH5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="DI5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="DJ5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="DK5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="DL5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="DM5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="DN5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="DO5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="DP5" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="DQ5" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="DR5" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="CY5" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="CZ5" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="DA5" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="DB5" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="DC5" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="DD5" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="DE5" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="DF5" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="DG5" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="DH5" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="DI5" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="DJ5" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="DK5" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="DL5" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="DM5" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="DN5" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="DO5" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="DP5" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="DQ5" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="DR5" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="DS5" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="DT5" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="DU5" s="6" t="s">
+      <c r="DS5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="DT5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="DU5" s="5" t="s">
         <v>7</v>
       </c>
       <c r="DV5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="DW5" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="DX5" s="6" t="s">
+      <c r="DW5" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="DX5" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="DY5" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="DY5" s="6" t="s">
-        <v>172</v>
-      </c>
       <c r="DZ5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="EA5" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="EB5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="EC5" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="ED5" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="EE5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="EF5" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="EG5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="EA5" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="EB5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="EC5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="ED5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="EE5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="EF5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="EG5" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="EH5" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="EI5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="EJ5" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="EK5" s="1" t="s">
         <v>191</v>
-      </c>
-      <c r="EH5" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="EI5" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="EJ5" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="EK5" s="1" t="s">
-        <v>197</v>
       </c>
       <c r="EL5" s="1">
         <v>30502</v>
@@ -6591,8 +6642,8 @@
       </c>
       <c r="EN5" s="1"/>
       <c r="EO5" s="1"/>
-      <c r="EP5" s="6" t="s">
-        <v>69</v>
+      <c r="EP5" s="5" t="s">
+        <v>65</v>
       </c>
       <c r="EQ5" s="1"/>
       <c r="ER5" s="1"/>
@@ -6604,381 +6655,384 @@
       <c r="EX5" s="1"/>
       <c r="EY5" s="1"/>
       <c r="EZ5" s="1"/>
-      <c r="FA5" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="FB5" s="6" t="s">
-        <v>61</v>
+      <c r="FA5" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="FB5" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="FC5" s="5" t="s">
+        <v>258</v>
       </c>
     </row>
-    <row r="6" spans="1:158" ht="29">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:159" ht="29">
+      <c r="A6" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="M6" s="3">
+        <v>9069659</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="V6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="W6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="X6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM6" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="AN6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AO6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AP6" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="AQ6" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AR6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AS6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AT6" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU6" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV6" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW6" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AX6" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AY6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AZ6" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="BA6" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="BB6" s="3">
+        <v>2</v>
+      </c>
+      <c r="BC6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="BD6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="BE6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="BF6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="BG6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="BH6" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="BI6" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="BJ6" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="BK6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="BL6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="BM6" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="BN6" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="BO6" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="BP6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="BQ6" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="BR6" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="BS6" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="BT6" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="BU6" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="BV6" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="BW6" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="BX6" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="BY6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="BZ6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="CA6" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="CB6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="CC6" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="CD6" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="CE6" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="CF6" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="CG6" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="CH6" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="CI6" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="CJ6" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="CK6" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="CL6" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="CM6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="CN6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="CO6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="CP6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="CQ6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="CR6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="CS6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="CT6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="CU6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="CV6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="CW6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="CX6" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="CY6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="CZ6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="DA6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="DB6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="DC6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="DD6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="DE6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="DF6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="DG6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="DH6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="DI6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="DJ6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="DK6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="DL6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="DM6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="DN6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="DO6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="DP6" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="DQ6" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="M6" s="4">
-        <v>9069658</v>
-      </c>
-      <c r="N6" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="O6" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="P6" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="R6" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="V6" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="W6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="X6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y6" s="4"/>
-      <c r="Z6" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="AA6" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB6" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC6" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AD6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AE6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AG6" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AH6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AI6" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="AJ6" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="AK6" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="AL6" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="AM6" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="AN6" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="AO6" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="AP6" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="AQ6" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AR6" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AS6" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AT6" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="AU6" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="AV6" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="AW6" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="AX6" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="AY6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="AZ6" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="BA6" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="BB6" s="4">
-        <v>2</v>
-      </c>
-      <c r="BC6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="BD6" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="BE6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="BF6" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="BG6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="BH6" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="BI6" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="BJ6" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="BK6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="BL6" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="BM6" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="BN6" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="BO6" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="BP6" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="BQ6" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="BR6" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="BS6" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="BT6" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="BU6" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="BV6" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="BW6" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="BX6" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="BY6" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="BZ6" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="CA6" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="CB6" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="CC6" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="CD6" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="CE6" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="CF6" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="CG6" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="CH6" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="CI6" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="CJ6" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="CK6" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="CL6" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="CM6" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="CN6" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="CO6" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="CP6" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="CQ6" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="CR6" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="CS6" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="CT6" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="CU6" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="CV6" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="CW6" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="CX6" s="6" t="s">
+      <c r="DR6" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="CY6" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="CZ6" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="DA6" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="DB6" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="DC6" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="DD6" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="DE6" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="DF6" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="DG6" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="DH6" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="DI6" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="DJ6" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="DK6" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="DL6" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="DM6" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="DN6" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="DO6" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="DP6" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="DQ6" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="DR6" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="DS6" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="DT6" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="DU6" s="6" t="s">
+      <c r="DS6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="DT6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="DU6" s="5" t="s">
         <v>7</v>
       </c>
       <c r="DV6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="DW6" s="1"/>
-      <c r="DX6" s="6" t="s">
-        <v>167</v>
+      <c r="DX6" s="5" t="s">
+        <v>162</v>
       </c>
       <c r="DY6" s="1"/>
       <c r="DZ6" s="1"/>
@@ -6993,7 +7047,7 @@
       <c r="EI6" s="1"/>
       <c r="EJ6" s="1"/>
       <c r="EK6" s="1" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="EL6" s="1">
         <v>30502</v>
@@ -7001,17 +7055,17 @@
       <c r="EM6" s="1">
         <v>3050238</v>
       </c>
-      <c r="EN6" s="7"/>
+      <c r="EN6" s="6"/>
       <c r="EO6" s="1"/>
       <c r="EP6" s="1"/>
-      <c r="EQ6" s="6" t="s">
-        <v>228</v>
+      <c r="EQ6" s="5" t="s">
+        <v>220</v>
       </c>
       <c r="ER6" s="1" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="ES6" s="1" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="ET6" s="1">
         <v>30</v>
@@ -7019,437 +7073,440 @@
       <c r="EU6" s="1">
         <v>7</v>
       </c>
-      <c r="EV6" s="6" t="s">
-        <v>232</v>
+      <c r="EV6" s="5" t="s">
+        <v>224</v>
       </c>
       <c r="EW6" s="1"/>
       <c r="EX6" s="1"/>
       <c r="EY6" s="1"/>
       <c r="EZ6" s="1"/>
-      <c r="FA6" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="FB6" s="6" t="s">
+      <c r="FA6" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="FB6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="FC6" s="5" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="7" spans="1:159" ht="29">
+      <c r="A7" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="M7" s="3">
+        <v>9879657</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="V7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="W7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="X7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z7" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA7" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="7" spans="1:158" ht="29">
-      <c r="A7" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="B7" s="4" t="s">
+      <c r="AB7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM7" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="AN7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AO7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AP7" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="AQ7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AR7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AS7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AT7" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU7" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV7" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW7" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AX7" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AY7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AZ7" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="BA7" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="BB7" s="3">
         <v>2</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="M7" s="4">
-        <v>9879657</v>
-      </c>
-      <c r="N7" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="O7" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="P7" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q7" s="4" t="s">
+      <c r="BC7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="BD7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="BE7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="BF7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="BG7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="BH7" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="BI7" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="BJ7" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="BK7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="BL7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="BM7" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="BN7" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="BO7" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="BP7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="BQ7" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="BR7" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="BS7" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="BT7" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="BU7" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="BV7" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="BW7" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="BX7" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="BY7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="BZ7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="CA7" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="CB7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="CC7" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="CD7" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="CE7" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="CF7" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="CG7" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="CH7" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="CI7" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="CJ7" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="CK7" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="CL7" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="CM7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="CN7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="CO7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="CP7" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="R7" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
-      <c r="U7" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="V7" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="W7" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="X7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z7" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="AA7" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB7" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC7" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AD7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AE7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AG7" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AH7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AI7" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="AJ7" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="AK7" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="AL7" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="AM7" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="AN7" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="AO7" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="AP7" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="AQ7" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AR7" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AS7" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AT7" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="AU7" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="AV7" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="AW7" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="AX7" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="AY7" s="4" t="s">
+      <c r="CQ7" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="AZ7" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="BA7" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="BB7" s="4">
-        <v>2</v>
-      </c>
-      <c r="BC7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="BD7" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="BE7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="BF7" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="BG7" s="4" t="s">
+      <c r="CR7" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="BH7" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="BI7" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="BJ7" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="BK7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="BL7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="BM7" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="BN7" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="BO7" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="BP7" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="BQ7" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="BR7" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="BS7" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="BT7" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="BU7" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="BV7" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="BW7" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="BX7" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="BY7" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="BZ7" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="CA7" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="CB7" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="CC7" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="CD7" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="CE7" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="CF7" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="CG7" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="CH7" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="CI7" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="CJ7" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="CK7" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="CL7" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="CM7" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="CN7" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="CO7" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="CP7" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="CQ7" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="CR7" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="CS7" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="CT7" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="CU7" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="CV7" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="CW7" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="CX7" s="6" t="s">
+      <c r="CS7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="CT7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="CU7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="CV7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="CW7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="CX7" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="CY7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="CZ7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="DA7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="DB7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="DC7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="DD7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="DE7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="DF7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="DG7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="DH7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="DI7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="DJ7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="DK7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="DL7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="DM7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="DN7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="DO7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="DP7" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="DQ7" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="DR7" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="CY7" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="CZ7" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="DA7" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="DB7" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="DC7" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="DD7" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="DE7" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="DF7" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="DG7" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="DH7" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="DI7" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="DJ7" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="DK7" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="DL7" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="DM7" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="DN7" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="DO7" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="DP7" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="DQ7" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="DR7" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="DS7" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="DT7" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="DU7" s="6" t="s">
+      <c r="DS7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="DT7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="DU7" s="5" t="s">
         <v>7</v>
       </c>
       <c r="DV7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="DW7" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="DX7" s="6" t="s">
+      <c r="DW7" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="DX7" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="DY7" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="DY7" s="6" t="s">
-        <v>172</v>
-      </c>
       <c r="DZ7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="EA7" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="EB7" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="EC7" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="ED7" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="EE7" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="EF7" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="EG7" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="EA7" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="EB7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="EC7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="ED7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="EE7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="EF7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="EG7" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="EH7" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="EI7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="EJ7" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="EK7" s="1" t="s">
         <v>191</v>
-      </c>
-      <c r="EH7" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="EI7" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="EJ7" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="EK7" s="1" t="s">
-        <v>197</v>
       </c>
       <c r="EL7" s="1">
         <v>30502</v>
@@ -7460,14 +7517,14 @@
       <c r="EN7" s="1"/>
       <c r="EO7" s="1"/>
       <c r="EP7" s="1"/>
-      <c r="EQ7" s="6" t="s">
-        <v>228</v>
+      <c r="EQ7" s="5" t="s">
+        <v>220</v>
       </c>
       <c r="ER7" s="1" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="ES7" s="1" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="ET7" s="1">
         <v>30</v>
@@ -7475,437 +7532,440 @@
       <c r="EU7" s="1">
         <v>7</v>
       </c>
-      <c r="EV7" s="6" t="s">
-        <v>232</v>
+      <c r="EV7" s="5" t="s">
+        <v>224</v>
       </c>
       <c r="EW7" s="1"/>
       <c r="EX7" s="1"/>
       <c r="EY7" s="1"/>
       <c r="EZ7" s="1"/>
-      <c r="FA7" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="FB7" s="6" t="s">
+      <c r="FA7" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="FB7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="FC7" s="5" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="8" spans="1:159" ht="29">
+      <c r="A8" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="M8" s="3">
+        <v>9879657</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="V8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="W8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="X8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z8" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA8" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="8" spans="1:158" ht="29">
-      <c r="A8" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="B8" s="4" t="s">
+      <c r="AB8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ8" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM8" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="AN8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AO8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AP8" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="AQ8" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AR8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AS8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AT8" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU8" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV8" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW8" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AX8" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AY8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AZ8" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="BA8" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="BB8" s="3">
         <v>2</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="M8" s="4">
-        <v>9879657</v>
-      </c>
-      <c r="N8" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="O8" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="P8" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q8" s="4" t="s">
+      <c r="BC8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="BD8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="BE8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="BF8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="BG8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="BH8" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="BI8" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="BJ8" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="BK8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="BL8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="BM8" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="BN8" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="BO8" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="BP8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="BQ8" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="BR8" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="BS8" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="BT8" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="BU8" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="BV8" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="BW8" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="BX8" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="BY8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="BZ8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="CA8" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="CB8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="CC8" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="CD8" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="CE8" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="CF8" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="CG8" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="CH8" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="CI8" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="CJ8" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="CK8" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="CL8" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="CM8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="CN8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="CO8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="CP8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="R8" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="V8" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="W8" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="X8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z8" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="AA8" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB8" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC8" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AD8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AE8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AG8" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AH8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AI8" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="AJ8" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="AK8" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="AL8" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="AM8" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="AN8" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="AO8" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="AP8" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="AQ8" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AR8" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AS8" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AT8" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="AU8" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="AV8" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="AW8" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="AX8" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="AY8" s="4" t="s">
+      <c r="CQ8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="AZ8" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="BA8" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="BB8" s="4">
-        <v>2</v>
-      </c>
-      <c r="BC8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="BD8" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="BE8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="BF8" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="BG8" s="4" t="s">
+      <c r="CR8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="BH8" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="BI8" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="BJ8" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="BK8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="BL8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="BM8" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="BN8" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="BO8" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="BP8" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="BQ8" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="BR8" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="BS8" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="BT8" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="BU8" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="BV8" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="BW8" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="BX8" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="BY8" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="BZ8" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="CA8" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="CB8" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="CC8" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="CD8" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="CE8" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="CF8" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="CG8" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="CH8" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="CI8" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="CJ8" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="CK8" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="CL8" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="CM8" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="CN8" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="CO8" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="CP8" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="CQ8" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="CR8" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="CS8" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="CT8" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="CU8" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="CV8" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="CW8" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="CX8" s="6" t="s">
+      <c r="CS8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="CT8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="CU8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="CV8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="CW8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="CX8" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="CY8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="CZ8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="DA8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="DB8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="DC8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="DD8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="DE8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="DF8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="DG8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="DH8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="DI8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="DJ8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="DK8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="DL8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="DM8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="DN8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="DO8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="DP8" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="DQ8" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="DR8" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="CY8" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="CZ8" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="DA8" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="DB8" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="DC8" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="DD8" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="DE8" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="DF8" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="DG8" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="DH8" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="DI8" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="DJ8" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="DK8" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="DL8" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="DM8" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="DN8" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="DO8" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="DP8" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="DQ8" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="DR8" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="DS8" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="DT8" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="DU8" s="6" t="s">
+      <c r="DS8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="DT8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="DU8" s="5" t="s">
         <v>7</v>
       </c>
       <c r="DV8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="DW8" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="DX8" s="6" t="s">
+      <c r="DW8" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="DX8" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="DY8" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="DY8" s="6" t="s">
-        <v>172</v>
-      </c>
       <c r="DZ8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="EA8" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="EB8" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="EC8" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="ED8" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="EE8" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="EF8" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="EG8" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="EA8" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="EB8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="EC8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="ED8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="EE8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="EF8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="EG8" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="EH8" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="EI8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="EJ8" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="EK8" s="1" t="s">
         <v>191</v>
-      </c>
-      <c r="EH8" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="EI8" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="EJ8" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="EK8" s="1" t="s">
-        <v>197</v>
       </c>
       <c r="EL8" s="1">
         <v>30502</v>
@@ -7916,14 +7976,14 @@
       <c r="EN8" s="1"/>
       <c r="EO8" s="1"/>
       <c r="EP8" s="1"/>
-      <c r="EQ8" s="6" t="s">
-        <v>228</v>
+      <c r="EQ8" s="5" t="s">
+        <v>220</v>
       </c>
       <c r="ER8" s="1" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="ES8" s="1" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="ET8" s="1">
         <v>30</v>
@@ -7931,445 +7991,448 @@
       <c r="EU8" s="1">
         <v>7</v>
       </c>
-      <c r="EV8" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="EW8" s="6" t="s">
-        <v>242</v>
+      <c r="EV8" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="EW8" s="5" t="s">
+        <v>234</v>
       </c>
       <c r="EX8" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="EY8" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="EZ8" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="FA8" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="FB8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="FC8" s="5" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="9" spans="1:159" ht="29">
+      <c r="A9" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="EY8" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="EZ8" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="FA8" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="FB8" s="6" t="s">
+      <c r="B9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="M9" s="3">
+        <v>9879657</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="W9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="X9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z9" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA9" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="9" spans="1:158" ht="29">
-      <c r="A9" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="B9" s="4" t="s">
+      <c r="AB9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM9" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="AN9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AO9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AP9" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="AQ9" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AR9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AS9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AT9" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU9" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV9" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW9" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AX9" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AY9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AZ9" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="BA9" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="BB9" s="3">
         <v>2</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="M9" s="4">
-        <v>9879657</v>
-      </c>
-      <c r="N9" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="O9" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="P9" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q9" s="4" t="s">
+      <c r="BC9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="BD9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="BE9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="BF9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="BG9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="BH9" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="BI9" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="BJ9" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="BK9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="BL9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="BM9" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="BN9" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="BO9" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="BP9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="BQ9" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="BR9" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="BS9" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="BT9" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="BU9" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="BV9" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="BW9" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="BX9" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="BY9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BZ9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="CA9" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="CB9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="CC9" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="CD9" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="CE9" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="CF9" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="CG9" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="CH9" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="CI9" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="CJ9" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="CK9" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="CL9" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="CM9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="CN9" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="CO9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="CP9" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="R9" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="S9" s="4"/>
-      <c r="T9" s="4"/>
-      <c r="U9" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="V9" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="W9" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="X9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z9" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="AA9" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB9" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC9" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AD9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AE9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AG9" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AH9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AI9" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="AJ9" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="AK9" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="AL9" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="AM9" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="AN9" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="AO9" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="AP9" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="AQ9" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AR9" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AS9" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AT9" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="AU9" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="AV9" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="AW9" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="AX9" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="AY9" s="4" t="s">
+      <c r="CQ9" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="AZ9" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="BA9" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="BB9" s="4">
-        <v>2</v>
-      </c>
-      <c r="BC9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="BD9" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="BE9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="BF9" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="BG9" s="4" t="s">
+      <c r="CR9" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="BH9" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="BI9" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="BJ9" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="BK9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="BL9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="BM9" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="BN9" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="BO9" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="BP9" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="BQ9" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="BR9" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="BS9" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="BT9" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="BU9" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="BV9" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="BW9" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="BX9" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="BY9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="BZ9" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="CA9" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="CB9" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="CC9" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="CD9" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="CE9" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="CF9" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="CG9" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="CH9" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="CI9" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="CJ9" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="CK9" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="CL9" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="CM9" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="CN9" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="CO9" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="CP9" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="CQ9" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="CR9" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="CS9" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="CT9" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="CU9" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="CV9" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="CW9" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="CX9" s="6" t="s">
+      <c r="CS9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="CT9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="CU9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="CV9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="CW9" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="CX9" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="CY9" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="CZ9" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="DA9" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="DB9" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="DC9" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="DD9" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="DE9" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="DF9" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="DG9" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="DH9" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="DI9" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="DJ9" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="DK9" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="DL9" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="DM9" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="DN9" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="DO9" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="DP9" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="DQ9" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="DR9" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="CY9" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="CZ9" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="DA9" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="DB9" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="DC9" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="DD9" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="DE9" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="DF9" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="DG9" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="DH9" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="DI9" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="DJ9" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="DK9" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="DL9" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="DM9" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="DN9" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="DO9" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="DP9" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="DQ9" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="DR9" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="DS9" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="DT9" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="DU9" s="6" t="s">
+      <c r="DS9" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="DT9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="DU9" s="5" t="s">
         <v>7</v>
       </c>
       <c r="DV9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="DW9" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="DX9" s="6" t="s">
+      <c r="DW9" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="DX9" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="DY9" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="DY9" s="6" t="s">
-        <v>172</v>
-      </c>
       <c r="DZ9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="EA9" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="EB9" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="EC9" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="ED9" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="EE9" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="EF9" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="EG9" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="EA9" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="EB9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="EC9" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="ED9" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="EE9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="EF9" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="EG9" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="EH9" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="EI9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="EJ9" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="EK9" s="1" t="s">
         <v>191</v>
-      </c>
-      <c r="EH9" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="EI9" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="EJ9" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="EK9" s="1" t="s">
-        <v>197</v>
       </c>
       <c r="EL9" s="1">
         <v>30502</v>
@@ -8377,10 +8440,10 @@
       <c r="EM9" s="1">
         <v>3050238</v>
       </c>
-      <c r="EN9" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="EO9" s="6" t="s">
+      <c r="EN9" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="EO9" s="5" t="s">
         <v>7</v>
       </c>
       <c r="EP9" s="1"/>
@@ -8394,21 +8457,28 @@
       <c r="EX9" s="1"/>
       <c r="EY9" s="1"/>
       <c r="EZ9" s="1"/>
-      <c r="FA9" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="FB9" s="6" t="s">
-        <v>26</v>
+      <c r="FA9" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="FB9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="FC9" s="5" t="s">
+        <v>258</v>
       </c>
     </row>
-    <row r="10" spans="1:158">
-      <c r="K10" s="2"/>
+    <row r="10" spans="1:159">
       <c r="BY10">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2" xr:uid="{4D03EE61-1E8F-44DA-A66A-C87C0BFCC798}">
+      <formula1>"1,2,3"</formula1>
+    </dataValidation>
+  </dataValidations>
   <hyperlinks>
     <hyperlink ref="V2" r:id="rId1" xr:uid="{C16C2D57-6589-452C-AB89-231F93117CCA}"/>
     <hyperlink ref="V3" r:id="rId2" xr:uid="{13E9CD5E-C1A6-4ACF-9ABD-7F5CCE9B1B09}"/>
